--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64070C60-33CE-4E7A-80A2-EF7F8F2CC5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6F7B72-BD3E-4652-8E6E-4FBED81B22CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="2505" windowWidth="28800" windowHeight="11295" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>nip</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>privilegeId</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -425,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77724DBA-D9F4-4499-BB30-6AF54F8B6CEC}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,9 +466,13 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D2BA20-0C64-4200-A1FA-934A6DB59F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C061DCCD-C493-4978-A14A-286D508539A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
+    <workbookView xWindow="-105" yWindow="2250" windowWidth="13710" windowHeight="11295" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="100">
   <si>
     <t>nip</t>
   </si>
@@ -311,6 +311,30 @@
   </si>
   <si>
     <t>085814706801</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>rankId</t>
+  </si>
+  <si>
+    <t>rankTmt</t>
+  </si>
+  <si>
+    <t>educationLevelId </t>
+  </si>
+  <si>
+    <t>majorId</t>
+  </si>
+  <si>
+    <t>finishEducationLevel</t>
+  </si>
+  <si>
+    <t>mutation</t>
+  </si>
+  <si>
+    <t>schoolId</t>
   </si>
 </sst>
 </file>
@@ -320,7 +344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +401,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calisto MT"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -465,6 +508,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -784,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFB0B7-5F4A-46CA-9F3B-E68BA45E5504}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,12 +869,20 @@
     <col min="10" max="10" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="16"/>
-    <col min="17" max="17" width="20.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="16"/>
+    <col min="13" max="13" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="9.140625" style="16"/>
+    <col min="30" max="30" width="20.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -846,15 +919,34 @@
       <c r="L1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
-        <f>SUBSTITUTE(Q2," ","")</f>
+        <f>SUBSTITUTE(AD2," ","")</f>
         <v>196801221999051001</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -891,17 +983,37 @@
       <c r="L2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="23" t="s">
+      <c r="M2" s="20">
+        <v>4</v>
+      </c>
+      <c r="N2" s="8">
+        <v>38961</v>
+      </c>
+      <c r="O2" s="15">
+        <v>1</v>
+      </c>
+      <c r="P2" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>1</v>
+      </c>
+      <c r="R2" s="15">
+        <v>7</v>
+      </c>
+      <c r="S2" s="29">
+        <v>1993</v>
+      </c>
+      <c r="T2" s="30">
+        <v>41365</v>
+      </c>
+      <c r="AD2" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
-        <f>SUBSTITUTE(Q3," ","")</f>
+        <f>SUBSTITUTE(AD3," ","")</f>
         <v>196908161995032002</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -938,17 +1050,37 @@
       <c r="L3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="1" t="s">
+      <c r="M3" s="20">
+        <v>4</v>
+      </c>
+      <c r="N3" s="8">
+        <v>36192</v>
+      </c>
+      <c r="O3" s="15">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="31">
+        <v>1</v>
+      </c>
+      <c r="S3" s="31">
+        <v>2013</v>
+      </c>
+      <c r="T3" s="8">
+        <v>43374</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
-        <f t="shared" ref="A4:A38" si="0">SUBSTITUTE(Q4," ","")</f>
+        <f>SUBSTITUTE(AD4," ","")</f>
         <v>197008021997032002</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -961,7 +1093,7 @@
         <v>25782</v>
       </c>
       <c r="E4" s="18" t="str">
-        <f t="shared" ref="E4:E38" si="1">SUBSTITUTE(SUBSTITUTE(LOWER(B4&amp;C4)," ","")&amp;K4&amp;"@man.com",",",".")</f>
+        <f t="shared" ref="E4:E38" si="0">SUBSTITUTE(SUBSTITUTE(LOWER(B4&amp;C4)," ","")&amp;K4&amp;"@man.com",",",".")</f>
         <v>dra.salwahusna.m.humpaddress@man.com</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -985,17 +1117,37 @@
       <c r="L4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="1" t="s">
+      <c r="M4" s="20">
+        <v>4</v>
+      </c>
+      <c r="N4" s="8">
+        <v>35490</v>
+      </c>
+      <c r="O4" s="15">
+        <v>2</v>
+      </c>
+      <c r="P4" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>2</v>
+      </c>
+      <c r="R4" s="31">
+        <v>10</v>
+      </c>
+      <c r="S4" s="31">
+        <v>2003</v>
+      </c>
+      <c r="T4" s="8">
+        <v>43556</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD5," ","")</f>
         <v>197405271999052001</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1008,7 +1160,7 @@
         <v>27176</v>
       </c>
       <c r="E5" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>radhapuspita.s.pd.paddress@man.com</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -1032,17 +1184,37 @@
       <c r="L5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="1" t="s">
+      <c r="M5" s="20">
+        <v>4</v>
+      </c>
+      <c r="N5" s="8">
+        <v>36800</v>
+      </c>
+      <c r="O5" s="15">
+        <v>2</v>
+      </c>
+      <c r="P5" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>3</v>
+      </c>
+      <c r="R5" s="31">
+        <v>1</v>
+      </c>
+      <c r="S5" s="31">
+        <v>1998</v>
+      </c>
+      <c r="T5" s="8">
+        <v>44105</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD6," ","")</f>
         <v>196904121995031001</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1055,7 +1227,7 @@
         <v>25305</v>
       </c>
       <c r="E6" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>drs.mukhlisusmanladdress@man.com</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -1079,17 +1251,37 @@
       <c r="L6" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="2" t="s">
+      <c r="M6" s="20">
+        <v>4</v>
+      </c>
+      <c r="N6" s="8">
+        <v>42186</v>
+      </c>
+      <c r="O6" s="15">
+        <v>2</v>
+      </c>
+      <c r="P6" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
+      <c r="R6" s="31">
+        <v>16</v>
+      </c>
+      <c r="S6" s="31">
+        <v>1994</v>
+      </c>
+      <c r="T6" s="8">
+        <v>44287</v>
+      </c>
+      <c r="AD6" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD7," ","")</f>
         <v>196708111993032004</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1102,7 +1294,7 @@
         <v>24695</v>
       </c>
       <c r="E7" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>nirwani.s.pd.paddress@man.com</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -1126,17 +1318,37 @@
       <c r="L7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="1" t="s">
+      <c r="M7" s="20">
+        <v>4</v>
+      </c>
+      <c r="N7" s="8">
+        <v>36831</v>
+      </c>
+      <c r="O7" s="15">
+        <v>2</v>
+      </c>
+      <c r="P7" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>3</v>
+      </c>
+      <c r="R7" s="31">
+        <v>1</v>
+      </c>
+      <c r="S7" s="31">
+        <v>2001</v>
+      </c>
+      <c r="T7" s="8">
+        <v>44652</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD8," ","")</f>
         <v>196906081996032002</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1149,7 +1361,7 @@
         <v>25362</v>
       </c>
       <c r="E8" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>dra.dewisartikapaddress@man.com</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -1173,17 +1385,37 @@
       <c r="L8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="1" t="s">
+      <c r="M8" s="20">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>36892</v>
+      </c>
+      <c r="O8" s="15">
+        <v>2</v>
+      </c>
+      <c r="P8" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>3</v>
+      </c>
+      <c r="R8" s="31">
+        <v>16</v>
+      </c>
+      <c r="S8" s="31">
+        <v>1993</v>
+      </c>
+      <c r="T8" s="8">
+        <v>44835</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD9," ","")</f>
         <v>196508131992022001</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1196,7 +1428,7 @@
         <v>23967</v>
       </c>
       <c r="E9" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>dra.mahyanapaddress@man.com</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1220,17 +1452,37 @@
       <c r="L9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="1" t="s">
+      <c r="M9" s="20">
+        <v>4</v>
+      </c>
+      <c r="N9" s="8">
+        <v>41730</v>
+      </c>
+      <c r="O9" s="15">
+        <v>2</v>
+      </c>
+      <c r="P9" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>3</v>
+      </c>
+      <c r="R9" s="31">
+        <v>13</v>
+      </c>
+      <c r="S9" s="31">
+        <v>1990</v>
+      </c>
+      <c r="T9" s="8">
+        <v>44835</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD10," ","")</f>
         <v>197107121999052001</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1243,7 +1495,7 @@
         <v>26126</v>
       </c>
       <c r="E10" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sitiyuliana.s.pd.paddress@man.com</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1267,17 +1519,37 @@
       <c r="L10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="1" t="s">
+      <c r="M10" s="20">
+        <v>4</v>
+      </c>
+      <c r="N10" s="8">
+        <v>36800</v>
+      </c>
+      <c r="O10" s="15">
+        <v>2</v>
+      </c>
+      <c r="P10" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>3</v>
+      </c>
+      <c r="R10" s="31">
+        <v>2</v>
+      </c>
+      <c r="S10" s="31">
+        <v>1997</v>
+      </c>
+      <c r="T10" s="8">
+        <v>44835</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD11," ","")</f>
         <v>197006141999052001</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1290,7 +1562,7 @@
         <v>25733</v>
       </c>
       <c r="E11" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>dra.maslinapaddress@man.com</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -1314,17 +1586,37 @@
       <c r="L11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="1" t="s">
+      <c r="M11" s="20">
+        <v>4</v>
+      </c>
+      <c r="N11" s="8">
+        <v>39692</v>
+      </c>
+      <c r="O11" s="15">
+        <v>2</v>
+      </c>
+      <c r="P11" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>1</v>
+      </c>
+      <c r="R11" s="31">
+        <v>16</v>
+      </c>
+      <c r="S11" s="31">
+        <v>1995</v>
+      </c>
+      <c r="T11" s="8">
+        <v>45200</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD12," ","")</f>
         <v>196707051998031004</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1337,7 +1629,7 @@
         <v>24658</v>
       </c>
       <c r="E12" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>parwiraabdrauf.s.agladdress@man.com</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1361,17 +1653,37 @@
       <c r="L12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="1" t="s">
+      <c r="M12" s="20">
+        <v>4</v>
+      </c>
+      <c r="N12" s="8">
+        <v>43556</v>
+      </c>
+      <c r="O12" s="15">
+        <v>1</v>
+      </c>
+      <c r="P12" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>4</v>
+      </c>
+      <c r="R12" s="31">
+        <v>14</v>
+      </c>
+      <c r="S12" s="31">
+        <v>1997</v>
+      </c>
+      <c r="T12" s="8">
+        <v>40269</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD13," ","")</f>
         <v>196805271995032002</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1384,7 +1696,7 @@
         <v>24985</v>
       </c>
       <c r="E13" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>muslailati.s.pdpaddress@man.com</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -1408,17 +1720,37 @@
       <c r="L13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="3" t="s">
+      <c r="M13" s="20">
+        <v>4</v>
+      </c>
+      <c r="N13" s="8">
+        <v>44470</v>
+      </c>
+      <c r="O13" s="15">
+        <v>1</v>
+      </c>
+      <c r="P13" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>5</v>
+      </c>
+      <c r="R13" s="29">
+        <v>6</v>
+      </c>
+      <c r="S13" s="31">
+        <v>1993</v>
+      </c>
+      <c r="T13" s="32">
+        <v>40269</v>
+      </c>
+      <c r="AD13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD14," ","")</f>
         <v>196306081999051001</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1431,7 +1763,7 @@
         <v>23170</v>
       </c>
       <c r="E14" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>drs.m.saminladdress@man.com</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -1455,17 +1787,37 @@
       <c r="L14" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="1" t="s">
+      <c r="M14" s="20">
+        <v>4</v>
+      </c>
+      <c r="N14" s="8">
+        <v>36800</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>3</v>
+      </c>
+      <c r="R14" s="31">
+        <v>3</v>
+      </c>
+      <c r="S14" s="31">
+        <v>1989</v>
+      </c>
+      <c r="T14" s="8">
+        <v>41000</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD15," ","")</f>
         <v>196603031999052001</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1478,7 +1830,7 @@
         <v>24169</v>
       </c>
       <c r="E15" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>dra.maesahpaddress@man.com</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -1502,17 +1854,37 @@
       <c r="L15" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="1" t="s">
+      <c r="M15" s="20">
+        <v>4</v>
+      </c>
+      <c r="N15" s="8">
+        <v>36800</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>3</v>
+      </c>
+      <c r="R15" s="31">
+        <v>4</v>
+      </c>
+      <c r="S15" s="31">
+        <v>1991</v>
+      </c>
+      <c r="T15" s="8">
+        <v>41000</v>
+      </c>
+      <c r="AD15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD16," ","")</f>
         <v>197011211999052001</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1525,7 +1897,7 @@
         <v>25893</v>
       </c>
       <c r="E16" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>erdaneli.s.pdpaddress@man.com</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -1549,17 +1921,37 @@
       <c r="L16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="1" t="s">
+      <c r="M16" s="20">
+        <v>4</v>
+      </c>
+      <c r="N16" s="8">
+        <v>37012</v>
+      </c>
+      <c r="O16" s="15">
+        <v>1</v>
+      </c>
+      <c r="P16" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>6</v>
+      </c>
+      <c r="R16" s="31">
+        <v>5</v>
+      </c>
+      <c r="S16" s="31">
+        <v>1995</v>
+      </c>
+      <c r="T16" s="8">
+        <v>41000</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD17," ","")</f>
         <v>197103301999052001</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1572,7 +1964,7 @@
         <v>26022</v>
       </c>
       <c r="E17" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>zulitanawarni.s.pd.paddress@man.com</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -1596,17 +1988,37 @@
       <c r="L17" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="1" t="s">
+      <c r="M17" s="20">
+        <v>4</v>
+      </c>
+      <c r="N17" s="8">
+        <v>37165</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1</v>
+      </c>
+      <c r="P17" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>3</v>
+      </c>
+      <c r="R17" s="31">
+        <v>4</v>
+      </c>
+      <c r="S17" s="31">
+        <v>1996</v>
+      </c>
+      <c r="T17" s="8">
+        <v>41000</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD18," ","")</f>
         <v>197106271999052001</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1619,7 +2031,7 @@
         <v>26111</v>
       </c>
       <c r="E18" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>zarnida.ar.s.agpaddress@man.com</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -1643,17 +2055,37 @@
       <c r="L18" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="1" t="s">
+      <c r="M18" s="20">
+        <v>4</v>
+      </c>
+      <c r="N18" s="8">
+        <v>38353</v>
+      </c>
+      <c r="O18" s="15">
+        <v>1</v>
+      </c>
+      <c r="P18" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>1</v>
+      </c>
+      <c r="R18" s="31">
+        <v>11</v>
+      </c>
+      <c r="S18" s="31">
+        <v>1996</v>
+      </c>
+      <c r="T18" s="8">
+        <v>41000</v>
+      </c>
+      <c r="AD18" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD19," ","")</f>
         <v>196706101999052001</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1666,7 +2098,7 @@
         <v>24633</v>
       </c>
       <c r="E19" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rosmaini.spdpaddress@man.com</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -1690,17 +2122,37 @@
       <c r="L19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="1" t="s">
+      <c r="M19" s="20">
+        <v>4</v>
+      </c>
+      <c r="N19" s="8">
+        <v>39692</v>
+      </c>
+      <c r="O19" s="15">
+        <v>1</v>
+      </c>
+      <c r="P19" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>3</v>
+      </c>
+      <c r="R19" s="31">
+        <v>6</v>
+      </c>
+      <c r="S19" s="31">
+        <v>1993</v>
+      </c>
+      <c r="T19" s="8">
+        <v>41000</v>
+      </c>
+      <c r="AD19" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD20," ","")</f>
         <v>197601052000032001</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1713,7 +2165,7 @@
         <v>27764</v>
       </c>
       <c r="E20" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>sitihamidah.s.agpaddress@man.com</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -1737,17 +2189,37 @@
       <c r="L20" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="1" t="s">
+      <c r="M20" s="20">
+        <v>4</v>
+      </c>
+      <c r="N20" s="30">
+        <v>43617</v>
+      </c>
+      <c r="O20" s="15">
+        <v>1</v>
+      </c>
+      <c r="P20" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>1</v>
+      </c>
+      <c r="R20" s="31">
+        <v>8</v>
+      </c>
+      <c r="S20" s="31">
+        <v>1999</v>
+      </c>
+      <c r="T20" s="8">
+        <v>42461</v>
+      </c>
+      <c r="AD20" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD21," ","")</f>
         <v>197404222003122002</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1760,7 +2232,7 @@
         <v>27141</v>
       </c>
       <c r="E21" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>susiandriani.s.agpaddress@man.com</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -1784,17 +2256,37 @@
       <c r="L21" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="1" t="s">
+      <c r="M21" s="20">
+        <v>4</v>
+      </c>
+      <c r="N21" s="8">
+        <v>41000</v>
+      </c>
+      <c r="O21" s="15">
+        <v>1</v>
+      </c>
+      <c r="P21" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>1</v>
+      </c>
+      <c r="R21" s="31">
+        <v>13</v>
+      </c>
+      <c r="S21" s="31">
+        <v>1998</v>
+      </c>
+      <c r="T21" s="8">
+        <v>42461</v>
+      </c>
+      <c r="AD21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD22," ","")</f>
         <v>197608272005011009</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1807,7 +2299,7 @@
         <v>27999</v>
       </c>
       <c r="E22" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ramlan.s.pdladdress@man.com</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -1831,17 +2323,37 @@
       <c r="L22" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="1" t="s">
+      <c r="M22" s="20">
+        <v>4</v>
+      </c>
+      <c r="N22" s="8">
+        <v>38353</v>
+      </c>
+      <c r="O22" s="15">
+        <v>1</v>
+      </c>
+      <c r="P22" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>3</v>
+      </c>
+      <c r="R22" s="31">
+        <v>9</v>
+      </c>
+      <c r="S22" s="31">
+        <v>2001</v>
+      </c>
+      <c r="T22" s="8">
+        <v>43191</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD23," ","")</f>
         <v>198009092005011004</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1854,7 +2366,7 @@
         <v>29473</v>
       </c>
       <c r="E23" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>masdian.s.pdladdress@man.com</v>
       </c>
       <c r="F23" s="12" t="s">
@@ -1878,17 +2390,37 @@
       <c r="L23" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="1" t="s">
+      <c r="M23" s="20">
+        <v>4</v>
+      </c>
+      <c r="N23" s="8">
+        <v>43952</v>
+      </c>
+      <c r="O23" s="15">
+        <v>1</v>
+      </c>
+      <c r="P23" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>3</v>
+      </c>
+      <c r="R23" s="31">
+        <v>16</v>
+      </c>
+      <c r="S23" s="31">
+        <v>2004</v>
+      </c>
+      <c r="T23" s="8">
+        <v>45200</v>
+      </c>
+      <c r="AD23" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD24," ","")</f>
         <v>197911062003122002</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1901,7 +2433,7 @@
         <v>29165</v>
       </c>
       <c r="E24" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>novadiana.s.pd.ipaddress@man.com</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -1925,17 +2457,37 @@
       <c r="L24" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="4" t="s">
+      <c r="M24" s="20">
+        <v>4</v>
+      </c>
+      <c r="N24" s="9">
+        <v>41609</v>
+      </c>
+      <c r="O24" s="15">
+        <v>4</v>
+      </c>
+      <c r="P24" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>1</v>
+      </c>
+      <c r="R24" s="33">
+        <v>10</v>
+      </c>
+      <c r="S24" s="33">
+        <v>2003</v>
+      </c>
+      <c r="T24" s="9">
+        <v>41913</v>
+      </c>
+      <c r="AD24" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD25," ","")</f>
         <v>197909241999052001</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1948,7 +2500,7 @@
         <v>29122</v>
       </c>
       <c r="E25" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>idafithri.s.pd.ipaddress@man.com</v>
       </c>
       <c r="F25" s="12" t="s">
@@ -1972,17 +2524,37 @@
       <c r="L25" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="6" t="s">
+      <c r="M25" s="20">
+        <v>3</v>
+      </c>
+      <c r="N25" s="8">
+        <v>43709</v>
+      </c>
+      <c r="O25" s="15">
+        <v>4</v>
+      </c>
+      <c r="P25" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>4</v>
+      </c>
+      <c r="R25" s="31">
+        <v>14</v>
+      </c>
+      <c r="S25" s="31">
+        <v>2003</v>
+      </c>
+      <c r="T25" s="8">
+        <v>42461</v>
+      </c>
+      <c r="AD25" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD26," ","")</f>
         <v>197306172003121004</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1995,7 +2567,7 @@
         <v>87</v>
       </c>
       <c r="E26" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alhuda.s.pd.iladdress@man.com</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -2019,17 +2591,37 @@
       <c r="L26" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="24" t="s">
+      <c r="M26" s="20">
+        <v>3</v>
+      </c>
+      <c r="N26" s="9">
+        <v>42186</v>
+      </c>
+      <c r="O26" s="15">
+        <v>4</v>
+      </c>
+      <c r="P26" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>1</v>
+      </c>
+      <c r="R26" s="33">
+        <v>11</v>
+      </c>
+      <c r="S26" s="33">
+        <v>2002</v>
+      </c>
+      <c r="T26" s="9">
+        <v>43009</v>
+      </c>
+      <c r="AD26" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD27," ","")</f>
         <v>197312102007012020</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2042,7 +2634,7 @@
         <v>27008</v>
       </c>
       <c r="E27" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>idesvianamanurung.s.agpaddress@man.com</v>
       </c>
       <c r="F27" s="12" t="s">
@@ -2066,17 +2658,37 @@
       <c r="L27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="1" t="s">
+      <c r="M27" s="20">
+        <v>3</v>
+      </c>
+      <c r="N27" s="8">
+        <v>43739</v>
+      </c>
+      <c r="O27" s="15">
+        <v>4</v>
+      </c>
+      <c r="P27" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>1</v>
+      </c>
+      <c r="R27" s="31">
+        <v>14</v>
+      </c>
+      <c r="S27" s="31">
+        <v>1999</v>
+      </c>
+      <c r="T27" s="8">
+        <v>45200</v>
+      </c>
+      <c r="AD27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD28," ","")</f>
         <v>197702222007012021</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2089,7 +2701,7 @@
         <v>28178</v>
       </c>
       <c r="E28" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>hafini.s.pd.mapaddress@man.com</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -2113,17 +2725,37 @@
       <c r="L28" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="6" t="s">
+      <c r="M28" s="20">
+        <v>3</v>
+      </c>
+      <c r="N28" s="8">
+        <v>43009</v>
+      </c>
+      <c r="O28" s="15">
+        <v>3</v>
+      </c>
+      <c r="P28" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>7</v>
+      </c>
+      <c r="R28" s="31">
+        <v>14</v>
+      </c>
+      <c r="S28" s="31">
+        <v>2005</v>
+      </c>
+      <c r="T28" s="8">
+        <v>44470</v>
+      </c>
+      <c r="AD28" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD29," ","")</f>
         <v>198410102009012018</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2136,7 +2768,7 @@
         <v>30965</v>
       </c>
       <c r="E29" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rosida.s.pdpaddress@man.com</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -2160,17 +2792,37 @@
       <c r="L29" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="1" t="s">
+      <c r="M29" s="20">
+        <v>3</v>
+      </c>
+      <c r="N29" s="8">
+        <v>39814</v>
+      </c>
+      <c r="O29" s="15">
+        <v>3</v>
+      </c>
+      <c r="P29" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>3</v>
+      </c>
+      <c r="R29" s="31">
+        <v>12</v>
+      </c>
+      <c r="S29" s="31">
+        <v>2007</v>
+      </c>
+      <c r="T29" s="8">
+        <v>45017</v>
+      </c>
+      <c r="AD29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD30," ","")</f>
         <v>196712012005011005</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2183,7 +2835,7 @@
         <v>24807</v>
       </c>
       <c r="E30" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>mustafa.s.pdladdress@man.com</v>
       </c>
       <c r="F30" s="12" t="s">
@@ -2207,17 +2859,37 @@
       <c r="L30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="1" t="s">
+      <c r="M30" s="20">
+        <v>3</v>
+      </c>
+      <c r="N30" s="8">
+        <v>40269</v>
+      </c>
+      <c r="O30" s="15">
+        <v>2</v>
+      </c>
+      <c r="P30" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>3</v>
+      </c>
+      <c r="R30" s="31">
+        <v>5</v>
+      </c>
+      <c r="S30" s="31">
+        <v>2000</v>
+      </c>
+      <c r="T30" s="8">
+        <v>42826</v>
+      </c>
+      <c r="AD30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD31," ","")</f>
         <v>197712291999051001</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2230,7 +2902,7 @@
         <v>28488</v>
       </c>
       <c r="E31" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>ikhwanjayadiladdress@man.com</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -2254,17 +2926,37 @@
       <c r="L31" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="3" t="s">
+      <c r="M31" s="20">
+        <v>3</v>
+      </c>
+      <c r="N31" s="8">
+        <v>44440</v>
+      </c>
+      <c r="O31" s="15">
+        <v>2</v>
+      </c>
+      <c r="P31" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>9</v>
+      </c>
+      <c r="R31" s="31">
+        <v>13</v>
+      </c>
+      <c r="S31" s="31">
+        <v>1998</v>
+      </c>
+      <c r="T31" s="8">
+        <v>45200</v>
+      </c>
+      <c r="AD31" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD32," ","")</f>
         <v>196412022014112001</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2277,7 +2969,7 @@
         <v>23713</v>
       </c>
       <c r="E32" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>dra.asfiapaddress@man.com</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -2301,17 +2993,37 @@
       <c r="L32" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="1" t="s">
+      <c r="M32" s="20">
+        <v>3</v>
+      </c>
+      <c r="N32" s="8">
+        <v>42979</v>
+      </c>
+      <c r="O32" s="15">
+        <v>2</v>
+      </c>
+      <c r="P32" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>1</v>
+      </c>
+      <c r="R32" s="31">
+        <v>14</v>
+      </c>
+      <c r="S32" s="31">
+        <v>1991</v>
+      </c>
+      <c r="T32" s="8">
+        <v>45931</v>
+      </c>
+      <c r="AD32" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD33," ","")</f>
         <v>198609022019031004</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2324,7 +3036,7 @@
         <v>31657</v>
       </c>
       <c r="E33" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>munizar.s.pdipaddress@man.com</v>
       </c>
       <c r="F33" s="12" t="s">
@@ -2348,17 +3060,37 @@
       <c r="L33" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="3" t="s">
+      <c r="M33" s="20">
+        <v>3</v>
+      </c>
+      <c r="N33" s="8">
+        <v>44409</v>
+      </c>
+      <c r="O33" s="15">
+        <v>1</v>
+      </c>
+      <c r="P33" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>1</v>
+      </c>
+      <c r="R33" s="31">
+        <v>14</v>
+      </c>
+      <c r="S33" s="31">
+        <v>2011</v>
+      </c>
+      <c r="T33" s="30">
+        <v>44986</v>
+      </c>
+      <c r="AD33" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD34," ","")</f>
         <v>198804082019032014</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2371,7 +3103,7 @@
         <v>32241</v>
       </c>
       <c r="E34" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rahmirizzati.s.pdpaddress@man.com</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -2395,17 +3127,37 @@
       <c r="L34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="3" t="s">
+      <c r="M34" s="20">
+        <v>3</v>
+      </c>
+      <c r="N34" s="8">
+        <v>44409</v>
+      </c>
+      <c r="O34" s="15">
+        <v>1</v>
+      </c>
+      <c r="P34" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>5</v>
+      </c>
+      <c r="R34" s="31">
+        <v>15</v>
+      </c>
+      <c r="S34" s="31">
+        <v>2011</v>
+      </c>
+      <c r="T34" s="30">
+        <v>44986</v>
+      </c>
+      <c r="AD34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD35," ","")</f>
         <v>199306062019031020</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2418,7 +3170,7 @@
         <v>34095</v>
       </c>
       <c r="E35" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>jonaerwenta.s.pdladdress@man.com</v>
       </c>
       <c r="F35" s="12" t="s">
@@ -2442,17 +3194,37 @@
       <c r="L35" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="3" t="s">
+      <c r="M35" s="20">
+        <v>3</v>
+      </c>
+      <c r="N35" s="8">
+        <v>44409</v>
+      </c>
+      <c r="O35" s="15">
+        <v>1</v>
+      </c>
+      <c r="P35" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>5</v>
+      </c>
+      <c r="R35" s="31">
+        <v>15</v>
+      </c>
+      <c r="S35" s="31">
+        <v>2016</v>
+      </c>
+      <c r="T35" s="30">
+        <v>44986</v>
+      </c>
+      <c r="AD35" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD36," ","")</f>
         <v>198606182019032009</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2465,7 +3237,7 @@
         <v>31581</v>
       </c>
       <c r="E36" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>aidafitri.s.pdipaddress@man.com</v>
       </c>
       <c r="F36" s="12" t="s">
@@ -2489,17 +3261,37 @@
       <c r="L36" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="3" t="s">
+      <c r="M36" s="20">
+        <v>3</v>
+      </c>
+      <c r="N36" s="8">
+        <v>44409</v>
+      </c>
+      <c r="O36" s="15">
+        <v>1</v>
+      </c>
+      <c r="P36" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>7</v>
+      </c>
+      <c r="R36" s="31">
+        <v>16</v>
+      </c>
+      <c r="S36" s="31">
+        <v>2009</v>
+      </c>
+      <c r="T36" s="30">
+        <v>44986</v>
+      </c>
+      <c r="AD36" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD37," ","")</f>
         <v>198002072007012012</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2512,7 +3304,7 @@
         <v>29258</v>
       </c>
       <c r="E37" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>hamidahpaddress@man.com</v>
       </c>
       <c r="F37" s="12" t="s">
@@ -2536,17 +3328,37 @@
       <c r="L37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="3" t="s">
+      <c r="M37" s="20">
+        <v>2</v>
+      </c>
+      <c r="N37" s="10">
+        <v>44287</v>
+      </c>
+      <c r="O37" s="15">
+        <v>2</v>
+      </c>
+      <c r="P37" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>9</v>
+      </c>
+      <c r="R37" s="34">
+        <v>17</v>
+      </c>
+      <c r="S37" s="34">
+        <v>1998</v>
+      </c>
+      <c r="T37" s="10">
+        <v>45748</v>
+      </c>
+      <c r="AD37" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(AD38," ","")</f>
         <v>196807082014111001</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2559,7 +3371,7 @@
         <v>25027</v>
       </c>
       <c r="E38" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>bakhtiareffendiladdress@man.com</v>
       </c>
       <c r="F38" s="12" t="s">
@@ -2583,15 +3395,36 @@
       <c r="L38" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="3" t="s">
+      <c r="M38" s="20">
+        <v>2</v>
+      </c>
+      <c r="N38" s="10">
+        <v>41944</v>
+      </c>
+      <c r="O38" s="15">
+        <v>4</v>
+      </c>
+      <c r="P38" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>10</v>
+      </c>
+      <c r="R38" s="34">
+        <v>18</v>
+      </c>
+      <c r="S38" s="34">
+        <v>1989</v>
+      </c>
+      <c r="T38" s="10">
+        <v>45231</v>
+      </c>
+      <c r="AD38" s="3" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C061DCCD-C493-4978-A14A-286D508539A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F20C9E4-F704-4A78-8ED2-569EA088D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="2250" windowWidth="13710" windowHeight="11295" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFB0B7-5F4A-46CA-9F3B-E68BA45E5504}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
-        <f>SUBSTITUTE(AD2," ","")</f>
+        <f t="shared" ref="A2:A38" si="0">SUBSTITUTE(AD2," ","")</f>
         <v>196801221999051001</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -1013,7 +1013,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
-        <f>SUBSTITUTE(AD3," ","")</f>
+        <f t="shared" si="0"/>
         <v>196908161995032002</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1080,7 +1080,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
-        <f>SUBSTITUTE(AD4," ","")</f>
+        <f t="shared" si="0"/>
         <v>197008021997032002</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1093,7 +1093,7 @@
         <v>25782</v>
       </c>
       <c r="E4" s="18" t="str">
-        <f t="shared" ref="E4:E38" si="0">SUBSTITUTE(SUBSTITUTE(LOWER(B4&amp;C4)," ","")&amp;K4&amp;"@man.com",",",".")</f>
+        <f t="shared" ref="E4:E38" si="1">SUBSTITUTE(SUBSTITUTE(LOWER(B4&amp;C4)," ","")&amp;K4&amp;"@man.com",",",".")</f>
         <v>dra.salwahusna.m.humpaddress@man.com</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -1147,7 +1147,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="str">
-        <f>SUBSTITUTE(AD5," ","")</f>
+        <f t="shared" si="0"/>
         <v>197405271999052001</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1160,7 +1160,7 @@
         <v>27176</v>
       </c>
       <c r="E5" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>radhapuspita.s.pd.paddress@man.com</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -1214,7 +1214,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="str">
-        <f>SUBSTITUTE(AD6," ","")</f>
+        <f t="shared" si="0"/>
         <v>196904121995031001</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1227,7 +1227,7 @@
         <v>25305</v>
       </c>
       <c r="E6" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>drs.mukhlisusmanladdress@man.com</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -1281,7 +1281,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="str">
-        <f>SUBSTITUTE(AD7," ","")</f>
+        <f t="shared" si="0"/>
         <v>196708111993032004</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1294,7 +1294,7 @@
         <v>24695</v>
       </c>
       <c r="E7" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>nirwani.s.pd.paddress@man.com</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -1348,7 +1348,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
-        <f>SUBSTITUTE(AD8," ","")</f>
+        <f t="shared" si="0"/>
         <v>196906081996032002</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1361,7 +1361,7 @@
         <v>25362</v>
       </c>
       <c r="E8" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>dra.dewisartikapaddress@man.com</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -1415,7 +1415,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="str">
-        <f>SUBSTITUTE(AD9," ","")</f>
+        <f t="shared" si="0"/>
         <v>196508131992022001</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1428,7 +1428,7 @@
         <v>23967</v>
       </c>
       <c r="E9" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>dra.mahyanapaddress@man.com</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="str">
-        <f>SUBSTITUTE(AD10," ","")</f>
+        <f t="shared" si="0"/>
         <v>197107121999052001</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1495,7 +1495,7 @@
         <v>26126</v>
       </c>
       <c r="E10" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sitiyuliana.s.pd.paddress@man.com</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1549,7 +1549,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="str">
-        <f>SUBSTITUTE(AD11," ","")</f>
+        <f t="shared" si="0"/>
         <v>197006141999052001</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1562,7 +1562,7 @@
         <v>25733</v>
       </c>
       <c r="E11" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>dra.maslinapaddress@man.com</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -1616,7 +1616,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="str">
-        <f>SUBSTITUTE(AD12," ","")</f>
+        <f t="shared" si="0"/>
         <v>196707051998031004</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1629,7 +1629,7 @@
         <v>24658</v>
       </c>
       <c r="E12" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>parwiraabdrauf.s.agladdress@man.com</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1683,7 +1683,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="str">
-        <f>SUBSTITUTE(AD13," ","")</f>
+        <f t="shared" si="0"/>
         <v>196805271995032002</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1696,7 +1696,7 @@
         <v>24985</v>
       </c>
       <c r="E13" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>muslailati.s.pdpaddress@man.com</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -1750,7 +1750,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="str">
-        <f>SUBSTITUTE(AD14," ","")</f>
+        <f t="shared" si="0"/>
         <v>196306081999051001</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1763,7 +1763,7 @@
         <v>23170</v>
       </c>
       <c r="E14" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>drs.m.saminladdress@man.com</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -1817,7 +1817,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="str">
-        <f>SUBSTITUTE(AD15," ","")</f>
+        <f t="shared" si="0"/>
         <v>196603031999052001</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1830,7 +1830,7 @@
         <v>24169</v>
       </c>
       <c r="E15" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>dra.maesahpaddress@man.com</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -1884,7 +1884,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="str">
-        <f>SUBSTITUTE(AD16," ","")</f>
+        <f t="shared" si="0"/>
         <v>197011211999052001</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1897,7 +1897,7 @@
         <v>25893</v>
       </c>
       <c r="E16" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>erdaneli.s.pdpaddress@man.com</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -1951,7 +1951,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="str">
-        <f>SUBSTITUTE(AD17," ","")</f>
+        <f t="shared" si="0"/>
         <v>197103301999052001</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1964,7 +1964,7 @@
         <v>26022</v>
       </c>
       <c r="E17" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>zulitanawarni.s.pd.paddress@man.com</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -2018,7 +2018,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="str">
-        <f>SUBSTITUTE(AD18," ","")</f>
+        <f t="shared" si="0"/>
         <v>197106271999052001</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2031,7 +2031,7 @@
         <v>26111</v>
       </c>
       <c r="E18" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>zarnida.ar.s.agpaddress@man.com</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -2085,7 +2085,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="str">
-        <f>SUBSTITUTE(AD19," ","")</f>
+        <f t="shared" si="0"/>
         <v>196706101999052001</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2098,7 +2098,7 @@
         <v>24633</v>
       </c>
       <c r="E19" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>rosmaini.spdpaddress@man.com</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="str">
-        <f>SUBSTITUTE(AD20," ","")</f>
+        <f t="shared" si="0"/>
         <v>197601052000032001</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2165,7 +2165,7 @@
         <v>27764</v>
       </c>
       <c r="E20" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sitihamidah.s.agpaddress@man.com</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -2219,7 +2219,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="str">
-        <f>SUBSTITUTE(AD21," ","")</f>
+        <f t="shared" si="0"/>
         <v>197404222003122002</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2232,7 +2232,7 @@
         <v>27141</v>
       </c>
       <c r="E21" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>susiandriani.s.agpaddress@man.com</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -2286,7 +2286,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="str">
-        <f>SUBSTITUTE(AD22," ","")</f>
+        <f t="shared" si="0"/>
         <v>197608272005011009</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2299,7 +2299,7 @@
         <v>27999</v>
       </c>
       <c r="E22" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ramlan.s.pdladdress@man.com</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -2353,7 +2353,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="str">
-        <f>SUBSTITUTE(AD23," ","")</f>
+        <f t="shared" si="0"/>
         <v>198009092005011004</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2366,7 +2366,7 @@
         <v>29473</v>
       </c>
       <c r="E23" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>masdian.s.pdladdress@man.com</v>
       </c>
       <c r="F23" s="12" t="s">
@@ -2420,7 +2420,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="str">
-        <f>SUBSTITUTE(AD24," ","")</f>
+        <f t="shared" si="0"/>
         <v>197911062003122002</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2433,7 +2433,7 @@
         <v>29165</v>
       </c>
       <c r="E24" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>novadiana.s.pd.ipaddress@man.com</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -2487,7 +2487,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="str">
-        <f>SUBSTITUTE(AD25," ","")</f>
+        <f t="shared" si="0"/>
         <v>197909241999052001</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2500,7 +2500,7 @@
         <v>29122</v>
       </c>
       <c r="E25" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>idafithri.s.pd.ipaddress@man.com</v>
       </c>
       <c r="F25" s="12" t="s">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="str">
-        <f>SUBSTITUTE(AD26," ","")</f>
+        <f t="shared" si="0"/>
         <v>197306172003121004</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2567,7 +2567,7 @@
         <v>87</v>
       </c>
       <c r="E26" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>alhuda.s.pd.iladdress@man.com</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -2621,7 +2621,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="str">
-        <f>SUBSTITUTE(AD27," ","")</f>
+        <f t="shared" si="0"/>
         <v>197312102007012020</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2634,7 +2634,7 @@
         <v>27008</v>
       </c>
       <c r="E27" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>idesvianamanurung.s.agpaddress@man.com</v>
       </c>
       <c r="F27" s="12" t="s">
@@ -2688,7 +2688,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="str">
-        <f>SUBSTITUTE(AD28," ","")</f>
+        <f t="shared" si="0"/>
         <v>197702222007012021</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2701,7 +2701,7 @@
         <v>28178</v>
       </c>
       <c r="E28" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hafini.s.pd.mapaddress@man.com</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -2755,7 +2755,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="str">
-        <f>SUBSTITUTE(AD29," ","")</f>
+        <f t="shared" si="0"/>
         <v>198410102009012018</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2768,7 +2768,7 @@
         <v>30965</v>
       </c>
       <c r="E29" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>rosida.s.pdpaddress@man.com</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -2822,7 +2822,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="str">
-        <f>SUBSTITUTE(AD30," ","")</f>
+        <f t="shared" si="0"/>
         <v>196712012005011005</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2835,7 +2835,7 @@
         <v>24807</v>
       </c>
       <c r="E30" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mustafa.s.pdladdress@man.com</v>
       </c>
       <c r="F30" s="12" t="s">
@@ -2889,7 +2889,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="str">
-        <f>SUBSTITUTE(AD31," ","")</f>
+        <f t="shared" si="0"/>
         <v>197712291999051001</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2902,7 +2902,7 @@
         <v>28488</v>
       </c>
       <c r="E31" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ikhwanjayadiladdress@man.com</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -2956,7 +2956,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="str">
-        <f>SUBSTITUTE(AD32," ","")</f>
+        <f t="shared" si="0"/>
         <v>196412022014112001</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2969,7 +2969,7 @@
         <v>23713</v>
       </c>
       <c r="E32" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>dra.asfiapaddress@man.com</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -3023,7 +3023,7 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="str">
-        <f>SUBSTITUTE(AD33," ","")</f>
+        <f t="shared" si="0"/>
         <v>198609022019031004</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3036,7 +3036,7 @@
         <v>31657</v>
       </c>
       <c r="E33" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>munizar.s.pdipaddress@man.com</v>
       </c>
       <c r="F33" s="12" t="s">
@@ -3090,7 +3090,7 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="str">
-        <f>SUBSTITUTE(AD34," ","")</f>
+        <f t="shared" si="0"/>
         <v>198804082019032014</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3103,7 +3103,7 @@
         <v>32241</v>
       </c>
       <c r="E34" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>rahmirizzati.s.pdpaddress@man.com</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -3157,7 +3157,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="str">
-        <f>SUBSTITUTE(AD35," ","")</f>
+        <f t="shared" si="0"/>
         <v>199306062019031020</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3170,7 +3170,7 @@
         <v>34095</v>
       </c>
       <c r="E35" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>jonaerwenta.s.pdladdress@man.com</v>
       </c>
       <c r="F35" s="12" t="s">
@@ -3224,7 +3224,7 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="str">
-        <f>SUBSTITUTE(AD36," ","")</f>
+        <f t="shared" si="0"/>
         <v>198606182019032009</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3237,7 +3237,7 @@
         <v>31581</v>
       </c>
       <c r="E36" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>aidafitri.s.pdipaddress@man.com</v>
       </c>
       <c r="F36" s="12" t="s">
@@ -3291,7 +3291,7 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="str">
-        <f>SUBSTITUTE(AD37," ","")</f>
+        <f t="shared" si="0"/>
         <v>198002072007012012</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3304,7 +3304,7 @@
         <v>29258</v>
       </c>
       <c r="E37" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hamidahpaddress@man.com</v>
       </c>
       <c r="F37" s="12" t="s">
@@ -3358,7 +3358,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="str">
-        <f>SUBSTITUTE(AD38," ","")</f>
+        <f t="shared" si="0"/>
         <v>196807082014111001</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3371,7 +3371,7 @@
         <v>25027</v>
       </c>
       <c r="E38" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>bakhtiareffendiladdress@man.com</v>
       </c>
       <c r="F38" s="12" t="s">

--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA591AAF-CFBE-4843-A0DD-F9991D90E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D833517-3BA8-4B3A-B5C8-A9EBF9B0BE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="1740" windowWidth="13710" windowHeight="11295" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="13740" windowHeight="23520" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1205,42 +1205,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1316,6 +1280,42 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1637,3800 +1637,3800 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFB0B7-5F4A-46CA-9F3B-E68BA45E5504}">
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="21" max="29" width="9.140625" style="37"/>
-    <col min="30" max="30" width="20.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="22.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="9.140625" style="25"/>
+    <col min="30" max="30" width="20.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="37">
         <v>24859</v>
       </c>
-      <c r="E2" s="40" t="str">
+      <c r="E2" s="28" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(B2&amp;C2)," ","")&amp;K2&amp;"@man.com",",",".")</f>
         <v>drs.riswanbasriladdress@man.com</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="36">
-        <v>1</v>
-      </c>
-      <c r="H2" s="36">
-        <v>1</v>
-      </c>
-      <c r="I2" s="36" t="s">
+      <c r="G2" s="24">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="36">
-        <v>1</v>
-      </c>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="24">
+        <v>1</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="42">
-        <v>4</v>
-      </c>
-      <c r="N2" s="50">
+      <c r="M2" s="30">
+        <v>4</v>
+      </c>
+      <c r="N2" s="38">
         <v>38961</v>
       </c>
-      <c r="O2" s="42">
-        <v>1</v>
-      </c>
-      <c r="P2" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="36">
-        <v>1</v>
-      </c>
-      <c r="R2" s="36">
+      <c r="O2" s="30">
+        <v>1</v>
+      </c>
+      <c r="P2" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>1</v>
+      </c>
+      <c r="R2" s="24">
         <v>7</v>
       </c>
-      <c r="S2" s="51">
+      <c r="S2" s="39">
         <v>1993</v>
       </c>
-      <c r="T2" s="52">
+      <c r="T2" s="40">
         <v>41365</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="50">
+      <c r="C3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="38">
         <v>25431</v>
       </c>
-      <c r="E3" s="40" t="str">
+      <c r="E3" s="28" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(B3&amp;C3)," ","")&amp;K3&amp;"@man.com",",",".")</f>
         <v>dra.salwahusnam.humpaddress@man.com</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="36">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36">
-        <v>4</v>
-      </c>
-      <c r="I3" s="36" t="s">
+      <c r="G3" s="24">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24">
+        <v>4</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="36">
-        <v>1</v>
-      </c>
-      <c r="K3" s="36" t="s">
+      <c r="J3" s="24">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="42">
-        <v>4</v>
-      </c>
-      <c r="N3" s="50">
+      <c r="M3" s="30">
+        <v>4</v>
+      </c>
+      <c r="N3" s="38">
         <v>36192</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="30">
         <v>2</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="24">
         <v>11</v>
       </c>
-      <c r="Q3" s="36">
-        <v>1</v>
-      </c>
-      <c r="R3" s="54">
-        <v>1</v>
-      </c>
-      <c r="S3" s="54">
+      <c r="Q3" s="24">
+        <v>1</v>
+      </c>
+      <c r="R3" s="42">
+        <v>1</v>
+      </c>
+      <c r="S3" s="42">
         <v>2013</v>
       </c>
-      <c r="T3" s="50">
+      <c r="T3" s="38">
         <v>43374</v>
       </c>
-      <c r="AD3" s="55" t="s">
+      <c r="AD3" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="50">
+      <c r="C4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="38">
         <v>25782</v>
       </c>
-      <c r="E4" s="40" t="str">
+      <c r="E4" s="28" t="str">
         <f t="shared" ref="E4:E65" si="0">SUBSTITUTE(SUBSTITUTE(LOWER(B4&amp;C4)," ","")&amp;K4&amp;"@man.com",",",".")</f>
         <v>dra.sriwahyunipaddress@man.com</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="36">
-        <v>1</v>
-      </c>
-      <c r="H4" s="36">
-        <v>4</v>
-      </c>
-      <c r="I4" s="36" t="s">
+      <c r="G4" s="24">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24">
+        <v>4</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="36">
-        <v>1</v>
-      </c>
-      <c r="K4" s="36" t="s">
+      <c r="J4" s="24">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="42">
-        <v>4</v>
-      </c>
-      <c r="N4" s="50">
+      <c r="M4" s="30">
+        <v>4</v>
+      </c>
+      <c r="N4" s="38">
         <v>35490</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="30">
         <v>2</v>
       </c>
-      <c r="P4" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="36">
+      <c r="P4" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="24">
         <v>2</v>
       </c>
-      <c r="R4" s="54">
-        <v>10</v>
-      </c>
-      <c r="S4" s="54">
+      <c r="R4" s="42">
+        <v>10</v>
+      </c>
+      <c r="S4" s="42">
         <v>2003</v>
       </c>
-      <c r="T4" s="50">
+      <c r="T4" s="38">
         <v>43556</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="38">
         <v>27176</v>
       </c>
-      <c r="E5" s="40" t="str">
+      <c r="E5" s="28" t="str">
         <f t="shared" si="0"/>
         <v>mustafas.pdladdress@man.com</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="36">
-        <v>1</v>
-      </c>
-      <c r="H5" s="36">
-        <v>4</v>
-      </c>
-      <c r="I5" s="36" t="s">
+      <c r="G5" s="24">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24">
+        <v>4</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="36">
-        <v>1</v>
-      </c>
-      <c r="K5" s="36" t="s">
+      <c r="J5" s="24">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="30">
         <v>3</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="38">
         <v>36800</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="30">
         <v>2</v>
       </c>
-      <c r="P5" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="36">
+      <c r="P5" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="24">
         <v>3</v>
       </c>
-      <c r="R5" s="54">
-        <v>1</v>
-      </c>
-      <c r="S5" s="54">
+      <c r="R5" s="42">
+        <v>1</v>
+      </c>
+      <c r="S5" s="42">
         <v>1998</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="38">
         <v>44105</v>
       </c>
-      <c r="AD5" s="55" t="s">
+      <c r="AD5" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="50">
+      <c r="C6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="38">
         <v>25305</v>
       </c>
-      <c r="E6" s="40" t="str">
+      <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
         <v>parwiraabdraufmapaddress@man.com</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="36">
-        <v>1</v>
-      </c>
-      <c r="H6" s="36">
-        <v>4</v>
-      </c>
-      <c r="I6" s="36" t="s">
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24">
+        <v>4</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="36">
-        <v>1</v>
-      </c>
-      <c r="K6" s="36" t="s">
+      <c r="J6" s="24">
+        <v>1</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="42">
-        <v>4</v>
-      </c>
-      <c r="N6" s="50">
+      <c r="M6" s="30">
+        <v>4</v>
+      </c>
+      <c r="N6" s="38">
         <v>42186</v>
       </c>
-      <c r="O6" s="42">
-        <v>1</v>
-      </c>
-      <c r="P6" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="36">
-        <v>1</v>
-      </c>
-      <c r="R6" s="54">
+      <c r="O6" s="30">
+        <v>1</v>
+      </c>
+      <c r="P6" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>1</v>
+      </c>
+      <c r="R6" s="42">
         <v>16</v>
       </c>
-      <c r="S6" s="54">
+      <c r="S6" s="42">
         <v>1994</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6" s="38">
         <v>44287</v>
       </c>
-      <c r="AD6" s="56" t="s">
+      <c r="AD6" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="50">
+      <c r="C7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="38">
         <v>24695</v>
       </c>
-      <c r="E7" s="40" t="str">
+      <c r="E7" s="28" t="str">
         <f t="shared" si="0"/>
         <v>dra.maesahpaddress@man.com</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="36">
-        <v>1</v>
-      </c>
-      <c r="H7" s="36">
-        <v>4</v>
-      </c>
-      <c r="I7" s="36" t="s">
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24">
+        <v>4</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="36">
-        <v>1</v>
-      </c>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="42">
-        <v>4</v>
-      </c>
-      <c r="N7" s="50">
+      <c r="M7" s="30">
+        <v>4</v>
+      </c>
+      <c r="N7" s="38">
         <v>36831</v>
       </c>
-      <c r="O7" s="42">
-        <v>1</v>
-      </c>
-      <c r="P7" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="36">
+      <c r="O7" s="30">
+        <v>1</v>
+      </c>
+      <c r="P7" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="24">
         <v>3</v>
       </c>
-      <c r="R7" s="54">
-        <v>1</v>
-      </c>
-      <c r="S7" s="54">
+      <c r="R7" s="42">
+        <v>1</v>
+      </c>
+      <c r="S7" s="42">
         <v>2001</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7" s="38">
         <v>44652</v>
       </c>
-      <c r="AD7" s="55" t="s">
+      <c r="AD7" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="50">
+      <c r="C8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="38">
         <v>25362</v>
       </c>
-      <c r="E8" s="40" t="str">
+      <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
         <v>radhapuspitas.pdpaddress@man.com</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="36">
-        <v>1</v>
-      </c>
-      <c r="H8" s="36">
-        <v>4</v>
-      </c>
-      <c r="I8" s="36" t="s">
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+      <c r="H8" s="24">
+        <v>4</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="36">
-        <v>1</v>
-      </c>
-      <c r="K8" s="36" t="s">
+      <c r="J8" s="24">
+        <v>1</v>
+      </c>
+      <c r="K8" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="42">
-        <v>4</v>
-      </c>
-      <c r="N8" s="50">
+      <c r="M8" s="30">
+        <v>4</v>
+      </c>
+      <c r="N8" s="38">
         <v>36892</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="30">
         <v>2</v>
       </c>
-      <c r="P8" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="36">
+      <c r="P8" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="24">
         <v>3</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="42">
         <v>16</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="42">
         <v>1993</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8" s="38">
         <v>44835</v>
       </c>
-      <c r="AD8" s="55" t="s">
+      <c r="AD8" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="50">
+      <c r="C9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="38">
         <v>23967</v>
       </c>
-      <c r="E9" s="40" t="str">
+      <c r="E9" s="28" t="str">
         <f t="shared" si="0"/>
         <v>erdanelis.pdpaddress@man.com</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="36">
-        <v>1</v>
-      </c>
-      <c r="H9" s="36">
-        <v>4</v>
-      </c>
-      <c r="I9" s="36" t="s">
+      <c r="G9" s="24">
+        <v>1</v>
+      </c>
+      <c r="H9" s="24">
+        <v>4</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="36">
-        <v>1</v>
-      </c>
-      <c r="K9" s="36" t="s">
+      <c r="J9" s="24">
+        <v>1</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="42">
-        <v>4</v>
-      </c>
-      <c r="N9" s="50">
+      <c r="M9" s="30">
+        <v>4</v>
+      </c>
+      <c r="N9" s="38">
         <v>41730</v>
       </c>
-      <c r="O9" s="42">
-        <v>1</v>
-      </c>
-      <c r="P9" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="36">
+      <c r="O9" s="30">
+        <v>1</v>
+      </c>
+      <c r="P9" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="24">
         <v>3</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="42">
         <v>13</v>
       </c>
-      <c r="S9" s="54">
+      <c r="S9" s="42">
         <v>1990</v>
       </c>
-      <c r="T9" s="50">
+      <c r="T9" s="38">
         <v>44835</v>
       </c>
-      <c r="AD9" s="55" t="s">
+      <c r="AD9" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="50">
+      <c r="C10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="38">
         <v>26126</v>
       </c>
-      <c r="E10" s="40" t="str">
+      <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
         <v>zarnidaars.agpaddress@man.com</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="36">
-        <v>1</v>
-      </c>
-      <c r="H10" s="36">
-        <v>4</v>
-      </c>
-      <c r="I10" s="36" t="s">
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <v>4</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="36">
-        <v>1</v>
-      </c>
-      <c r="K10" s="36" t="s">
+      <c r="J10" s="24">
+        <v>1</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="42">
-        <v>4</v>
-      </c>
-      <c r="N10" s="50">
+      <c r="M10" s="30">
+        <v>4</v>
+      </c>
+      <c r="N10" s="38">
         <v>36800</v>
       </c>
-      <c r="O10" s="42">
-        <v>1</v>
-      </c>
-      <c r="P10" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="36">
+      <c r="O10" s="30">
+        <v>1</v>
+      </c>
+      <c r="P10" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="24">
         <v>3</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="42">
         <v>2</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10" s="42">
         <v>1997</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10" s="38">
         <v>44835</v>
       </c>
-      <c r="AD10" s="55" t="s">
+      <c r="AD10" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="50">
+      <c r="C11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="38">
         <v>25733</v>
       </c>
-      <c r="E11" s="40" t="str">
+      <c r="E11" s="28" t="str">
         <f t="shared" si="0"/>
         <v>sitihamidahs.agpaddress@man.com</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="36">
-        <v>1</v>
-      </c>
-      <c r="H11" s="36">
-        <v>4</v>
-      </c>
-      <c r="I11" s="36" t="s">
+      <c r="G11" s="24">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24">
+        <v>4</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="36">
-        <v>1</v>
-      </c>
-      <c r="K11" s="36" t="s">
+      <c r="J11" s="24">
+        <v>1</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="42">
-        <v>4</v>
-      </c>
-      <c r="N11" s="50">
+      <c r="M11" s="30">
+        <v>4</v>
+      </c>
+      <c r="N11" s="38">
         <v>39692</v>
       </c>
-      <c r="O11" s="42">
-        <v>1</v>
-      </c>
-      <c r="P11" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="36">
-        <v>1</v>
-      </c>
-      <c r="R11" s="54">
+      <c r="O11" s="30">
+        <v>1</v>
+      </c>
+      <c r="P11" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>1</v>
+      </c>
+      <c r="R11" s="42">
         <v>16</v>
       </c>
-      <c r="S11" s="54">
+      <c r="S11" s="42">
         <v>1995</v>
       </c>
-      <c r="T11" s="50">
+      <c r="T11" s="38">
         <v>45200</v>
       </c>
-      <c r="AD11" s="55" t="s">
+      <c r="AD11" s="43" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="50">
+      <c r="C12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="38">
         <v>24658</v>
       </c>
-      <c r="E12" s="40" t="str">
+      <c r="E12" s="28" t="str">
         <f t="shared" si="0"/>
         <v>supriyanipaddress@man.com</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="36">
-        <v>1</v>
-      </c>
-      <c r="H12" s="36">
-        <v>4</v>
-      </c>
-      <c r="I12" s="36" t="s">
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24">
+        <v>4</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="36">
-        <v>1</v>
-      </c>
-      <c r="K12" s="36" t="s">
+      <c r="J12" s="24">
+        <v>1</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="30">
         <v>3</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="38">
         <v>43556</v>
       </c>
-      <c r="O12" s="42">
-        <v>1</v>
-      </c>
-      <c r="P12" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="36">
-        <v>4</v>
-      </c>
-      <c r="R12" s="54">
+      <c r="O12" s="30">
+        <v>1</v>
+      </c>
+      <c r="P12" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>4</v>
+      </c>
+      <c r="R12" s="42">
         <v>14</v>
       </c>
-      <c r="S12" s="54">
+      <c r="S12" s="42">
         <v>1997</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12" s="38">
         <v>40269</v>
       </c>
-      <c r="AD12" s="55" t="s">
+      <c r="AD12" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="49">
+      <c r="C13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="37">
         <v>24985</v>
       </c>
-      <c r="E13" s="40" t="str">
+      <c r="E13" s="28" t="str">
         <f t="shared" si="0"/>
         <v>susiandrianis.pdpaddress@man.com</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="36">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36">
-        <v>4</v>
-      </c>
-      <c r="I13" s="36" t="s">
+      <c r="G13" s="24">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24">
+        <v>4</v>
+      </c>
+      <c r="I13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="36">
-        <v>1</v>
-      </c>
-      <c r="K13" s="36" t="s">
+      <c r="J13" s="24">
+        <v>1</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="42">
-        <v>4</v>
-      </c>
-      <c r="N13" s="50">
+      <c r="M13" s="30">
+        <v>4</v>
+      </c>
+      <c r="N13" s="38">
         <v>44470</v>
       </c>
-      <c r="O13" s="42">
-        <v>1</v>
-      </c>
-      <c r="P13" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="36">
+      <c r="O13" s="30">
+        <v>1</v>
+      </c>
+      <c r="P13" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="24">
         <v>5</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="39">
         <v>6</v>
       </c>
-      <c r="S13" s="54">
+      <c r="S13" s="42">
         <v>1993</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="31">
         <v>40269</v>
       </c>
-      <c r="AD13" s="57" t="s">
+      <c r="AD13" s="45" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="50">
+      <c r="C14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="38">
         <v>23170</v>
       </c>
-      <c r="E14" s="40" t="str">
+      <c r="E14" s="28" t="str">
         <f t="shared" si="0"/>
         <v>dra.maslinapaddress@man.com</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="36">
-        <v>1</v>
-      </c>
-      <c r="H14" s="36">
-        <v>4</v>
-      </c>
-      <c r="I14" s="36" t="s">
+      <c r="G14" s="24">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24">
+        <v>4</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="36">
-        <v>1</v>
-      </c>
-      <c r="K14" s="36" t="s">
+      <c r="J14" s="24">
+        <v>1</v>
+      </c>
+      <c r="K14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="42">
-        <v>4</v>
-      </c>
-      <c r="N14" s="50">
+      <c r="M14" s="30">
+        <v>4</v>
+      </c>
+      <c r="N14" s="38">
         <v>36800</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="30">
         <v>2</v>
       </c>
-      <c r="P14" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="36">
+      <c r="P14" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="24">
         <v>3</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="42">
         <v>3</v>
       </c>
-      <c r="S14" s="54">
+      <c r="S14" s="42">
         <v>1989</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14" s="38">
         <v>41000</v>
       </c>
-      <c r="AD14" s="55" t="s">
+      <c r="AD14" s="43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="50">
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="38">
         <v>24169</v>
       </c>
-      <c r="E15" s="40" t="str">
+      <c r="E15" s="28" t="str">
         <f t="shared" si="0"/>
         <v>nirwanis.pdpaddress@man.com</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="36">
-        <v>1</v>
-      </c>
-      <c r="H15" s="36">
-        <v>4</v>
-      </c>
-      <c r="I15" s="36" t="s">
+      <c r="G15" s="24">
+        <v>1</v>
+      </c>
+      <c r="H15" s="24">
+        <v>4</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="36">
-        <v>1</v>
-      </c>
-      <c r="K15" s="36" t="s">
+      <c r="J15" s="24">
+        <v>1</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="42">
-        <v>4</v>
-      </c>
-      <c r="N15" s="50">
+      <c r="M15" s="30">
+        <v>4</v>
+      </c>
+      <c r="N15" s="38">
         <v>36800</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="30">
         <v>2</v>
       </c>
-      <c r="P15" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="36">
+      <c r="P15" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="24">
         <v>3</v>
       </c>
-      <c r="R15" s="54">
-        <v>4</v>
-      </c>
-      <c r="S15" s="54">
+      <c r="R15" s="42">
+        <v>4</v>
+      </c>
+      <c r="S15" s="42">
         <v>1991</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15" s="38">
         <v>41000</v>
       </c>
-      <c r="AD15" s="55" t="s">
+      <c r="AD15" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="50">
+      <c r="C16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="38">
         <v>25893</v>
       </c>
-      <c r="E16" s="40" t="str">
+      <c r="E16" s="28" t="str">
         <f t="shared" si="0"/>
         <v>zulitanawarnis.pdpaddress@man.com</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="36">
-        <v>1</v>
-      </c>
-      <c r="H16" s="36">
-        <v>4</v>
-      </c>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24">
+        <v>4</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="36">
-        <v>1</v>
-      </c>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="24">
+        <v>1</v>
+      </c>
+      <c r="K16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="42">
-        <v>4</v>
-      </c>
-      <c r="N16" s="50">
+      <c r="M16" s="30">
+        <v>4</v>
+      </c>
+      <c r="N16" s="38">
         <v>37012</v>
       </c>
-      <c r="O16" s="42">
-        <v>1</v>
-      </c>
-      <c r="P16" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="36">
+      <c r="O16" s="30">
+        <v>1</v>
+      </c>
+      <c r="P16" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="24">
         <v>6</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="42">
         <v>5</v>
       </c>
-      <c r="S16" s="54">
+      <c r="S16" s="42">
         <v>1995</v>
       </c>
-      <c r="T16" s="50">
+      <c r="T16" s="38">
         <v>41000</v>
       </c>
-      <c r="AD16" s="55" t="s">
+      <c r="AD16" s="43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="50">
+      <c r="C17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="38">
         <v>26022</v>
       </c>
-      <c r="E17" s="40" t="str">
+      <c r="E17" s="28" t="str">
         <f t="shared" si="0"/>
         <v>idesvianamanurungmapaddress@man.com</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="36">
-        <v>1</v>
-      </c>
-      <c r="H17" s="36">
-        <v>4</v>
-      </c>
-      <c r="I17" s="36" t="s">
+      <c r="G17" s="24">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24">
+        <v>4</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="36">
-        <v>1</v>
-      </c>
-      <c r="K17" s="36" t="s">
+      <c r="J17" s="24">
+        <v>1</v>
+      </c>
+      <c r="K17" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="30">
         <v>3</v>
       </c>
-      <c r="N17" s="50">
+      <c r="N17" s="38">
         <v>37165</v>
       </c>
-      <c r="O17" s="42">
-        <v>4</v>
-      </c>
-      <c r="P17" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="36">
+      <c r="O17" s="30">
+        <v>4</v>
+      </c>
+      <c r="P17" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="24">
         <v>3</v>
       </c>
-      <c r="R17" s="54">
-        <v>4</v>
-      </c>
-      <c r="S17" s="54">
+      <c r="R17" s="42">
+        <v>4</v>
+      </c>
+      <c r="S17" s="42">
         <v>1996</v>
       </c>
-      <c r="T17" s="50">
+      <c r="T17" s="38">
         <v>41000</v>
       </c>
-      <c r="AD17" s="55" t="s">
+      <c r="AD17" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="38">
         <v>26111</v>
       </c>
-      <c r="E18" s="40" t="str">
+      <c r="E18" s="28" t="str">
         <f t="shared" si="0"/>
         <v>rahmirizzatis.pdladdress@man.com</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="36">
-        <v>1</v>
-      </c>
-      <c r="H18" s="36">
-        <v>4</v>
-      </c>
-      <c r="I18" s="36" t="s">
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <v>4</v>
+      </c>
+      <c r="I18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="36">
-        <v>1</v>
-      </c>
-      <c r="K18" s="36" t="s">
+      <c r="J18" s="24">
+        <v>1</v>
+      </c>
+      <c r="K18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="30">
         <v>3</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="38">
         <v>38353</v>
       </c>
-      <c r="O18" s="42">
-        <v>1</v>
-      </c>
-      <c r="P18" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="36">
-        <v>1</v>
-      </c>
-      <c r="R18" s="54">
+      <c r="O18" s="30">
+        <v>1</v>
+      </c>
+      <c r="P18" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>1</v>
+      </c>
+      <c r="R18" s="42">
         <v>11</v>
       </c>
-      <c r="S18" s="54">
+      <c r="S18" s="42">
         <v>1996</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18" s="38">
         <v>41000</v>
       </c>
-      <c r="AD18" s="55" t="s">
+      <c r="AD18" s="43" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="50">
+      <c r="C19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="38">
         <v>24633</v>
       </c>
-      <c r="E19" s="40" t="str">
+      <c r="E19" s="28" t="str">
         <f t="shared" si="0"/>
         <v>alhudas.pd.ipaddress@man.com</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="36">
-        <v>1</v>
-      </c>
-      <c r="H19" s="36">
-        <v>4</v>
-      </c>
-      <c r="I19" s="36" t="s">
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>4</v>
+      </c>
+      <c r="I19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="36">
-        <v>1</v>
-      </c>
-      <c r="K19" s="36" t="s">
+      <c r="J19" s="24">
+        <v>1</v>
+      </c>
+      <c r="K19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="41" t="s">
+      <c r="L19" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="30">
         <v>3</v>
       </c>
-      <c r="N19" s="50">
+      <c r="N19" s="38">
         <v>39692</v>
       </c>
-      <c r="O19" s="42">
-        <v>4</v>
-      </c>
-      <c r="P19" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="36">
+      <c r="O19" s="30">
+        <v>4</v>
+      </c>
+      <c r="P19" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="24">
         <v>3</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="42">
         <v>6</v>
       </c>
-      <c r="S19" s="54">
+      <c r="S19" s="42">
         <v>1993</v>
       </c>
-      <c r="T19" s="50">
+      <c r="T19" s="38">
         <v>41000</v>
       </c>
-      <c r="AD19" s="55" t="s">
+      <c r="AD19" s="43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="50">
+      <c r="C20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="38">
         <v>27764</v>
       </c>
-      <c r="E20" s="40" t="str">
+      <c r="E20" s="28" t="str">
         <f t="shared" si="0"/>
         <v>dra.mahyanapaddress@man.com</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="36">
-        <v>1</v>
-      </c>
-      <c r="H20" s="36">
-        <v>4</v>
-      </c>
-      <c r="I20" s="36" t="s">
+      <c r="G20" s="24">
+        <v>1</v>
+      </c>
+      <c r="H20" s="24">
+        <v>4</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="36">
-        <v>1</v>
-      </c>
-      <c r="K20" s="36" t="s">
+      <c r="J20" s="24">
+        <v>1</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="L20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="42">
-        <v>4</v>
-      </c>
-      <c r="N20" s="52">
+      <c r="M20" s="30">
+        <v>4</v>
+      </c>
+      <c r="N20" s="40">
         <v>43617</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="30">
         <v>2</v>
       </c>
-      <c r="P20" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="36">
-        <v>1</v>
-      </c>
-      <c r="R20" s="54">
+      <c r="P20" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>1</v>
+      </c>
+      <c r="R20" s="42">
         <v>8</v>
       </c>
-      <c r="S20" s="54">
+      <c r="S20" s="42">
         <v>1999</v>
       </c>
-      <c r="T20" s="50">
+      <c r="T20" s="38">
         <v>42461</v>
       </c>
-      <c r="AD20" s="55" t="s">
+      <c r="AD20" s="43" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="50">
+      <c r="C21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="38">
         <v>27141</v>
       </c>
-      <c r="E21" s="40" t="str">
+      <c r="E21" s="28" t="str">
         <f t="shared" si="0"/>
         <v>dra.asfiapaddress@man.com</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="36">
-        <v>1</v>
-      </c>
-      <c r="H21" s="36">
-        <v>4</v>
-      </c>
-      <c r="I21" s="36" t="s">
+      <c r="G21" s="24">
+        <v>1</v>
+      </c>
+      <c r="H21" s="24">
+        <v>4</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="36">
-        <v>1</v>
-      </c>
-      <c r="K21" s="36" t="s">
+      <c r="J21" s="24">
+        <v>1</v>
+      </c>
+      <c r="K21" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="41" t="s">
+      <c r="L21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="30">
         <v>3</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="38">
         <v>41000</v>
       </c>
-      <c r="O21" s="42">
-        <v>1</v>
-      </c>
-      <c r="P21" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="36">
-        <v>1</v>
-      </c>
-      <c r="R21" s="54">
+      <c r="O21" s="30">
+        <v>1</v>
+      </c>
+      <c r="P21" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>1</v>
+      </c>
+      <c r="R21" s="42">
         <v>13</v>
       </c>
-      <c r="S21" s="54">
+      <c r="S21" s="42">
         <v>1998</v>
       </c>
-      <c r="T21" s="50">
+      <c r="T21" s="38">
         <v>42461</v>
       </c>
-      <c r="AD21" s="55" t="s">
+      <c r="AD21" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="50">
+      <c r="C22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="38">
         <v>27999</v>
       </c>
-      <c r="E22" s="40" t="str">
+      <c r="E22" s="28" t="str">
         <f t="shared" si="0"/>
         <v>hafinimapaddress@man.com</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="36">
-        <v>1</v>
-      </c>
-      <c r="H22" s="36">
-        <v>4</v>
-      </c>
-      <c r="I22" s="36" t="s">
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+      <c r="H22" s="24">
+        <v>4</v>
+      </c>
+      <c r="I22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="36">
-        <v>1</v>
-      </c>
-      <c r="K22" s="36" t="s">
+      <c r="J22" s="24">
+        <v>1</v>
+      </c>
+      <c r="K22" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="30">
         <v>3</v>
       </c>
-      <c r="N22" s="50">
+      <c r="N22" s="38">
         <v>38353</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="30">
         <v>3</v>
       </c>
-      <c r="P22" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="36">
+      <c r="P22" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="24">
         <v>3</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="42">
         <v>9</v>
       </c>
-      <c r="S22" s="54">
+      <c r="S22" s="42">
         <v>2001</v>
       </c>
-      <c r="T22" s="50">
+      <c r="T22" s="38">
         <v>43191</v>
       </c>
-      <c r="AD22" s="55" t="s">
+      <c r="AD22" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="50">
+      <c r="C23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="38">
         <v>29473</v>
       </c>
-      <c r="E23" s="40" t="str">
+      <c r="E23" s="28" t="str">
         <f t="shared" si="0"/>
         <v>sitiyulianas.pdpaddress@man.com</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="36">
-        <v>1</v>
-      </c>
-      <c r="H23" s="36">
-        <v>4</v>
-      </c>
-      <c r="I23" s="36" t="s">
+      <c r="G23" s="24">
+        <v>1</v>
+      </c>
+      <c r="H23" s="24">
+        <v>4</v>
+      </c>
+      <c r="I23" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="36">
-        <v>1</v>
-      </c>
-      <c r="K23" s="36" t="s">
+      <c r="J23" s="24">
+        <v>1</v>
+      </c>
+      <c r="K23" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="42">
-        <v>4</v>
-      </c>
-      <c r="N23" s="50">
+      <c r="M23" s="30">
+        <v>4</v>
+      </c>
+      <c r="N23" s="38">
         <v>43952</v>
       </c>
-      <c r="O23" s="42">
+      <c r="O23" s="30">
         <v>2</v>
       </c>
-      <c r="P23" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="36">
+      <c r="P23" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="24">
         <v>3</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="42">
         <v>16</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="42">
         <v>2004</v>
       </c>
-      <c r="T23" s="50">
+      <c r="T23" s="38">
         <v>45200</v>
       </c>
-      <c r="AD23" s="55" t="s">
+      <c r="AD23" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="58">
+      <c r="C24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="46">
         <v>29165</v>
       </c>
-      <c r="E24" s="40" t="str">
+      <c r="E24" s="28" t="str">
         <f t="shared" si="0"/>
         <v>drs.m.saminpaddress@man.com</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="36">
-        <v>1</v>
-      </c>
-      <c r="H24" s="36">
-        <v>4</v>
-      </c>
-      <c r="I24" s="36" t="s">
+      <c r="G24" s="24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="24">
+        <v>4</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="36">
-        <v>1</v>
-      </c>
-      <c r="K24" s="36" t="s">
+      <c r="J24" s="24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M24" s="42">
-        <v>4</v>
-      </c>
-      <c r="N24" s="58">
+      <c r="M24" s="30">
+        <v>4</v>
+      </c>
+      <c r="N24" s="46">
         <v>41609</v>
       </c>
-      <c r="O24" s="42">
-        <v>1</v>
-      </c>
-      <c r="P24" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="36">
-        <v>1</v>
-      </c>
-      <c r="R24" s="59">
-        <v>10</v>
-      </c>
-      <c r="S24" s="59">
+      <c r="O24" s="30">
+        <v>1</v>
+      </c>
+      <c r="P24" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="47">
+        <v>10</v>
+      </c>
+      <c r="S24" s="47">
         <v>2003</v>
       </c>
-      <c r="T24" s="58">
+      <c r="T24" s="46">
         <v>41913</v>
       </c>
-      <c r="AD24" s="60" t="s">
+      <c r="AD24" s="48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="61">
+      <c r="C25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="49">
         <v>29122</v>
       </c>
-      <c r="E25" s="40" t="str">
+      <c r="E25" s="28" t="str">
         <f t="shared" si="0"/>
         <v>rosmainis.pdpaddress@man.com</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="36">
-        <v>1</v>
-      </c>
-      <c r="H25" s="36">
-        <v>4</v>
-      </c>
-      <c r="I25" s="36" t="s">
+      <c r="G25" s="24">
+        <v>1</v>
+      </c>
+      <c r="H25" s="24">
+        <v>4</v>
+      </c>
+      <c r="I25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="36">
-        <v>1</v>
-      </c>
-      <c r="K25" s="36" t="s">
+      <c r="J25" s="24">
+        <v>1</v>
+      </c>
+      <c r="K25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="L25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="42">
-        <v>4</v>
-      </c>
-      <c r="N25" s="50">
+      <c r="M25" s="30">
+        <v>4</v>
+      </c>
+      <c r="N25" s="38">
         <v>43709</v>
       </c>
-      <c r="O25" s="42">
-        <v>1</v>
-      </c>
-      <c r="P25" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="36">
-        <v>4</v>
-      </c>
-      <c r="R25" s="54">
+      <c r="O25" s="30">
+        <v>1</v>
+      </c>
+      <c r="P25" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>4</v>
+      </c>
+      <c r="R25" s="42">
         <v>14</v>
       </c>
-      <c r="S25" s="54">
+      <c r="S25" s="42">
         <v>2003</v>
       </c>
-      <c r="T25" s="50">
+      <c r="T25" s="38">
         <v>42461</v>
       </c>
-      <c r="AD25" s="62" t="s">
+      <c r="AD25" s="50" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="40" t="str">
+      <c r="E26" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ramlans.pdpaddress@man.com</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="36">
-        <v>1</v>
-      </c>
-      <c r="H26" s="36">
-        <v>4</v>
-      </c>
-      <c r="I26" s="36" t="s">
+      <c r="G26" s="24">
+        <v>1</v>
+      </c>
+      <c r="H26" s="24">
+        <v>4</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="36">
-        <v>1</v>
-      </c>
-      <c r="K26" s="36" t="s">
+      <c r="J26" s="24">
+        <v>1</v>
+      </c>
+      <c r="K26" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M26" s="42">
-        <v>4</v>
-      </c>
-      <c r="N26" s="58">
+      <c r="M26" s="30">
+        <v>4</v>
+      </c>
+      <c r="N26" s="46">
         <v>42186</v>
       </c>
-      <c r="O26" s="42">
-        <v>1</v>
-      </c>
-      <c r="P26" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="36">
-        <v>1</v>
-      </c>
-      <c r="R26" s="59">
+      <c r="O26" s="30">
+        <v>1</v>
+      </c>
+      <c r="P26" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>1</v>
+      </c>
+      <c r="R26" s="47">
         <v>11</v>
       </c>
-      <c r="S26" s="59">
+      <c r="S26" s="47">
         <v>2002</v>
       </c>
-      <c r="T26" s="58">
+      <c r="T26" s="46">
         <v>43009</v>
       </c>
-      <c r="AD26" s="63" t="s">
+      <c r="AD26" s="51" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="50">
+      <c r="C27" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="38">
         <v>27008</v>
       </c>
-      <c r="E27" s="40" t="str">
+      <c r="E27" s="28" t="str">
         <f t="shared" si="0"/>
         <v>rosidas.pdpaddress@man.com</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="36">
-        <v>1</v>
-      </c>
-      <c r="H27" s="36">
-        <v>4</v>
-      </c>
-      <c r="I27" s="36" t="s">
+      <c r="G27" s="24">
+        <v>1</v>
+      </c>
+      <c r="H27" s="24">
+        <v>4</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="36">
-        <v>1</v>
-      </c>
-      <c r="K27" s="36" t="s">
+      <c r="J27" s="24">
+        <v>1</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="30">
         <v>3</v>
       </c>
-      <c r="N27" s="50">
+      <c r="N27" s="38">
         <v>43739</v>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="30">
         <v>3</v>
       </c>
-      <c r="P27" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="36">
-        <v>1</v>
-      </c>
-      <c r="R27" s="54">
+      <c r="P27" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>1</v>
+      </c>
+      <c r="R27" s="42">
         <v>14</v>
       </c>
-      <c r="S27" s="54">
+      <c r="S27" s="42">
         <v>1999</v>
       </c>
-      <c r="T27" s="50">
+      <c r="T27" s="38">
         <v>45200</v>
       </c>
-      <c r="AD27" s="55" t="s">
+      <c r="AD27" s="43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="38">
         <v>28178</v>
       </c>
-      <c r="E28" s="40" t="str">
+      <c r="E28" s="28" t="str">
         <f t="shared" si="0"/>
         <v>masdians.pdladdress@man.com</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="36">
-        <v>1</v>
-      </c>
-      <c r="H28" s="36">
-        <v>4</v>
-      </c>
-      <c r="I28" s="36" t="s">
+      <c r="G28" s="24">
+        <v>1</v>
+      </c>
+      <c r="H28" s="24">
+        <v>4</v>
+      </c>
+      <c r="I28" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="36">
-        <v>1</v>
-      </c>
-      <c r="K28" s="36" t="s">
+      <c r="J28" s="24">
+        <v>1</v>
+      </c>
+      <c r="K28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="42">
-        <v>4</v>
-      </c>
-      <c r="N28" s="50">
+      <c r="M28" s="30">
+        <v>4</v>
+      </c>
+      <c r="N28" s="38">
         <v>43009</v>
       </c>
-      <c r="O28" s="42">
-        <v>1</v>
-      </c>
-      <c r="P28" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="36">
+      <c r="O28" s="30">
+        <v>1</v>
+      </c>
+      <c r="P28" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="24">
         <v>7</v>
       </c>
-      <c r="R28" s="54">
+      <c r="R28" s="42">
         <v>14</v>
       </c>
-      <c r="S28" s="54">
+      <c r="S28" s="42">
         <v>2005</v>
       </c>
-      <c r="T28" s="50">
+      <c r="T28" s="38">
         <v>44470</v>
       </c>
-      <c r="AD28" s="62" t="s">
+      <c r="AD28" s="50" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="38">
         <v>30965</v>
       </c>
-      <c r="E29" s="40" t="str">
+      <c r="E29" s="28" t="str">
         <f t="shared" si="0"/>
         <v>jonaerwentas.pdladdress@man.com</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="36">
-        <v>1</v>
-      </c>
-      <c r="H29" s="36">
-        <v>4</v>
-      </c>
-      <c r="I29" s="36" t="s">
+      <c r="G29" s="24">
+        <v>1</v>
+      </c>
+      <c r="H29" s="24">
+        <v>4</v>
+      </c>
+      <c r="I29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="36">
-        <v>1</v>
-      </c>
-      <c r="K29" s="36" t="s">
+      <c r="J29" s="24">
+        <v>1</v>
+      </c>
+      <c r="K29" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="30">
         <v>3</v>
       </c>
-      <c r="N29" s="50">
+      <c r="N29" s="38">
         <v>39814</v>
       </c>
-      <c r="O29" s="42">
-        <v>1</v>
-      </c>
-      <c r="P29" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="36">
+      <c r="O29" s="30">
+        <v>1</v>
+      </c>
+      <c r="P29" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="24">
         <v>3</v>
       </c>
-      <c r="R29" s="54">
+      <c r="R29" s="42">
         <v>12</v>
       </c>
-      <c r="S29" s="54">
+      <c r="S29" s="42">
         <v>2007</v>
       </c>
-      <c r="T29" s="50">
+      <c r="T29" s="38">
         <v>45017</v>
       </c>
-      <c r="AD29" s="55" t="s">
+      <c r="AD29" s="43" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="38">
         <v>24807</v>
       </c>
-      <c r="E30" s="40" t="str">
+      <c r="E30" s="28" t="str">
         <f t="shared" si="0"/>
         <v>drs.mukhlisusmanladdress@man.com</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="36">
-        <v>1</v>
-      </c>
-      <c r="H30" s="36">
-        <v>4</v>
-      </c>
-      <c r="I30" s="36" t="s">
+      <c r="G30" s="24">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24">
+        <v>4</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="36">
-        <v>1</v>
-      </c>
-      <c r="K30" s="36" t="s">
+      <c r="J30" s="24">
+        <v>1</v>
+      </c>
+      <c r="K30" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="42">
-        <v>4</v>
-      </c>
-      <c r="N30" s="50">
+      <c r="M30" s="30">
+        <v>4</v>
+      </c>
+      <c r="N30" s="38">
         <v>40269</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="30">
         <v>2</v>
       </c>
-      <c r="P30" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="36">
+      <c r="P30" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="24">
         <v>3</v>
       </c>
-      <c r="R30" s="54">
+      <c r="R30" s="42">
         <v>5</v>
       </c>
-      <c r="S30" s="54">
+      <c r="S30" s="42">
         <v>2000</v>
       </c>
-      <c r="T30" s="50">
+      <c r="T30" s="38">
         <v>42826</v>
       </c>
-      <c r="AD30" s="55" t="s">
+      <c r="AD30" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="50">
+      <c r="C31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="38">
         <v>28488</v>
       </c>
-      <c r="E31" s="40" t="str">
+      <c r="E31" s="28" t="str">
         <f t="shared" si="0"/>
         <v>dra.dewisartikapaddress@man.com</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="36">
-        <v>1</v>
-      </c>
-      <c r="H31" s="36">
-        <v>4</v>
-      </c>
-      <c r="I31" s="36" t="s">
+      <c r="G31" s="24">
+        <v>1</v>
+      </c>
+      <c r="H31" s="24">
+        <v>4</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="36">
-        <v>1</v>
-      </c>
-      <c r="K31" s="36" t="s">
+      <c r="J31" s="24">
+        <v>1</v>
+      </c>
+      <c r="K31" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M31" s="42">
-        <v>4</v>
-      </c>
-      <c r="N31" s="50">
+      <c r="M31" s="30">
+        <v>4</v>
+      </c>
+      <c r="N31" s="38">
         <v>44440</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="30">
         <v>2</v>
       </c>
-      <c r="P31" s="36">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="36">
+      <c r="P31" s="24">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="24">
         <v>9</v>
       </c>
-      <c r="R31" s="54">
+      <c r="R31" s="42">
         <v>13</v>
       </c>
-      <c r="S31" s="54">
+      <c r="S31" s="42">
         <v>1998</v>
       </c>
-      <c r="T31" s="50">
+      <c r="T31" s="38">
         <v>45200</v>
       </c>
-      <c r="AD31" s="57" t="s">
+      <c r="AD31" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="50">
+      <c r="C32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="38">
         <v>23713</v>
       </c>
-      <c r="E32" s="40" t="str">
+      <c r="E32" s="28" t="str">
         <f t="shared" si="0"/>
         <v>novadianas.pd.ipaddress@man.com</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="36">
-        <v>1</v>
-      </c>
-      <c r="H32" s="36">
-        <v>4</v>
-      </c>
-      <c r="I32" s="36" t="s">
+      <c r="G32" s="24">
+        <v>1</v>
+      </c>
+      <c r="H32" s="24">
+        <v>4</v>
+      </c>
+      <c r="I32" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="36">
-        <v>1</v>
-      </c>
-      <c r="K32" s="36" t="s">
+      <c r="J32" s="24">
+        <v>1</v>
+      </c>
+      <c r="K32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="41" t="s">
+      <c r="L32" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="30">
         <v>3</v>
       </c>
-      <c r="N32" s="50">
+      <c r="N32" s="38">
         <v>42979</v>
       </c>
-      <c r="O32" s="42">
-        <v>4</v>
-      </c>
-      <c r="P32" s="36">
+      <c r="O32" s="30">
+        <v>4</v>
+      </c>
+      <c r="P32" s="24">
         <v>9</v>
       </c>
-      <c r="Q32" s="36">
-        <v>1</v>
-      </c>
-      <c r="R32" s="54">
+      <c r="Q32" s="24">
+        <v>1</v>
+      </c>
+      <c r="R32" s="42">
         <v>14</v>
       </c>
-      <c r="S32" s="54">
+      <c r="S32" s="42">
         <v>1991</v>
       </c>
-      <c r="T32" s="50">
+      <c r="T32" s="38">
         <v>45931</v>
       </c>
-      <c r="AD32" s="55" t="s">
+      <c r="AD32" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="48" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="50">
+      <c r="C33" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="38">
         <v>31657</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="28" t="str">
         <f t="shared" si="0"/>
         <v>muslailatis.pdpaddress@man.com</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="36">
-        <v>1</v>
-      </c>
-      <c r="H33" s="36">
-        <v>4</v>
-      </c>
-      <c r="I33" s="36" t="s">
+      <c r="G33" s="24">
+        <v>1</v>
+      </c>
+      <c r="H33" s="24">
+        <v>4</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="36">
-        <v>1</v>
-      </c>
-      <c r="K33" s="36" t="s">
+      <c r="J33" s="24">
+        <v>1</v>
+      </c>
+      <c r="K33" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L33" s="41" t="s">
+      <c r="L33" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="42">
-        <v>4</v>
-      </c>
-      <c r="N33" s="50">
+      <c r="M33" s="30">
+        <v>4</v>
+      </c>
+      <c r="N33" s="38">
         <v>44409</v>
       </c>
-      <c r="O33" s="42">
-        <v>1</v>
-      </c>
-      <c r="P33" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="36">
-        <v>1</v>
-      </c>
-      <c r="R33" s="54">
+      <c r="O33" s="30">
+        <v>1</v>
+      </c>
+      <c r="P33" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>1</v>
+      </c>
+      <c r="R33" s="42">
         <v>14</v>
       </c>
-      <c r="S33" s="54">
+      <c r="S33" s="42">
         <v>2011</v>
       </c>
-      <c r="T33" s="52">
+      <c r="T33" s="40">
         <v>44986</v>
       </c>
-      <c r="AD33" s="57" t="s">
+      <c r="AD33" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="48" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="50">
+      <c r="C34" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="38">
         <v>34095</v>
       </c>
-      <c r="E34" s="40" t="str">
+      <c r="E34" s="28" t="str">
         <f t="shared" si="0"/>
         <v>murikawatis.pdpaddress@man.com</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="36">
-        <v>1</v>
-      </c>
-      <c r="H34" s="36">
-        <v>4</v>
-      </c>
-      <c r="I34" s="36" t="s">
+      <c r="G34" s="24">
+        <v>1</v>
+      </c>
+      <c r="H34" s="24">
+        <v>4</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="24">
         <v>0</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K34" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="36"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="36">
-        <v>1</v>
-      </c>
-      <c r="R34" s="54">
+      <c r="M34" s="24"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>1</v>
+      </c>
+      <c r="R34" s="42">
         <v>14</v>
       </c>
-      <c r="S34" s="54">
+      <c r="S34" s="42">
         <v>2011</v>
       </c>
-      <c r="T34" s="52"/>
-      <c r="AD34" s="57" t="s">
+      <c r="T34" s="40"/>
+      <c r="AD34" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="50">
+      <c r="C35" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="38">
         <v>31581</v>
       </c>
-      <c r="E35" s="40" t="str">
+      <c r="E35" s="28" t="str">
         <f t="shared" si="0"/>
         <v>sripuspitawatysepaddress@man.com</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="36">
-        <v>1</v>
-      </c>
-      <c r="H35" s="36">
-        <v>4</v>
-      </c>
-      <c r="I35" s="36" t="s">
+      <c r="G35" s="24">
+        <v>1</v>
+      </c>
+      <c r="H35" s="24">
+        <v>4</v>
+      </c>
+      <c r="I35" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="24">
         <v>0</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="41" t="s">
+      <c r="L35" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M35" s="36"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="36">
-        <v>1</v>
-      </c>
-      <c r="R35" s="54">
+      <c r="M35" s="24"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="24">
+        <v>1</v>
+      </c>
+      <c r="R35" s="42">
         <v>14</v>
       </c>
-      <c r="S35" s="54">
+      <c r="S35" s="42">
         <v>2011</v>
       </c>
-      <c r="T35" s="52"/>
-      <c r="AD35" s="57" t="s">
+      <c r="T35" s="40"/>
+      <c r="AD35" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="64">
+      <c r="C36" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="52">
         <v>29258</v>
       </c>
-      <c r="E36" s="40" t="str">
+      <c r="E36" s="28" t="str">
         <f t="shared" si="0"/>
         <v>musrifatuns.pd.ipaddress@man.com</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="36">
-        <v>1</v>
-      </c>
-      <c r="H36" s="36">
-        <v>4</v>
-      </c>
-      <c r="I36" s="36" t="s">
+      <c r="G36" s="24">
+        <v>1</v>
+      </c>
+      <c r="H36" s="24">
+        <v>4</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="24">
         <v>0</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L36" s="41" t="s">
+      <c r="L36" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M36" s="36"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="36">
-        <v>1</v>
-      </c>
-      <c r="R36" s="54">
+      <c r="M36" s="24"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="24">
+        <v>1</v>
+      </c>
+      <c r="R36" s="42">
         <v>14</v>
       </c>
-      <c r="S36" s="54">
+      <c r="S36" s="42">
         <v>2011</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="AD36" s="57" t="s">
+      <c r="T36" s="52"/>
+      <c r="AD36" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="48" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="64">
+      <c r="C37" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="52">
         <v>25027</v>
       </c>
-      <c r="E37" s="40" t="str">
+      <c r="E37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>hasbunarawem.pdpaddress@man.com</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="36">
-        <v>1</v>
-      </c>
-      <c r="H37" s="36">
-        <v>4</v>
-      </c>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="24">
+        <v>1</v>
+      </c>
+      <c r="H37" s="24">
+        <v>4</v>
+      </c>
+      <c r="I37" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="24">
         <v>0</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="41" t="s">
+      <c r="L37" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="36">
-        <v>1</v>
-      </c>
-      <c r="R37" s="54">
+      <c r="M37" s="24"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="24">
+        <v>1</v>
+      </c>
+      <c r="R37" s="42">
         <v>14</v>
       </c>
-      <c r="S37" s="54">
+      <c r="S37" s="42">
         <v>2011</v>
       </c>
-      <c r="T37" s="64"/>
-      <c r="AD37" s="57" t="s">
+      <c r="T37" s="52"/>
+      <c r="AD37" s="45" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="64">
+      <c r="C38" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="52">
         <v>25028</v>
       </c>
-      <c r="E38" s="40" t="str">
+      <c r="E38" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ayurafitris.pdpaddress@man.com</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="36">
-        <v>1</v>
-      </c>
-      <c r="H38" s="36">
-        <v>4</v>
-      </c>
-      <c r="I38" s="36" t="s">
+      <c r="G38" s="24">
+        <v>1</v>
+      </c>
+      <c r="H38" s="24">
+        <v>4</v>
+      </c>
+      <c r="I38" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="24">
         <v>0</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L38" s="41" t="s">
+      <c r="L38" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P38" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="36">
-        <v>1</v>
-      </c>
-      <c r="R38" s="54">
+      <c r="P38" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="24">
+        <v>1</v>
+      </c>
+      <c r="R38" s="42">
         <v>14</v>
       </c>
-      <c r="S38" s="54">
+      <c r="S38" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="64">
+      <c r="C39" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="52">
         <v>25029</v>
       </c>
-      <c r="E39" s="40" t="str">
+      <c r="E39" s="28" t="str">
         <f t="shared" si="0"/>
         <v>yunitafitris.pdpaddress@man.com</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="36">
-        <v>1</v>
-      </c>
-      <c r="H39" s="36">
-        <v>4</v>
-      </c>
-      <c r="I39" s="36" t="s">
+      <c r="G39" s="24">
+        <v>1</v>
+      </c>
+      <c r="H39" s="24">
+        <v>4</v>
+      </c>
+      <c r="I39" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="24">
         <v>0</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="K39" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="41" t="s">
+      <c r="L39" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P39" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="36">
-        <v>1</v>
-      </c>
-      <c r="R39" s="54">
+      <c r="P39" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="24">
+        <v>1</v>
+      </c>
+      <c r="R39" s="42">
         <v>14</v>
       </c>
-      <c r="S39" s="54">
+      <c r="S39" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="48" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="64">
+      <c r="C40" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="52">
         <v>25030</v>
       </c>
-      <c r="E40" s="40" t="str">
+      <c r="E40" s="28" t="str">
         <f t="shared" si="0"/>
         <v>suminas.pd.ipaddress@man.com</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="36">
-        <v>1</v>
-      </c>
-      <c r="H40" s="36">
-        <v>4</v>
-      </c>
-      <c r="I40" s="36" t="s">
+      <c r="G40" s="24">
+        <v>1</v>
+      </c>
+      <c r="H40" s="24">
+        <v>4</v>
+      </c>
+      <c r="I40" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="24">
         <v>0</v>
       </c>
-      <c r="K40" s="36" t="s">
+      <c r="K40" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="41" t="s">
+      <c r="L40" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P40" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="36">
-        <v>1</v>
-      </c>
-      <c r="R40" s="54">
+      <c r="P40" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="24">
+        <v>1</v>
+      </c>
+      <c r="R40" s="42">
         <v>14</v>
       </c>
-      <c r="S40" s="54">
+      <c r="S40" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="48" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="64">
+      <c r="C41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="52">
         <v>25031</v>
       </c>
-      <c r="E41" s="40" t="str">
+      <c r="E41" s="28" t="str">
         <f t="shared" si="0"/>
         <v>mawarnimartianatah.s.pdpaddress@man.com</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="36">
-        <v>1</v>
-      </c>
-      <c r="H41" s="36">
-        <v>4</v>
-      </c>
-      <c r="I41" s="36" t="s">
+      <c r="G41" s="24">
+        <v>1</v>
+      </c>
+      <c r="H41" s="24">
+        <v>4</v>
+      </c>
+      <c r="I41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="24">
         <v>0</v>
       </c>
-      <c r="K41" s="36" t="s">
+      <c r="K41" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="41" t="s">
+      <c r="L41" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P41" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="36">
-        <v>1</v>
-      </c>
-      <c r="R41" s="54">
+      <c r="P41" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>1</v>
+      </c>
+      <c r="R41" s="42">
         <v>14</v>
       </c>
-      <c r="S41" s="54">
+      <c r="S41" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="64">
+      <c r="C42" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="52">
         <v>25032</v>
       </c>
-      <c r="E42" s="40" t="str">
+      <c r="E42" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ihfaruddins.pdpaddress@man.com</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="36">
-        <v>1</v>
-      </c>
-      <c r="H42" s="36">
-        <v>4</v>
-      </c>
-      <c r="I42" s="36" t="s">
+      <c r="G42" s="24">
+        <v>1</v>
+      </c>
+      <c r="H42" s="24">
+        <v>4</v>
+      </c>
+      <c r="I42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42" s="24">
         <v>0</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L42" s="41" t="s">
+      <c r="L42" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="36">
-        <v>1</v>
-      </c>
-      <c r="R42" s="54">
+      <c r="P42" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="24">
+        <v>1</v>
+      </c>
+      <c r="R42" s="42">
         <v>14</v>
       </c>
-      <c r="S42" s="54">
+      <c r="S42" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="48" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="64">
+      <c r="C43" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="52">
         <v>25033</v>
       </c>
-      <c r="E43" s="40" t="str">
+      <c r="E43" s="28" t="str">
         <f t="shared" si="0"/>
         <v>liafitris.pdpaddress@man.com</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="36">
-        <v>1</v>
-      </c>
-      <c r="H43" s="36">
-        <v>4</v>
-      </c>
-      <c r="I43" s="36" t="s">
+      <c r="G43" s="24">
+        <v>1</v>
+      </c>
+      <c r="H43" s="24">
+        <v>4</v>
+      </c>
+      <c r="I43" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="24">
         <v>0</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="41" t="s">
+      <c r="L43" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P43" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="36">
-        <v>1</v>
-      </c>
-      <c r="R43" s="54">
+      <c r="P43" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="24">
+        <v>1</v>
+      </c>
+      <c r="R43" s="42">
         <v>14</v>
       </c>
-      <c r="S43" s="54">
+      <c r="S43" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="48" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="64">
+      <c r="C44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="52">
         <v>25034</v>
       </c>
-      <c r="E44" s="40" t="str">
+      <c r="E44" s="28" t="str">
         <f t="shared" si="0"/>
         <v>maqpirahs.pdpaddress@man.com</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="36">
-        <v>1</v>
-      </c>
-      <c r="H44" s="36">
-        <v>4</v>
-      </c>
-      <c r="I44" s="36" t="s">
+      <c r="G44" s="24">
+        <v>1</v>
+      </c>
+      <c r="H44" s="24">
+        <v>4</v>
+      </c>
+      <c r="I44" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="24">
         <v>0</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="K44" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L44" s="41" t="s">
+      <c r="L44" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P44" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="36">
-        <v>1</v>
-      </c>
-      <c r="R44" s="54">
+      <c r="P44" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="24">
+        <v>1</v>
+      </c>
+      <c r="R44" s="42">
         <v>14</v>
       </c>
-      <c r="S44" s="54">
+      <c r="S44" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="48" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="64">
+      <c r="C45" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="52">
         <v>25035</v>
       </c>
-      <c r="E45" s="40" t="str">
+      <c r="E45" s="28" t="str">
         <f t="shared" si="0"/>
         <v>wantinurjadidahs.sospaddress@man.com</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="36">
-        <v>1</v>
-      </c>
-      <c r="H45" s="36">
-        <v>4</v>
-      </c>
-      <c r="I45" s="36" t="s">
+      <c r="G45" s="24">
+        <v>1</v>
+      </c>
+      <c r="H45" s="24">
+        <v>4</v>
+      </c>
+      <c r="I45" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="24">
         <v>0</v>
       </c>
-      <c r="K45" s="36" t="s">
+      <c r="K45" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L45" s="41" t="s">
+      <c r="L45" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P45" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="36">
-        <v>1</v>
-      </c>
-      <c r="R45" s="54">
+      <c r="P45" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="24">
+        <v>1</v>
+      </c>
+      <c r="R45" s="42">
         <v>14</v>
       </c>
-      <c r="S45" s="54">
+      <c r="S45" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="48" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="64">
+      <c r="C46" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="52">
         <v>25036</v>
       </c>
-      <c r="E46" s="40" t="str">
+      <c r="E46" s="28" t="str">
         <f t="shared" si="0"/>
         <v>azmialfikris.pd.ipaddress@man.com</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="36">
-        <v>1</v>
-      </c>
-      <c r="H46" s="36">
-        <v>4</v>
-      </c>
-      <c r="I46" s="36" t="s">
+      <c r="G46" s="24">
+        <v>1</v>
+      </c>
+      <c r="H46" s="24">
+        <v>4</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="24">
         <v>0</v>
       </c>
-      <c r="K46" s="36" t="s">
+      <c r="K46" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L46" s="41" t="s">
+      <c r="L46" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P46" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="36">
-        <v>1</v>
-      </c>
-      <c r="R46" s="54">
+      <c r="P46" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>1</v>
+      </c>
+      <c r="R46" s="42">
         <v>14</v>
       </c>
-      <c r="S46" s="54">
+      <c r="S46" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="48" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="64">
+      <c r="C47" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="52">
         <v>25037</v>
       </c>
-      <c r="E47" s="40" t="str">
+      <c r="E47" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ariagemasihs.pdpaddress@man.com</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="36">
-        <v>1</v>
-      </c>
-      <c r="H47" s="36">
-        <v>4</v>
-      </c>
-      <c r="I47" s="36" t="s">
+      <c r="G47" s="24">
+        <v>1</v>
+      </c>
+      <c r="H47" s="24">
+        <v>4</v>
+      </c>
+      <c r="I47" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="24">
         <v>0</v>
       </c>
-      <c r="K47" s="36" t="s">
+      <c r="K47" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L47" s="41" t="s">
+      <c r="L47" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P47" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="36">
-        <v>1</v>
-      </c>
-      <c r="R47" s="54">
+      <c r="P47" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>1</v>
+      </c>
+      <c r="R47" s="42">
         <v>14</v>
       </c>
-      <c r="S47" s="54">
+      <c r="S47" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="48" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="64">
+      <c r="C48" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="52">
         <v>25038</v>
       </c>
-      <c r="E48" s="40" t="str">
+      <c r="E48" s="28" t="str">
         <f t="shared" si="0"/>
         <v>hirdayanis.pdpaddress@man.com</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="36">
-        <v>1</v>
-      </c>
-      <c r="H48" s="36">
-        <v>4</v>
-      </c>
-      <c r="I48" s="36" t="s">
+      <c r="G48" s="24">
+        <v>1</v>
+      </c>
+      <c r="H48" s="24">
+        <v>4</v>
+      </c>
+      <c r="I48" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="24">
         <v>0</v>
       </c>
-      <c r="K48" s="36" t="s">
+      <c r="K48" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="41" t="s">
+      <c r="L48" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P48" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="36">
-        <v>1</v>
-      </c>
-      <c r="R48" s="54">
+      <c r="P48" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>1</v>
+      </c>
+      <c r="R48" s="42">
         <v>14</v>
       </c>
-      <c r="S48" s="54">
+      <c r="S48" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="48" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="64">
+      <c r="C49" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="52">
         <v>25039</v>
       </c>
-      <c r="E49" s="40" t="str">
+      <c r="E49" s="28" t="str">
         <f t="shared" si="0"/>
         <v>nellarahmans.pdpaddress@man.com</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="36">
-        <v>1</v>
-      </c>
-      <c r="H49" s="36">
-        <v>4</v>
-      </c>
-      <c r="I49" s="36" t="s">
+      <c r="G49" s="24">
+        <v>1</v>
+      </c>
+      <c r="H49" s="24">
+        <v>4</v>
+      </c>
+      <c r="I49" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="24">
         <v>0</v>
       </c>
-      <c r="K49" s="36" t="s">
+      <c r="K49" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L49" s="41" t="s">
+      <c r="L49" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P49" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="36">
-        <v>1</v>
-      </c>
-      <c r="R49" s="54">
+      <c r="P49" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>1</v>
+      </c>
+      <c r="R49" s="42">
         <v>14</v>
       </c>
-      <c r="S49" s="54">
+      <c r="S49" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="48" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="64">
+      <c r="C50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="52">
         <v>25040</v>
       </c>
-      <c r="E50" s="40" t="str">
+      <c r="E50" s="28" t="str">
         <f t="shared" si="0"/>
         <v>zahrahs.pdpaddress@man.com</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="36">
-        <v>1</v>
-      </c>
-      <c r="H50" s="36">
-        <v>4</v>
-      </c>
-      <c r="I50" s="36" t="s">
+      <c r="G50" s="24">
+        <v>1</v>
+      </c>
+      <c r="H50" s="24">
+        <v>4</v>
+      </c>
+      <c r="I50" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="24">
         <v>0</v>
       </c>
-      <c r="K50" s="36" t="s">
+      <c r="K50" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L50" s="41" t="s">
+      <c r="L50" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P50" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="36">
-        <v>1</v>
-      </c>
-      <c r="R50" s="54">
+      <c r="P50" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="24">
+        <v>1</v>
+      </c>
+      <c r="R50" s="42">
         <v>14</v>
       </c>
-      <c r="S50" s="54">
+      <c r="S50" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="48" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="64">
+      <c r="C51" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="52">
         <v>25041</v>
       </c>
-      <c r="E51" s="40" t="str">
+      <c r="E51" s="28" t="str">
         <f t="shared" si="0"/>
         <v>nurmalianas.pdpaddress@man.com</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="36">
-        <v>1</v>
-      </c>
-      <c r="H51" s="36">
-        <v>4</v>
-      </c>
-      <c r="I51" s="36" t="s">
+      <c r="G51" s="24">
+        <v>1</v>
+      </c>
+      <c r="H51" s="24">
+        <v>4</v>
+      </c>
+      <c r="I51" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="24">
         <v>0</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L51" s="41" t="s">
+      <c r="L51" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P51" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q51" s="36">
-        <v>1</v>
-      </c>
-      <c r="R51" s="54">
+      <c r="P51" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="24">
+        <v>1</v>
+      </c>
+      <c r="R51" s="42">
         <v>14</v>
       </c>
-      <c r="S51" s="54">
+      <c r="S51" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="48" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="64">
+      <c r="C52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="52">
         <v>25042</v>
       </c>
-      <c r="E52" s="40" t="str">
+      <c r="E52" s="28" t="str">
         <f t="shared" si="0"/>
         <v>indasyahram.pdpaddress@man.com</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G52" s="36">
-        <v>1</v>
-      </c>
-      <c r="H52" s="36">
-        <v>1</v>
-      </c>
-      <c r="I52" s="36" t="s">
+      <c r="G52" s="24">
+        <v>1</v>
+      </c>
+      <c r="H52" s="24">
+        <v>1</v>
+      </c>
+      <c r="I52" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="24">
         <v>0</v>
       </c>
-      <c r="K52" s="36" t="s">
+      <c r="K52" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L52" s="41" t="s">
+      <c r="L52" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P52" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="36">
-        <v>1</v>
-      </c>
-      <c r="R52" s="54">
+      <c r="P52" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="24">
+        <v>1</v>
+      </c>
+      <c r="R52" s="42">
         <v>14</v>
       </c>
-      <c r="S52" s="54">
+      <c r="S52" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="48" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="64">
+      <c r="C53" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="52">
         <v>25043</v>
       </c>
-      <c r="E53" s="40" t="str">
+      <c r="E53" s="28" t="str">
         <f t="shared" si="0"/>
         <v>helmirasyidans.pdpaddress@man.com</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="36">
-        <v>1</v>
-      </c>
-      <c r="H53" s="36">
-        <v>4</v>
-      </c>
-      <c r="I53" s="36" t="s">
+      <c r="G53" s="24">
+        <v>1</v>
+      </c>
+      <c r="H53" s="24">
+        <v>4</v>
+      </c>
+      <c r="I53" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="24">
         <v>0</v>
       </c>
-      <c r="K53" s="36" t="s">
+      <c r="K53" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L53" s="41" t="s">
+      <c r="L53" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P53" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="36">
-        <v>1</v>
-      </c>
-      <c r="R53" s="54">
+      <c r="P53" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="24">
+        <v>1</v>
+      </c>
+      <c r="R53" s="42">
         <v>14</v>
       </c>
-      <c r="S53" s="54">
+      <c r="S53" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="48" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="64">
+      <c r="C54" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="52">
         <v>25044</v>
       </c>
-      <c r="E54" s="40" t="str">
+      <c r="E54" s="28" t="str">
         <f t="shared" si="0"/>
         <v>basirahs.pdpaddress@man.com</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="36">
-        <v>1</v>
-      </c>
-      <c r="H54" s="36">
-        <v>4</v>
-      </c>
-      <c r="I54" s="36" t="s">
+      <c r="G54" s="24">
+        <v>1</v>
+      </c>
+      <c r="H54" s="24">
+        <v>4</v>
+      </c>
+      <c r="I54" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="24">
         <v>0</v>
       </c>
-      <c r="K54" s="36" t="s">
+      <c r="K54" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L54" s="41" t="s">
+      <c r="L54" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P54" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="36">
-        <v>1</v>
-      </c>
-      <c r="R54" s="54">
+      <c r="P54" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>1</v>
+      </c>
+      <c r="R54" s="42">
         <v>14</v>
       </c>
-      <c r="S54" s="54">
+      <c r="S54" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="48" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="64">
+      <c r="C55" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="52">
         <v>25045</v>
       </c>
-      <c r="E55" s="40" t="str">
+      <c r="E55" s="28" t="str">
         <f t="shared" si="0"/>
         <v>nidaulfasmis.pdpaddress@man.com</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="36">
-        <v>1</v>
-      </c>
-      <c r="H55" s="36">
-        <v>4</v>
-      </c>
-      <c r="I55" s="36" t="s">
+      <c r="G55" s="24">
+        <v>1</v>
+      </c>
+      <c r="H55" s="24">
+        <v>4</v>
+      </c>
+      <c r="I55" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="24">
         <v>0</v>
       </c>
-      <c r="K55" s="36" t="s">
+      <c r="K55" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L55" s="41" t="s">
+      <c r="L55" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P55" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="36">
-        <v>1</v>
-      </c>
-      <c r="R55" s="54">
+      <c r="P55" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="24">
+        <v>1</v>
+      </c>
+      <c r="R55" s="42">
         <v>14</v>
       </c>
-      <c r="S55" s="54">
+      <c r="S55" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="48" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="64">
+      <c r="C56" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="52">
         <v>25046</v>
       </c>
-      <c r="E56" s="40" t="str">
+      <c r="E56" s="28" t="str">
         <f t="shared" si="0"/>
         <v>rahmayanas.pdpaddress@man.com</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G56" s="36">
-        <v>1</v>
-      </c>
-      <c r="H56" s="36">
-        <v>4</v>
-      </c>
-      <c r="I56" s="36" t="s">
+      <c r="G56" s="24">
+        <v>1</v>
+      </c>
+      <c r="H56" s="24">
+        <v>4</v>
+      </c>
+      <c r="I56" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J56" s="36">
+      <c r="J56" s="24">
         <v>0</v>
       </c>
-      <c r="K56" s="36" t="s">
+      <c r="K56" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L56" s="41" t="s">
+      <c r="L56" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P56" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q56" s="36">
-        <v>1</v>
-      </c>
-      <c r="R56" s="54">
+      <c r="P56" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="24">
+        <v>1</v>
+      </c>
+      <c r="R56" s="42">
         <v>14</v>
       </c>
-      <c r="S56" s="54">
+      <c r="S56" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="48" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="64">
+      <c r="C57" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="52">
         <v>25047</v>
       </c>
-      <c r="E57" s="40" t="str">
+      <c r="E57" s="28" t="str">
         <f t="shared" si="0"/>
         <v>enipenalamnis.sipaddress@man.com</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G57" s="36">
-        <v>1</v>
-      </c>
-      <c r="H57" s="36">
-        <v>4</v>
-      </c>
-      <c r="I57" s="36" t="s">
+      <c r="G57" s="24">
+        <v>1</v>
+      </c>
+      <c r="H57" s="24">
+        <v>4</v>
+      </c>
+      <c r="I57" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J57" s="36">
+      <c r="J57" s="24">
         <v>0</v>
       </c>
-      <c r="K57" s="36" t="s">
+      <c r="K57" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L57" s="41" t="s">
+      <c r="L57" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P57" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="36">
-        <v>1</v>
-      </c>
-      <c r="R57" s="54">
+      <c r="P57" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="24">
+        <v>1</v>
+      </c>
+      <c r="R57" s="42">
         <v>14</v>
       </c>
-      <c r="S57" s="54">
+      <c r="S57" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="48" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="64">
+      <c r="C58" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="52">
         <v>25048</v>
       </c>
-      <c r="E58" s="40" t="str">
+      <c r="E58" s="28" t="str">
         <f t="shared" si="0"/>
         <v>kurniatibukits.pdpaddress@man.com</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G58" s="36">
-        <v>1</v>
-      </c>
-      <c r="H58" s="36">
-        <v>4</v>
-      </c>
-      <c r="I58" s="36" t="s">
+      <c r="G58" s="24">
+        <v>1</v>
+      </c>
+      <c r="H58" s="24">
+        <v>4</v>
+      </c>
+      <c r="I58" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="24">
         <v>0</v>
       </c>
-      <c r="K58" s="36" t="s">
+      <c r="K58" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L58" s="41" t="s">
+      <c r="L58" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P58" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="36">
-        <v>1</v>
-      </c>
-      <c r="R58" s="54">
+      <c r="P58" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="24">
+        <v>1</v>
+      </c>
+      <c r="R58" s="42">
         <v>14</v>
       </c>
-      <c r="S58" s="54">
+      <c r="S58" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="48" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="64">
+      <c r="C59" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="52">
         <v>25049</v>
       </c>
-      <c r="E59" s="40" t="str">
+      <c r="E59" s="28" t="str">
         <f t="shared" si="0"/>
         <v>wildanmabruras.pdpaddress@man.com</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G59" s="36">
-        <v>1</v>
-      </c>
-      <c r="H59" s="36">
-        <v>4</v>
-      </c>
-      <c r="I59" s="36" t="s">
+      <c r="G59" s="24">
+        <v>1</v>
+      </c>
+      <c r="H59" s="24">
+        <v>4</v>
+      </c>
+      <c r="I59" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="36">
+      <c r="J59" s="24">
         <v>0</v>
       </c>
-      <c r="K59" s="36" t="s">
+      <c r="K59" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L59" s="41" t="s">
+      <c r="L59" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P59" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="36">
-        <v>1</v>
-      </c>
-      <c r="R59" s="54">
+      <c r="P59" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="24">
+        <v>1</v>
+      </c>
+      <c r="R59" s="42">
         <v>14</v>
       </c>
-      <c r="S59" s="54">
+      <c r="S59" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="48" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="64">
+      <c r="C60" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="52">
         <v>25050</v>
       </c>
-      <c r="E60" s="40" t="str">
+      <c r="E60" s="28" t="str">
         <f t="shared" si="0"/>
         <v>marfuahs.pdpaddress@man.com</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F60" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="36">
-        <v>1</v>
-      </c>
-      <c r="H60" s="36">
-        <v>4</v>
-      </c>
-      <c r="I60" s="36" t="s">
+      <c r="G60" s="24">
+        <v>1</v>
+      </c>
+      <c r="H60" s="24">
+        <v>4</v>
+      </c>
+      <c r="I60" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="24">
         <v>0</v>
       </c>
-      <c r="K60" s="36" t="s">
+      <c r="K60" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L60" s="41" t="s">
+      <c r="L60" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P60" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q60" s="36">
-        <v>1</v>
-      </c>
-      <c r="R60" s="54">
+      <c r="P60" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="24">
+        <v>1</v>
+      </c>
+      <c r="R60" s="42">
         <v>14</v>
       </c>
-      <c r="S60" s="54">
+      <c r="S60" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="48" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="64">
+      <c r="C61" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="52">
         <v>25051</v>
       </c>
-      <c r="E61" s="40" t="str">
+      <c r="E61" s="28" t="str">
         <f t="shared" si="0"/>
         <v>sadirahs.pd.ipaddress@man.com</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G61" s="36">
-        <v>1</v>
-      </c>
-      <c r="H61" s="36">
-        <v>4</v>
-      </c>
-      <c r="I61" s="36" t="s">
+      <c r="G61" s="24">
+        <v>1</v>
+      </c>
+      <c r="H61" s="24">
+        <v>4</v>
+      </c>
+      <c r="I61" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="36">
+      <c r="J61" s="24">
         <v>0</v>
       </c>
-      <c r="K61" s="36" t="s">
+      <c r="K61" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L61" s="41" t="s">
+      <c r="L61" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P61" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="36">
-        <v>1</v>
-      </c>
-      <c r="R61" s="54">
+      <c r="P61" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="24">
+        <v>1</v>
+      </c>
+      <c r="R61" s="42">
         <v>14</v>
       </c>
-      <c r="S61" s="54">
+      <c r="S61" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="48" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="64">
+      <c r="C62" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="52">
         <v>25052</v>
       </c>
-      <c r="E62" s="40" t="str">
+      <c r="E62" s="28" t="str">
         <f t="shared" si="0"/>
         <v>saifunnurs.pdpaddress@man.com</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F62" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G62" s="36">
-        <v>1</v>
-      </c>
-      <c r="H62" s="36">
-        <v>4</v>
-      </c>
-      <c r="I62" s="36" t="s">
+      <c r="G62" s="24">
+        <v>1</v>
+      </c>
+      <c r="H62" s="24">
+        <v>4</v>
+      </c>
+      <c r="I62" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="24">
         <v>0</v>
       </c>
-      <c r="K62" s="36" t="s">
+      <c r="K62" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L62" s="41" t="s">
+      <c r="L62" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="36">
-        <v>1</v>
-      </c>
-      <c r="R62" s="54">
+      <c r="P62" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="24">
+        <v>1</v>
+      </c>
+      <c r="R62" s="42">
         <v>14</v>
       </c>
-      <c r="S62" s="54">
+      <c r="S62" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="48" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="64">
+      <c r="C63" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="52">
         <v>25053</v>
       </c>
-      <c r="E63" s="40" t="str">
+      <c r="E63" s="28" t="str">
         <f t="shared" si="0"/>
         <v>rahimatullahs.pd.ipaddress@man.com</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="36">
-        <v>1</v>
-      </c>
-      <c r="H63" s="36">
-        <v>4</v>
-      </c>
-      <c r="I63" s="36" t="s">
+      <c r="G63" s="24">
+        <v>1</v>
+      </c>
+      <c r="H63" s="24">
+        <v>4</v>
+      </c>
+      <c r="I63" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="36">
+      <c r="J63" s="24">
         <v>0</v>
       </c>
-      <c r="K63" s="36" t="s">
+      <c r="K63" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L63" s="41" t="s">
+      <c r="L63" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P63" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q63" s="36">
-        <v>1</v>
-      </c>
-      <c r="R63" s="54">
+      <c r="P63" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="24">
+        <v>1</v>
+      </c>
+      <c r="R63" s="42">
         <v>14</v>
       </c>
-      <c r="S63" s="54">
+      <c r="S63" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="48" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="64">
+      <c r="C64" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="52">
         <v>25054</v>
       </c>
-      <c r="E64" s="40" t="str">
+      <c r="E64" s="28" t="str">
         <f t="shared" si="0"/>
         <v>fitriramadhanis.pdpaddress@man.com</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G64" s="36">
-        <v>1</v>
-      </c>
-      <c r="H64" s="36">
-        <v>4</v>
-      </c>
-      <c r="I64" s="36" t="s">
+      <c r="G64" s="24">
+        <v>1</v>
+      </c>
+      <c r="H64" s="24">
+        <v>4</v>
+      </c>
+      <c r="I64" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="24">
         <v>0</v>
       </c>
-      <c r="K64" s="36" t="s">
+      <c r="K64" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L64" s="41" t="s">
+      <c r="L64" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P64" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q64" s="36">
-        <v>1</v>
-      </c>
-      <c r="R64" s="54">
+      <c r="P64" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="24">
+        <v>1</v>
+      </c>
+      <c r="R64" s="42">
         <v>14</v>
       </c>
-      <c r="S64" s="54">
+      <c r="S64" s="42">
         <v>2011</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="48" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="64">
+      <c r="C65" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="52">
         <v>25055</v>
       </c>
-      <c r="E65" s="40" t="str">
+      <c r="E65" s="28" t="str">
         <f t="shared" si="0"/>
         <v>marliantis.pdpaddress@man.com</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G65" s="36">
-        <v>1</v>
-      </c>
-      <c r="H65" s="36">
-        <v>4</v>
-      </c>
-      <c r="I65" s="36" t="s">
+      <c r="G65" s="24">
+        <v>1</v>
+      </c>
+      <c r="H65" s="24">
+        <v>4</v>
+      </c>
+      <c r="I65" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J65" s="36">
+      <c r="J65" s="24">
         <v>0</v>
       </c>
-      <c r="K65" s="36" t="s">
+      <c r="K65" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L65" s="41" t="s">
+      <c r="L65" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P65" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q65" s="36">
-        <v>1</v>
-      </c>
-      <c r="R65" s="54">
+      <c r="P65" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="24">
+        <v>1</v>
+      </c>
+      <c r="R65" s="42">
         <v>14</v>
       </c>
-      <c r="S65" s="54">
+      <c r="S65" s="42">
         <v>2011</v>
       </c>
     </row>
@@ -5464,47 +5464,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="57" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1" t="s">
         <v>163</v>
       </c>
@@ -5514,18 +5514,18 @@
       <c r="G2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="1" t="s">
         <v>164</v>
       </c>
@@ -5535,12 +5535,12 @@
       <c r="G3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5584,98 +5584,98 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="57">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="20" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="57">
         <v>24</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="57">
         <v>24</v>
       </c>
-      <c r="M5" s="20"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="57">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="20">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="57">
         <v>15</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="20">
+      <c r="H7" s="55"/>
+      <c r="I7" s="57">
         <v>15</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="57">
         <v>12</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="57">
         <v>27</v>
       </c>
-      <c r="M7" s="28"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5699,12 +5699,12 @@
         <v>12</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="57" t="s">
         <v>177</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="28"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -5734,135 +5734,135 @@
       <c r="I10" s="1">
         <v>14</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="1">
         <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>26</v>
       </c>
-      <c r="M10" s="29"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="57">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="20">
-        <v>4</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="E11" s="57">
+        <v>4</v>
+      </c>
+      <c r="F11" s="57">
         <v>12</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="G11" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="57">
         <v>16</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="57">
         <v>16</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="57">
         <v>12</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="57">
         <v>28</v>
       </c>
-      <c r="M11" s="28"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="29"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="57">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="E13" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="57">
         <v>2</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="57">
         <v>12</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="57">
         <v>14</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="57">
         <v>14</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="57">
         <v>12</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="57">
         <v>26</v>
       </c>
-      <c r="M13" s="28"/>
+      <c r="M13" s="53"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="29"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="57">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="57" t="s">
         <v>168</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5879,19 +5879,19 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="57" t="s">
         <v>188</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="28"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="6" t="s">
         <v>178</v>
       </c>
@@ -5910,14 +5910,14 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="58"/>
       <c r="K16" s="1">
         <v>13</v>
       </c>
       <c r="L16" s="1">
         <v>27</v>
       </c>
-      <c r="M16" s="29"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -5931,12 +5931,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="57" t="s">
         <v>190</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="26"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -5966,31 +5966,31 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="1">
         <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>29</v>
       </c>
-      <c r="M18" s="27"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="57" t="s">
         <v>192</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="26"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -5999,7 +5999,7 @@
       <c r="B20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="6" t="s">
         <v>191</v>
       </c>
@@ -6018,19 +6018,19 @@
       <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="1">
         <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="27"/>
+      <c r="M20" s="56"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="20"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="26"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -6051,7 +6051,7 @@
       <c r="B22" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="6" t="s">
         <v>193</v>
       </c>
@@ -6079,12 +6079,12 @@
       <c r="L22" s="7">
         <v>29</v>
       </c>
-      <c r="M22" s="30"/>
+      <c r="M22" s="59"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="22"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="6" t="s">
         <v>184</v>
       </c>
@@ -6104,10 +6104,10 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="27"/>
+      <c r="M23" s="56"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="57">
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -6125,10 +6125,10 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="26"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="6" t="s">
         <v>196</v>
       </c>
@@ -6162,10 +6162,10 @@
       <c r="L25" s="1">
         <v>31</v>
       </c>
-      <c r="M25" s="27"/>
+      <c r="M25" s="56"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="57">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -6183,10 +6183,10 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="26"/>
+      <c r="M26" s="55"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="6" t="s">
         <v>199</v>
       </c>
@@ -6220,61 +6220,61 @@
       <c r="L27" s="1">
         <v>31</v>
       </c>
-      <c r="M27" s="27"/>
+      <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="57">
         <v>12</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="57">
         <v>14</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="57">
         <v>8</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="20">
+      <c r="G28" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="57">
         <v>22</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="57">
         <v>22</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="57">
         <v>7</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="57">
         <v>29</v>
       </c>
-      <c r="M28" s="26"/>
+      <c r="M28" s="55"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="27"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="56"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="26"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -6332,32 +6332,32 @@
       <c r="L31" s="1">
         <v>29</v>
       </c>
-      <c r="M31" s="27"/>
+      <c r="M31" s="56"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G32" s="20">
-        <v>4</v>
-      </c>
-      <c r="H32" s="20">
+      <c r="E32" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="57">
+        <v>4</v>
+      </c>
+      <c r="H32" s="57">
         <v>4</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="26"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -6366,24 +6366,24 @@
       <c r="B33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
         <v>194</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="30"/>
+      <c r="M33" s="59"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="27"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="6" t="s">
         <v>209</v>
       </c>
@@ -6411,7 +6411,7 @@
       <c r="L34" s="1">
         <v>17</v>
       </c>
-      <c r="M34" s="27"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="26"/>
+      <c r="M35" s="55"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -6467,7 +6467,7 @@
       <c r="L36" s="1">
         <v>25</v>
       </c>
-      <c r="M36" s="27"/>
+      <c r="M36" s="56"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -6475,7 +6475,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="53" t="s">
         <v>214</v>
       </c>
       <c r="E37" s="7"/>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="26"/>
+      <c r="M37" s="55"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -6500,7 +6500,7 @@
       <c r="C38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="1">
         <v>12</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="L38" s="1">
         <v>31</v>
       </c>
-      <c r="M38" s="27"/>
+      <c r="M38" s="56"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -6533,7 +6533,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="53" t="s">
         <v>217</v>
       </c>
       <c r="E39" s="7"/>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="26"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -6558,7 +6558,7 @@
       <c r="C40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="1">
         <v>4</v>
       </c>
@@ -6583,25 +6583,25 @@
       <c r="L40" s="1">
         <v>31</v>
       </c>
-      <c r="M40" s="27"/>
+      <c r="M40" s="56"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="20">
+      <c r="E41" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="57">
         <v>16</v>
       </c>
-      <c r="G41" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="20">
+      <c r="G41" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="57">
         <v>16</v>
       </c>
       <c r="I41" s="7"/>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="26"/>
+      <c r="M41" s="55"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -6622,18 +6622,18 @@
       <c r="C42" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
         <v>220</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="30"/>
+      <c r="M42" s="59"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
@@ -6666,32 +6666,32 @@
       <c r="L43" s="1">
         <v>32</v>
       </c>
-      <c r="M43" s="27"/>
+      <c r="M43" s="56"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="28"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="20">
-        <v>4</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="20">
+      <c r="E44" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="57">
+        <v>4</v>
+      </c>
+      <c r="G44" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="57">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="5"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="26"/>
+      <c r="M44" s="55"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -6700,26 +6700,26 @@
       <c r="B45" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="31"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
       <c r="I45" s="7"/>
       <c r="J45" s="5" t="s">
         <v>194</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="30"/>
+      <c r="M45" s="59"/>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="29"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="6" t="s">
         <v>224</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="L46" s="1">
         <v>15</v>
       </c>
-      <c r="M46" s="27"/>
+      <c r="M46" s="56"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -6762,7 +6762,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="26"/>
+      <c r="M47" s="55"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -6799,7 +6799,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="30"/>
+      <c r="M48" s="59"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -6830,7 +6830,7 @@
       <c r="L49" s="1">
         <v>33</v>
       </c>
-      <c r="M49" s="27"/>
+      <c r="M49" s="56"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="26"/>
+      <c r="M50" s="55"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -6878,7 +6878,7 @@
       <c r="L51" s="7">
         <v>29</v>
       </c>
-      <c r="M51" s="30"/>
+      <c r="M51" s="59"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -6901,7 +6901,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="30"/>
+      <c r="M52" s="59"/>
     </row>
     <row r="53" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -6928,7 +6928,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="27"/>
+      <c r="M53" s="56"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -6943,7 +6943,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="26"/>
+      <c r="M54" s="55"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="30"/>
+      <c r="M55" s="59"/>
     </row>
     <row r="56" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
@@ -7011,7 +7011,7 @@
       <c r="L56" s="1">
         <v>33</v>
       </c>
-      <c r="M56" s="27"/>
+      <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="26"/>
+      <c r="M57" s="55"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7067,7 +7067,7 @@
       <c r="L58" s="7">
         <v>31</v>
       </c>
-      <c r="M58" s="30"/>
+      <c r="M58" s="59"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -7084,13 +7084,13 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="27"/>
+      <c r="M59" s="56"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="53" t="s">
         <v>214</v>
       </c>
       <c r="E60" s="7"/>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="26"/>
+      <c r="M60" s="55"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -7115,7 +7115,7 @@
       <c r="C61" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="29"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="1" t="s">
         <v>176</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="L61" s="7">
         <v>31</v>
       </c>
-      <c r="M61" s="30"/>
+      <c r="M61" s="59"/>
     </row>
     <row r="62" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
@@ -7167,7 +7167,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="27"/>
+      <c r="M62" s="56"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -7176,29 +7176,29 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F63" s="28">
+      <c r="E63" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" s="53">
         <v>8</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="57">
         <v>14</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="57">
         <v>24</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="57">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>194</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="20">
+      <c r="L63" s="57">
         <v>31</v>
       </c>
-      <c r="M63" s="26"/>
+      <c r="M63" s="55"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -7213,19 +7213,19 @@
       <c r="D64" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
       <c r="J64" s="1" t="s">
         <v>242</v>
       </c>
       <c r="K64" s="1">
         <v>7</v>
       </c>
-      <c r="L64" s="22"/>
-      <c r="M64" s="27"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="56"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -7240,7 +7240,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="26"/>
+      <c r="M65" s="55"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="30"/>
+      <c r="M66" s="59"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
@@ -7298,7 +7298,7 @@
       <c r="L67" s="7">
         <v>29</v>
       </c>
-      <c r="M67" s="30"/>
+      <c r="M67" s="59"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -7313,7 +7313,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="27"/>
+      <c r="M68" s="56"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="26"/>
+      <c r="M69" s="55"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -7371,7 +7371,7 @@
       <c r="L70" s="1">
         <v>31</v>
       </c>
-      <c r="M70" s="27"/>
+      <c r="M70" s="56"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="26"/>
+      <c r="M71" s="55"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -7427,7 +7427,7 @@
       <c r="L72" s="7">
         <v>31</v>
       </c>
-      <c r="M72" s="30"/>
+      <c r="M72" s="59"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -7444,7 +7444,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="27"/>
+      <c r="M73" s="56"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
@@ -7469,7 +7469,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="26"/>
+      <c r="M74" s="55"/>
     </row>
     <row r="75" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -7508,10 +7508,10 @@
       <c r="L75" s="1">
         <v>23</v>
       </c>
-      <c r="M75" s="27"/>
+      <c r="M75" s="56"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="20">
+      <c r="A76" s="57">
         <v>30</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -7537,10 +7537,10 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="26"/>
+      <c r="M76" s="55"/>
     </row>
     <row r="77" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="6" t="s">
         <v>256</v>
       </c>
@@ -7574,13 +7574,13 @@
       <c r="L77" s="1">
         <v>32</v>
       </c>
-      <c r="M77" s="27"/>
+      <c r="M77" s="56"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="28">
+      <c r="A78" s="53">
         <v>31</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="53" t="s">
         <v>259</v>
       </c>
       <c r="C78" s="5"/>
@@ -7590,16 +7590,16 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="20" t="s">
+      <c r="J78" s="57" t="s">
         <v>260</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="26"/>
+      <c r="M78" s="55"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="1" t="s">
         <v>168</v>
       </c>
@@ -7621,17 +7621,17 @@
       <c r="I79" s="1">
         <v>18</v>
       </c>
-      <c r="J79" s="22"/>
+      <c r="J79" s="58"/>
       <c r="K79" s="1">
         <v>7</v>
       </c>
       <c r="L79" s="1">
         <v>25</v>
       </c>
-      <c r="M79" s="27"/>
+      <c r="M79" s="56"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="28">
+      <c r="A80" s="53">
         <v>32</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -7639,30 +7639,30 @@
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H80" s="20">
+      <c r="E80" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G80" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H80" s="57">
         <v>24</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="57">
         <v>24</v>
       </c>
-      <c r="J80" s="20" t="s">
+      <c r="J80" s="57" t="s">
         <v>263</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="26"/>
+      <c r="M80" s="55"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="6" t="s">
         <v>261</v>
       </c>
@@ -7672,19 +7672,19 @@
       <c r="D81" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
       <c r="K81" s="1">
         <v>10</v>
       </c>
       <c r="L81" s="1">
         <v>34</v>
       </c>
-      <c r="M81" s="27"/>
+      <c r="M81" s="56"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -7699,7 +7699,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="20"/>
+      <c r="M82" s="57"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -7738,7 +7738,7 @@
       <c r="L83" s="7">
         <v>24</v>
       </c>
-      <c r="M83" s="21"/>
+      <c r="M83" s="60"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -7755,32 +7755,32 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="M84" s="22"/>
+      <c r="M84" s="58"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="57">
         <v>12</v>
       </c>
-      <c r="F85" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H85" s="20">
+      <c r="F85" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G85" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H85" s="57">
         <v>12</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="26"/>
+      <c r="M85" s="55"/>
     </row>
     <row r="86" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
@@ -7792,11 +7792,11 @@
       <c r="C86" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
       <c r="I86" s="7">
         <v>24</v>
       </c>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="30"/>
+      <c r="M86" s="59"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
@@ -7813,7 +7813,7 @@
         <v>267</v>
       </c>
       <c r="C87" s="12"/>
-      <c r="D87" s="28" t="s">
+      <c r="D87" s="53" t="s">
         <v>235</v>
       </c>
       <c r="E87" s="7"/>
@@ -7828,13 +7828,13 @@
       <c r="L87" s="7">
         <v>30</v>
       </c>
-      <c r="M87" s="30"/>
+      <c r="M87" s="59"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="29"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="1" t="s">
         <v>176</v>
       </c>
@@ -7851,10 +7851,10 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
-      <c r="M88" s="27"/>
+      <c r="M88" s="56"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="28">
+      <c r="A89" s="53">
         <v>35</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7866,16 +7866,16 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="28">
+      <c r="I89" s="53">
         <v>24</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="26"/>
+      <c r="M89" s="55"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="29"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="6" t="s">
         <v>270</v>
       </c>
@@ -7897,7 +7897,7 @@
       <c r="H90" s="1">
         <v>24</v>
       </c>
-      <c r="I90" s="29"/>
+      <c r="I90" s="54"/>
       <c r="J90" s="1" t="s">
         <v>271</v>
       </c>
@@ -7907,119 +7907,119 @@
       <c r="L90" s="1">
         <v>25</v>
       </c>
-      <c r="M90" s="27"/>
+      <c r="M90" s="56"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="28">
+      <c r="A91" s="53">
         <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="57">
         <v>12</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F91" s="57">
         <v>12</v>
       </c>
-      <c r="G91" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H91" s="20">
+      <c r="G91" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H91" s="57">
         <v>24</v>
       </c>
-      <c r="I91" s="20">
+      <c r="I91" s="57">
         <v>24</v>
       </c>
-      <c r="J91" s="20" t="s">
+      <c r="J91" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="K91" s="20">
-        <v>1</v>
-      </c>
-      <c r="L91" s="20">
+      <c r="K91" s="57">
+        <v>1</v>
+      </c>
+      <c r="L91" s="57">
         <v>25</v>
       </c>
-      <c r="M91" s="26"/>
+      <c r="M91" s="55"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="29"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="16" t="s">
         <v>272</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D92" s="29"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="27"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="56"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="28">
+      <c r="A93" s="53">
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="28" t="s">
+      <c r="D93" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="57">
         <v>21</v>
       </c>
-      <c r="F93" s="20">
+      <c r="F93" s="57">
         <v>3</v>
       </c>
-      <c r="G93" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H93" s="20">
+      <c r="G93" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H93" s="57">
         <v>24</v>
       </c>
-      <c r="I93" s="20">
+      <c r="I93" s="57">
         <v>24</v>
       </c>
-      <c r="J93" s="20" t="s">
+      <c r="J93" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="K93" s="20">
-        <v>1</v>
-      </c>
-      <c r="L93" s="20">
+      <c r="K93" s="57">
+        <v>1</v>
+      </c>
+      <c r="L93" s="57">
         <v>25</v>
       </c>
-      <c r="M93" s="26"/>
+      <c r="M93" s="55"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="29"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="6" t="s">
         <v>274</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="29"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="27"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="56"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -8044,7 +8044,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="20"/>
+      <c r="M95" s="57"/>
     </row>
     <row r="96" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
@@ -8083,12 +8083,12 @@
       <c r="L96" s="1">
         <v>30</v>
       </c>
-      <c r="M96" s="22"/>
+      <c r="M96" s="58"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="28"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="53"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -8098,12 +8098,12 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="26"/>
+      <c r="M97" s="55"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="29"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="6" t="s">
         <v>181</v>
       </c>
@@ -8131,24 +8131,24 @@
       <c r="L98" s="1">
         <v>25</v>
       </c>
-      <c r="M98" s="27"/>
+      <c r="M98" s="56"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="26"/>
+      <c r="C99" s="55"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="20" t="s">
+      <c r="J99" s="57" t="s">
         <v>277</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="26"/>
+      <c r="M99" s="55"/>
     </row>
     <row r="100" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
@@ -8157,7 +8157,7 @@
       <c r="B100" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C100" s="27"/>
+      <c r="C100" s="56"/>
       <c r="D100" s="6" t="s">
         <v>276</v>
       </c>
@@ -8176,54 +8176,54 @@
       <c r="I100" s="1">
         <v>24</v>
       </c>
-      <c r="J100" s="22"/>
+      <c r="J100" s="58"/>
       <c r="K100" s="1">
         <v>6</v>
       </c>
       <c r="L100" s="1">
         <v>30</v>
       </c>
-      <c r="M100" s="27"/>
+      <c r="M100" s="56"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="28" t="s">
+      <c r="C101" s="55"/>
+      <c r="D101" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="E101" s="20">
+      <c r="E101" s="57">
         <v>9</v>
       </c>
-      <c r="F101" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H101" s="20">
+      <c r="F101" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G101" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H101" s="57">
         <v>9</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="57"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="26"/>
+      <c r="M101" s="55"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="21"/>
+      <c r="K102" s="60"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="30"/>
+      <c r="M102" s="59"/>
     </row>
     <row r="103" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
@@ -8232,7 +8232,7 @@
       <c r="B103" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C103" s="30"/>
+      <c r="C103" s="59"/>
       <c r="D103" s="6" t="s">
         <v>280</v>
       </c>
@@ -8254,16 +8254,16 @@
       <c r="J103" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K103" s="21"/>
+      <c r="K103" s="60"/>
       <c r="L103" s="7">
         <v>26</v>
       </c>
-      <c r="M103" s="30"/>
+      <c r="M103" s="59"/>
     </row>
     <row r="104" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="27"/>
+      <c r="C104" s="56"/>
       <c r="D104" s="6" t="s">
         <v>255</v>
       </c>
@@ -8281,14 +8281,14 @@
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="22"/>
+      <c r="K104" s="58"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="27"/>
+      <c r="M104" s="56"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="28"/>
+      <c r="C105" s="53"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -8298,7 +8298,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="26"/>
+      <c r="M105" s="55"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
@@ -8307,7 +8307,7 @@
       <c r="B106" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C106" s="31"/>
+      <c r="C106" s="61"/>
       <c r="D106" s="6" t="s">
         <v>245</v>
       </c>
@@ -8335,12 +8335,12 @@
       <c r="L106" s="7">
         <v>25</v>
       </c>
-      <c r="M106" s="30"/>
+      <c r="M106" s="59"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="29"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="6" t="s">
         <v>184</v>
       </c>
@@ -8360,24 +8360,24 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="27"/>
+      <c r="M107" s="56"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="26"/>
+      <c r="C108" s="55"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="20" t="s">
+      <c r="J108" s="57" t="s">
         <v>271</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="26"/>
+      <c r="M108" s="55"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
@@ -8386,7 +8386,7 @@
       <c r="B109" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="27"/>
+      <c r="C109" s="56"/>
       <c r="D109" s="6" t="s">
         <v>211</v>
       </c>
@@ -8405,14 +8405,14 @@
       <c r="I109" s="1">
         <v>6</v>
       </c>
-      <c r="J109" s="22"/>
+      <c r="J109" s="58"/>
       <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="L109" s="1">
         <v>7</v>
       </c>
-      <c r="M109" s="27"/>
+      <c r="M109" s="56"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
@@ -8650,7 +8650,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="26"/>
+      <c r="C117" s="55"/>
       <c r="D117" s="6" t="s">
         <v>251</v>
       </c>
@@ -8668,9 +8668,9 @@
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="57"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="26"/>
+      <c r="M117" s="55"/>
     </row>
     <row r="118" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
@@ -8679,7 +8679,7 @@
       <c r="B118" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C118" s="27"/>
+      <c r="C118" s="56"/>
       <c r="D118" s="6" t="s">
         <v>284</v>
       </c>
@@ -8701,11 +8701,11 @@
       <c r="J118" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K118" s="22"/>
+      <c r="K118" s="58"/>
       <c r="L118" s="1">
         <v>25</v>
       </c>
-      <c r="M118" s="27"/>
+      <c r="M118" s="56"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
@@ -8784,7 +8784,7 @@
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="26"/>
+      <c r="C121" s="55"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8794,7 +8794,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="26"/>
+      <c r="M121" s="55"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
@@ -8803,7 +8803,7 @@
       <c r="B122" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="30"/>
+      <c r="C122" s="59"/>
       <c r="D122" s="5" t="s">
         <v>248</v>
       </c>
@@ -8831,14 +8831,14 @@
       <c r="L122" s="7">
         <v>11</v>
       </c>
-      <c r="M122" s="30"/>
+      <c r="M122" s="59"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C123" s="27"/>
+      <c r="C123" s="56"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -8848,7 +8848,7 @@
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
-      <c r="M123" s="27"/>
+      <c r="M123" s="56"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
@@ -8962,13 +8962,13 @@
       <c r="M126" s="11"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="28">
+      <c r="A127" s="53">
         <v>58</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B127" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="26"/>
+      <c r="C127" s="55"/>
       <c r="D127" s="6" t="s">
         <v>268</v>
       </c>
@@ -8988,12 +8988,12 @@
       <c r="J127" s="7"/>
       <c r="K127" s="18"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="26"/>
+      <c r="M127" s="55"/>
     </row>
     <row r="128" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="29"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="27"/>
+      <c r="C128" s="56"/>
       <c r="D128" s="6" t="s">
         <v>288</v>
       </c>
@@ -9021,16 +9021,16 @@
       <c r="L128" s="1">
         <v>17</v>
       </c>
-      <c r="M128" s="27"/>
+      <c r="M128" s="56"/>
     </row>
     <row r="129" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="28">
+      <c r="A129" s="53">
         <v>59</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="B129" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C129" s="26"/>
+      <c r="C129" s="55"/>
       <c r="D129" s="6" t="s">
         <v>235</v>
       </c>
@@ -9050,12 +9050,12 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="26"/>
+      <c r="M129" s="55"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="29"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="27"/>
+      <c r="C130" s="56"/>
       <c r="D130" s="6" t="s">
         <v>289</v>
       </c>
@@ -9083,12 +9083,12 @@
       <c r="L130" s="1">
         <v>12</v>
       </c>
-      <c r="M130" s="27"/>
+      <c r="M130" s="56"/>
     </row>
     <row r="131" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="26"/>
+      <c r="C131" s="55"/>
       <c r="D131" s="6" t="s">
         <v>290</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="26"/>
+      <c r="M131" s="55"/>
     </row>
     <row r="132" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
@@ -9117,7 +9117,7 @@
       <c r="B132" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="27"/>
+      <c r="C132" s="56"/>
       <c r="D132" s="6" t="s">
         <v>255</v>
       </c>
@@ -9145,7 +9145,7 @@
       <c r="L132" s="1">
         <v>15</v>
       </c>
-      <c r="M132" s="27"/>
+      <c r="M132" s="56"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
@@ -9222,13 +9222,13 @@
       <c r="M134" s="11"/>
     </row>
     <row r="135" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="28">
+      <c r="A135" s="53">
         <v>63</v>
       </c>
-      <c r="B135" s="28" t="s">
+      <c r="B135" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C135" s="26"/>
+      <c r="C135" s="55"/>
       <c r="D135" s="6" t="s">
         <v>291</v>
       </c>
@@ -9245,17 +9245,17 @@
         <v>10</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="20" t="s">
+      <c r="J135" s="57" t="s">
         <v>292</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="26"/>
+      <c r="M135" s="55"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="27"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="56"/>
       <c r="D136" s="6" t="s">
         <v>293</v>
       </c>
@@ -9274,14 +9274,14 @@
       <c r="I136" s="1">
         <v>12</v>
       </c>
-      <c r="J136" s="22"/>
+      <c r="J136" s="58"/>
       <c r="K136" s="1">
         <v>1</v>
       </c>
       <c r="L136" s="1">
         <v>13</v>
       </c>
-      <c r="M136" s="27"/>
+      <c r="M136" s="56"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
@@ -9323,7 +9323,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="26"/>
+      <c r="C138" s="55"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -9333,7 +9333,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="26"/>
+      <c r="M138" s="55"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
@@ -9342,7 +9342,7 @@
       <c r="B139" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C139" s="27"/>
+      <c r="C139" s="56"/>
       <c r="D139" s="6" t="s">
         <v>191</v>
       </c>
@@ -9370,22 +9370,195 @@
       <c r="L139" s="1">
         <v>9</v>
       </c>
-      <c r="M139" s="27"/>
+      <c r="M139" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="M138:M139"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M95:M96"/>
     <mergeCell ref="C117:C118"/>
     <mergeCell ref="K117:K118"/>
     <mergeCell ref="M117:M118"/>
@@ -9407,191 +9580,18 @@
     <mergeCell ref="F101:F102"/>
     <mergeCell ref="G101:G102"/>
     <mergeCell ref="H101:H102"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="M138:M139"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="M131:M132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D833517-3BA8-4B3A-B5C8-A9EBF9B0BE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CFCB29-04DC-4AA8-88A4-255ADC7B0E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="13740" windowHeight="23520" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1282,31 +1282,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,6 +1304,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFB0B7-5F4A-46CA-9F3B-E68BA45E5504}">
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="J34" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>59</v>
@@ -3922,7 +3922,7 @@
         <v>11</v>
       </c>
       <c r="J35" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>59</v>
@@ -3978,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="J36" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>59</v>
@@ -4034,7 +4034,7 @@
         <v>11</v>
       </c>
       <c r="J37" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K37" s="24" t="s">
         <v>59</v>
@@ -4090,7 +4090,7 @@
         <v>11</v>
       </c>
       <c r="J38" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>59</v>
@@ -4139,7 +4139,7 @@
         <v>11</v>
       </c>
       <c r="J39" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>59</v>
@@ -4188,7 +4188,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>59</v>
@@ -4237,7 +4237,7 @@
         <v>11</v>
       </c>
       <c r="J41" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>59</v>
@@ -4286,7 +4286,7 @@
         <v>11</v>
       </c>
       <c r="J42" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42" s="24" t="s">
         <v>59</v>
@@ -4335,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="J43" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="24" t="s">
         <v>59</v>
@@ -4384,7 +4384,7 @@
         <v>11</v>
       </c>
       <c r="J44" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" s="24" t="s">
         <v>59</v>
@@ -4433,7 +4433,7 @@
         <v>11</v>
       </c>
       <c r="J45" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" s="24" t="s">
         <v>59</v>
@@ -4482,7 +4482,7 @@
         <v>11</v>
       </c>
       <c r="J46" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K46" s="24" t="s">
         <v>59</v>
@@ -4531,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="J47" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" s="24" t="s">
         <v>59</v>
@@ -4580,7 +4580,7 @@
         <v>11</v>
       </c>
       <c r="J48" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" s="24" t="s">
         <v>59</v>
@@ -4629,7 +4629,7 @@
         <v>11</v>
       </c>
       <c r="J49" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" s="24" t="s">
         <v>59</v>
@@ -4678,7 +4678,7 @@
         <v>11</v>
       </c>
       <c r="J50" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" s="24" t="s">
         <v>59</v>
@@ -4727,7 +4727,7 @@
         <v>11</v>
       </c>
       <c r="J51" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" s="24" t="s">
         <v>59</v>
@@ -4776,7 +4776,7 @@
         <v>11</v>
       </c>
       <c r="J52" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" s="24" t="s">
         <v>59</v>
@@ -4825,7 +4825,7 @@
         <v>11</v>
       </c>
       <c r="J53" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>59</v>
@@ -4874,7 +4874,7 @@
         <v>11</v>
       </c>
       <c r="J54" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" s="24" t="s">
         <v>59</v>
@@ -4923,7 +4923,7 @@
         <v>11</v>
       </c>
       <c r="J55" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K55" s="24" t="s">
         <v>59</v>
@@ -4972,7 +4972,7 @@
         <v>11</v>
       </c>
       <c r="J56" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56" s="24" t="s">
         <v>59</v>
@@ -5021,7 +5021,7 @@
         <v>11</v>
       </c>
       <c r="J57" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K57" s="24" t="s">
         <v>59</v>
@@ -5070,7 +5070,7 @@
         <v>11</v>
       </c>
       <c r="J58" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" s="24" t="s">
         <v>59</v>
@@ -5119,7 +5119,7 @@
         <v>11</v>
       </c>
       <c r="J59" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K59" s="24" t="s">
         <v>59</v>
@@ -5168,7 +5168,7 @@
         <v>11</v>
       </c>
       <c r="J60" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K60" s="24" t="s">
         <v>59</v>
@@ -5217,7 +5217,7 @@
         <v>11</v>
       </c>
       <c r="J61" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" s="24" t="s">
         <v>59</v>
@@ -5266,7 +5266,7 @@
         <v>11</v>
       </c>
       <c r="J62" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" s="24" t="s">
         <v>59</v>
@@ -5315,7 +5315,7 @@
         <v>11</v>
       </c>
       <c r="J63" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K63" s="24" t="s">
         <v>59</v>
@@ -5364,7 +5364,7 @@
         <v>11</v>
       </c>
       <c r="J64" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" s="24" t="s">
         <v>59</v>
@@ -5413,7 +5413,7 @@
         <v>11</v>
       </c>
       <c r="J65" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K65" s="24" t="s">
         <v>59</v>
@@ -5464,47 +5464,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="57" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="53" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="1" t="s">
         <v>163</v>
       </c>
@@ -5514,18 +5514,18 @@
       <c r="G2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="1" t="s">
         <v>164</v>
       </c>
@@ -5535,12 +5535,12 @@
       <c r="G3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5584,98 +5584,98 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="57">
+      <c r="A5" s="53">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="57" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="53">
         <v>24</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="53">
         <v>24</v>
       </c>
-      <c r="M5" s="57"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="57">
+      <c r="A7" s="53">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="57">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="53">
         <v>15</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="57">
+      <c r="H7" s="56"/>
+      <c r="I7" s="53">
         <v>15</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="53">
         <v>12</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="53">
         <v>27</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5699,12 +5699,12 @@
         <v>12</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="53" t="s">
         <v>177</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -5734,135 +5734,135 @@
       <c r="I10" s="1">
         <v>14</v>
       </c>
-      <c r="J10" s="58"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="1">
         <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>26</v>
       </c>
-      <c r="M10" s="54"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="57">
+      <c r="A11" s="53">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="57">
-        <v>4</v>
-      </c>
-      <c r="F11" s="57">
+      <c r="E11" s="53">
+        <v>4</v>
+      </c>
+      <c r="F11" s="53">
         <v>12</v>
       </c>
-      <c r="G11" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="57">
+      <c r="G11" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="53">
         <v>16</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="53">
         <v>16</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="53">
         <v>12</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="53">
         <v>28</v>
       </c>
-      <c r="M11" s="53"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="57">
+      <c r="A13" s="53">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="57">
+      <c r="E13" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="53">
         <v>2</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="53">
         <v>12</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="53">
         <v>14</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="53">
         <v>14</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="53">
         <v>12</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="53">
         <v>26</v>
       </c>
-      <c r="M13" s="53"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57">
+      <c r="A15" s="53">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="53" t="s">
         <v>168</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5879,19 +5879,19 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="53" t="s">
         <v>188</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="53"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="6" t="s">
         <v>178</v>
       </c>
@@ -5910,14 +5910,14 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="58"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="1">
         <v>13</v>
       </c>
       <c r="L16" s="1">
         <v>27</v>
       </c>
-      <c r="M16" s="54"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -5931,12 +5931,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="53" t="s">
         <v>190</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="55"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -5966,31 +5966,31 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="58"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="1">
         <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>29</v>
       </c>
-      <c r="M18" s="56"/>
+      <c r="M18" s="57"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="57" t="s">
+      <c r="J19" s="53" t="s">
         <v>192</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="55"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -5999,7 +5999,7 @@
       <c r="B20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="6" t="s">
         <v>191</v>
       </c>
@@ -6018,19 +6018,19 @@
       <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="58"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="1">
         <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="56"/>
+      <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="57"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="55"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -6051,7 +6051,7 @@
       <c r="B22" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="6" t="s">
         <v>193</v>
       </c>
@@ -6079,12 +6079,12 @@
       <c r="L22" s="7">
         <v>29</v>
       </c>
-      <c r="M22" s="59"/>
+      <c r="M22" s="63"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="58"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="6" t="s">
         <v>184</v>
       </c>
@@ -6104,10 +6104,10 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="56"/>
+      <c r="M23" s="57"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="57">
+      <c r="A24" s="53">
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -6125,10 +6125,10 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="55"/>
+      <c r="M24" s="56"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="6" t="s">
         <v>196</v>
       </c>
@@ -6162,10 +6162,10 @@
       <c r="L25" s="1">
         <v>31</v>
       </c>
-      <c r="M25" s="56"/>
+      <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="57">
+      <c r="A26" s="53">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -6183,10 +6183,10 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="55"/>
+      <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="6" t="s">
         <v>199</v>
       </c>
@@ -6220,61 +6220,61 @@
       <c r="L27" s="1">
         <v>31</v>
       </c>
-      <c r="M27" s="56"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="57">
+      <c r="A28" s="53">
         <v>12</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="53" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="53">
         <v>14</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="53">
         <v>8</v>
       </c>
-      <c r="G28" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="57">
+      <c r="G28" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="53">
         <v>22</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="53">
         <v>22</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="57">
+      <c r="K28" s="53">
         <v>7</v>
       </c>
-      <c r="L28" s="57">
+      <c r="L28" s="53">
         <v>29</v>
       </c>
-      <c r="M28" s="55"/>
+      <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="56"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="57"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="55"/>
+      <c r="M30" s="56"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -6332,32 +6332,32 @@
       <c r="L31" s="1">
         <v>29</v>
       </c>
-      <c r="M31" s="56"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="53" t="s">
+      <c r="C32" s="56"/>
+      <c r="D32" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="G32" s="57">
-        <v>4</v>
-      </c>
-      <c r="H32" s="57">
+      <c r="E32" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="53">
+        <v>4</v>
+      </c>
+      <c r="H32" s="53">
         <v>4</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="55"/>
+      <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -6366,24 +6366,24 @@
       <c r="B33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
         <v>194</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="59"/>
+      <c r="M33" s="63"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="56"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="6" t="s">
         <v>209</v>
       </c>
@@ -6411,7 +6411,7 @@
       <c r="L34" s="1">
         <v>17</v>
       </c>
-      <c r="M34" s="56"/>
+      <c r="M34" s="57"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="55"/>
+      <c r="M35" s="56"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -6467,7 +6467,7 @@
       <c r="L36" s="1">
         <v>25</v>
       </c>
-      <c r="M36" s="56"/>
+      <c r="M36" s="57"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -6475,7 +6475,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="61" t="s">
         <v>214</v>
       </c>
       <c r="E37" s="7"/>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="55"/>
+      <c r="M37" s="56"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -6500,7 +6500,7 @@
       <c r="C38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="1">
         <v>12</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="L38" s="1">
         <v>31</v>
       </c>
-      <c r="M38" s="56"/>
+      <c r="M38" s="57"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -6533,7 +6533,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="61" t="s">
         <v>217</v>
       </c>
       <c r="E39" s="7"/>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="55"/>
+      <c r="M39" s="56"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -6558,7 +6558,7 @@
       <c r="C40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="1">
         <v>4</v>
       </c>
@@ -6583,25 +6583,25 @@
       <c r="L40" s="1">
         <v>31</v>
       </c>
-      <c r="M40" s="56"/>
+      <c r="M40" s="57"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="57">
+      <c r="E41" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="53">
         <v>16</v>
       </c>
-      <c r="G41" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="57">
+      <c r="G41" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="53">
         <v>16</v>
       </c>
       <c r="I41" s="7"/>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="55"/>
+      <c r="M41" s="56"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -6622,18 +6622,18 @@
       <c r="C42" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
         <v>220</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="59"/>
+      <c r="M42" s="63"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
@@ -6666,32 +6666,32 @@
       <c r="L43" s="1">
         <v>32</v>
       </c>
-      <c r="M43" s="56"/>
+      <c r="M43" s="57"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="53"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E44" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="57">
-        <v>4</v>
-      </c>
-      <c r="G44" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="57">
+      <c r="E44" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="53">
+        <v>4</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="53">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="5"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="55"/>
+      <c r="M44" s="56"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -6700,26 +6700,26 @@
       <c r="B45" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="61"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
       <c r="I45" s="7"/>
       <c r="J45" s="5" t="s">
         <v>194</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="59"/>
+      <c r="M45" s="63"/>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="54"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="6" t="s">
         <v>224</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="L46" s="1">
         <v>15</v>
       </c>
-      <c r="M46" s="56"/>
+      <c r="M46" s="57"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -6762,7 +6762,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="55"/>
+      <c r="M47" s="56"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -6799,7 +6799,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="59"/>
+      <c r="M48" s="63"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -6830,7 +6830,7 @@
       <c r="L49" s="1">
         <v>33</v>
       </c>
-      <c r="M49" s="56"/>
+      <c r="M49" s="57"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="55"/>
+      <c r="M50" s="56"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -6878,7 +6878,7 @@
       <c r="L51" s="7">
         <v>29</v>
       </c>
-      <c r="M51" s="59"/>
+      <c r="M51" s="63"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -6901,7 +6901,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="59"/>
+      <c r="M52" s="63"/>
     </row>
     <row r="53" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -6928,7 +6928,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="56"/>
+      <c r="M53" s="57"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -6943,7 +6943,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="55"/>
+      <c r="M54" s="56"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="59"/>
+      <c r="M55" s="63"/>
     </row>
     <row r="56" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
@@ -7011,7 +7011,7 @@
       <c r="L56" s="1">
         <v>33</v>
       </c>
-      <c r="M56" s="56"/>
+      <c r="M56" s="57"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="55"/>
+      <c r="M57" s="56"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7067,7 +7067,7 @@
       <c r="L58" s="7">
         <v>31</v>
       </c>
-      <c r="M58" s="59"/>
+      <c r="M58" s="63"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -7084,13 +7084,13 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="56"/>
+      <c r="M59" s="57"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="61" t="s">
         <v>214</v>
       </c>
       <c r="E60" s="7"/>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="55"/>
+      <c r="M60" s="56"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -7115,7 +7115,7 @@
       <c r="C61" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="54"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="1" t="s">
         <v>176</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="L61" s="7">
         <v>31</v>
       </c>
-      <c r="M61" s="59"/>
+      <c r="M61" s="63"/>
     </row>
     <row r="62" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
@@ -7167,7 +7167,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="56"/>
+      <c r="M62" s="57"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -7176,29 +7176,29 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F63" s="53">
+      <c r="E63" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" s="61">
         <v>8</v>
       </c>
-      <c r="G63" s="57">
+      <c r="G63" s="53">
         <v>14</v>
       </c>
-      <c r="H63" s="57">
+      <c r="H63" s="53">
         <v>24</v>
       </c>
-      <c r="I63" s="57">
+      <c r="I63" s="53">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>194</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="57">
+      <c r="L63" s="53">
         <v>31</v>
       </c>
-      <c r="M63" s="55"/>
+      <c r="M63" s="56"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -7213,19 +7213,19 @@
       <c r="D64" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E64" s="58"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
       <c r="J64" s="1" t="s">
         <v>242</v>
       </c>
       <c r="K64" s="1">
         <v>7</v>
       </c>
-      <c r="L64" s="58"/>
-      <c r="M64" s="56"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="57"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -7240,7 +7240,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="55"/>
+      <c r="M65" s="56"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="59"/>
+      <c r="M66" s="63"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
@@ -7298,7 +7298,7 @@
       <c r="L67" s="7">
         <v>29</v>
       </c>
-      <c r="M67" s="59"/>
+      <c r="M67" s="63"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -7313,7 +7313,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="56"/>
+      <c r="M68" s="57"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="55"/>
+      <c r="M69" s="56"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -7371,7 +7371,7 @@
       <c r="L70" s="1">
         <v>31</v>
       </c>
-      <c r="M70" s="56"/>
+      <c r="M70" s="57"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="55"/>
+      <c r="M71" s="56"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -7427,7 +7427,7 @@
       <c r="L72" s="7">
         <v>31</v>
       </c>
-      <c r="M72" s="59"/>
+      <c r="M72" s="63"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -7444,7 +7444,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="56"/>
+      <c r="M73" s="57"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
@@ -7469,7 +7469,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="55"/>
+      <c r="M74" s="56"/>
     </row>
     <row r="75" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -7508,10 +7508,10 @@
       <c r="L75" s="1">
         <v>23</v>
       </c>
-      <c r="M75" s="56"/>
+      <c r="M75" s="57"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="57">
+      <c r="A76" s="53">
         <v>30</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -7537,10 +7537,10 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="55"/>
+      <c r="M76" s="56"/>
     </row>
     <row r="77" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="58"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="6" t="s">
         <v>256</v>
       </c>
@@ -7574,13 +7574,13 @@
       <c r="L77" s="1">
         <v>32</v>
       </c>
-      <c r="M77" s="56"/>
+      <c r="M77" s="57"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="53">
+      <c r="A78" s="61">
         <v>31</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="61" t="s">
         <v>259</v>
       </c>
       <c r="C78" s="5"/>
@@ -7590,16 +7590,16 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="57" t="s">
+      <c r="J78" s="53" t="s">
         <v>260</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="55"/>
+      <c r="M78" s="56"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="1" t="s">
         <v>168</v>
       </c>
@@ -7621,17 +7621,17 @@
       <c r="I79" s="1">
         <v>18</v>
       </c>
-      <c r="J79" s="58"/>
+      <c r="J79" s="55"/>
       <c r="K79" s="1">
         <v>7</v>
       </c>
       <c r="L79" s="1">
         <v>25</v>
       </c>
-      <c r="M79" s="56"/>
+      <c r="M79" s="57"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="53">
+      <c r="A80" s="61">
         <v>32</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -7639,30 +7639,30 @@
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F80" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="G80" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H80" s="57">
+      <c r="E80" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G80" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H80" s="53">
         <v>24</v>
       </c>
-      <c r="I80" s="57">
+      <c r="I80" s="53">
         <v>24</v>
       </c>
-      <c r="J80" s="57" t="s">
+      <c r="J80" s="53" t="s">
         <v>263</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="55"/>
+      <c r="M80" s="56"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="54"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="6" t="s">
         <v>261</v>
       </c>
@@ -7672,19 +7672,19 @@
       <c r="D81" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
       <c r="K81" s="1">
         <v>10</v>
       </c>
       <c r="L81" s="1">
         <v>34</v>
       </c>
-      <c r="M81" s="56"/>
+      <c r="M81" s="57"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -7699,7 +7699,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="57"/>
+      <c r="M82" s="53"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -7738,7 +7738,7 @@
       <c r="L83" s="7">
         <v>24</v>
       </c>
-      <c r="M83" s="60"/>
+      <c r="M83" s="54"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -7755,32 +7755,32 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="M84" s="58"/>
+      <c r="M84" s="55"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="E85" s="57">
+      <c r="E85" s="53">
         <v>12</v>
       </c>
-      <c r="F85" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="G85" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H85" s="57">
+      <c r="F85" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G85" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H85" s="53">
         <v>12</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="55"/>
+      <c r="M85" s="56"/>
     </row>
     <row r="86" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
@@ -7792,11 +7792,11 @@
       <c r="C86" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="54"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
       <c r="I86" s="7">
         <v>24</v>
       </c>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="59"/>
+      <c r="M86" s="63"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
@@ -7813,7 +7813,7 @@
         <v>267</v>
       </c>
       <c r="C87" s="12"/>
-      <c r="D87" s="53" t="s">
+      <c r="D87" s="61" t="s">
         <v>235</v>
       </c>
       <c r="E87" s="7"/>
@@ -7828,13 +7828,13 @@
       <c r="L87" s="7">
         <v>30</v>
       </c>
-      <c r="M87" s="59"/>
+      <c r="M87" s="63"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="54"/>
+      <c r="D88" s="62"/>
       <c r="E88" s="1" t="s">
         <v>176</v>
       </c>
@@ -7851,10 +7851,10 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
-      <c r="M88" s="56"/>
+      <c r="M88" s="57"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="53">
+      <c r="A89" s="61">
         <v>35</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7866,16 +7866,16 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="53">
+      <c r="I89" s="61">
         <v>24</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="55"/>
+      <c r="M89" s="56"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="6" t="s">
         <v>270</v>
       </c>
@@ -7897,7 +7897,7 @@
       <c r="H90" s="1">
         <v>24</v>
       </c>
-      <c r="I90" s="54"/>
+      <c r="I90" s="62"/>
       <c r="J90" s="1" t="s">
         <v>271</v>
       </c>
@@ -7907,119 +7907,119 @@
       <c r="L90" s="1">
         <v>25</v>
       </c>
-      <c r="M90" s="56"/>
+      <c r="M90" s="57"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="53">
+      <c r="A91" s="61">
         <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="53" t="s">
+      <c r="D91" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="E91" s="57">
+      <c r="E91" s="53">
         <v>12</v>
       </c>
-      <c r="F91" s="57">
+      <c r="F91" s="53">
         <v>12</v>
       </c>
-      <c r="G91" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H91" s="57">
+      <c r="G91" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H91" s="53">
         <v>24</v>
       </c>
-      <c r="I91" s="57">
+      <c r="I91" s="53">
         <v>24</v>
       </c>
-      <c r="J91" s="57" t="s">
+      <c r="J91" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="K91" s="57">
-        <v>1</v>
-      </c>
-      <c r="L91" s="57">
+      <c r="K91" s="53">
+        <v>1</v>
+      </c>
+      <c r="L91" s="53">
         <v>25</v>
       </c>
-      <c r="M91" s="55"/>
+      <c r="M91" s="56"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="54"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="16" t="s">
         <v>272</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D92" s="54"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="56"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="57"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="53">
+      <c r="A93" s="61">
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="53" t="s">
+      <c r="D93" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="E93" s="57">
+      <c r="E93" s="53">
         <v>21</v>
       </c>
-      <c r="F93" s="57">
+      <c r="F93" s="53">
         <v>3</v>
       </c>
-      <c r="G93" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H93" s="57">
+      <c r="G93" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H93" s="53">
         <v>24</v>
       </c>
-      <c r="I93" s="57">
+      <c r="I93" s="53">
         <v>24</v>
       </c>
-      <c r="J93" s="57" t="s">
+      <c r="J93" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="K93" s="57">
-        <v>1</v>
-      </c>
-      <c r="L93" s="57">
+      <c r="K93" s="53">
+        <v>1</v>
+      </c>
+      <c r="L93" s="53">
         <v>25</v>
       </c>
-      <c r="M93" s="55"/>
+      <c r="M93" s="56"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="54"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="6" t="s">
         <v>274</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="56"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="57"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -8044,7 +8044,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="57"/>
+      <c r="M95" s="53"/>
     </row>
     <row r="96" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
@@ -8083,12 +8083,12 @@
       <c r="L96" s="1">
         <v>30</v>
       </c>
-      <c r="M96" s="58"/>
+      <c r="M96" s="55"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="53"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="61"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -8098,12 +8098,12 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="55"/>
+      <c r="M97" s="56"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="54"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="6" t="s">
         <v>181</v>
       </c>
@@ -8131,24 +8131,24 @@
       <c r="L98" s="1">
         <v>25</v>
       </c>
-      <c r="M98" s="56"/>
+      <c r="M98" s="57"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="55"/>
+      <c r="C99" s="56"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="57" t="s">
+      <c r="J99" s="53" t="s">
         <v>277</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="55"/>
+      <c r="M99" s="56"/>
     </row>
     <row r="100" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
@@ -8157,7 +8157,7 @@
       <c r="B100" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C100" s="56"/>
+      <c r="C100" s="57"/>
       <c r="D100" s="6" t="s">
         <v>276</v>
       </c>
@@ -8176,54 +8176,54 @@
       <c r="I100" s="1">
         <v>24</v>
       </c>
-      <c r="J100" s="58"/>
+      <c r="J100" s="55"/>
       <c r="K100" s="1">
         <v>6</v>
       </c>
       <c r="L100" s="1">
         <v>30</v>
       </c>
-      <c r="M100" s="56"/>
+      <c r="M100" s="57"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="53" t="s">
+      <c r="C101" s="56"/>
+      <c r="D101" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="E101" s="57">
+      <c r="E101" s="53">
         <v>9</v>
       </c>
-      <c r="F101" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="G101" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H101" s="57">
+      <c r="F101" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G101" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H101" s="53">
         <v>9</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="57"/>
+      <c r="K101" s="53"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="55"/>
+      <c r="M101" s="56"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="60"/>
+      <c r="K102" s="54"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="59"/>
+      <c r="M102" s="63"/>
     </row>
     <row r="103" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
@@ -8232,7 +8232,7 @@
       <c r="B103" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C103" s="59"/>
+      <c r="C103" s="63"/>
       <c r="D103" s="6" t="s">
         <v>280</v>
       </c>
@@ -8254,16 +8254,16 @@
       <c r="J103" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K103" s="60"/>
+      <c r="K103" s="54"/>
       <c r="L103" s="7">
         <v>26</v>
       </c>
-      <c r="M103" s="59"/>
+      <c r="M103" s="63"/>
     </row>
     <row r="104" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="56"/>
+      <c r="C104" s="57"/>
       <c r="D104" s="6" t="s">
         <v>255</v>
       </c>
@@ -8281,14 +8281,14 @@
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="58"/>
+      <c r="K104" s="55"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="56"/>
+      <c r="M104" s="57"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="53"/>
+      <c r="C105" s="61"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -8298,7 +8298,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="55"/>
+      <c r="M105" s="56"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
@@ -8307,7 +8307,7 @@
       <c r="B106" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C106" s="61"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="6" t="s">
         <v>245</v>
       </c>
@@ -8335,12 +8335,12 @@
       <c r="L106" s="7">
         <v>25</v>
       </c>
-      <c r="M106" s="59"/>
+      <c r="M106" s="63"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="54"/>
+      <c r="C107" s="62"/>
       <c r="D107" s="6" t="s">
         <v>184</v>
       </c>
@@ -8360,24 +8360,24 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="56"/>
+      <c r="M107" s="57"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="55"/>
+      <c r="C108" s="56"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="57" t="s">
+      <c r="J108" s="53" t="s">
         <v>271</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="55"/>
+      <c r="M108" s="56"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
@@ -8386,7 +8386,7 @@
       <c r="B109" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="56"/>
+      <c r="C109" s="57"/>
       <c r="D109" s="6" t="s">
         <v>211</v>
       </c>
@@ -8405,14 +8405,14 @@
       <c r="I109" s="1">
         <v>6</v>
       </c>
-      <c r="J109" s="58"/>
+      <c r="J109" s="55"/>
       <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="L109" s="1">
         <v>7</v>
       </c>
-      <c r="M109" s="56"/>
+      <c r="M109" s="57"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
@@ -8650,7 +8650,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="55"/>
+      <c r="C117" s="56"/>
       <c r="D117" s="6" t="s">
         <v>251</v>
       </c>
@@ -8668,9 +8668,9 @@
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="57"/>
+      <c r="K117" s="53"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="55"/>
+      <c r="M117" s="56"/>
     </row>
     <row r="118" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
@@ -8679,7 +8679,7 @@
       <c r="B118" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C118" s="56"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="6" t="s">
         <v>284</v>
       </c>
@@ -8701,11 +8701,11 @@
       <c r="J118" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K118" s="58"/>
+      <c r="K118" s="55"/>
       <c r="L118" s="1">
         <v>25</v>
       </c>
-      <c r="M118" s="56"/>
+      <c r="M118" s="57"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
@@ -8784,7 +8784,7 @@
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="55"/>
+      <c r="C121" s="56"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8794,7 +8794,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="55"/>
+      <c r="M121" s="56"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
@@ -8803,7 +8803,7 @@
       <c r="B122" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="59"/>
+      <c r="C122" s="63"/>
       <c r="D122" s="5" t="s">
         <v>248</v>
       </c>
@@ -8831,14 +8831,14 @@
       <c r="L122" s="7">
         <v>11</v>
       </c>
-      <c r="M122" s="59"/>
+      <c r="M122" s="63"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C123" s="56"/>
+      <c r="C123" s="57"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -8848,7 +8848,7 @@
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
-      <c r="M123" s="56"/>
+      <c r="M123" s="57"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
@@ -8962,13 +8962,13 @@
       <c r="M126" s="11"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="53">
+      <c r="A127" s="61">
         <v>58</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="55"/>
+      <c r="C127" s="56"/>
       <c r="D127" s="6" t="s">
         <v>268</v>
       </c>
@@ -8988,12 +8988,12 @@
       <c r="J127" s="7"/>
       <c r="K127" s="18"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="55"/>
+      <c r="M127" s="56"/>
     </row>
     <row r="128" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="54"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="56"/>
+      <c r="C128" s="57"/>
       <c r="D128" s="6" t="s">
         <v>288</v>
       </c>
@@ -9021,16 +9021,16 @@
       <c r="L128" s="1">
         <v>17</v>
       </c>
-      <c r="M128" s="56"/>
+      <c r="M128" s="57"/>
     </row>
     <row r="129" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="53">
+      <c r="A129" s="61">
         <v>59</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C129" s="55"/>
+      <c r="C129" s="56"/>
       <c r="D129" s="6" t="s">
         <v>235</v>
       </c>
@@ -9050,12 +9050,12 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="55"/>
+      <c r="M129" s="56"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="54"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="56"/>
+      <c r="C130" s="57"/>
       <c r="D130" s="6" t="s">
         <v>289</v>
       </c>
@@ -9083,12 +9083,12 @@
       <c r="L130" s="1">
         <v>12</v>
       </c>
-      <c r="M130" s="56"/>
+      <c r="M130" s="57"/>
     </row>
     <row r="131" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="55"/>
+      <c r="C131" s="56"/>
       <c r="D131" s="6" t="s">
         <v>290</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="55"/>
+      <c r="M131" s="56"/>
     </row>
     <row r="132" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
@@ -9117,7 +9117,7 @@
       <c r="B132" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="56"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="6" t="s">
         <v>255</v>
       </c>
@@ -9145,7 +9145,7 @@
       <c r="L132" s="1">
         <v>15</v>
       </c>
-      <c r="M132" s="56"/>
+      <c r="M132" s="57"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
@@ -9222,13 +9222,13 @@
       <c r="M134" s="11"/>
     </row>
     <row r="135" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="53">
+      <c r="A135" s="61">
         <v>63</v>
       </c>
-      <c r="B135" s="53" t="s">
+      <c r="B135" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C135" s="55"/>
+      <c r="C135" s="56"/>
       <c r="D135" s="6" t="s">
         <v>291</v>
       </c>
@@ -9245,17 +9245,17 @@
         <v>10</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="57" t="s">
+      <c r="J135" s="53" t="s">
         <v>292</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="55"/>
+      <c r="M135" s="56"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="54"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="56"/>
+      <c r="A136" s="62"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="57"/>
       <c r="D136" s="6" t="s">
         <v>293</v>
       </c>
@@ -9274,14 +9274,14 @@
       <c r="I136" s="1">
         <v>12</v>
       </c>
-      <c r="J136" s="58"/>
+      <c r="J136" s="55"/>
       <c r="K136" s="1">
         <v>1</v>
       </c>
       <c r="L136" s="1">
         <v>13</v>
       </c>
-      <c r="M136" s="56"/>
+      <c r="M136" s="57"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
@@ -9323,7 +9323,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="55"/>
+      <c r="C138" s="56"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -9333,7 +9333,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="55"/>
+      <c r="M138" s="56"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
@@ -9342,7 +9342,7 @@
       <c r="B139" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C139" s="56"/>
+      <c r="C139" s="57"/>
       <c r="D139" s="6" t="s">
         <v>191</v>
       </c>
@@ -9370,195 +9370,22 @@
       <c r="L139" s="1">
         <v>9</v>
       </c>
-      <c r="M139" s="56"/>
+      <c r="M139" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="M138:M139"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="M131:M132"/>
     <mergeCell ref="C117:C118"/>
     <mergeCell ref="K117:K118"/>
     <mergeCell ref="M117:M118"/>
@@ -9580,18 +9407,191 @@
     <mergeCell ref="F101:F102"/>
     <mergeCell ref="G101:G102"/>
     <mergeCell ref="H101:H102"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="M138:M139"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CFCB29-04DC-4AA8-88A4-255ADC7B0E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DECD0-3E4F-46FE-8B8F-911E65D5C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="260">
   <si>
     <t>nip</t>
   </si>
@@ -98,114 +98,6 @@
     <t>Dra. Asfia</t>
   </si>
   <si>
-    <t>19690816 199503 2 002</t>
-  </si>
-  <si>
-    <t>19700802 199703 2 002</t>
-  </si>
-  <si>
-    <t>19740527 199905 2 001</t>
-  </si>
-  <si>
-    <t>19690412 199503 1 001</t>
-  </si>
-  <si>
-    <t>19670811 199303 2 004</t>
-  </si>
-  <si>
-    <t>19690608 199603 2 002</t>
-  </si>
-  <si>
-    <t>19650813 199202 2 001</t>
-  </si>
-  <si>
-    <t>19710712 199905 2 001</t>
-  </si>
-  <si>
-    <t>19700614 199905 2 001</t>
-  </si>
-  <si>
-    <t>19670705 199803 1 004</t>
-  </si>
-  <si>
-    <t>19680527 199503 2 002</t>
-  </si>
-  <si>
-    <t>19630608 199905 1 001</t>
-  </si>
-  <si>
-    <t>19660303 199905 2 001</t>
-  </si>
-  <si>
-    <t>19701121 199905 2 001</t>
-  </si>
-  <si>
-    <t>19710330 199905 2 001</t>
-  </si>
-  <si>
-    <t>19710627 199905 2 001</t>
-  </si>
-  <si>
-    <t>19670610 199905 2 001</t>
-  </si>
-  <si>
-    <t>19680122 199905 1 001</t>
-  </si>
-  <si>
-    <t>19760105 200003 2 001</t>
-  </si>
-  <si>
-    <t>19740422 200312 2 002</t>
-  </si>
-  <si>
-    <t>19760827 200501 1 009</t>
-  </si>
-  <si>
-    <t>19800909 200501 1 004</t>
-  </si>
-  <si>
-    <t>19791106 200312 2 002</t>
-  </si>
-  <si>
-    <t>19790924 199905 2 001</t>
-  </si>
-  <si>
-    <t>19730617 200312 1 004</t>
-  </si>
-  <si>
-    <t>19731210 200701 2 020</t>
-  </si>
-  <si>
-    <t>19770222 200701 2 021</t>
-  </si>
-  <si>
-    <t>19841010 200901 2 018</t>
-  </si>
-  <si>
-    <t>19671201 200501 1 005</t>
-  </si>
-  <si>
-    <t>19771229 199905 1 001</t>
-  </si>
-  <si>
-    <t>19641202 201411 2 001</t>
-  </si>
-  <si>
-    <t>19860902 201903 1 004</t>
-  </si>
-  <si>
-    <t>19930606 201903 1 020</t>
-  </si>
-  <si>
-    <t>19860618 201903 2 009</t>
-  </si>
-  <si>
-    <t>19800207 200701 2 012</t>
-  </si>
-  <si>
-    <t>19680708 201411 1 001</t>
-  </si>
-  <si>
     <t>assets/avatar.png</t>
   </si>
   <si>
@@ -231,9 +123,6 @@
   </si>
   <si>
     <t>rankTmt</t>
-  </si>
-  <si>
-    <t>educationLevelId </t>
   </si>
   <si>
     <t>majorId</t>
@@ -1015,18 +904,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1145,7 +1028,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1227,7 +1110,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1247,18 +1130,8 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1266,35 +1139,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1304,18 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1635,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFB0B7-5F4A-46CA-9F3B-E68BA45E5504}">
-  <dimension ref="A1:AD65"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,17 +1522,14 @@
     <col min="13" max="13" width="6.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="21" max="29" width="9.140625" style="25"/>
-    <col min="30" max="30" width="20.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="25"/>
+    <col min="16" max="16" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1697,42 +1558,39 @@
         <v>8</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>18</v>
@@ -1748,7 +1606,7 @@
         <v>drs.riswanbasriladdress@man.com</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G2" s="24">
         <v>1</v>
@@ -1763,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M2" s="30">
         <v>4</v>
@@ -1778,30 +1636,24 @@
         <v>1</v>
       </c>
       <c r="P2" s="24">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="24">
-        <v>1</v>
-      </c>
-      <c r="R2" s="24">
         <v>7</v>
       </c>
-      <c r="S2" s="39">
+      <c r="R2" s="39">
         <v>1993</v>
       </c>
-      <c r="T2" s="40">
+      <c r="S2" s="40">
         <v>41365</v>
       </c>
-      <c r="AD2" s="41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>10</v>
@@ -1814,7 +1666,7 @@
         <v>dra.salwahusnam.humpaddress@man.com</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G3" s="24">
         <v>1</v>
@@ -1829,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M3" s="30">
         <v>4</v>
@@ -1844,27 +1696,21 @@
         <v>2</v>
       </c>
       <c r="P3" s="24">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="24">
-        <v>1</v>
-      </c>
-      <c r="R3" s="42">
-        <v>1</v>
-      </c>
-      <c r="S3" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="41">
+        <v>1</v>
+      </c>
+      <c r="R3" s="41">
         <v>2013</v>
       </c>
-      <c r="T3" s="38">
+      <c r="S3" s="38">
         <v>43374</v>
       </c>
-      <c r="AD3" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>12</v>
@@ -1880,7 +1726,7 @@
         <v>dra.sriwahyunipaddress@man.com</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G4" s="24">
         <v>1</v>
@@ -1895,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M4" s="30">
         <v>4</v>
@@ -1910,30 +1756,24 @@
         <v>2</v>
       </c>
       <c r="P4" s="24">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="41">
         <v>10</v>
       </c>
-      <c r="Q4" s="24">
-        <v>2</v>
-      </c>
-      <c r="R4" s="42">
-        <v>10</v>
-      </c>
-      <c r="S4" s="42">
+      <c r="R4" s="41">
         <v>2003</v>
       </c>
-      <c r="T4" s="38">
+      <c r="S4" s="38">
         <v>43556</v>
       </c>
-      <c r="AD4" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>9</v>
@@ -1946,7 +1786,7 @@
         <v>mustafas.pdladdress@man.com</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G5" s="24">
         <v>1</v>
@@ -1961,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M5" s="30">
         <v>3</v>
@@ -1976,30 +1816,24 @@
         <v>2</v>
       </c>
       <c r="P5" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>3</v>
-      </c>
-      <c r="R5" s="42">
-        <v>1</v>
-      </c>
-      <c r="S5" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>1</v>
+      </c>
+      <c r="R5" s="41">
         <v>1998</v>
       </c>
-      <c r="T5" s="38">
+      <c r="S5" s="38">
         <v>44105</v>
       </c>
-      <c r="AD5" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>10</v>
@@ -2012,7 +1846,7 @@
         <v>parwiraabdraufmapaddress@man.com</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G6" s="24">
         <v>1</v>
@@ -2027,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M6" s="30">
         <v>4</v>
@@ -2042,27 +1876,21 @@
         <v>1</v>
       </c>
       <c r="P6" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>1</v>
-      </c>
-      <c r="R6" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="41">
         <v>16</v>
       </c>
-      <c r="S6" s="42">
+      <c r="R6" s="41">
         <v>1994</v>
       </c>
-      <c r="T6" s="38">
+      <c r="S6" s="38">
         <v>44287</v>
       </c>
-      <c r="AD6" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>17</v>
@@ -2078,7 +1906,7 @@
         <v>dra.maesahpaddress@man.com</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G7" s="24">
         <v>1</v>
@@ -2093,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M7" s="30">
         <v>4</v>
@@ -2108,30 +1936,24 @@
         <v>1</v>
       </c>
       <c r="P7" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>3</v>
-      </c>
-      <c r="R7" s="42">
-        <v>1</v>
-      </c>
-      <c r="S7" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="41">
+        <v>1</v>
+      </c>
+      <c r="R7" s="41">
         <v>2001</v>
       </c>
-      <c r="T7" s="38">
+      <c r="S7" s="38">
         <v>44652</v>
       </c>
-      <c r="AD7" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>10</v>
@@ -2144,7 +1966,7 @@
         <v>radhapuspitas.pdpaddress@man.com</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G8" s="24">
         <v>1</v>
@@ -2159,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M8" s="30">
         <v>4</v>
@@ -2174,30 +1996,24 @@
         <v>2</v>
       </c>
       <c r="P8" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>3</v>
-      </c>
-      <c r="R8" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="41">
         <v>16</v>
       </c>
-      <c r="S8" s="42">
+      <c r="R8" s="41">
         <v>1993</v>
       </c>
-      <c r="T8" s="38">
+      <c r="S8" s="38">
         <v>44835</v>
       </c>
-      <c r="AD8" s="43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>10</v>
@@ -2210,7 +2026,7 @@
         <v>erdanelis.pdpaddress@man.com</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G9" s="24">
         <v>1</v>
@@ -2225,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M9" s="30">
         <v>4</v>
@@ -2240,30 +2056,24 @@
         <v>1</v>
       </c>
       <c r="P9" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>3</v>
-      </c>
-      <c r="R9" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="41">
         <v>13</v>
       </c>
-      <c r="S9" s="42">
+      <c r="R9" s="41">
         <v>1990</v>
       </c>
-      <c r="T9" s="38">
+      <c r="S9" s="38">
         <v>44835</v>
       </c>
-      <c r="AD9" s="43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>10</v>
@@ -2276,7 +2086,7 @@
         <v>zarnidaars.agpaddress@man.com</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G10" s="24">
         <v>1</v>
@@ -2291,10 +2101,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M10" s="30">
         <v>4</v>
@@ -2306,30 +2116,24 @@
         <v>1</v>
       </c>
       <c r="P10" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>3</v>
-      </c>
-      <c r="R10" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="41">
         <v>2</v>
       </c>
-      <c r="S10" s="42">
+      <c r="R10" s="41">
         <v>1997</v>
       </c>
-      <c r="T10" s="38">
+      <c r="S10" s="38">
         <v>44835</v>
       </c>
-      <c r="AD10" s="43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>10</v>
@@ -2342,7 +2146,7 @@
         <v>sitihamidahs.agpaddress@man.com</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G11" s="24">
         <v>1</v>
@@ -2357,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M11" s="30">
         <v>4</v>
@@ -2372,28 +2176,22 @@
         <v>1</v>
       </c>
       <c r="P11" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>1</v>
-      </c>
-      <c r="R11" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="41">
         <v>16</v>
       </c>
-      <c r="S11" s="42">
+      <c r="R11" s="41">
         <v>1995</v>
       </c>
-      <c r="T11" s="38">
+      <c r="S11" s="38">
         <v>45200</v>
       </c>
-      <c r="AD11" s="43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="36" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>10</v>
@@ -2406,7 +2204,7 @@
         <v>supriyanipaddress@man.com</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G12" s="24">
         <v>1</v>
@@ -2421,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M12" s="30">
         <v>3</v>
@@ -2436,30 +2234,24 @@
         <v>1</v>
       </c>
       <c r="P12" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>4</v>
-      </c>
-      <c r="R12" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="41">
         <v>14</v>
       </c>
-      <c r="S12" s="42">
+      <c r="R12" s="41">
         <v>1997</v>
       </c>
-      <c r="T12" s="38">
+      <c r="S12" s="38">
         <v>40269</v>
       </c>
-      <c r="AD12" s="43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>10</v>
@@ -2472,7 +2264,7 @@
         <v>susiandrianis.pdpaddress@man.com</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -2487,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M13" s="30">
         <v>4</v>
@@ -2502,30 +2294,24 @@
         <v>1</v>
       </c>
       <c r="P13" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>5</v>
-      </c>
-      <c r="R13" s="39">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="39">
         <v>6</v>
       </c>
-      <c r="S13" s="42">
+      <c r="R13" s="41">
         <v>1993</v>
       </c>
-      <c r="T13" s="31">
+      <c r="S13" s="31">
         <v>40269</v>
       </c>
-      <c r="AD13" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>10</v>
@@ -2538,7 +2324,7 @@
         <v>dra.maslinapaddress@man.com</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G14" s="24">
         <v>1</v>
@@ -2553,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M14" s="30">
         <v>4</v>
@@ -2568,30 +2354,24 @@
         <v>2</v>
       </c>
       <c r="P14" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="24">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="41">
         <v>3</v>
       </c>
-      <c r="R14" s="42">
-        <v>3</v>
-      </c>
-      <c r="S14" s="42">
+      <c r="R14" s="41">
         <v>1989</v>
       </c>
-      <c r="T14" s="38">
+      <c r="S14" s="38">
         <v>41000</v>
       </c>
-      <c r="AD14" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>10</v>
@@ -2604,7 +2384,7 @@
         <v>nirwanis.pdpaddress@man.com</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G15" s="24">
         <v>1</v>
@@ -2619,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M15" s="30">
         <v>4</v>
@@ -2634,30 +2414,24 @@
         <v>2</v>
       </c>
       <c r="P15" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="24">
-        <v>3</v>
-      </c>
-      <c r="R15" s="42">
-        <v>4</v>
-      </c>
-      <c r="S15" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="41">
+        <v>4</v>
+      </c>
+      <c r="R15" s="41">
         <v>1991</v>
       </c>
-      <c r="T15" s="38">
+      <c r="S15" s="38">
         <v>41000</v>
       </c>
-      <c r="AD15" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>10</v>
@@ -2670,7 +2444,7 @@
         <v>zulitanawarnis.pdpaddress@man.com</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
@@ -2685,10 +2459,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M16" s="30">
         <v>4</v>
@@ -2700,30 +2474,24 @@
         <v>1</v>
       </c>
       <c r="P16" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="24">
-        <v>6</v>
-      </c>
-      <c r="R16" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="41">
         <v>5</v>
       </c>
-      <c r="S16" s="42">
+      <c r="R16" s="41">
         <v>1995</v>
       </c>
-      <c r="T16" s="38">
+      <c r="S16" s="38">
         <v>41000</v>
       </c>
-      <c r="AD16" s="43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>10</v>
@@ -2736,7 +2504,7 @@
         <v>idesvianamanurungmapaddress@man.com</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G17" s="24">
         <v>1</v>
@@ -2751,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M17" s="30">
         <v>3</v>
@@ -2766,30 +2534,24 @@
         <v>4</v>
       </c>
       <c r="P17" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="24">
-        <v>3</v>
-      </c>
-      <c r="R17" s="42">
-        <v>4</v>
-      </c>
-      <c r="S17" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="41">
+        <v>4</v>
+      </c>
+      <c r="R17" s="41">
         <v>1996</v>
       </c>
-      <c r="T17" s="38">
+      <c r="S17" s="38">
         <v>41000</v>
       </c>
-      <c r="AD17" s="43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>9</v>
@@ -2802,7 +2564,7 @@
         <v>rahmirizzatis.pdladdress@man.com</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G18" s="24">
         <v>1</v>
@@ -2817,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M18" s="30">
         <v>3</v>
@@ -2832,30 +2594,24 @@
         <v>1</v>
       </c>
       <c r="P18" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>1</v>
-      </c>
-      <c r="R18" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="41">
         <v>11</v>
       </c>
-      <c r="S18" s="42">
+      <c r="R18" s="41">
         <v>1996</v>
       </c>
-      <c r="T18" s="38">
+      <c r="S18" s="38">
         <v>41000</v>
       </c>
-      <c r="AD18" s="43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>10</v>
@@ -2868,7 +2624,7 @@
         <v>alhudas.pd.ipaddress@man.com</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G19" s="24">
         <v>1</v>
@@ -2883,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M19" s="30">
         <v>3</v>
@@ -2898,27 +2654,21 @@
         <v>4</v>
       </c>
       <c r="P19" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>3</v>
-      </c>
-      <c r="R19" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="41">
         <v>6</v>
       </c>
-      <c r="S19" s="42">
+      <c r="R19" s="41">
         <v>1993</v>
       </c>
-      <c r="T19" s="38">
+      <c r="S19" s="38">
         <v>41000</v>
       </c>
-      <c r="AD19" s="43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>15</v>
@@ -2934,7 +2684,7 @@
         <v>dra.mahyanapaddress@man.com</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G20" s="24">
         <v>1</v>
@@ -2949,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M20" s="30">
         <v>4</v>
@@ -2964,27 +2714,21 @@
         <v>2</v>
       </c>
       <c r="P20" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>1</v>
-      </c>
-      <c r="R20" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="41">
         <v>8</v>
       </c>
-      <c r="S20" s="42">
+      <c r="R20" s="41">
         <v>1999</v>
       </c>
-      <c r="T20" s="38">
+      <c r="S20" s="38">
         <v>42461</v>
       </c>
-      <c r="AD20" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>19</v>
@@ -3000,7 +2744,7 @@
         <v>dra.asfiapaddress@man.com</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G21" s="24">
         <v>1</v>
@@ -3015,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M21" s="30">
         <v>3</v>
@@ -3030,30 +2774,24 @@
         <v>1</v>
       </c>
       <c r="P21" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="24">
-        <v>1</v>
-      </c>
-      <c r="R21" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="41">
         <v>13</v>
       </c>
-      <c r="S21" s="42">
+      <c r="R21" s="41">
         <v>1998</v>
       </c>
-      <c r="T21" s="38">
+      <c r="S21" s="38">
         <v>42461</v>
       </c>
-      <c r="AD21" s="43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>10</v>
@@ -3066,7 +2804,7 @@
         <v>hafinimapaddress@man.com</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G22" s="24">
         <v>1</v>
@@ -3081,10 +2819,10 @@
         <v>1</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M22" s="30">
         <v>3</v>
@@ -3096,30 +2834,24 @@
         <v>3</v>
       </c>
       <c r="P22" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>3</v>
-      </c>
-      <c r="R22" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="41">
         <v>9</v>
       </c>
-      <c r="S22" s="42">
+      <c r="R22" s="41">
         <v>2001</v>
       </c>
-      <c r="T22" s="38">
+      <c r="S22" s="38">
         <v>43191</v>
       </c>
-      <c r="AD22" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>10</v>
@@ -3132,7 +2864,7 @@
         <v>sitiyulianas.pdpaddress@man.com</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G23" s="24">
         <v>1</v>
@@ -3147,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M23" s="30">
         <v>4</v>
@@ -3162,27 +2894,21 @@
         <v>2</v>
       </c>
       <c r="P23" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="24">
-        <v>3</v>
-      </c>
-      <c r="R23" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="41">
         <v>16</v>
       </c>
-      <c r="S23" s="42">
+      <c r="R23" s="41">
         <v>2004</v>
       </c>
-      <c r="T23" s="38">
+      <c r="S23" s="38">
         <v>45200</v>
       </c>
-      <c r="AD23" s="43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>16</v>
@@ -3190,7 +2916,7 @@
       <c r="C24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="42">
         <v>29165</v>
       </c>
       <c r="E24" s="28" t="str">
@@ -3198,7 +2924,7 @@
         <v>drs.m.saminpaddress@man.com</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G24" s="24">
         <v>1</v>
@@ -3213,50 +2939,44 @@
         <v>1</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M24" s="30">
         <v>4</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="42">
         <v>41609</v>
       </c>
       <c r="O24" s="30">
         <v>1</v>
       </c>
       <c r="P24" s="24">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="43">
         <v>10</v>
       </c>
-      <c r="Q24" s="24">
-        <v>1</v>
-      </c>
-      <c r="R24" s="47">
-        <v>10</v>
-      </c>
-      <c r="S24" s="47">
+      <c r="R24" s="43">
         <v>2003</v>
       </c>
-      <c r="T24" s="46">
+      <c r="S24" s="42">
         <v>41913</v>
       </c>
-      <c r="AD24" s="48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="44">
         <v>29122</v>
       </c>
       <c r="E25" s="28" t="str">
@@ -3264,7 +2984,7 @@
         <v>rosmainis.pdpaddress@man.com</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G25" s="24">
         <v>1</v>
@@ -3279,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M25" s="30">
         <v>4</v>
@@ -3294,43 +3014,37 @@
         <v>1</v>
       </c>
       <c r="P25" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="24">
-        <v>4</v>
-      </c>
-      <c r="R25" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="41">
         <v>14</v>
       </c>
-      <c r="S25" s="42">
+      <c r="R25" s="41">
         <v>2003</v>
       </c>
-      <c r="T25" s="38">
+      <c r="S25" s="38">
         <v>42461</v>
       </c>
-      <c r="AD25" s="50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>57</v>
+      <c r="D26" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="E26" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ramlans.pdpaddress@man.com</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G26" s="24">
         <v>1</v>
@@ -3345,45 +3059,39 @@
         <v>1</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M26" s="30">
         <v>4</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="42">
         <v>42186</v>
       </c>
       <c r="O26" s="30">
         <v>1</v>
       </c>
       <c r="P26" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="24">
-        <v>1</v>
-      </c>
-      <c r="R26" s="47">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="43">
         <v>11</v>
       </c>
-      <c r="S26" s="47">
+      <c r="R26" s="43">
         <v>2002</v>
       </c>
-      <c r="T26" s="46">
+      <c r="S26" s="42">
         <v>43009</v>
       </c>
-      <c r="AD26" s="51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>10</v>
@@ -3396,7 +3104,7 @@
         <v>rosidas.pdpaddress@man.com</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G27" s="24">
         <v>1</v>
@@ -3411,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M27" s="30">
         <v>3</v>
@@ -3426,30 +3134,24 @@
         <v>3</v>
       </c>
       <c r="P27" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="24">
-        <v>1</v>
-      </c>
-      <c r="R27" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="41">
         <v>14</v>
       </c>
-      <c r="S27" s="42">
+      <c r="R27" s="41">
         <v>1999</v>
       </c>
-      <c r="T27" s="38">
+      <c r="S27" s="38">
         <v>45200</v>
       </c>
-      <c r="AD27" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>9</v>
@@ -3462,7 +3164,7 @@
         <v>masdians.pdladdress@man.com</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G28" s="24">
         <v>1</v>
@@ -3477,10 +3179,10 @@
         <v>1</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M28" s="30">
         <v>4</v>
@@ -3492,30 +3194,24 @@
         <v>1</v>
       </c>
       <c r="P28" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="24">
-        <v>7</v>
-      </c>
-      <c r="R28" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="41">
         <v>14</v>
       </c>
-      <c r="S28" s="42">
+      <c r="R28" s="41">
         <v>2005</v>
       </c>
-      <c r="T28" s="38">
+      <c r="S28" s="38">
         <v>44470</v>
       </c>
-      <c r="AD28" s="50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>9</v>
@@ -3528,7 +3224,7 @@
         <v>jonaerwentas.pdladdress@man.com</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G29" s="24">
         <v>1</v>
@@ -3543,10 +3239,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M29" s="30">
         <v>3</v>
@@ -3558,27 +3254,21 @@
         <v>1</v>
       </c>
       <c r="P29" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="24">
-        <v>3</v>
-      </c>
-      <c r="R29" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="41">
         <v>12</v>
       </c>
-      <c r="S29" s="42">
+      <c r="R29" s="41">
         <v>2007</v>
       </c>
-      <c r="T29" s="38">
+      <c r="S29" s="38">
         <v>45017</v>
       </c>
-      <c r="AD29" s="43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>13</v>
@@ -3594,7 +3284,7 @@
         <v>drs.mukhlisusmanladdress@man.com</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G30" s="24">
         <v>1</v>
@@ -3609,10 +3299,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M30" s="30">
         <v>4</v>
@@ -3624,27 +3314,21 @@
         <v>2</v>
       </c>
       <c r="P30" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="24">
-        <v>3</v>
-      </c>
-      <c r="R30" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q30" s="41">
         <v>5</v>
       </c>
-      <c r="S30" s="42">
+      <c r="R30" s="41">
         <v>2000</v>
       </c>
-      <c r="T30" s="38">
+      <c r="S30" s="38">
         <v>42826</v>
       </c>
-      <c r="AD30" s="43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>14</v>
@@ -3660,7 +3344,7 @@
         <v>dra.dewisartikapaddress@man.com</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G31" s="24">
         <v>1</v>
@@ -3675,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M31" s="30">
         <v>4</v>
@@ -3690,30 +3374,24 @@
         <v>2</v>
       </c>
       <c r="P31" s="24">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="24">
-        <v>9</v>
-      </c>
-      <c r="R31" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q31" s="41">
         <v>13</v>
       </c>
-      <c r="S31" s="42">
+      <c r="R31" s="41">
         <v>1998</v>
       </c>
-      <c r="T31" s="38">
+      <c r="S31" s="38">
         <v>45200</v>
       </c>
-      <c r="AD31" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>10</v>
@@ -3726,7 +3404,7 @@
         <v>novadianas.pd.ipaddress@man.com</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G32" s="24">
         <v>1</v>
@@ -3741,10 +3419,10 @@
         <v>1</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M32" s="30">
         <v>3</v>
@@ -3756,28 +3434,22 @@
         <v>4</v>
       </c>
       <c r="P32" s="24">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="24">
-        <v>1</v>
-      </c>
-      <c r="R32" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="41">
         <v>14</v>
       </c>
-      <c r="S32" s="42">
+      <c r="R32" s="41">
         <v>1991</v>
       </c>
-      <c r="T32" s="38">
+      <c r="S32" s="38">
         <v>45931</v>
       </c>
-      <c r="AD32" s="43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="36" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>10</v>
@@ -3790,7 +3462,7 @@
         <v>muslailatis.pdpaddress@man.com</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G33" s="24">
         <v>1</v>
@@ -3805,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M33" s="30">
         <v>4</v>
@@ -3820,28 +3492,22 @@
         <v>1</v>
       </c>
       <c r="P33" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="24">
-        <v>1</v>
-      </c>
-      <c r="R33" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q33" s="41">
         <v>14</v>
       </c>
-      <c r="S33" s="42">
+      <c r="R33" s="41">
         <v>2011</v>
       </c>
-      <c r="T33" s="40">
+      <c r="S33" s="40">
         <v>44986</v>
       </c>
-      <c r="AD33" s="45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="36" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>10</v>
@@ -3854,7 +3520,7 @@
         <v>murikawatis.pdpaddress@man.com</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G34" s="24">
         <v>1</v>
@@ -3869,35 +3535,29 @@
         <v>2</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="38"/>
       <c r="O34" s="24"/>
       <c r="P34" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="24">
-        <v>1</v>
-      </c>
-      <c r="R34" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q34" s="41">
         <v>14</v>
       </c>
-      <c r="S34" s="42">
+      <c r="R34" s="41">
         <v>2011</v>
       </c>
-      <c r="T34" s="40"/>
-      <c r="AD34" s="45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S34" s="40"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="36" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>10</v>
@@ -3910,7 +3570,7 @@
         <v>sripuspitawatysepaddress@man.com</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G35" s="24">
         <v>1</v>
@@ -3925,40 +3585,34 @@
         <v>2</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M35" s="24"/>
       <c r="N35" s="38"/>
       <c r="O35" s="24"/>
       <c r="P35" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="24">
-        <v>1</v>
-      </c>
-      <c r="R35" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q35" s="41">
         <v>14</v>
       </c>
-      <c r="S35" s="42">
+      <c r="R35" s="41">
         <v>2011</v>
       </c>
-      <c r="T35" s="40"/>
-      <c r="AD35" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S35" s="40"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="36" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="45">
         <v>29258</v>
       </c>
       <c r="E36" s="28" t="str">
@@ -3966,7 +3620,7 @@
         <v>musrifatuns.pd.ipaddress@man.com</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G36" s="24">
         <v>1</v>
@@ -3981,40 +3635,34 @@
         <v>2</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M36" s="24"/>
-      <c r="N36" s="52"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="24"/>
       <c r="P36" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="24">
-        <v>1</v>
-      </c>
-      <c r="R36" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q36" s="41">
         <v>14</v>
       </c>
-      <c r="S36" s="42">
+      <c r="R36" s="41">
         <v>2011</v>
       </c>
-      <c r="T36" s="52"/>
-      <c r="AD36" s="45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S36" s="45"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="36" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="45">
         <v>25027</v>
       </c>
       <c r="E37" s="28" t="str">
@@ -4022,7 +3670,7 @@
         <v>hasbunarawem.pdpaddress@man.com</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G37" s="24">
         <v>1</v>
@@ -4037,40 +3685,34 @@
         <v>2</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L37" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M37" s="24"/>
-      <c r="N37" s="52"/>
+      <c r="N37" s="45"/>
       <c r="O37" s="24"/>
       <c r="P37" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="24">
-        <v>1</v>
-      </c>
-      <c r="R37" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q37" s="41">
         <v>14</v>
       </c>
-      <c r="S37" s="42">
+      <c r="R37" s="41">
         <v>2011</v>
       </c>
-      <c r="T37" s="52"/>
-      <c r="AD37" s="45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S37" s="45"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="36" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="45">
         <v>25028</v>
       </c>
       <c r="E38" s="28" t="str">
@@ -4078,7 +3720,7 @@
         <v>ayurafitris.pdpaddress@man.com</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G38" s="24">
         <v>1</v>
@@ -4093,33 +3735,30 @@
         <v>2</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L38" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P38" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="24">
-        <v>1</v>
-      </c>
-      <c r="R38" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="41">
         <v>14</v>
       </c>
-      <c r="S38" s="42">
+      <c r="R38" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="36" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="45">
         <v>25029</v>
       </c>
       <c r="E39" s="28" t="str">
@@ -4127,7 +3766,7 @@
         <v>yunitafitris.pdpaddress@man.com</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G39" s="24">
         <v>1</v>
@@ -4142,33 +3781,30 @@
         <v>2</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L39" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P39" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="24">
-        <v>1</v>
-      </c>
-      <c r="R39" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="41">
         <v>14</v>
       </c>
-      <c r="S39" s="42">
+      <c r="R39" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="36" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="45">
         <v>25030</v>
       </c>
       <c r="E40" s="28" t="str">
@@ -4176,7 +3812,7 @@
         <v>suminas.pd.ipaddress@man.com</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G40" s="24">
         <v>1</v>
@@ -4191,33 +3827,30 @@
         <v>2</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L40" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P40" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="24">
-        <v>1</v>
-      </c>
-      <c r="R40" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q40" s="41">
         <v>14</v>
       </c>
-      <c r="S40" s="42">
+      <c r="R40" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="36" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="45">
         <v>25031</v>
       </c>
       <c r="E41" s="28" t="str">
@@ -4225,7 +3858,7 @@
         <v>mawarnimartianatah.s.pdpaddress@man.com</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G41" s="24">
         <v>1</v>
@@ -4240,33 +3873,30 @@
         <v>2</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P41" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="24">
-        <v>1</v>
-      </c>
-      <c r="R41" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q41" s="41">
         <v>14</v>
       </c>
-      <c r="S41" s="42">
+      <c r="R41" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="36" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="45">
         <v>25032</v>
       </c>
       <c r="E42" s="28" t="str">
@@ -4274,7 +3904,7 @@
         <v>ihfaruddins.pdpaddress@man.com</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G42" s="24">
         <v>1</v>
@@ -4289,33 +3919,30 @@
         <v>2</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L42" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P42" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="24">
-        <v>1</v>
-      </c>
-      <c r="R42" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q42" s="41">
         <v>14</v>
       </c>
-      <c r="S42" s="42">
+      <c r="R42" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="36" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="45">
         <v>25033</v>
       </c>
       <c r="E43" s="28" t="str">
@@ -4323,7 +3950,7 @@
         <v>liafitris.pdpaddress@man.com</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G43" s="24">
         <v>1</v>
@@ -4338,33 +3965,30 @@
         <v>2</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L43" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P43" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="24">
-        <v>1</v>
-      </c>
-      <c r="R43" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q43" s="41">
         <v>14</v>
       </c>
-      <c r="S43" s="42">
+      <c r="R43" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="36" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="45">
         <v>25034</v>
       </c>
       <c r="E44" s="28" t="str">
@@ -4372,7 +3996,7 @@
         <v>maqpirahs.pdpaddress@man.com</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G44" s="24">
         <v>1</v>
@@ -4387,33 +4011,30 @@
         <v>2</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L44" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P44" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="24">
-        <v>1</v>
-      </c>
-      <c r="R44" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q44" s="41">
         <v>14</v>
       </c>
-      <c r="S44" s="42">
+      <c r="R44" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="36" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="45">
         <v>25035</v>
       </c>
       <c r="E45" s="28" t="str">
@@ -4421,7 +4042,7 @@
         <v>wantinurjadidahs.sospaddress@man.com</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G45" s="24">
         <v>1</v>
@@ -4436,33 +4057,30 @@
         <v>2</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L45" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P45" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="24">
-        <v>1</v>
-      </c>
-      <c r="R45" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q45" s="41">
         <v>14</v>
       </c>
-      <c r="S45" s="42">
+      <c r="R45" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="36" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="45">
         <v>25036</v>
       </c>
       <c r="E46" s="28" t="str">
@@ -4470,7 +4088,7 @@
         <v>azmialfikris.pd.ipaddress@man.com</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G46" s="24">
         <v>1</v>
@@ -4485,33 +4103,30 @@
         <v>2</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L46" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P46" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="24">
-        <v>1</v>
-      </c>
-      <c r="R46" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q46" s="41">
         <v>14</v>
       </c>
-      <c r="S46" s="42">
+      <c r="R46" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="36" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="45">
         <v>25037</v>
       </c>
       <c r="E47" s="28" t="str">
@@ -4519,7 +4134,7 @@
         <v>ariagemasihs.pdpaddress@man.com</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G47" s="24">
         <v>1</v>
@@ -4534,33 +4149,30 @@
         <v>2</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L47" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P47" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="24">
-        <v>1</v>
-      </c>
-      <c r="R47" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q47" s="41">
         <v>14</v>
       </c>
-      <c r="S47" s="42">
+      <c r="R47" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="36" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="45">
         <v>25038</v>
       </c>
       <c r="E48" s="28" t="str">
@@ -4568,7 +4180,7 @@
         <v>hirdayanis.pdpaddress@man.com</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G48" s="24">
         <v>1</v>
@@ -4583,33 +4195,30 @@
         <v>2</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L48" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P48" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="24">
-        <v>1</v>
-      </c>
-      <c r="R48" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q48" s="41">
         <v>14</v>
       </c>
-      <c r="S48" s="42">
+      <c r="R48" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="36" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="45">
         <v>25039</v>
       </c>
       <c r="E49" s="28" t="str">
@@ -4617,7 +4226,7 @@
         <v>nellarahmans.pdpaddress@man.com</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G49" s="24">
         <v>1</v>
@@ -4632,33 +4241,30 @@
         <v>2</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L49" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P49" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="24">
-        <v>1</v>
-      </c>
-      <c r="R49" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="41">
         <v>14</v>
       </c>
-      <c r="S49" s="42">
+      <c r="R49" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="36" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="45">
         <v>25040</v>
       </c>
       <c r="E50" s="28" t="str">
@@ -4666,7 +4272,7 @@
         <v>zahrahs.pdpaddress@man.com</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G50" s="24">
         <v>1</v>
@@ -4681,33 +4287,30 @@
         <v>2</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L50" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P50" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="24">
-        <v>1</v>
-      </c>
-      <c r="R50" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="41">
         <v>14</v>
       </c>
-      <c r="S50" s="42">
+      <c r="R50" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="36" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="45">
         <v>25041</v>
       </c>
       <c r="E51" s="28" t="str">
@@ -4715,7 +4318,7 @@
         <v>nurmalianas.pdpaddress@man.com</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G51" s="24">
         <v>1</v>
@@ -4730,33 +4333,30 @@
         <v>2</v>
       </c>
       <c r="K51" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L51" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P51" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q51" s="24">
-        <v>1</v>
-      </c>
-      <c r="R51" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="41">
         <v>14</v>
       </c>
-      <c r="S51" s="42">
+      <c r="R51" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="36" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="45">
         <v>25042</v>
       </c>
       <c r="E52" s="28" t="str">
@@ -4764,7 +4364,7 @@
         <v>indasyahram.pdpaddress@man.com</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G52" s="24">
         <v>1</v>
@@ -4779,33 +4379,30 @@
         <v>2</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L52" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P52" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="24">
-        <v>1</v>
-      </c>
-      <c r="R52" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q52" s="41">
         <v>14</v>
       </c>
-      <c r="S52" s="42">
+      <c r="R52" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="36" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="45">
         <v>25043</v>
       </c>
       <c r="E53" s="28" t="str">
@@ -4813,7 +4410,7 @@
         <v>helmirasyidans.pdpaddress@man.com</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G53" s="24">
         <v>1</v>
@@ -4828,33 +4425,30 @@
         <v>2</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L53" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P53" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="24">
-        <v>1</v>
-      </c>
-      <c r="R53" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q53" s="41">
         <v>14</v>
       </c>
-      <c r="S53" s="42">
+      <c r="R53" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="36" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="45">
         <v>25044</v>
       </c>
       <c r="E54" s="28" t="str">
@@ -4862,7 +4456,7 @@
         <v>basirahs.pdpaddress@man.com</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G54" s="24">
         <v>1</v>
@@ -4877,33 +4471,30 @@
         <v>2</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L54" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P54" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="24">
-        <v>1</v>
-      </c>
-      <c r="R54" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="41">
         <v>14</v>
       </c>
-      <c r="S54" s="42">
+      <c r="R54" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="36" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55" s="45">
         <v>25045</v>
       </c>
       <c r="E55" s="28" t="str">
@@ -4911,7 +4502,7 @@
         <v>nidaulfasmis.pdpaddress@man.com</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G55" s="24">
         <v>1</v>
@@ -4926,33 +4517,30 @@
         <v>2</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L55" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P55" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="24">
-        <v>1</v>
-      </c>
-      <c r="R55" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="41">
         <v>14</v>
       </c>
-      <c r="S55" s="42">
+      <c r="R55" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="36" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="45">
         <v>25046</v>
       </c>
       <c r="E56" s="28" t="str">
@@ -4960,7 +4548,7 @@
         <v>rahmayanas.pdpaddress@man.com</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G56" s="24">
         <v>1</v>
@@ -4975,33 +4563,30 @@
         <v>2</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L56" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P56" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q56" s="24">
-        <v>1</v>
-      </c>
-      <c r="R56" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="41">
         <v>14</v>
       </c>
-      <c r="S56" s="42">
+      <c r="R56" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="36" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="45">
         <v>25047</v>
       </c>
       <c r="E57" s="28" t="str">
@@ -5009,7 +4594,7 @@
         <v>enipenalamnis.sipaddress@man.com</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G57" s="24">
         <v>1</v>
@@ -5024,33 +4609,30 @@
         <v>2</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L57" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P57" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="24">
-        <v>1</v>
-      </c>
-      <c r="R57" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="41">
         <v>14</v>
       </c>
-      <c r="S57" s="42">
+      <c r="R57" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="36" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="45">
         <v>25048</v>
       </c>
       <c r="E58" s="28" t="str">
@@ -5058,7 +4640,7 @@
         <v>kurniatibukits.pdpaddress@man.com</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G58" s="24">
         <v>1</v>
@@ -5073,33 +4655,30 @@
         <v>2</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L58" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P58" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="24">
-        <v>1</v>
-      </c>
-      <c r="R58" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="41">
         <v>14</v>
       </c>
-      <c r="S58" s="42">
+      <c r="R58" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="36" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="45">
         <v>25049</v>
       </c>
       <c r="E59" s="28" t="str">
@@ -5107,7 +4686,7 @@
         <v>wildanmabruras.pdpaddress@man.com</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G59" s="24">
         <v>1</v>
@@ -5122,33 +4701,30 @@
         <v>2</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L59" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P59" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="24">
-        <v>1</v>
-      </c>
-      <c r="R59" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="41">
         <v>14</v>
       </c>
-      <c r="S59" s="42">
+      <c r="R59" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
       <c r="B60" s="36" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="45">
         <v>25050</v>
       </c>
       <c r="E60" s="28" t="str">
@@ -5156,7 +4732,7 @@
         <v>marfuahs.pdpaddress@man.com</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G60" s="24">
         <v>1</v>
@@ -5171,33 +4747,30 @@
         <v>2</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L60" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P60" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q60" s="24">
-        <v>1</v>
-      </c>
-      <c r="R60" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="41">
         <v>14</v>
       </c>
-      <c r="S60" s="42">
+      <c r="R60" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="36" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="45">
         <v>25051</v>
       </c>
       <c r="E61" s="28" t="str">
@@ -5205,7 +4778,7 @@
         <v>sadirahs.pd.ipaddress@man.com</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G61" s="24">
         <v>1</v>
@@ -5220,33 +4793,30 @@
         <v>2</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L61" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P61" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="24">
-        <v>1</v>
-      </c>
-      <c r="R61" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="41">
         <v>14</v>
       </c>
-      <c r="S61" s="42">
+      <c r="R61" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
       <c r="B62" s="36" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="45">
         <v>25052</v>
       </c>
       <c r="E62" s="28" t="str">
@@ -5254,7 +4824,7 @@
         <v>saifunnurs.pdpaddress@man.com</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G62" s="24">
         <v>1</v>
@@ -5269,33 +4839,30 @@
         <v>2</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L62" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P62" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="24">
-        <v>1</v>
-      </c>
-      <c r="R62" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="41">
         <v>14</v>
       </c>
-      <c r="S62" s="42">
+      <c r="R62" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="36" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="45">
         <v>25053</v>
       </c>
       <c r="E63" s="28" t="str">
@@ -5303,7 +4870,7 @@
         <v>rahimatullahs.pd.ipaddress@man.com</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G63" s="24">
         <v>1</v>
@@ -5318,33 +4885,30 @@
         <v>2</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L63" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P63" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q63" s="24">
-        <v>1</v>
-      </c>
-      <c r="R63" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="41">
         <v>14</v>
       </c>
-      <c r="S63" s="42">
+      <c r="R63" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="36" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="45">
         <v>25054</v>
       </c>
       <c r="E64" s="28" t="str">
@@ -5352,7 +4916,7 @@
         <v>fitriramadhanis.pdpaddress@man.com</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G64" s="24">
         <v>1</v>
@@ -5367,33 +4931,30 @@
         <v>2</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L64" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P64" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q64" s="24">
-        <v>1</v>
-      </c>
-      <c r="R64" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="41">
         <v>14</v>
       </c>
-      <c r="S64" s="42">
+      <c r="R64" s="41">
         <v>2011</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="36" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="45">
         <v>25055</v>
       </c>
       <c r="E65" s="28" t="str">
@@ -5401,7 +4962,7 @@
         <v>marliantis.pdpaddress@man.com</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G65" s="24">
         <v>1</v>
@@ -5416,21 +4977,18 @@
         <v>2</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L65" s="29" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="P65" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q65" s="24">
-        <v>1</v>
-      </c>
-      <c r="R65" s="42">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="41">
         <v>14</v>
       </c>
-      <c r="S65" s="42">
+      <c r="R65" s="41">
         <v>2011</v>
       </c>
     </row>
@@ -5464,83 +5022,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>162</v>
+      <c r="A1" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+        <v>126</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="1" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+        <v>129</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5584,98 +5142,98 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+      <c r="A5" s="50">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="53">
+      <c r="C5" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="50">
         <v>24</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="50">
         <v>24</v>
       </c>
-      <c r="M5" s="53"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
+        <v>130</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
+      <c r="A7" s="50">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="53">
+        <v>35</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="50">
         <v>15</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="53">
+      <c r="H7" s="48"/>
+      <c r="I7" s="50">
         <v>15</v>
       </c>
-      <c r="J7" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="53">
+      <c r="J7" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="50">
         <v>12</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="50">
         <v>27</v>
       </c>
-      <c r="M7" s="61"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="62"/>
+        <v>133</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5684,49 +5242,49 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="53" t="s">
-        <v>177</v>
+      <c r="J9" s="50" t="s">
+        <v>140</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="61"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -5734,175 +5292,175 @@
       <c r="I10" s="1">
         <v>14</v>
       </c>
-      <c r="J10" s="55"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="1">
         <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>26</v>
       </c>
-      <c r="M10" s="62"/>
+      <c r="M10" s="47"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+      <c r="A11" s="50">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="53">
-        <v>4</v>
-      </c>
-      <c r="F11" s="53">
+        <v>37</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="50">
+        <v>4</v>
+      </c>
+      <c r="F11" s="50">
         <v>12</v>
       </c>
-      <c r="G11" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="53">
+      <c r="G11" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="50">
         <v>16</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="50">
         <v>16</v>
       </c>
-      <c r="J11" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="53">
+      <c r="J11" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="50">
         <v>12</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="50">
         <v>28</v>
       </c>
-      <c r="M11" s="61"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="62"/>
+        <v>142</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
+      <c r="A13" s="50">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="53">
+        <v>39</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="50">
         <v>2</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="50">
         <v>12</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="50">
         <v>14</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="50">
         <v>14</v>
       </c>
-      <c r="J13" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="K13" s="53">
+      <c r="J13" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="50">
         <v>12</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="50">
         <v>26</v>
       </c>
-      <c r="M13" s="61"/>
+      <c r="M13" s="46"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="62"/>
+        <v>146</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53">
+      <c r="A15" s="50">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>168</v>
+      <c r="C15" s="50" t="s">
+        <v>131</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G15" s="1">
         <v>12</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="53" t="s">
-        <v>188</v>
+      <c r="J15" s="50" t="s">
+        <v>151</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="61"/>
+      <c r="M15" s="46"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="55"/>
+        <v>149</v>
+      </c>
+      <c r="C16" s="51"/>
       <c r="D16" s="6" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H16" s="1">
         <v>14</v>
@@ -5910,19 +5468,19 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="55"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="1">
         <v>13</v>
       </c>
       <c r="L16" s="1">
         <v>27</v>
       </c>
-      <c r="M16" s="62"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
@@ -5931,31 +5489,31 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="53" t="s">
-        <v>190</v>
+      <c r="J17" s="50" t="s">
+        <v>153</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="56"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G18" s="1">
         <v>16</v>
@@ -5966,48 +5524,48 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="55"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="1">
         <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>29</v>
       </c>
-      <c r="M18" s="57"/>
+      <c r="M18" s="49"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="53"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="53" t="s">
-        <v>192</v>
+      <c r="J19" s="50" t="s">
+        <v>155</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="56"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="55"/>
+        <v>110</v>
+      </c>
+      <c r="C20" s="51"/>
       <c r="D20" s="6" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1">
         <v>4</v>
@@ -6018,19 +5576,19 @@
       <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="55"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="1">
         <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="57"/>
+      <c r="M20" s="49"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="53"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -6038,22 +5596,22 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="56"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="54"/>
+        <v>111</v>
+      </c>
+      <c r="C22" s="53"/>
       <c r="D22" s="6" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="E22" s="1">
         <v>14</v>
@@ -6062,7 +5620,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H22" s="1">
         <v>20</v>
@@ -6071,7 +5629,7 @@
         <v>22</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7">
         <v>7</v>
@@ -6079,20 +5637,20 @@
       <c r="L22" s="7">
         <v>29</v>
       </c>
-      <c r="M22" s="63"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="55"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="6" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -6104,14 +5662,14 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="57"/>
+      <c r="M23" s="49"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="53">
+      <c r="A24" s="50">
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -6121,31 +5679,31 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="56"/>
+      <c r="M24" s="48"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="6" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="E25" s="1">
         <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H25" s="1">
         <v>24</v>
@@ -6154,7 +5712,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="K25" s="6">
         <v>7</v>
@@ -6162,14 +5720,14 @@
       <c r="L25" s="1">
         <v>31</v>
       </c>
-      <c r="M25" s="57"/>
+      <c r="M25" s="49"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="53">
+      <c r="A26" s="50">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -6179,31 +5737,31 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="56"/>
+      <c r="M26" s="48"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="6" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="E27" s="1">
         <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H27" s="1">
         <v>24</v>
@@ -6212,7 +5770,7 @@
         <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="K27" s="1">
         <v>7</v>
@@ -6220,66 +5778,66 @@
       <c r="L27" s="1">
         <v>31</v>
       </c>
-      <c r="M27" s="57"/>
+      <c r="M27" s="49"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="53">
+      <c r="A28" s="50">
         <v>12</v>
       </c>
-      <c r="B28" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="53">
+      <c r="B28" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="50">
         <v>14</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="50">
         <v>8</v>
       </c>
-      <c r="G28" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="53">
+      <c r="G28" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="50">
         <v>22</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I28" s="50">
         <v>22</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K28" s="53">
+        <v>157</v>
+      </c>
+      <c r="K28" s="50">
         <v>7</v>
       </c>
-      <c r="L28" s="53">
+      <c r="L28" s="50">
         <v>29</v>
       </c>
-      <c r="M28" s="56"/>
+      <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
       <c r="J29" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="57"/>
+        <v>166</v>
+      </c>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="49"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -6289,24 +5847,24 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="56"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>13</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="E31" s="1">
         <v>14</v>
@@ -6315,7 +5873,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H31" s="1">
         <v>22</v>
@@ -6324,7 +5882,7 @@
         <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="K31" s="1">
         <v>7</v>
@@ -6332,69 +5890,69 @@
       <c r="L31" s="1">
         <v>29</v>
       </c>
-      <c r="M31" s="57"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="G32" s="53">
-        <v>4</v>
-      </c>
-      <c r="H32" s="53">
+      <c r="C32" s="48"/>
+      <c r="D32" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="50">
+        <v>4</v>
+      </c>
+      <c r="H32" s="50">
         <v>4</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="56"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>14</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
+        <v>69</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="63"/>
+      <c r="M33" s="52"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="6" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H34" s="1">
         <v>6</v>
@@ -6403,7 +5961,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="K34" s="1">
         <v>7</v>
@@ -6411,7 +5969,7 @@
       <c r="L34" s="1">
         <v>17</v>
       </c>
-      <c r="M34" s="57"/>
+      <c r="M34" s="49"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -6424,24 +5982,24 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="56"/>
+      <c r="M35" s="48"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>15</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="E36" s="1">
         <v>14</v>
@@ -6450,7 +6008,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H36" s="1">
         <v>18</v>
@@ -6459,7 +6017,7 @@
         <v>18</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="K36" s="1">
         <v>7</v>
@@ -6467,16 +6025,16 @@
       <c r="L36" s="1">
         <v>25</v>
       </c>
-      <c r="M36" s="57"/>
+      <c r="M36" s="49"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="61" t="s">
-        <v>214</v>
+      <c r="D37" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -6484,23 +6042,23 @@
       <c r="H37" s="7"/>
       <c r="I37" s="5"/>
       <c r="J37" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="56"/>
+      <c r="M37" s="48"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>16</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="62"/>
+        <v>131</v>
+      </c>
+      <c r="D38" s="47"/>
       <c r="E38" s="1">
         <v>12</v>
       </c>
@@ -6508,7 +6066,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H38" s="1">
         <v>24</v>
@@ -6517,7 +6075,7 @@
         <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="K38" s="1">
         <v>7</v>
@@ -6525,16 +6083,16 @@
       <c r="L38" s="1">
         <v>31</v>
       </c>
-      <c r="M38" s="57"/>
+      <c r="M38" s="49"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="61" t="s">
-        <v>217</v>
+      <c r="D39" s="46" t="s">
+        <v>180</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -6542,23 +6100,23 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="56"/>
+      <c r="M39" s="48"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>17</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="62"/>
+        <v>134</v>
+      </c>
+      <c r="D40" s="47"/>
       <c r="E40" s="1">
         <v>4</v>
       </c>
@@ -6566,7 +6124,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H40" s="1">
         <v>24</v>
@@ -6575,7 +6133,7 @@
         <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="K40" s="1">
         <v>7</v>
@@ -6583,75 +6141,75 @@
       <c r="L40" s="1">
         <v>31</v>
       </c>
-      <c r="M40" s="57"/>
+      <c r="M40" s="49"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="53">
+      <c r="D41" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="50">
         <v>16</v>
       </c>
-      <c r="G41" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="53">
+      <c r="G41" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="50">
         <v>16</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="56"/>
+      <c r="M41" s="48"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>18</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+        <v>134</v>
+      </c>
+      <c r="D42" s="47"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="63"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="6" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="6" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="E43" s="1">
         <v>9</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H43" s="1">
         <v>9</v>
@@ -6666,68 +6224,68 @@
       <c r="L43" s="1">
         <v>32</v>
       </c>
-      <c r="M43" s="57"/>
+      <c r="M43" s="49"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="61"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="53">
-        <v>4</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="53">
+        <v>180</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="50">
+        <v>4</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="50">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="5"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="56"/>
+      <c r="M44" s="48"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>19</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="64"/>
+        <v>115</v>
+      </c>
+      <c r="C45" s="54"/>
       <c r="D45" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
+        <v>185</v>
+      </c>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="7"/>
       <c r="J45" s="5" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="63"/>
+      <c r="M45" s="52"/>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="62"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="6" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G46" s="1">
         <v>4</v>
@@ -6739,7 +6297,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="K46" s="1">
         <v>7</v>
@@ -6747,7 +6305,7 @@
       <c r="L46" s="1">
         <v>15</v>
       </c>
-      <c r="M46" s="57"/>
+      <c r="M46" s="49"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -6762,29 +6320,29 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="56"/>
+      <c r="M47" s="48"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>20</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1">
         <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H48" s="1">
         <v>12</v>
@@ -6793,25 +6351,25 @@
         <v>26</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K48" s="7">
         <v>7</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="63"/>
+      <c r="M48" s="52"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="6" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="6" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1">
         <v>8</v>
@@ -6824,13 +6382,13 @@
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="1" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="1">
         <v>33</v>
       </c>
-      <c r="M49" s="57"/>
+      <c r="M49" s="49"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -6843,21 +6401,21 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="56"/>
+      <c r="M50" s="48"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F51" s="7">
         <v>6</v>
@@ -6870,7 +6428,7 @@
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="K51" s="7">
         <v>7</v>
@@ -6878,17 +6436,17 @@
       <c r="L51" s="7">
         <v>29</v>
       </c>
-      <c r="M51" s="63"/>
+      <c r="M51" s="52"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -6901,25 +6459,25 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="63"/>
+      <c r="M52" s="52"/>
     </row>
     <row r="53" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="6" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="6" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H53" s="1">
         <v>2</v>
@@ -6928,7 +6486,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="57"/>
+      <c r="M53" s="49"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -6943,22 +6501,22 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="56"/>
+      <c r="M54" s="48"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="5" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G55" s="1">
         <v>14</v>
@@ -6968,33 +6526,33 @@
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="63"/>
+      <c r="M55" s="52"/>
     </row>
     <row r="56" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>22</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F56" s="1">
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H56" s="1">
         <v>12</v>
@@ -7003,7 +6561,7 @@
         <v>26</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="K56" s="1">
         <v>7</v>
@@ -7011,7 +6569,7 @@
       <c r="L56" s="1">
         <v>33</v>
       </c>
-      <c r="M56" s="57"/>
+      <c r="M56" s="49"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -7024,24 +6582,24 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="56"/>
+      <c r="M57" s="48"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>23</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="E58" s="5">
         <v>4</v>
@@ -7059,7 +6617,7 @@
         <v>24</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="K58" s="7">
         <v>7</v>
@@ -7067,12 +6625,12 @@
       <c r="L58" s="7">
         <v>31</v>
       </c>
-      <c r="M58" s="63"/>
+      <c r="M58" s="52"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="6" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -7084,14 +6642,14 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="57"/>
+      <c r="M59" s="49"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="61" t="s">
-        <v>214</v>
+      <c r="D60" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="5"/>
@@ -7099,11 +6657,11 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="56"/>
+      <c r="M60" s="48"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -7113,11 +6671,11 @@
         <v>15</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="62"/>
+        <v>134</v>
+      </c>
+      <c r="D61" s="47"/>
       <c r="E61" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F61" s="6">
         <v>4</v>
@@ -7132,7 +6690,7 @@
         <v>24</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="K61" s="7">
         <v>7</v>
@@ -7140,22 +6698,22 @@
       <c r="L61" s="7">
         <v>31</v>
       </c>
-      <c r="M61" s="63"/>
+      <c r="M61" s="52"/>
     </row>
     <row r="62" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="6" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="6" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G62" s="1">
         <v>4</v>
@@ -7167,7 +6725,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="57"/>
+      <c r="M62" s="49"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -7176,56 +6734,56 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F63" s="61">
+      <c r="E63" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="46">
         <v>8</v>
       </c>
-      <c r="G63" s="53">
+      <c r="G63" s="50">
         <v>14</v>
       </c>
-      <c r="H63" s="53">
+      <c r="H63" s="50">
         <v>24</v>
       </c>
-      <c r="I63" s="53">
+      <c r="I63" s="50">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="53">
+      <c r="L63" s="50">
         <v>31</v>
       </c>
-      <c r="M63" s="56"/>
+      <c r="M63" s="48"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>25</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
+        <v>156</v>
+      </c>
+      <c r="E64" s="51"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
       <c r="J64" s="1" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="K64" s="1">
         <v>7</v>
       </c>
-      <c r="L64" s="55"/>
-      <c r="M64" s="57"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="49"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -7240,20 +6798,20 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="56"/>
+      <c r="M65" s="48"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>26</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -7263,21 +6821,21 @@
         <v>22</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="63"/>
+      <c r="M66" s="52"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="5" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="5" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F67" s="5">
         <v>8</v>
@@ -7290,7 +6848,7 @@
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="K67" s="7">
         <v>7</v>
@@ -7298,7 +6856,7 @@
       <c r="L67" s="7">
         <v>29</v>
       </c>
-      <c r="M67" s="63"/>
+      <c r="M67" s="52"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -7313,12 +6871,12 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="57"/>
+      <c r="M68" s="49"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -7328,30 +6886,30 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="56"/>
+      <c r="M69" s="48"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>27</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="E70" s="1">
         <v>10</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G70" s="1">
         <v>14</v>
@@ -7363,7 +6921,7 @@
         <v>24</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="K70" s="1">
         <v>7</v>
@@ -7371,7 +6929,7 @@
       <c r="L70" s="1">
         <v>31</v>
       </c>
-      <c r="M70" s="57"/>
+      <c r="M70" s="49"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -7384,11 +6942,11 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="56"/>
+      <c r="M71" s="48"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -7398,13 +6956,13 @@
         <v>16</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F72" s="7">
         <v>12</v>
@@ -7419,7 +6977,7 @@
         <v>24</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="K72" s="7">
         <v>7</v>
@@ -7427,12 +6985,12 @@
       <c r="L72" s="7">
         <v>31</v>
       </c>
-      <c r="M72" s="63"/>
+      <c r="M72" s="52"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="6" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -7444,20 +7002,20 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="57"/>
+      <c r="M73" s="49"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G74" s="1">
         <v>2</v>
@@ -7469,29 +7027,29 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="56"/>
+      <c r="M74" s="48"/>
     </row>
     <row r="75" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>29</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F75" s="1">
         <v>14</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H75" s="1">
         <v>14</v>
@@ -7500,7 +7058,7 @@
         <v>16</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="K75" s="1">
         <v>7</v>
@@ -7508,18 +7066,18 @@
       <c r="L75" s="1">
         <v>23</v>
       </c>
-      <c r="M75" s="57"/>
+      <c r="M75" s="49"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="53">
+      <c r="A76" s="50">
         <v>30</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="E76" s="1">
         <v>12</v>
@@ -7528,7 +7086,7 @@
         <v>4</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H76" s="1">
         <v>16</v>
@@ -7537,27 +7095,27 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="56"/>
+      <c r="M76" s="48"/>
     </row>
     <row r="77" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="55"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="6" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="E77" s="1">
         <v>9</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H77" s="1">
         <v>9</v>
@@ -7566,7 +7124,7 @@
         <v>25</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="K77" s="1">
         <v>7</v>
@@ -7574,14 +7132,14 @@
       <c r="L77" s="1">
         <v>32</v>
       </c>
-      <c r="M77" s="57"/>
+      <c r="M77" s="49"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="61">
+      <c r="A78" s="46">
         <v>31</v>
       </c>
-      <c r="B78" s="61" t="s">
-        <v>259</v>
+      <c r="B78" s="46" t="s">
+        <v>222</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -7590,24 +7148,24 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="53" t="s">
-        <v>260</v>
+      <c r="J78" s="50" t="s">
+        <v>223</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="56"/>
+      <c r="M78" s="48"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="1" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F79" s="1">
         <v>4</v>
@@ -7621,70 +7179,70 @@
       <c r="I79" s="1">
         <v>18</v>
       </c>
-      <c r="J79" s="55"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="1">
         <v>7</v>
       </c>
       <c r="L79" s="1">
         <v>25</v>
       </c>
-      <c r="M79" s="57"/>
+      <c r="M79" s="49"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="61">
+      <c r="A80" s="46">
         <v>32</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F80" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="G80" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H80" s="53">
+      <c r="E80" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="50">
         <v>24</v>
       </c>
-      <c r="I80" s="53">
+      <c r="I80" s="50">
         <v>24</v>
       </c>
-      <c r="J80" s="53" t="s">
-        <v>263</v>
+      <c r="J80" s="50" t="s">
+        <v>226</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="56"/>
+      <c r="M80" s="48"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="62"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="6" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
+        <v>225</v>
+      </c>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
       <c r="K81" s="1">
         <v>10</v>
       </c>
       <c r="L81" s="1">
         <v>34</v>
       </c>
-      <c r="M81" s="57"/>
+      <c r="M81" s="49"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -7699,26 +7257,26 @@
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="53"/>
+      <c r="M82" s="50"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>33</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G83" s="7">
         <v>16</v>
@@ -7730,20 +7288,20 @@
         <v>24</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="L83" s="7">
         <v>24</v>
       </c>
-      <c r="M83" s="54"/>
+      <c r="M83" s="53"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="16" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -7755,66 +7313,66 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="M84" s="55"/>
+      <c r="M84" s="51"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="E85" s="53">
+      <c r="D85" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="50">
         <v>12</v>
       </c>
-      <c r="F85" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="G85" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H85" s="53">
+      <c r="F85" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="50">
         <v>12</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="56"/>
+      <c r="M85" s="48"/>
     </row>
     <row r="86" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>34</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
+        <v>173</v>
+      </c>
+      <c r="D86" s="47"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
       <c r="I86" s="7">
         <v>24</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="63"/>
+      <c r="M86" s="52"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="17" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="C87" s="12"/>
-      <c r="D87" s="61" t="s">
-        <v>235</v>
+      <c r="D87" s="46" t="s">
+        <v>198</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -7828,18 +7386,18 @@
       <c r="L87" s="7">
         <v>30</v>
       </c>
-      <c r="M87" s="63"/>
+      <c r="M87" s="52"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="62"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G88" s="1">
         <v>12</v>
@@ -7851,10 +7409,10 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
-      <c r="M88" s="57"/>
+      <c r="M88" s="49"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="61">
+      <c r="A89" s="46">
         <v>35</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7866,40 +7424,40 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="61">
+      <c r="I89" s="46">
         <v>24</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="56"/>
+      <c r="M89" s="48"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="62"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="6" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="E90" s="1">
         <v>24</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H90" s="1">
         <v>24</v>
       </c>
-      <c r="I90" s="62"/>
+      <c r="I90" s="47"/>
       <c r="J90" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K90" s="1">
         <v>1</v>
@@ -7907,129 +7465,129 @@
       <c r="L90" s="1">
         <v>25</v>
       </c>
-      <c r="M90" s="57"/>
+      <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="61">
+      <c r="A91" s="46">
         <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="E91" s="53">
+      <c r="D91" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" s="50">
         <v>12</v>
       </c>
-      <c r="F91" s="53">
+      <c r="F91" s="50">
         <v>12</v>
       </c>
-      <c r="G91" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H91" s="53">
+      <c r="G91" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91" s="50">
         <v>24</v>
       </c>
-      <c r="I91" s="53">
+      <c r="I91" s="50">
         <v>24</v>
       </c>
-      <c r="J91" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="K91" s="53">
-        <v>1</v>
-      </c>
-      <c r="L91" s="53">
+      <c r="J91" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="K91" s="50">
+        <v>1</v>
+      </c>
+      <c r="L91" s="50">
         <v>25</v>
       </c>
-      <c r="M91" s="56"/>
+      <c r="M91" s="48"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="62"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="16" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D92" s="62"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="57"/>
+        <v>134</v>
+      </c>
+      <c r="D92" s="47"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="49"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="61">
+      <c r="A93" s="46">
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="E93" s="53">
+      <c r="D93" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="50">
         <v>21</v>
       </c>
-      <c r="F93" s="53">
+      <c r="F93" s="50">
         <v>3</v>
       </c>
-      <c r="G93" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H93" s="53">
+      <c r="G93" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="50">
         <v>24</v>
       </c>
-      <c r="I93" s="53">
+      <c r="I93" s="50">
         <v>24</v>
       </c>
-      <c r="J93" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="K93" s="53">
-        <v>1</v>
-      </c>
-      <c r="L93" s="53">
+      <c r="J93" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="K93" s="50">
+        <v>1</v>
+      </c>
+      <c r="L93" s="50">
         <v>25</v>
       </c>
-      <c r="M93" s="56"/>
+      <c r="M93" s="48"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="62"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="6" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D94" s="62"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="55"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="55"/>
-      <c r="M94" s="57"/>
+        <v>191</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="49"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="5"/>
       <c r="C95" s="7"/>
       <c r="D95" s="6" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F95" s="1">
         <v>8</v>
@@ -8044,29 +7602,29 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="53"/>
+      <c r="M95" s="50"/>
     </row>
     <row r="96" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>38</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H96" s="1">
         <v>2</v>
@@ -8075,7 +7633,7 @@
         <v>22</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="K96" s="1">
         <v>8</v>
@@ -8083,12 +7641,12 @@
       <c r="L96" s="1">
         <v>30</v>
       </c>
-      <c r="M96" s="55"/>
+      <c r="M96" s="51"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
-      <c r="B97" s="56"/>
-      <c r="C97" s="61"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="46"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -8098,20 +7656,20 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="56"/>
+      <c r="M97" s="48"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="62"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="6" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G98" s="1">
         <v>24</v>
@@ -8123,7 +7681,7 @@
         <v>24</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K98" s="1">
         <v>1</v>
@@ -8131,41 +7689,41 @@
       <c r="L98" s="1">
         <v>25</v>
       </c>
-      <c r="M98" s="57"/>
+      <c r="M98" s="49"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="56"/>
+      <c r="C99" s="48"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="53" t="s">
-        <v>277</v>
+      <c r="J99" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="56"/>
+      <c r="M99" s="48"/>
     </row>
     <row r="100" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>39</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C100" s="57"/>
+        <v>84</v>
+      </c>
+      <c r="C100" s="49"/>
       <c r="D100" s="6" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G100" s="1">
         <v>24</v>
@@ -8176,74 +7734,74 @@
       <c r="I100" s="1">
         <v>24</v>
       </c>
-      <c r="J100" s="55"/>
+      <c r="J100" s="51"/>
       <c r="K100" s="1">
         <v>6</v>
       </c>
       <c r="L100" s="1">
         <v>30</v>
       </c>
-      <c r="M100" s="57"/>
+      <c r="M100" s="49"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="E101" s="53">
+      <c r="C101" s="48"/>
+      <c r="D101" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E101" s="50">
         <v>9</v>
       </c>
-      <c r="F101" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="G101" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H101" s="53">
+      <c r="F101" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G101" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="50">
         <v>9</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="53"/>
+      <c r="K101" s="50"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="56"/>
+      <c r="M101" s="48"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="54"/>
+      <c r="K102" s="53"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="63"/>
+      <c r="M102" s="52"/>
     </row>
     <row r="103" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>41</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C103" s="63"/>
+        <v>85</v>
+      </c>
+      <c r="C103" s="52"/>
       <c r="D103" s="6" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="E103" s="1">
         <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H103" s="1">
         <v>12</v>
@@ -8252,26 +7810,26 @@
         <v>26</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K103" s="54"/>
+        <v>242</v>
+      </c>
+      <c r="K103" s="53"/>
       <c r="L103" s="7">
         <v>26</v>
       </c>
-      <c r="M103" s="63"/>
+      <c r="M103" s="52"/>
     </row>
     <row r="104" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="57"/>
+      <c r="C104" s="49"/>
       <c r="D104" s="6" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G104" s="1">
         <v>4</v>
@@ -8281,14 +7839,14 @@
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="55"/>
+      <c r="K104" s="51"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="57"/>
+      <c r="M104" s="49"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="61"/>
+      <c r="C105" s="46"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -8298,18 +7856,18 @@
       <c r="J105" s="5"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="56"/>
+      <c r="M105" s="48"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>42</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="64"/>
+        <v>86</v>
+      </c>
+      <c r="C106" s="54"/>
       <c r="D106" s="6" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="E106" s="6">
         <v>14</v>
@@ -8318,7 +7876,7 @@
         <v>6</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H106" s="6">
         <v>20</v>
@@ -8327,7 +7885,7 @@
         <v>24</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K106" s="7">
         <v>1</v>
@@ -8335,23 +7893,23 @@
       <c r="L106" s="7">
         <v>25</v>
       </c>
-      <c r="M106" s="63"/>
+      <c r="M106" s="52"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="62"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="6" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F107" s="6">
         <v>4</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H107" s="6">
         <v>4</v>
@@ -8360,44 +7918,44 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="57"/>
+      <c r="M107" s="49"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="56"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="53" t="s">
-        <v>271</v>
+      <c r="J108" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="56"/>
+      <c r="M108" s="48"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>43</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="57"/>
+        <v>87</v>
+      </c>
+      <c r="C109" s="49"/>
       <c r="D109" s="6" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F109" s="1">
         <v>6</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H109" s="1">
         <v>6</v>
@@ -8405,28 +7963,28 @@
       <c r="I109" s="1">
         <v>6</v>
       </c>
-      <c r="J109" s="55"/>
+      <c r="J109" s="51"/>
       <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="L109" s="1">
         <v>7</v>
       </c>
-      <c r="M109" s="57"/>
+      <c r="M109" s="49"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>44</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="6" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F110" s="1">
         <v>16</v>
@@ -8441,7 +7999,7 @@
         <v>20</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K110" s="1">
         <v>1</v>
@@ -8456,20 +8014,20 @@
         <v>45</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="6" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F111" s="1">
         <v>12</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H111" s="1">
         <v>12</v>
@@ -8478,7 +8036,7 @@
         <v>12</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K111" s="1">
         <v>1</v>
@@ -8493,20 +8051,20 @@
         <v>46</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="6" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F112" s="1">
         <v>8</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H112" s="1">
         <v>8</v>
@@ -8515,7 +8073,7 @@
         <v>8</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K112" s="1">
         <v>1</v>
@@ -8530,14 +8088,14 @@
         <v>47</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="6" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F113" s="1">
         <v>9</v>
@@ -8552,7 +8110,7 @@
         <v>15</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K113" s="1">
         <v>1</v>
@@ -8567,11 +8125,11 @@
         <v>48</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="6" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -8581,7 +8139,7 @@
         <v>24</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K114" s="1">
         <v>1</v>
@@ -8596,11 +8154,11 @@
         <v>49</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="6" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
@@ -8610,7 +8168,7 @@
         <v>24</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="K115" s="11"/>
       <c r="L115" s="1">
@@ -8623,11 +8181,11 @@
         <v>50</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="6" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
@@ -8637,7 +8195,7 @@
         <v>24</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K116" s="1">
         <v>1</v>
@@ -8650,44 +8208,44 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="56"/>
+      <c r="C117" s="48"/>
       <c r="D117" s="6" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E117" s="1">
         <v>9</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H117" s="1">
         <v>9</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="53"/>
+      <c r="K117" s="50"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="56"/>
+      <c r="M117" s="48"/>
     </row>
     <row r="118" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>51</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C118" s="57"/>
+        <v>95</v>
+      </c>
+      <c r="C118" s="49"/>
       <c r="D118" s="6" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G118" s="1">
         <v>8</v>
@@ -8699,30 +8257,30 @@
         <v>25</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K118" s="55"/>
+        <v>246</v>
+      </c>
+      <c r="K118" s="51"/>
       <c r="L118" s="1">
         <v>25</v>
       </c>
-      <c r="M118" s="57"/>
+      <c r="M118" s="49"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>52</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="6" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G119" s="1">
         <v>6</v>
@@ -8734,7 +8292,7 @@
         <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K119" s="1">
         <v>1</v>
@@ -8749,17 +8307,17 @@
         <v>53</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="6" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="E120" s="1">
         <v>9</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G120" s="1">
         <v>12</v>
@@ -8771,7 +8329,7 @@
         <v>21</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K120" s="1">
         <v>1</v>
@@ -8784,7 +8342,7 @@
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="56"/>
+      <c r="C121" s="48"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8794,18 +8352,18 @@
       <c r="J121" s="5"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="56"/>
+      <c r="M121" s="48"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
         <v>54</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C122" s="63"/>
+        <v>98</v>
+      </c>
+      <c r="C122" s="52"/>
       <c r="D122" s="5" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="E122" s="7">
         <v>4</v>
@@ -8814,7 +8372,7 @@
         <v>6</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H122" s="7">
         <v>10</v>
@@ -8823,7 +8381,7 @@
         <v>10</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K122" s="7">
         <v>1</v>
@@ -8831,14 +8389,14 @@
       <c r="L122" s="7">
         <v>11</v>
       </c>
-      <c r="M122" s="63"/>
+      <c r="M122" s="52"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C123" s="57"/>
+        <v>249</v>
+      </c>
+      <c r="C123" s="49"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -8848,24 +8406,24 @@
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
-      <c r="M123" s="57"/>
+      <c r="M123" s="49"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>55</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="6" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="E124" s="1">
         <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G124" s="1">
         <v>14</v>
@@ -8877,7 +8435,7 @@
         <v>22</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K124" s="1">
         <v>1</v>
@@ -8892,20 +8450,20 @@
         <v>56</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="6" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F125" s="1">
         <v>8</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H125" s="1">
         <v>8</v>
@@ -8914,7 +8472,7 @@
         <v>8</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K125" s="1">
         <v>1</v>
@@ -8929,11 +8487,11 @@
         <v>57</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="6" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="E126" s="1">
         <v>6</v>
@@ -8942,7 +8500,7 @@
         <v>14</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H126" s="1">
         <v>20</v>
@@ -8951,7 +8509,7 @@
         <v>20</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K126" s="1">
         <v>1</v>
@@ -8962,24 +8520,24 @@
       <c r="M126" s="11"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="61">
+      <c r="A127" s="46">
         <v>58</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C127" s="56"/>
+        <v>102</v>
+      </c>
+      <c r="C127" s="48"/>
       <c r="D127" s="6" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F127" s="1">
         <v>4</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H127" s="1">
         <v>4</v>
@@ -8988,23 +8546,23 @@
       <c r="J127" s="7"/>
       <c r="K127" s="18"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="56"/>
+      <c r="M127" s="48"/>
     </row>
     <row r="128" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="62"/>
+      <c r="A128" s="47"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="57"/>
+      <c r="C128" s="49"/>
       <c r="D128" s="6" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="E128" s="1">
         <v>12</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H128" s="1">
         <v>12</v>
@@ -9013,7 +8571,7 @@
         <v>16</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K128" s="19">
         <v>1</v>
@@ -9021,27 +8579,27 @@
       <c r="L128" s="1">
         <v>17</v>
       </c>
-      <c r="M128" s="57"/>
+      <c r="M128" s="49"/>
     </row>
     <row r="129" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="61">
+      <c r="A129" s="46">
         <v>59</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C129" s="56"/>
+        <v>103</v>
+      </c>
+      <c r="C129" s="48"/>
       <c r="D129" s="6" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="E129" s="1">
         <v>9</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H129" s="1">
         <v>9</v>
@@ -9050,23 +8608,23 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="56"/>
+      <c r="M129" s="48"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="62"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="57"/>
+      <c r="C130" s="49"/>
       <c r="D130" s="6" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="E130" s="1">
         <v>2</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H130" s="1">
         <v>2</v>
@@ -9075,7 +8633,7 @@
         <v>11</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K130" s="1">
         <v>1</v>
@@ -9083,23 +8641,23 @@
       <c r="L130" s="1">
         <v>12</v>
       </c>
-      <c r="M130" s="57"/>
+      <c r="M130" s="49"/>
     </row>
     <row r="131" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="56"/>
+      <c r="C131" s="48"/>
       <c r="D131" s="6" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F131" s="1">
         <v>6</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H131" s="1">
         <v>6</v>
@@ -9108,27 +8666,27 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="56"/>
+      <c r="M131" s="48"/>
     </row>
     <row r="132" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>60</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="57"/>
+        <v>104</v>
+      </c>
+      <c r="C132" s="49"/>
       <c r="D132" s="6" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E132" s="1">
         <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H132" s="1">
         <v>8</v>
@@ -9137,7 +8695,7 @@
         <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K132" s="1">
         <v>1</v>
@@ -9145,27 +8703,27 @@
       <c r="L132" s="1">
         <v>15</v>
       </c>
-      <c r="M132" s="57"/>
+      <c r="M132" s="49"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>61</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="6" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F133" s="1">
         <v>12</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H133" s="1">
         <v>12</v>
@@ -9174,7 +8732,7 @@
         <v>12</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K133" s="1">
         <v>1</v>
@@ -9189,20 +8747,20 @@
         <v>62</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="6" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F134" s="1">
         <v>12</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H134" s="1">
         <v>12</v>
@@ -9211,7 +8769,7 @@
         <v>12</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K134" s="1">
         <v>1</v>
@@ -9222,18 +8780,18 @@
       <c r="M134" s="11"/>
     </row>
     <row r="135" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="61">
+      <c r="A135" s="46">
         <v>63</v>
       </c>
-      <c r="B135" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="C135" s="56"/>
+      <c r="B135" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="48"/>
       <c r="D135" s="6" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F135" s="1">
         <v>4</v>
@@ -9245,28 +8803,28 @@
         <v>10</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="53" t="s">
-        <v>292</v>
+      <c r="J135" s="50" t="s">
+        <v>255</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="56"/>
+      <c r="M135" s="48"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="62"/>
-      <c r="B136" s="62"/>
-      <c r="C136" s="57"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="49"/>
       <c r="D136" s="6" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H136" s="1">
         <v>2</v>
@@ -9274,34 +8832,34 @@
       <c r="I136" s="1">
         <v>12</v>
       </c>
-      <c r="J136" s="55"/>
+      <c r="J136" s="51"/>
       <c r="K136" s="1">
         <v>1</v>
       </c>
       <c r="L136" s="1">
         <v>13</v>
       </c>
-      <c r="M136" s="57"/>
+      <c r="M136" s="49"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>64</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="6" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F137" s="1">
         <v>9</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H137" s="1">
         <v>9</v>
@@ -9310,7 +8868,7 @@
         <v>9</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K137" s="1">
         <v>1</v>
@@ -9323,7 +8881,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="56"/>
+      <c r="C138" s="48"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -9333,24 +8891,24 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="56"/>
+      <c r="M138" s="48"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>65</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C139" s="57"/>
+        <v>109</v>
+      </c>
+      <c r="C139" s="49"/>
       <c r="D139" s="6" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="G139" s="1">
         <v>8</v>
@@ -9362,7 +8920,7 @@
         <v>8</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K139" s="1">
         <v>1</v>
@@ -9370,205 +8928,10 @@
       <c r="L139" s="1">
         <v>9</v>
       </c>
-      <c r="M139" s="57"/>
+      <c r="M139" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="M138:M139"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="M121:M123"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:K3"/>
@@ -9592,6 +8955,201 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="M121:M123"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="M138:M139"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="M131:M132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DECD0-3E4F-46FE-8B8F-911E65D5C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C35BA2-C830-47EB-9295-F2FC5D8E0771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
@@ -1146,31 +1146,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1180,6 +1168,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5022,47 +5022,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="50" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="46" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="1" t="s">
         <v>126</v>
       </c>
@@ -5072,18 +5072,18 @@
       <c r="G2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
@@ -5093,12 +5093,12 @@
       <c r="G3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5142,98 +5142,98 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="46">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="50" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="46">
         <v>24</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="46">
         <v>24</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="46">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="50">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="46">
         <v>15</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="50">
+      <c r="H7" s="49"/>
+      <c r="I7" s="46">
         <v>15</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="46">
         <v>12</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="46">
         <v>27</v>
       </c>
-      <c r="M7" s="46"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5257,12 +5257,12 @@
         <v>12</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="46" t="s">
         <v>140</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="46"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -5292,135 +5292,135 @@
       <c r="I10" s="1">
         <v>14</v>
       </c>
-      <c r="J10" s="51"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="1">
         <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>26</v>
       </c>
-      <c r="M10" s="47"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="46">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="50">
-        <v>4</v>
-      </c>
-      <c r="F11" s="50">
+      <c r="E11" s="46">
+        <v>4</v>
+      </c>
+      <c r="F11" s="46">
         <v>12</v>
       </c>
-      <c r="G11" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="50">
+      <c r="G11" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="46">
         <v>16</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="46">
         <v>16</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="46">
         <v>12</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="46">
         <v>28</v>
       </c>
-      <c r="M11" s="46"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="46">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="50">
+      <c r="E13" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="46">
         <v>2</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="46">
         <v>12</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="46">
         <v>14</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="46">
         <v>14</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="46">
         <v>12</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="46">
         <v>26</v>
       </c>
-      <c r="M13" s="46"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50">
+      <c r="A15" s="46">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="46" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5437,19 +5437,19 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="46" t="s">
         <v>151</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="46"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="6" t="s">
         <v>141</v>
       </c>
@@ -5468,14 +5468,14 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="51"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="1">
         <v>13</v>
       </c>
       <c r="L16" s="1">
         <v>27</v>
       </c>
-      <c r="M16" s="47"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -5489,12 +5489,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="46" t="s">
         <v>153</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="48"/>
+      <c r="M17" s="49"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -5524,31 +5524,31 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="51"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="1">
         <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>29</v>
       </c>
-      <c r="M18" s="49"/>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="50"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="46" t="s">
         <v>155</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="48"/>
+      <c r="M19" s="49"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -5557,7 +5557,7 @@
       <c r="B20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="6" t="s">
         <v>154</v>
       </c>
@@ -5576,19 +5576,19 @@
       <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="51"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="1">
         <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="49"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="48"/>
+      <c r="M21" s="49"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -5609,7 +5609,7 @@
       <c r="B22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="6" t="s">
         <v>156</v>
       </c>
@@ -5637,12 +5637,12 @@
       <c r="L22" s="7">
         <v>29</v>
       </c>
-      <c r="M22" s="52"/>
+      <c r="M22" s="56"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="6" t="s">
         <v>147</v>
       </c>
@@ -5662,10 +5662,10 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="49"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="46">
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5683,10 +5683,10 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="48"/>
+      <c r="M24" s="49"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="6" t="s">
         <v>159</v>
       </c>
@@ -5720,10 +5720,10 @@
       <c r="L25" s="1">
         <v>31</v>
       </c>
-      <c r="M25" s="49"/>
+      <c r="M25" s="50"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
+      <c r="A26" s="46">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5741,10 +5741,10 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="48"/>
+      <c r="M26" s="49"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="6" t="s">
         <v>162</v>
       </c>
@@ -5778,61 +5778,61 @@
       <c r="L27" s="1">
         <v>31</v>
       </c>
-      <c r="M27" s="49"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+      <c r="A28" s="46">
         <v>12</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="49"/>
+      <c r="D28" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="46">
         <v>14</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="46">
         <v>8</v>
       </c>
-      <c r="G28" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="50">
+      <c r="G28" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="46">
         <v>22</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="46">
         <v>22</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="50">
+      <c r="K28" s="46">
         <v>7</v>
       </c>
-      <c r="L28" s="50">
+      <c r="L28" s="46">
         <v>29</v>
       </c>
-      <c r="M28" s="48"/>
+      <c r="M28" s="49"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="49"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="48"/>
+      <c r="M30" s="49"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -5890,32 +5890,32 @@
       <c r="L31" s="1">
         <v>29</v>
       </c>
-      <c r="M31" s="49"/>
+      <c r="M31" s="50"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="46" t="s">
+      <c r="C32" s="49"/>
+      <c r="D32" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="50">
-        <v>4</v>
-      </c>
-      <c r="H32" s="50">
+      <c r="E32" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="46">
+        <v>4</v>
+      </c>
+      <c r="H32" s="46">
         <v>4</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="48"/>
+      <c r="M32" s="49"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -5924,24 +5924,24 @@
       <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="52"/>
+      <c r="M33" s="56"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="49"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="6" t="s">
         <v>172</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="L34" s="1">
         <v>17</v>
       </c>
-      <c r="M34" s="49"/>
+      <c r="M34" s="50"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="48"/>
+      <c r="M35" s="49"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -6025,7 +6025,7 @@
       <c r="L36" s="1">
         <v>25</v>
       </c>
-      <c r="M36" s="49"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -6033,7 +6033,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="54" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="7"/>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="48"/>
+      <c r="M37" s="49"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -6058,7 +6058,7 @@
       <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="1">
         <v>12</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="L38" s="1">
         <v>31</v>
       </c>
-      <c r="M38" s="49"/>
+      <c r="M38" s="50"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -6091,7 +6091,7 @@
         <v>51</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="54" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="7"/>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="48"/>
+      <c r="M39" s="49"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -6116,7 +6116,7 @@
       <c r="C40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="1">
         <v>4</v>
       </c>
@@ -6141,25 +6141,25 @@
       <c r="L40" s="1">
         <v>31</v>
       </c>
-      <c r="M40" s="49"/>
+      <c r="M40" s="50"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="50">
+      <c r="E41" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="46">
         <v>16</v>
       </c>
-      <c r="G41" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="50">
+      <c r="G41" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="46">
         <v>16</v>
       </c>
       <c r="I41" s="7"/>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="49"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -6180,18 +6180,18 @@
       <c r="C42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
         <v>183</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="52"/>
+      <c r="M42" s="56"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
@@ -6224,32 +6224,32 @@
       <c r="L43" s="1">
         <v>32</v>
       </c>
-      <c r="M43" s="49"/>
+      <c r="M43" s="50"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="46"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="50">
-        <v>4</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="50">
+      <c r="E44" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="46">
+        <v>4</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="46">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="5"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="48"/>
+      <c r="M44" s="49"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -6258,26 +6258,26 @@
       <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="54"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="7"/>
       <c r="J45" s="5" t="s">
         <v>157</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="52"/>
+      <c r="M45" s="56"/>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="47"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="6" t="s">
         <v>187</v>
       </c>
@@ -6305,7 +6305,7 @@
       <c r="L46" s="1">
         <v>15</v>
       </c>
-      <c r="M46" s="49"/>
+      <c r="M46" s="50"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -6320,7 +6320,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="48"/>
+      <c r="M47" s="49"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -6357,7 +6357,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="52"/>
+      <c r="M48" s="56"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -6388,7 +6388,7 @@
       <c r="L49" s="1">
         <v>33</v>
       </c>
-      <c r="M49" s="49"/>
+      <c r="M49" s="50"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="48"/>
+      <c r="M50" s="49"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -6436,7 +6436,7 @@
       <c r="L51" s="7">
         <v>29</v>
       </c>
-      <c r="M51" s="52"/>
+      <c r="M51" s="56"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -6459,7 +6459,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="52"/>
+      <c r="M52" s="56"/>
     </row>
     <row r="53" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -6486,7 +6486,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="49"/>
+      <c r="M53" s="50"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -6501,7 +6501,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="48"/>
+      <c r="M54" s="49"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="52"/>
+      <c r="M55" s="56"/>
     </row>
     <row r="56" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
@@ -6569,7 +6569,7 @@
       <c r="L56" s="1">
         <v>33</v>
       </c>
-      <c r="M56" s="49"/>
+      <c r="M56" s="50"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="48"/>
+      <c r="M57" s="49"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6625,7 +6625,7 @@
       <c r="L58" s="7">
         <v>31</v>
       </c>
-      <c r="M58" s="52"/>
+      <c r="M58" s="56"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -6642,13 +6642,13 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="49"/>
+      <c r="M59" s="50"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="54" t="s">
         <v>177</v>
       </c>
       <c r="E60" s="7"/>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="48"/>
+      <c r="M60" s="49"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -6673,7 +6673,7 @@
       <c r="C61" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="47"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="1" t="s">
         <v>139</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="L61" s="7">
         <v>31</v>
       </c>
-      <c r="M61" s="52"/>
+      <c r="M61" s="56"/>
     </row>
     <row r="62" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
@@ -6725,7 +6725,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="49"/>
+      <c r="M62" s="50"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -6734,29 +6734,29 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="46">
+      <c r="E63" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="54">
         <v>8</v>
       </c>
-      <c r="G63" s="50">
+      <c r="G63" s="46">
         <v>14</v>
       </c>
-      <c r="H63" s="50">
+      <c r="H63" s="46">
         <v>24</v>
       </c>
-      <c r="I63" s="50">
+      <c r="I63" s="46">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="50">
+      <c r="L63" s="46">
         <v>31</v>
       </c>
-      <c r="M63" s="48"/>
+      <c r="M63" s="49"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -6771,19 +6771,19 @@
       <c r="D64" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="51"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
       <c r="J64" s="1" t="s">
         <v>205</v>
       </c>
       <c r="K64" s="1">
         <v>7</v>
       </c>
-      <c r="L64" s="51"/>
-      <c r="M64" s="49"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="50"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -6798,7 +6798,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="48"/>
+      <c r="M65" s="49"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="52"/>
+      <c r="M66" s="56"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
@@ -6856,7 +6856,7 @@
       <c r="L67" s="7">
         <v>29</v>
       </c>
-      <c r="M67" s="52"/>
+      <c r="M67" s="56"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -6871,7 +6871,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="49"/>
+      <c r="M68" s="50"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="48"/>
+      <c r="M69" s="49"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -6929,7 +6929,7 @@
       <c r="L70" s="1">
         <v>31</v>
       </c>
-      <c r="M70" s="49"/>
+      <c r="M70" s="50"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="48"/>
+      <c r="M71" s="49"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -6985,7 +6985,7 @@
       <c r="L72" s="7">
         <v>31</v>
       </c>
-      <c r="M72" s="52"/>
+      <c r="M72" s="56"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -7002,7 +7002,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="49"/>
+      <c r="M73" s="50"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
@@ -7027,7 +7027,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="48"/>
+      <c r="M74" s="49"/>
     </row>
     <row r="75" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -7066,10 +7066,10 @@
       <c r="L75" s="1">
         <v>23</v>
       </c>
-      <c r="M75" s="49"/>
+      <c r="M75" s="50"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="50">
+      <c r="A76" s="46">
         <v>30</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -7095,10 +7095,10 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="48"/>
+      <c r="M76" s="49"/>
     </row>
     <row r="77" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="51"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="6" t="s">
         <v>219</v>
       </c>
@@ -7132,13 +7132,13 @@
       <c r="L77" s="1">
         <v>32</v>
       </c>
-      <c r="M77" s="49"/>
+      <c r="M77" s="50"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="46">
+      <c r="A78" s="54">
         <v>31</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="54" t="s">
         <v>222</v>
       </c>
       <c r="C78" s="5"/>
@@ -7148,16 +7148,16 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="50" t="s">
+      <c r="J78" s="46" t="s">
         <v>223</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="48"/>
+      <c r="M78" s="49"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="1" t="s">
         <v>131</v>
       </c>
@@ -7179,17 +7179,17 @@
       <c r="I79" s="1">
         <v>18</v>
       </c>
-      <c r="J79" s="51"/>
+      <c r="J79" s="48"/>
       <c r="K79" s="1">
         <v>7</v>
       </c>
       <c r="L79" s="1">
         <v>25</v>
       </c>
-      <c r="M79" s="49"/>
+      <c r="M79" s="50"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="46">
+      <c r="A80" s="54">
         <v>32</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -7197,30 +7197,30 @@
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="G80" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" s="50">
+      <c r="E80" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="46">
         <v>24</v>
       </c>
-      <c r="I80" s="50">
+      <c r="I80" s="46">
         <v>24</v>
       </c>
-      <c r="J80" s="50" t="s">
+      <c r="J80" s="46" t="s">
         <v>226</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="48"/>
+      <c r="M80" s="49"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="47"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="6" t="s">
         <v>224</v>
       </c>
@@ -7230,19 +7230,19 @@
       <c r="D81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
       <c r="K81" s="1">
         <v>10</v>
       </c>
       <c r="L81" s="1">
         <v>34</v>
       </c>
-      <c r="M81" s="49"/>
+      <c r="M81" s="50"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -7257,7 +7257,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="50"/>
+      <c r="M82" s="46"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -7296,7 +7296,7 @@
       <c r="L83" s="7">
         <v>24</v>
       </c>
-      <c r="M83" s="53"/>
+      <c r="M83" s="47"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -7313,32 +7313,32 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="M84" s="51"/>
+      <c r="M84" s="48"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="46" t="s">
+      <c r="D85" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="E85" s="50">
+      <c r="E85" s="46">
         <v>12</v>
       </c>
-      <c r="F85" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="G85" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="50">
+      <c r="F85" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="46">
         <v>12</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="48"/>
+      <c r="M85" s="49"/>
     </row>
     <row r="86" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
@@ -7350,11 +7350,11 @@
       <c r="C86" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="47"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
       <c r="I86" s="7">
         <v>24</v>
       </c>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="52"/>
+      <c r="M86" s="56"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
@@ -7371,7 +7371,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="12"/>
-      <c r="D87" s="46" t="s">
+      <c r="D87" s="54" t="s">
         <v>198</v>
       </c>
       <c r="E87" s="7"/>
@@ -7386,13 +7386,13 @@
       <c r="L87" s="7">
         <v>30</v>
       </c>
-      <c r="M87" s="52"/>
+      <c r="M87" s="56"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="47"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="1" t="s">
         <v>139</v>
       </c>
@@ -7409,10 +7409,10 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
-      <c r="M88" s="49"/>
+      <c r="M88" s="50"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="46">
+      <c r="A89" s="54">
         <v>35</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7424,16 +7424,16 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="46">
+      <c r="I89" s="54">
         <v>24</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="48"/>
+      <c r="M89" s="49"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="47"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="6" t="s">
         <v>233</v>
       </c>
@@ -7455,7 +7455,7 @@
       <c r="H90" s="1">
         <v>24</v>
       </c>
-      <c r="I90" s="47"/>
+      <c r="I90" s="55"/>
       <c r="J90" s="1" t="s">
         <v>234</v>
       </c>
@@ -7465,119 +7465,119 @@
       <c r="L90" s="1">
         <v>25</v>
       </c>
-      <c r="M90" s="49"/>
+      <c r="M90" s="50"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="46">
+      <c r="A91" s="54">
         <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="E91" s="50">
+      <c r="E91" s="46">
         <v>12</v>
       </c>
-      <c r="F91" s="50">
+      <c r="F91" s="46">
         <v>12</v>
       </c>
-      <c r="G91" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H91" s="50">
+      <c r="G91" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91" s="46">
         <v>24</v>
       </c>
-      <c r="I91" s="50">
+      <c r="I91" s="46">
         <v>24</v>
       </c>
-      <c r="J91" s="50" t="s">
+      <c r="J91" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="K91" s="50">
-        <v>1</v>
-      </c>
-      <c r="L91" s="50">
+      <c r="K91" s="46">
+        <v>1</v>
+      </c>
+      <c r="L91" s="46">
         <v>25</v>
       </c>
-      <c r="M91" s="48"/>
+      <c r="M91" s="49"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="47"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D92" s="47"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="51"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="51"/>
-      <c r="M92" s="49"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="50"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="46">
+      <c r="A93" s="54">
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="46" t="s">
+      <c r="D93" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E93" s="50">
+      <c r="E93" s="46">
         <v>21</v>
       </c>
-      <c r="F93" s="50">
+      <c r="F93" s="46">
         <v>3</v>
       </c>
-      <c r="G93" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H93" s="50">
+      <c r="G93" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="46">
         <v>24</v>
       </c>
-      <c r="I93" s="50">
+      <c r="I93" s="46">
         <v>24</v>
       </c>
-      <c r="J93" s="50" t="s">
+      <c r="J93" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="K93" s="50">
-        <v>1</v>
-      </c>
-      <c r="L93" s="50">
+      <c r="K93" s="46">
+        <v>1</v>
+      </c>
+      <c r="L93" s="46">
         <v>25</v>
       </c>
-      <c r="M93" s="48"/>
+      <c r="M93" s="49"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="47"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="51"/>
-      <c r="J94" s="51"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="51"/>
-      <c r="M94" s="49"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="50"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -7602,7 +7602,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="50"/>
+      <c r="M95" s="46"/>
     </row>
     <row r="96" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
@@ -7641,12 +7641,12 @@
       <c r="L96" s="1">
         <v>30</v>
       </c>
-      <c r="M96" s="51"/>
+      <c r="M96" s="48"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="46"/>
+      <c r="A97" s="49"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -7656,12 +7656,12 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="48"/>
+      <c r="M97" s="49"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="47"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="55"/>
       <c r="D98" s="6" t="s">
         <v>144</v>
       </c>
@@ -7689,24 +7689,24 @@
       <c r="L98" s="1">
         <v>25</v>
       </c>
-      <c r="M98" s="49"/>
+      <c r="M98" s="50"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="48"/>
+      <c r="C99" s="49"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="50" t="s">
+      <c r="J99" s="46" t="s">
         <v>240</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="48"/>
+      <c r="M99" s="49"/>
     </row>
     <row r="100" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
@@ -7715,7 +7715,7 @@
       <c r="B100" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="49"/>
+      <c r="C100" s="50"/>
       <c r="D100" s="6" t="s">
         <v>239</v>
       </c>
@@ -7734,54 +7734,54 @@
       <c r="I100" s="1">
         <v>24</v>
       </c>
-      <c r="J100" s="51"/>
+      <c r="J100" s="48"/>
       <c r="K100" s="1">
         <v>6</v>
       </c>
       <c r="L100" s="1">
         <v>30</v>
       </c>
-      <c r="M100" s="49"/>
+      <c r="M100" s="50"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="46" t="s">
+      <c r="C101" s="49"/>
+      <c r="D101" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="E101" s="50">
+      <c r="E101" s="46">
         <v>9</v>
       </c>
-      <c r="F101" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="G101" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H101" s="50">
+      <c r="F101" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G101" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="46">
         <v>9</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="50"/>
+      <c r="K101" s="46"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="48"/>
+      <c r="M101" s="49"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="53"/>
+      <c r="K102" s="47"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="52"/>
+      <c r="M102" s="56"/>
     </row>
     <row r="103" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
@@ -7790,7 +7790,7 @@
       <c r="B103" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="52"/>
+      <c r="C103" s="56"/>
       <c r="D103" s="6" t="s">
         <v>243</v>
       </c>
@@ -7812,16 +7812,16 @@
       <c r="J103" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K103" s="53"/>
+      <c r="K103" s="47"/>
       <c r="L103" s="7">
         <v>26</v>
       </c>
-      <c r="M103" s="52"/>
+      <c r="M103" s="56"/>
     </row>
     <row r="104" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="49"/>
+      <c r="C104" s="50"/>
       <c r="D104" s="6" t="s">
         <v>218</v>
       </c>
@@ -7839,14 +7839,14 @@
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="51"/>
+      <c r="K104" s="48"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="49"/>
+      <c r="M104" s="50"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="46"/>
+      <c r="C105" s="54"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -7856,7 +7856,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="48"/>
+      <c r="M105" s="49"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
@@ -7865,7 +7865,7 @@
       <c r="B106" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="54"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="6" t="s">
         <v>208</v>
       </c>
@@ -7893,12 +7893,12 @@
       <c r="L106" s="7">
         <v>25</v>
       </c>
-      <c r="M106" s="52"/>
+      <c r="M106" s="56"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="47"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="6" t="s">
         <v>147</v>
       </c>
@@ -7918,24 +7918,24 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="49"/>
+      <c r="M107" s="50"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="48"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="50" t="s">
+      <c r="J108" s="46" t="s">
         <v>234</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="48"/>
+      <c r="M108" s="49"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
@@ -7944,7 +7944,7 @@
       <c r="B109" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="49"/>
+      <c r="C109" s="50"/>
       <c r="D109" s="6" t="s">
         <v>174</v>
       </c>
@@ -7963,14 +7963,14 @@
       <c r="I109" s="1">
         <v>6</v>
       </c>
-      <c r="J109" s="51"/>
+      <c r="J109" s="48"/>
       <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="L109" s="1">
         <v>7</v>
       </c>
-      <c r="M109" s="49"/>
+      <c r="M109" s="50"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
@@ -8208,7 +8208,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="48"/>
+      <c r="C117" s="49"/>
       <c r="D117" s="6" t="s">
         <v>214</v>
       </c>
@@ -8226,9 +8226,9 @@
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="50"/>
+      <c r="K117" s="46"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="48"/>
+      <c r="M117" s="49"/>
     </row>
     <row r="118" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
@@ -8237,7 +8237,7 @@
       <c r="B118" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="49"/>
+      <c r="C118" s="50"/>
       <c r="D118" s="6" t="s">
         <v>247</v>
       </c>
@@ -8259,11 +8259,11 @@
       <c r="J118" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K118" s="51"/>
+      <c r="K118" s="48"/>
       <c r="L118" s="1">
         <v>25</v>
       </c>
-      <c r="M118" s="49"/>
+      <c r="M118" s="50"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
@@ -8342,7 +8342,7 @@
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="48"/>
+      <c r="C121" s="49"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8352,7 +8352,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="48"/>
+      <c r="M121" s="49"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
@@ -8361,7 +8361,7 @@
       <c r="B122" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C122" s="52"/>
+      <c r="C122" s="56"/>
       <c r="D122" s="5" t="s">
         <v>211</v>
       </c>
@@ -8389,14 +8389,14 @@
       <c r="L122" s="7">
         <v>11</v>
       </c>
-      <c r="M122" s="52"/>
+      <c r="M122" s="56"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C123" s="49"/>
+      <c r="C123" s="50"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -8406,7 +8406,7 @@
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
-      <c r="M123" s="49"/>
+      <c r="M123" s="50"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
@@ -8520,13 +8520,13 @@
       <c r="M126" s="11"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="46">
+      <c r="A127" s="54">
         <v>58</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="48"/>
+      <c r="C127" s="49"/>
       <c r="D127" s="6" t="s">
         <v>231</v>
       </c>
@@ -8546,12 +8546,12 @@
       <c r="J127" s="7"/>
       <c r="K127" s="18"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="48"/>
+      <c r="M127" s="49"/>
     </row>
     <row r="128" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="47"/>
+      <c r="A128" s="55"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="49"/>
+      <c r="C128" s="50"/>
       <c r="D128" s="6" t="s">
         <v>251</v>
       </c>
@@ -8579,16 +8579,16 @@
       <c r="L128" s="1">
         <v>17</v>
       </c>
-      <c r="M128" s="49"/>
+      <c r="M128" s="50"/>
     </row>
     <row r="129" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="46">
+      <c r="A129" s="54">
         <v>59</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C129" s="48"/>
+      <c r="C129" s="49"/>
       <c r="D129" s="6" t="s">
         <v>198</v>
       </c>
@@ -8608,12 +8608,12 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="48"/>
+      <c r="M129" s="49"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="47"/>
+      <c r="A130" s="55"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="49"/>
+      <c r="C130" s="50"/>
       <c r="D130" s="6" t="s">
         <v>252</v>
       </c>
@@ -8641,12 +8641,12 @@
       <c r="L130" s="1">
         <v>12</v>
       </c>
-      <c r="M130" s="49"/>
+      <c r="M130" s="50"/>
     </row>
     <row r="131" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="48"/>
+      <c r="C131" s="49"/>
       <c r="D131" s="6" t="s">
         <v>253</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="48"/>
+      <c r="M131" s="49"/>
     </row>
     <row r="132" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
@@ -8675,7 +8675,7 @@
       <c r="B132" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="49"/>
+      <c r="C132" s="50"/>
       <c r="D132" s="6" t="s">
         <v>218</v>
       </c>
@@ -8703,7 +8703,7 @@
       <c r="L132" s="1">
         <v>15</v>
       </c>
-      <c r="M132" s="49"/>
+      <c r="M132" s="50"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
@@ -8780,13 +8780,13 @@
       <c r="M134" s="11"/>
     </row>
     <row r="135" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="46">
+      <c r="A135" s="54">
         <v>63</v>
       </c>
-      <c r="B135" s="46" t="s">
+      <c r="B135" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C135" s="48"/>
+      <c r="C135" s="49"/>
       <c r="D135" s="6" t="s">
         <v>254</v>
       </c>
@@ -8803,17 +8803,17 @@
         <v>10</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="50" t="s">
+      <c r="J135" s="46" t="s">
         <v>255</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="48"/>
+      <c r="M135" s="49"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="49"/>
+      <c r="A136" s="55"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="50"/>
       <c r="D136" s="6" t="s">
         <v>256</v>
       </c>
@@ -8832,14 +8832,14 @@
       <c r="I136" s="1">
         <v>12</v>
       </c>
-      <c r="J136" s="51"/>
+      <c r="J136" s="48"/>
       <c r="K136" s="1">
         <v>1</v>
       </c>
       <c r="L136" s="1">
         <v>13</v>
       </c>
-      <c r="M136" s="49"/>
+      <c r="M136" s="50"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
@@ -8881,7 +8881,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="48"/>
+      <c r="C138" s="49"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -8891,7 +8891,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="48"/>
+      <c r="M138" s="49"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
@@ -8900,7 +8900,7 @@
       <c r="B139" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C139" s="49"/>
+      <c r="C139" s="50"/>
       <c r="D139" s="6" t="s">
         <v>154</v>
       </c>
@@ -8928,10 +8928,205 @@
       <c r="L139" s="1">
         <v>9</v>
       </c>
-      <c r="M139" s="49"/>
+      <c r="M139" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="218">
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="M138:M139"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="M121:M123"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:K3"/>
@@ -8955,201 +9150,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="M121:M123"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="M138:M139"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="M131:M132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C35BA2-C830-47EB-9295-F2FC5D8E0771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE62E43-C0C4-45AA-A7A5-F138505A6CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
+    <workbookView xWindow="16110" yWindow="900" windowWidth="13710" windowHeight="13605" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1090,60 +1090,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1501,3494 +1518,3494 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFB0B7-5F4A-46CA-9F3B-E68BA45E5504}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="22.85546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="31">
         <v>24859</v>
       </c>
-      <c r="E2" s="28" t="str">
+      <c r="E2" s="32" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(B2&amp;C2)," ","")&amp;K2&amp;"@man.com",",",".")</f>
         <v>drs.riswanbasriladdress@man.com</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="24">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24">
-        <v>1</v>
-      </c>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="25">
+        <v>1</v>
+      </c>
+      <c r="H2" s="25">
+        <v>1</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="24">
-        <v>1</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="25">
+        <v>1</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="30">
-        <v>4</v>
-      </c>
-      <c r="N2" s="38">
+      <c r="M2" s="34">
+        <v>4</v>
+      </c>
+      <c r="N2" s="35">
         <v>38961</v>
       </c>
-      <c r="O2" s="30">
-        <v>1</v>
-      </c>
-      <c r="P2" s="24">
+      <c r="O2" s="34">
+        <v>1</v>
+      </c>
+      <c r="P2" s="25">
         <v>81</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="25">
         <v>7</v>
       </c>
-      <c r="R2" s="39">
+      <c r="R2" s="36">
         <v>1993</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="37">
         <v>41365</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="35">
         <v>25431</v>
       </c>
-      <c r="E3" s="28" t="str">
+      <c r="E3" s="32" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(B3&amp;C3)," ","")&amp;K3&amp;"@man.com",",",".")</f>
         <v>dra.salwahusnam.humpaddress@man.com</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="24">
-        <v>1</v>
-      </c>
-      <c r="H3" s="24">
-        <v>4</v>
-      </c>
-      <c r="I3" s="24" t="s">
+      <c r="G3" s="25">
+        <v>1</v>
+      </c>
+      <c r="H3" s="25">
+        <v>4</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="24">
-        <v>1</v>
-      </c>
-      <c r="K3" s="24" t="s">
+      <c r="J3" s="25">
+        <v>1</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="30">
-        <v>4</v>
-      </c>
-      <c r="N3" s="38">
+      <c r="M3" s="34">
+        <v>4</v>
+      </c>
+      <c r="N3" s="35">
         <v>36192</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="34">
         <v>2</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="25">
         <v>81</v>
       </c>
-      <c r="Q3" s="41">
-        <v>1</v>
-      </c>
-      <c r="R3" s="41">
+      <c r="Q3" s="38">
+        <v>1</v>
+      </c>
+      <c r="R3" s="38">
         <v>2013</v>
       </c>
-      <c r="S3" s="38">
+      <c r="S3" s="35">
         <v>43374</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="35">
         <v>25782</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="32" t="str">
         <f t="shared" ref="E4:E65" si="0">SUBSTITUTE(SUBSTITUTE(LOWER(B4&amp;C4)," ","")&amp;K4&amp;"@man.com",",",".")</f>
         <v>dra.sriwahyunipaddress@man.com</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="24">
-        <v>1</v>
-      </c>
-      <c r="H4" s="24">
-        <v>4</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="G4" s="25">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25">
+        <v>4</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="24">
-        <v>1</v>
-      </c>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="25">
+        <v>1</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="30">
-        <v>4</v>
-      </c>
-      <c r="N4" s="38">
+      <c r="M4" s="34">
+        <v>4</v>
+      </c>
+      <c r="N4" s="35">
         <v>35490</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="34">
         <v>2</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="25">
         <v>81</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="38">
         <v>10</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="38">
         <v>2003</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S4" s="35">
         <v>43556</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="35">
         <v>27176</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="32" t="str">
         <f t="shared" si="0"/>
         <v>mustafas.pdladdress@man.com</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="24">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24">
-        <v>4</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25">
+        <v>4</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="24">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="34">
         <v>3</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="35">
         <v>36800</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="34">
         <v>2</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="25">
         <v>81</v>
       </c>
-      <c r="Q5" s="41">
-        <v>1</v>
-      </c>
-      <c r="R5" s="41">
+      <c r="Q5" s="38">
+        <v>1</v>
+      </c>
+      <c r="R5" s="38">
         <v>1998</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5" s="35">
         <v>44105</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="35">
         <v>25305</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="32" t="str">
         <f t="shared" si="0"/>
         <v>parwiraabdraufmapaddress@man.com</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="24">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24">
-        <v>4</v>
-      </c>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
+        <v>4</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="24">
-        <v>1</v>
-      </c>
-      <c r="K6" s="24" t="s">
+      <c r="J6" s="25">
+        <v>1</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="30">
-        <v>4</v>
-      </c>
-      <c r="N6" s="38">
+      <c r="M6" s="34">
+        <v>4</v>
+      </c>
+      <c r="N6" s="35">
         <v>42186</v>
       </c>
-      <c r="O6" s="30">
-        <v>1</v>
-      </c>
-      <c r="P6" s="24">
+      <c r="O6" s="34">
+        <v>1</v>
+      </c>
+      <c r="P6" s="25">
         <v>81</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="38">
         <v>16</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="38">
         <v>1994</v>
       </c>
-      <c r="S6" s="38">
+      <c r="S6" s="35">
         <v>44287</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <v>24695</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="32" t="str">
         <f t="shared" si="0"/>
         <v>dra.maesahpaddress@man.com</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24">
-        <v>4</v>
-      </c>
-      <c r="I7" s="24" t="s">
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25">
+        <v>4</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="24">
-        <v>1</v>
-      </c>
-      <c r="K7" s="24" t="s">
+      <c r="J7" s="25">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="30">
-        <v>4</v>
-      </c>
-      <c r="N7" s="38">
+      <c r="M7" s="34">
+        <v>4</v>
+      </c>
+      <c r="N7" s="35">
         <v>36831</v>
       </c>
-      <c r="O7" s="30">
-        <v>1</v>
-      </c>
-      <c r="P7" s="24">
+      <c r="O7" s="34">
+        <v>1</v>
+      </c>
+      <c r="P7" s="25">
         <v>81</v>
       </c>
-      <c r="Q7" s="41">
-        <v>1</v>
-      </c>
-      <c r="R7" s="41">
+      <c r="Q7" s="38">
+        <v>1</v>
+      </c>
+      <c r="R7" s="38">
         <v>2001</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7" s="35">
         <v>44652</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="35">
         <v>25362</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="32" t="str">
         <f t="shared" si="0"/>
         <v>radhapuspitas.pdpaddress@man.com</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="24">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24">
-        <v>4</v>
-      </c>
-      <c r="I8" s="24" t="s">
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25">
+        <v>4</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="24">
-        <v>1</v>
-      </c>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="25">
+        <v>1</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="30">
-        <v>4</v>
-      </c>
-      <c r="N8" s="38">
+      <c r="M8" s="34">
+        <v>4</v>
+      </c>
+      <c r="N8" s="35">
         <v>36892</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="34">
         <v>2</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="25">
         <v>81</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="38">
         <v>16</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="38">
         <v>1993</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="35">
         <v>44835</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="35">
         <v>23967</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>erdanelis.pdpaddress@man.com</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="24">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24">
-        <v>4</v>
-      </c>
-      <c r="I9" s="24" t="s">
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="24">
-        <v>1</v>
-      </c>
-      <c r="K9" s="24" t="s">
+      <c r="J9" s="25">
+        <v>1</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="30">
-        <v>4</v>
-      </c>
-      <c r="N9" s="38">
+      <c r="M9" s="34">
+        <v>4</v>
+      </c>
+      <c r="N9" s="35">
         <v>41730</v>
       </c>
-      <c r="O9" s="30">
-        <v>1</v>
-      </c>
-      <c r="P9" s="24">
+      <c r="O9" s="34">
+        <v>1</v>
+      </c>
+      <c r="P9" s="25">
         <v>81</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="38">
         <v>13</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="38">
         <v>1990</v>
       </c>
-      <c r="S9" s="38">
+      <c r="S9" s="35">
         <v>44835</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="35">
         <v>26126</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>zarnidaars.agpaddress@man.com</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="24">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24">
-        <v>4</v>
-      </c>
-      <c r="I10" s="24" t="s">
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25">
+        <v>4</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="24">
-        <v>1</v>
-      </c>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="25">
+        <v>1</v>
+      </c>
+      <c r="K10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="30">
-        <v>4</v>
-      </c>
-      <c r="N10" s="38">
+      <c r="M10" s="34">
+        <v>4</v>
+      </c>
+      <c r="N10" s="35">
         <v>36800</v>
       </c>
-      <c r="O10" s="30">
-        <v>1</v>
-      </c>
-      <c r="P10" s="24">
+      <c r="O10" s="34">
+        <v>1</v>
+      </c>
+      <c r="P10" s="25">
         <v>81</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="38">
         <v>2</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="38">
         <v>1997</v>
       </c>
-      <c r="S10" s="38">
+      <c r="S10" s="35">
         <v>44835</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="35">
         <v>25733</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>sitihamidahs.agpaddress@man.com</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="24">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24">
-        <v>4</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25">
+        <v>4</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="24">
-        <v>1</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25">
+        <v>1</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="30">
-        <v>4</v>
-      </c>
-      <c r="N11" s="38">
+      <c r="M11" s="34">
+        <v>4</v>
+      </c>
+      <c r="N11" s="35">
         <v>39692</v>
       </c>
-      <c r="O11" s="30">
-        <v>1</v>
-      </c>
-      <c r="P11" s="24">
+      <c r="O11" s="34">
+        <v>1</v>
+      </c>
+      <c r="P11" s="25">
         <v>81</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="38">
         <v>16</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="38">
         <v>1995</v>
       </c>
-      <c r="S11" s="38">
+      <c r="S11" s="35">
         <v>45200</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="35">
         <v>24658</v>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>supriyanipaddress@man.com</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="24">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24">
-        <v>4</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25">
+        <v>4</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="24">
-        <v>1</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25">
+        <v>1</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="34">
         <v>3</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="35">
         <v>43556</v>
       </c>
-      <c r="O12" s="30">
-        <v>1</v>
-      </c>
-      <c r="P12" s="24">
+      <c r="O12" s="34">
+        <v>1</v>
+      </c>
+      <c r="P12" s="25">
         <v>81</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="38">
         <v>14</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="38">
         <v>1997</v>
       </c>
-      <c r="S12" s="38">
+      <c r="S12" s="35">
         <v>40269</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="31">
         <v>24985</v>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>susiandrianis.pdpaddress@man.com</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="24">
-        <v>1</v>
-      </c>
-      <c r="H13" s="24">
-        <v>4</v>
-      </c>
-      <c r="I13" s="24" t="s">
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
+        <v>4</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="24">
-        <v>1</v>
-      </c>
-      <c r="K13" s="24" t="s">
+      <c r="J13" s="25">
+        <v>1</v>
+      </c>
+      <c r="K13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="30">
-        <v>4</v>
-      </c>
-      <c r="N13" s="38">
+      <c r="M13" s="34">
+        <v>4</v>
+      </c>
+      <c r="N13" s="35">
         <v>44470</v>
       </c>
-      <c r="O13" s="30">
-        <v>1</v>
-      </c>
-      <c r="P13" s="24">
+      <c r="O13" s="34">
+        <v>1</v>
+      </c>
+      <c r="P13" s="25">
         <v>81</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="36">
         <v>6</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="38">
         <v>1993</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="39">
         <v>40269</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="35">
         <v>23170</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>dra.maslinapaddress@man.com</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="24">
-        <v>1</v>
-      </c>
-      <c r="H14" s="24">
-        <v>4</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>4</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="24">
-        <v>1</v>
-      </c>
-      <c r="K14" s="24" t="s">
+      <c r="J14" s="25">
+        <v>1</v>
+      </c>
+      <c r="K14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="30">
-        <v>4</v>
-      </c>
-      <c r="N14" s="38">
+      <c r="M14" s="34">
+        <v>4</v>
+      </c>
+      <c r="N14" s="35">
         <v>36800</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="34">
         <v>2</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="25">
         <v>81</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="38">
         <v>3</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="38">
         <v>1989</v>
       </c>
-      <c r="S14" s="38">
+      <c r="S14" s="35">
         <v>41000</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="35">
         <v>24169</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="32" t="str">
         <f t="shared" si="0"/>
         <v>nirwanis.pdpaddress@man.com</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="24">
-        <v>1</v>
-      </c>
-      <c r="H15" s="24">
-        <v>4</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
+        <v>4</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="24">
-        <v>1</v>
-      </c>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="25">
+        <v>1</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="30">
-        <v>4</v>
-      </c>
-      <c r="N15" s="38">
+      <c r="M15" s="34">
+        <v>4</v>
+      </c>
+      <c r="N15" s="35">
         <v>36800</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="34">
         <v>2</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="25">
         <v>81</v>
       </c>
-      <c r="Q15" s="41">
-        <v>4</v>
-      </c>
-      <c r="R15" s="41">
+      <c r="Q15" s="38">
+        <v>4</v>
+      </c>
+      <c r="R15" s="38">
         <v>1991</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="35">
         <v>41000</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="35">
         <v>25893</v>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="32" t="str">
         <f t="shared" si="0"/>
         <v>zulitanawarnis.pdpaddress@man.com</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="24">
-        <v>1</v>
-      </c>
-      <c r="H16" s="24">
-        <v>4</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25">
+        <v>4</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="24">
-        <v>1</v>
-      </c>
-      <c r="K16" s="24" t="s">
+      <c r="J16" s="25">
+        <v>1</v>
+      </c>
+      <c r="K16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="30">
-        <v>4</v>
-      </c>
-      <c r="N16" s="38">
+      <c r="M16" s="34">
+        <v>4</v>
+      </c>
+      <c r="N16" s="35">
         <v>37012</v>
       </c>
-      <c r="O16" s="30">
-        <v>1</v>
-      </c>
-      <c r="P16" s="24">
+      <c r="O16" s="34">
+        <v>1</v>
+      </c>
+      <c r="P16" s="25">
         <v>81</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="38">
         <v>5</v>
       </c>
-      <c r="R16" s="41">
+      <c r="R16" s="38">
         <v>1995</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="35">
         <v>41000</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="35">
         <v>26022</v>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="32" t="str">
         <f t="shared" si="0"/>
         <v>idesvianamanurungmapaddress@man.com</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="24">
-        <v>1</v>
-      </c>
-      <c r="H17" s="24">
-        <v>4</v>
-      </c>
-      <c r="I17" s="24" t="s">
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25">
+        <v>4</v>
+      </c>
+      <c r="I17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="24">
-        <v>1</v>
-      </c>
-      <c r="K17" s="24" t="s">
+      <c r="J17" s="25">
+        <v>1</v>
+      </c>
+      <c r="K17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="34">
         <v>3</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="35">
         <v>37165</v>
       </c>
-      <c r="O17" s="30">
-        <v>4</v>
-      </c>
-      <c r="P17" s="24">
+      <c r="O17" s="34">
+        <v>4</v>
+      </c>
+      <c r="P17" s="25">
         <v>81</v>
       </c>
-      <c r="Q17" s="41">
-        <v>4</v>
-      </c>
-      <c r="R17" s="41">
+      <c r="Q17" s="38">
+        <v>4</v>
+      </c>
+      <c r="R17" s="38">
         <v>1996</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17" s="35">
         <v>41000</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="35">
         <v>26111</v>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="32" t="str">
         <f t="shared" si="0"/>
         <v>rahmirizzatis.pdladdress@man.com</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="24">
-        <v>1</v>
-      </c>
-      <c r="H18" s="24">
-        <v>4</v>
-      </c>
-      <c r="I18" s="24" t="s">
+      <c r="G18" s="25">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25">
+        <v>4</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="24">
-        <v>1</v>
-      </c>
-      <c r="K18" s="24" t="s">
+      <c r="J18" s="25">
+        <v>1</v>
+      </c>
+      <c r="K18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="34">
         <v>3</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="35">
         <v>38353</v>
       </c>
-      <c r="O18" s="30">
-        <v>1</v>
-      </c>
-      <c r="P18" s="24">
+      <c r="O18" s="34">
+        <v>1</v>
+      </c>
+      <c r="P18" s="25">
         <v>81</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="38">
         <v>11</v>
       </c>
-      <c r="R18" s="41">
+      <c r="R18" s="38">
         <v>1996</v>
       </c>
-      <c r="S18" s="38">
+      <c r="S18" s="35">
         <v>41000</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="35">
         <v>24633</v>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="32" t="str">
         <f t="shared" si="0"/>
         <v>alhudas.pd.ipaddress@man.com</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="24">
-        <v>1</v>
-      </c>
-      <c r="H19" s="24">
-        <v>4</v>
-      </c>
-      <c r="I19" s="24" t="s">
+      <c r="G19" s="25">
+        <v>1</v>
+      </c>
+      <c r="H19" s="25">
+        <v>4</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="24">
-        <v>1</v>
-      </c>
-      <c r="K19" s="24" t="s">
+      <c r="J19" s="25">
+        <v>1</v>
+      </c>
+      <c r="K19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="34">
         <v>3</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="35">
         <v>39692</v>
       </c>
-      <c r="O19" s="30">
-        <v>4</v>
-      </c>
-      <c r="P19" s="24">
+      <c r="O19" s="34">
+        <v>4</v>
+      </c>
+      <c r="P19" s="25">
         <v>81</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="38">
         <v>6</v>
       </c>
-      <c r="R19" s="41">
+      <c r="R19" s="38">
         <v>1993</v>
       </c>
-      <c r="S19" s="38">
+      <c r="S19" s="35">
         <v>41000</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="35">
         <v>27764</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="32" t="str">
         <f t="shared" si="0"/>
         <v>dra.mahyanapaddress@man.com</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="24">
-        <v>1</v>
-      </c>
-      <c r="H20" s="24">
-        <v>4</v>
-      </c>
-      <c r="I20" s="24" t="s">
+      <c r="G20" s="25">
+        <v>1</v>
+      </c>
+      <c r="H20" s="25">
+        <v>4</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="24">
-        <v>1</v>
-      </c>
-      <c r="K20" s="24" t="s">
+      <c r="J20" s="25">
+        <v>1</v>
+      </c>
+      <c r="K20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="30">
-        <v>4</v>
-      </c>
-      <c r="N20" s="40">
+      <c r="M20" s="34">
+        <v>4</v>
+      </c>
+      <c r="N20" s="37">
         <v>43617</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="34">
         <v>2</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="25">
         <v>81</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="38">
         <v>8</v>
       </c>
-      <c r="R20" s="41">
+      <c r="R20" s="38">
         <v>1999</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20" s="35">
         <v>42461</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="35">
         <v>27141</v>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="32" t="str">
         <f t="shared" si="0"/>
         <v>dra.asfiapaddress@man.com</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="24">
-        <v>1</v>
-      </c>
-      <c r="H21" s="24">
-        <v>4</v>
-      </c>
-      <c r="I21" s="24" t="s">
+      <c r="G21" s="25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="25">
+        <v>4</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="24">
-        <v>1</v>
-      </c>
-      <c r="K21" s="24" t="s">
+      <c r="J21" s="25">
+        <v>1</v>
+      </c>
+      <c r="K21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="34">
         <v>3</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="35">
         <v>41000</v>
       </c>
-      <c r="O21" s="30">
-        <v>1</v>
-      </c>
-      <c r="P21" s="24">
+      <c r="O21" s="34">
+        <v>1</v>
+      </c>
+      <c r="P21" s="25">
         <v>81</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="38">
         <v>13</v>
       </c>
-      <c r="R21" s="41">
+      <c r="R21" s="38">
         <v>1998</v>
       </c>
-      <c r="S21" s="38">
+      <c r="S21" s="35">
         <v>42461</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="35">
         <v>27999</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="32" t="str">
         <f t="shared" si="0"/>
         <v>hafinimapaddress@man.com</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="24">
-        <v>1</v>
-      </c>
-      <c r="H22" s="24">
-        <v>4</v>
-      </c>
-      <c r="I22" s="24" t="s">
+      <c r="G22" s="25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25">
+        <v>4</v>
+      </c>
+      <c r="I22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="24">
-        <v>1</v>
-      </c>
-      <c r="K22" s="24" t="s">
+      <c r="J22" s="25">
+        <v>1</v>
+      </c>
+      <c r="K22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="34">
         <v>3</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="35">
         <v>38353</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="34">
         <v>3</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="25">
         <v>81</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="38">
         <v>9</v>
       </c>
-      <c r="R22" s="41">
+      <c r="R22" s="38">
         <v>2001</v>
       </c>
-      <c r="S22" s="38">
+      <c r="S22" s="35">
         <v>43191</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="35">
         <v>29473</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="32" t="str">
         <f t="shared" si="0"/>
         <v>sitiyulianas.pdpaddress@man.com</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="24">
-        <v>1</v>
-      </c>
-      <c r="H23" s="24">
-        <v>4</v>
-      </c>
-      <c r="I23" s="24" t="s">
+      <c r="G23" s="25">
+        <v>1</v>
+      </c>
+      <c r="H23" s="25">
+        <v>4</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="24">
-        <v>1</v>
-      </c>
-      <c r="K23" s="24" t="s">
+      <c r="J23" s="25">
+        <v>1</v>
+      </c>
+      <c r="K23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="30">
-        <v>4</v>
-      </c>
-      <c r="N23" s="38">
+      <c r="M23" s="34">
+        <v>4</v>
+      </c>
+      <c r="N23" s="35">
         <v>43952</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="34">
         <v>2</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="25">
         <v>81</v>
       </c>
-      <c r="Q23" s="41">
+      <c r="Q23" s="38">
         <v>16</v>
       </c>
-      <c r="R23" s="41">
+      <c r="R23" s="38">
         <v>2004</v>
       </c>
-      <c r="S23" s="38">
+      <c r="S23" s="35">
         <v>45200</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="40">
         <v>29165</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="32" t="str">
         <f t="shared" si="0"/>
         <v>drs.m.saminpaddress@man.com</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="24">
-        <v>4</v>
-      </c>
-      <c r="I24" s="24" t="s">
+      <c r="G24" s="25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="25">
+        <v>4</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="24" t="s">
+      <c r="J24" s="25">
+        <v>1</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="30">
-        <v>4</v>
-      </c>
-      <c r="N24" s="42">
+      <c r="M24" s="34">
+        <v>4</v>
+      </c>
+      <c r="N24" s="40">
         <v>41609</v>
       </c>
-      <c r="O24" s="30">
-        <v>1</v>
-      </c>
-      <c r="P24" s="24">
+      <c r="O24" s="34">
+        <v>1</v>
+      </c>
+      <c r="P24" s="25">
         <v>81</v>
       </c>
-      <c r="Q24" s="43">
+      <c r="Q24" s="41">
         <v>10</v>
       </c>
-      <c r="R24" s="43">
+      <c r="R24" s="41">
         <v>2003</v>
       </c>
-      <c r="S24" s="42">
+      <c r="S24" s="40">
         <v>41913</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="42">
         <v>29122</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="32" t="str">
         <f t="shared" si="0"/>
         <v>rosmainis.pdpaddress@man.com</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="24">
-        <v>1</v>
-      </c>
-      <c r="H25" s="24">
-        <v>4</v>
-      </c>
-      <c r="I25" s="24" t="s">
+      <c r="G25" s="25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="25">
+        <v>4</v>
+      </c>
+      <c r="I25" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="24">
-        <v>1</v>
-      </c>
-      <c r="K25" s="24" t="s">
+      <c r="J25" s="25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="30">
-        <v>4</v>
-      </c>
-      <c r="N25" s="38">
+      <c r="M25" s="34">
+        <v>4</v>
+      </c>
+      <c r="N25" s="35">
         <v>43709</v>
       </c>
-      <c r="O25" s="30">
-        <v>1</v>
-      </c>
-      <c r="P25" s="24">
+      <c r="O25" s="34">
+        <v>1</v>
+      </c>
+      <c r="P25" s="25">
         <v>81</v>
       </c>
-      <c r="Q25" s="41">
+      <c r="Q25" s="38">
         <v>14</v>
       </c>
-      <c r="R25" s="41">
+      <c r="R25" s="38">
         <v>2003</v>
       </c>
-      <c r="S25" s="38">
+      <c r="S25" s="35">
         <v>42461</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="32" t="str">
         <f t="shared" si="0"/>
         <v>ramlans.pdpaddress@man.com</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="24">
-        <v>1</v>
-      </c>
-      <c r="H26" s="24">
-        <v>4</v>
-      </c>
-      <c r="I26" s="24" t="s">
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="25">
+        <v>4</v>
+      </c>
+      <c r="I26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="24">
-        <v>1</v>
-      </c>
-      <c r="K26" s="24" t="s">
+      <c r="J26" s="25">
+        <v>1</v>
+      </c>
+      <c r="K26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="30">
-        <v>4</v>
-      </c>
-      <c r="N26" s="42">
+      <c r="M26" s="34">
+        <v>4</v>
+      </c>
+      <c r="N26" s="40">
         <v>42186</v>
       </c>
-      <c r="O26" s="30">
-        <v>1</v>
-      </c>
-      <c r="P26" s="24">
+      <c r="O26" s="34">
+        <v>1</v>
+      </c>
+      <c r="P26" s="25">
         <v>81</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="41">
         <v>11</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="41">
         <v>2002</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="40">
         <v>43009</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="35">
         <v>27008</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="32" t="str">
         <f t="shared" si="0"/>
         <v>rosidas.pdpaddress@man.com</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="24">
-        <v>1</v>
-      </c>
-      <c r="H27" s="24">
-        <v>4</v>
-      </c>
-      <c r="I27" s="24" t="s">
+      <c r="G27" s="25">
+        <v>1</v>
+      </c>
+      <c r="H27" s="25">
+        <v>4</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="24">
-        <v>1</v>
-      </c>
-      <c r="K27" s="24" t="s">
+      <c r="J27" s="25">
+        <v>1</v>
+      </c>
+      <c r="K27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="34">
         <v>3</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="35">
         <v>43739</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="34">
         <v>3</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="25">
         <v>81</v>
       </c>
-      <c r="Q27" s="41">
+      <c r="Q27" s="38">
         <v>14</v>
       </c>
-      <c r="R27" s="41">
+      <c r="R27" s="38">
         <v>1999</v>
       </c>
-      <c r="S27" s="38">
+      <c r="S27" s="35">
         <v>45200</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="35">
         <v>28178</v>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="32" t="str">
         <f t="shared" si="0"/>
         <v>masdians.pdladdress@man.com</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="24">
-        <v>1</v>
-      </c>
-      <c r="H28" s="24">
-        <v>4</v>
-      </c>
-      <c r="I28" s="24" t="s">
+      <c r="G28" s="25">
+        <v>1</v>
+      </c>
+      <c r="H28" s="25">
+        <v>4</v>
+      </c>
+      <c r="I28" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="24">
-        <v>1</v>
-      </c>
-      <c r="K28" s="24" t="s">
+      <c r="J28" s="25">
+        <v>1</v>
+      </c>
+      <c r="K28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="30">
-        <v>4</v>
-      </c>
-      <c r="N28" s="38">
+      <c r="M28" s="34">
+        <v>4</v>
+      </c>
+      <c r="N28" s="35">
         <v>43009</v>
       </c>
-      <c r="O28" s="30">
-        <v>1</v>
-      </c>
-      <c r="P28" s="24">
+      <c r="O28" s="34">
+        <v>1</v>
+      </c>
+      <c r="P28" s="25">
         <v>81</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="38">
         <v>14</v>
       </c>
-      <c r="R28" s="41">
+      <c r="R28" s="38">
         <v>2005</v>
       </c>
-      <c r="S28" s="38">
+      <c r="S28" s="35">
         <v>44470</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="35">
         <v>30965</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="32" t="str">
         <f t="shared" si="0"/>
         <v>jonaerwentas.pdladdress@man.com</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="24">
-        <v>1</v>
-      </c>
-      <c r="H29" s="24">
-        <v>4</v>
-      </c>
-      <c r="I29" s="24" t="s">
+      <c r="G29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="25">
+        <v>4</v>
+      </c>
+      <c r="I29" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="24">
-        <v>1</v>
-      </c>
-      <c r="K29" s="24" t="s">
+      <c r="J29" s="25">
+        <v>1</v>
+      </c>
+      <c r="K29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="29" t="s">
+      <c r="L29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="34">
         <v>3</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="35">
         <v>39814</v>
       </c>
-      <c r="O29" s="30">
-        <v>1</v>
-      </c>
-      <c r="P29" s="24">
+      <c r="O29" s="34">
+        <v>1</v>
+      </c>
+      <c r="P29" s="25">
         <v>81</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="38">
         <v>12</v>
       </c>
-      <c r="R29" s="41">
+      <c r="R29" s="38">
         <v>2007</v>
       </c>
-      <c r="S29" s="38">
+      <c r="S29" s="35">
         <v>45017</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="35">
         <v>24807</v>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="32" t="str">
         <f t="shared" si="0"/>
         <v>drs.mukhlisusmanladdress@man.com</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="24">
-        <v>1</v>
-      </c>
-      <c r="H30" s="24">
-        <v>4</v>
-      </c>
-      <c r="I30" s="24" t="s">
+      <c r="G30" s="25">
+        <v>1</v>
+      </c>
+      <c r="H30" s="25">
+        <v>4</v>
+      </c>
+      <c r="I30" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="24">
-        <v>1</v>
-      </c>
-      <c r="K30" s="24" t="s">
+      <c r="J30" s="25">
+        <v>1</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="30">
-        <v>4</v>
-      </c>
-      <c r="N30" s="38">
+      <c r="M30" s="34">
+        <v>4</v>
+      </c>
+      <c r="N30" s="35">
         <v>40269</v>
       </c>
-      <c r="O30" s="30">
+      <c r="O30" s="34">
         <v>2</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="25">
         <v>81</v>
       </c>
-      <c r="Q30" s="41">
+      <c r="Q30" s="38">
         <v>5</v>
       </c>
-      <c r="R30" s="41">
+      <c r="R30" s="38">
         <v>2000</v>
       </c>
-      <c r="S30" s="38">
+      <c r="S30" s="35">
         <v>42826</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="35">
         <v>28488</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="32" t="str">
         <f t="shared" si="0"/>
         <v>dra.dewisartikapaddress@man.com</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="24">
-        <v>1</v>
-      </c>
-      <c r="H31" s="24">
-        <v>4</v>
-      </c>
-      <c r="I31" s="24" t="s">
+      <c r="G31" s="25">
+        <v>1</v>
+      </c>
+      <c r="H31" s="25">
+        <v>4</v>
+      </c>
+      <c r="I31" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="24">
-        <v>1</v>
-      </c>
-      <c r="K31" s="24" t="s">
+      <c r="J31" s="25">
+        <v>1</v>
+      </c>
+      <c r="K31" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="30">
-        <v>4</v>
-      </c>
-      <c r="N31" s="38">
+      <c r="M31" s="34">
+        <v>4</v>
+      </c>
+      <c r="N31" s="35">
         <v>44440</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="34">
         <v>2</v>
       </c>
-      <c r="P31" s="24">
+      <c r="P31" s="25">
         <v>81</v>
       </c>
-      <c r="Q31" s="41">
+      <c r="Q31" s="38">
         <v>13</v>
       </c>
-      <c r="R31" s="41">
+      <c r="R31" s="38">
         <v>1998</v>
       </c>
-      <c r="S31" s="38">
+      <c r="S31" s="35">
         <v>45200</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="35">
         <v>23713</v>
       </c>
-      <c r="E32" s="28" t="str">
+      <c r="E32" s="32" t="str">
         <f t="shared" si="0"/>
         <v>novadianas.pd.ipaddress@man.com</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="24">
-        <v>1</v>
-      </c>
-      <c r="H32" s="24">
-        <v>4</v>
-      </c>
-      <c r="I32" s="24" t="s">
+      <c r="G32" s="25">
+        <v>1</v>
+      </c>
+      <c r="H32" s="25">
+        <v>4</v>
+      </c>
+      <c r="I32" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="24">
-        <v>1</v>
-      </c>
-      <c r="K32" s="24" t="s">
+      <c r="J32" s="25">
+        <v>1</v>
+      </c>
+      <c r="K32" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="34">
         <v>3</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32" s="35">
         <v>42979</v>
       </c>
-      <c r="O32" s="30">
-        <v>4</v>
-      </c>
-      <c r="P32" s="24">
+      <c r="O32" s="34">
+        <v>4</v>
+      </c>
+      <c r="P32" s="25">
         <v>81</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="38">
         <v>14</v>
       </c>
-      <c r="R32" s="41">
+      <c r="R32" s="38">
         <v>1991</v>
       </c>
-      <c r="S32" s="38">
+      <c r="S32" s="35">
         <v>45931</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="36" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="35">
         <v>31657</v>
       </c>
-      <c r="E33" s="28" t="str">
+      <c r="E33" s="32" t="str">
         <f t="shared" si="0"/>
         <v>muslailatis.pdpaddress@man.com</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="24">
-        <v>1</v>
-      </c>
-      <c r="H33" s="24">
-        <v>4</v>
-      </c>
-      <c r="I33" s="24" t="s">
+      <c r="G33" s="25">
+        <v>1</v>
+      </c>
+      <c r="H33" s="25">
+        <v>4</v>
+      </c>
+      <c r="I33" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="24">
-        <v>1</v>
-      </c>
-      <c r="K33" s="24" t="s">
+      <c r="J33" s="25">
+        <v>1</v>
+      </c>
+      <c r="K33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="30">
-        <v>4</v>
-      </c>
-      <c r="N33" s="38">
+      <c r="M33" s="34">
+        <v>4</v>
+      </c>
+      <c r="N33" s="35">
         <v>44409</v>
       </c>
-      <c r="O33" s="30">
-        <v>1</v>
-      </c>
-      <c r="P33" s="24">
+      <c r="O33" s="34">
+        <v>1</v>
+      </c>
+      <c r="P33" s="25">
         <v>81</v>
       </c>
-      <c r="Q33" s="41">
+      <c r="Q33" s="38">
         <v>14</v>
       </c>
-      <c r="R33" s="41">
+      <c r="R33" s="38">
         <v>2011</v>
       </c>
-      <c r="S33" s="40">
+      <c r="S33" s="37">
         <v>44986</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="36" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="35">
         <v>34095</v>
       </c>
-      <c r="E34" s="28" t="str">
+      <c r="E34" s="32" t="str">
         <f t="shared" si="0"/>
         <v>murikawatis.pdpaddress@man.com</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="24">
-        <v>1</v>
-      </c>
-      <c r="H34" s="24">
-        <v>4</v>
-      </c>
-      <c r="I34" s="24" t="s">
+      <c r="G34" s="25">
+        <v>1</v>
+      </c>
+      <c r="H34" s="25">
+        <v>4</v>
+      </c>
+      <c r="I34" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="25">
         <v>2</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24">
+      <c r="M34" s="25"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25">
         <v>81</v>
       </c>
-      <c r="Q34" s="41">
+      <c r="Q34" s="38">
         <v>14</v>
       </c>
-      <c r="R34" s="41">
+      <c r="R34" s="38">
         <v>2011</v>
       </c>
-      <c r="S34" s="40"/>
+      <c r="S34" s="37"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="36" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="35">
         <v>31581</v>
       </c>
-      <c r="E35" s="28" t="str">
+      <c r="E35" s="32" t="str">
         <f t="shared" si="0"/>
         <v>sripuspitawatysepaddress@man.com</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="24">
-        <v>1</v>
-      </c>
-      <c r="H35" s="24">
-        <v>4</v>
-      </c>
-      <c r="I35" s="24" t="s">
+      <c r="G35" s="25">
+        <v>1</v>
+      </c>
+      <c r="H35" s="25">
+        <v>4</v>
+      </c>
+      <c r="I35" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="25">
         <v>2</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="29" t="s">
+      <c r="L35" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24">
+      <c r="M35" s="25"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25">
         <v>81</v>
       </c>
-      <c r="Q35" s="41">
+      <c r="Q35" s="38">
         <v>14</v>
       </c>
-      <c r="R35" s="41">
+      <c r="R35" s="38">
         <v>2011</v>
       </c>
-      <c r="S35" s="40"/>
+      <c r="S35" s="37"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="43">
         <v>29258</v>
       </c>
-      <c r="E36" s="28" t="str">
+      <c r="E36" s="32" t="str">
         <f t="shared" si="0"/>
         <v>musrifatuns.pd.ipaddress@man.com</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="24">
-        <v>1</v>
-      </c>
-      <c r="H36" s="24">
-        <v>4</v>
-      </c>
-      <c r="I36" s="24" t="s">
+      <c r="G36" s="25">
+        <v>1</v>
+      </c>
+      <c r="H36" s="25">
+        <v>4</v>
+      </c>
+      <c r="I36" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="25">
         <v>2</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24">
+      <c r="M36" s="25"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25">
         <v>81</v>
       </c>
-      <c r="Q36" s="41">
+      <c r="Q36" s="38">
         <v>14</v>
       </c>
-      <c r="R36" s="41">
+      <c r="R36" s="38">
         <v>2011</v>
       </c>
-      <c r="S36" s="45"/>
+      <c r="S36" s="43"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="43">
         <v>25027</v>
       </c>
-      <c r="E37" s="28" t="str">
+      <c r="E37" s="32" t="str">
         <f t="shared" si="0"/>
         <v>hasbunarawem.pdpaddress@man.com</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="24">
-        <v>1</v>
-      </c>
-      <c r="H37" s="24">
-        <v>4</v>
-      </c>
-      <c r="I37" s="24" t="s">
+      <c r="G37" s="25">
+        <v>1</v>
+      </c>
+      <c r="H37" s="25">
+        <v>4</v>
+      </c>
+      <c r="I37" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="25">
         <v>2</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="29" t="s">
+      <c r="L37" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24">
+      <c r="M37" s="25"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25">
         <v>81</v>
       </c>
-      <c r="Q37" s="41">
+      <c r="Q37" s="38">
         <v>14</v>
       </c>
-      <c r="R37" s="41">
+      <c r="R37" s="38">
         <v>2011</v>
       </c>
-      <c r="S37" s="45"/>
+      <c r="S37" s="43"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="36" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="43">
         <v>25028</v>
       </c>
-      <c r="E38" s="28" t="str">
+      <c r="E38" s="32" t="str">
         <f t="shared" si="0"/>
         <v>ayurafitris.pdpaddress@man.com</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="24">
-        <v>1</v>
-      </c>
-      <c r="H38" s="24">
-        <v>4</v>
-      </c>
-      <c r="I38" s="24" t="s">
+      <c r="G38" s="25">
+        <v>1</v>
+      </c>
+      <c r="H38" s="25">
+        <v>4</v>
+      </c>
+      <c r="I38" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="25">
         <v>2</v>
       </c>
-      <c r="K38" s="24" t="s">
+      <c r="K38" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="29" t="s">
+      <c r="L38" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="25">
         <v>81</v>
       </c>
-      <c r="Q38" s="41">
+      <c r="Q38" s="38">
         <v>14</v>
       </c>
-      <c r="R38" s="41">
+      <c r="R38" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="36" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="43">
         <v>25029</v>
       </c>
-      <c r="E39" s="28" t="str">
+      <c r="E39" s="32" t="str">
         <f t="shared" si="0"/>
         <v>yunitafitris.pdpaddress@man.com</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="24">
-        <v>1</v>
-      </c>
-      <c r="H39" s="24">
-        <v>4</v>
-      </c>
-      <c r="I39" s="24" t="s">
+      <c r="G39" s="25">
+        <v>1</v>
+      </c>
+      <c r="H39" s="25">
+        <v>4</v>
+      </c>
+      <c r="I39" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="25">
         <v>2</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="29" t="s">
+      <c r="L39" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="25">
         <v>81</v>
       </c>
-      <c r="Q39" s="41">
+      <c r="Q39" s="38">
         <v>14</v>
       </c>
-      <c r="R39" s="41">
+      <c r="R39" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="36" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="43">
         <v>25030</v>
       </c>
-      <c r="E40" s="28" t="str">
+      <c r="E40" s="32" t="str">
         <f t="shared" si="0"/>
         <v>suminas.pd.ipaddress@man.com</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="24">
-        <v>1</v>
-      </c>
-      <c r="H40" s="24">
-        <v>4</v>
-      </c>
-      <c r="I40" s="24" t="s">
+      <c r="G40" s="25">
+        <v>1</v>
+      </c>
+      <c r="H40" s="25">
+        <v>4</v>
+      </c>
+      <c r="I40" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="25">
         <v>2</v>
       </c>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L40" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="25">
         <v>81</v>
       </c>
-      <c r="Q40" s="41">
+      <c r="Q40" s="38">
         <v>14</v>
       </c>
-      <c r="R40" s="41">
+      <c r="R40" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="36" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="43">
         <v>25031</v>
       </c>
-      <c r="E41" s="28" t="str">
+      <c r="E41" s="32" t="str">
         <f t="shared" si="0"/>
         <v>mawarnimartianatah.s.pdpaddress@man.com</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="24">
-        <v>1</v>
-      </c>
-      <c r="H41" s="24">
-        <v>4</v>
-      </c>
-      <c r="I41" s="24" t="s">
+      <c r="G41" s="25">
+        <v>1</v>
+      </c>
+      <c r="H41" s="25">
+        <v>4</v>
+      </c>
+      <c r="I41" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="25">
         <v>2</v>
       </c>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="29" t="s">
+      <c r="L41" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="24">
+      <c r="P41" s="25">
         <v>81</v>
       </c>
-      <c r="Q41" s="41">
+      <c r="Q41" s="38">
         <v>14</v>
       </c>
-      <c r="R41" s="41">
+      <c r="R41" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="43">
         <v>25032</v>
       </c>
-      <c r="E42" s="28" t="str">
+      <c r="E42" s="32" t="str">
         <f t="shared" si="0"/>
         <v>ihfaruddins.pdpaddress@man.com</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="24">
-        <v>1</v>
-      </c>
-      <c r="H42" s="24">
-        <v>4</v>
-      </c>
-      <c r="I42" s="24" t="s">
+      <c r="G42" s="25">
+        <v>1</v>
+      </c>
+      <c r="H42" s="25">
+        <v>4</v>
+      </c>
+      <c r="I42" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="25">
         <v>2</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="29" t="s">
+      <c r="L42" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="24">
+      <c r="P42" s="25">
         <v>81</v>
       </c>
-      <c r="Q42" s="41">
+      <c r="Q42" s="38">
         <v>14</v>
       </c>
-      <c r="R42" s="41">
+      <c r="R42" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="36" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="43">
         <v>25033</v>
       </c>
-      <c r="E43" s="28" t="str">
+      <c r="E43" s="32" t="str">
         <f t="shared" si="0"/>
         <v>liafitris.pdpaddress@man.com</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="24">
-        <v>1</v>
-      </c>
-      <c r="H43" s="24">
-        <v>4</v>
-      </c>
-      <c r="I43" s="24" t="s">
+      <c r="G43" s="25">
+        <v>1</v>
+      </c>
+      <c r="H43" s="25">
+        <v>4</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="25">
         <v>2</v>
       </c>
-      <c r="K43" s="24" t="s">
+      <c r="K43" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="29" t="s">
+      <c r="L43" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P43" s="24">
+      <c r="P43" s="25">
         <v>81</v>
       </c>
-      <c r="Q43" s="41">
+      <c r="Q43" s="38">
         <v>14</v>
       </c>
-      <c r="R43" s="41">
+      <c r="R43" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="36" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="43">
         <v>25034</v>
       </c>
-      <c r="E44" s="28" t="str">
+      <c r="E44" s="32" t="str">
         <f t="shared" si="0"/>
         <v>maqpirahs.pdpaddress@man.com</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="24">
-        <v>1</v>
-      </c>
-      <c r="H44" s="24">
-        <v>4</v>
-      </c>
-      <c r="I44" s="24" t="s">
+      <c r="G44" s="25">
+        <v>1</v>
+      </c>
+      <c r="H44" s="25">
+        <v>4</v>
+      </c>
+      <c r="I44" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="25">
         <v>2</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="29" t="s">
+      <c r="L44" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P44" s="24">
+      <c r="P44" s="25">
         <v>81</v>
       </c>
-      <c r="Q44" s="41">
+      <c r="Q44" s="38">
         <v>14</v>
       </c>
-      <c r="R44" s="41">
+      <c r="R44" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="36" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="43">
         <v>25035</v>
       </c>
-      <c r="E45" s="28" t="str">
+      <c r="E45" s="32" t="str">
         <f t="shared" si="0"/>
         <v>wantinurjadidahs.sospaddress@man.com</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="24">
-        <v>1</v>
-      </c>
-      <c r="H45" s="24">
-        <v>4</v>
-      </c>
-      <c r="I45" s="24" t="s">
+      <c r="G45" s="25">
+        <v>1</v>
+      </c>
+      <c r="H45" s="25">
+        <v>4</v>
+      </c>
+      <c r="I45" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="25">
         <v>2</v>
       </c>
-      <c r="K45" s="24" t="s">
+      <c r="K45" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="29" t="s">
+      <c r="L45" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="24">
+      <c r="P45" s="25">
         <v>81</v>
       </c>
-      <c r="Q45" s="41">
+      <c r="Q45" s="38">
         <v>14</v>
       </c>
-      <c r="R45" s="41">
+      <c r="R45" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="36" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="43">
         <v>25036</v>
       </c>
-      <c r="E46" s="28" t="str">
+      <c r="E46" s="32" t="str">
         <f t="shared" si="0"/>
         <v>azmialfikris.pd.ipaddress@man.com</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="24">
-        <v>1</v>
-      </c>
-      <c r="H46" s="24">
-        <v>4</v>
-      </c>
-      <c r="I46" s="24" t="s">
+      <c r="G46" s="25">
+        <v>1</v>
+      </c>
+      <c r="H46" s="25">
+        <v>4</v>
+      </c>
+      <c r="I46" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="25">
         <v>2</v>
       </c>
-      <c r="K46" s="24" t="s">
+      <c r="K46" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="29" t="s">
+      <c r="L46" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P46" s="24">
+      <c r="P46" s="25">
         <v>81</v>
       </c>
-      <c r="Q46" s="41">
+      <c r="Q46" s="38">
         <v>14</v>
       </c>
-      <c r="R46" s="41">
+      <c r="R46" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="36" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="45">
+      <c r="D47" s="43">
         <v>25037</v>
       </c>
-      <c r="E47" s="28" t="str">
+      <c r="E47" s="32" t="str">
         <f t="shared" si="0"/>
         <v>ariagemasihs.pdpaddress@man.com</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="24">
-        <v>1</v>
-      </c>
-      <c r="H47" s="24">
-        <v>4</v>
-      </c>
-      <c r="I47" s="24" t="s">
+      <c r="G47" s="25">
+        <v>1</v>
+      </c>
+      <c r="H47" s="25">
+        <v>4</v>
+      </c>
+      <c r="I47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="25">
         <v>2</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="29" t="s">
+      <c r="L47" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P47" s="24">
+      <c r="P47" s="25">
         <v>81</v>
       </c>
-      <c r="Q47" s="41">
+      <c r="Q47" s="38">
         <v>14</v>
       </c>
-      <c r="R47" s="41">
+      <c r="R47" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="36" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="43">
         <v>25038</v>
       </c>
-      <c r="E48" s="28" t="str">
+      <c r="E48" s="32" t="str">
         <f t="shared" si="0"/>
         <v>hirdayanis.pdpaddress@man.com</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="24">
-        <v>1</v>
-      </c>
-      <c r="H48" s="24">
-        <v>4</v>
-      </c>
-      <c r="I48" s="24" t="s">
+      <c r="G48" s="25">
+        <v>1</v>
+      </c>
+      <c r="H48" s="25">
+        <v>4</v>
+      </c>
+      <c r="I48" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="25">
         <v>2</v>
       </c>
-      <c r="K48" s="24" t="s">
+      <c r="K48" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="29" t="s">
+      <c r="L48" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="24">
+      <c r="P48" s="25">
         <v>81</v>
       </c>
-      <c r="Q48" s="41">
+      <c r="Q48" s="38">
         <v>14</v>
       </c>
-      <c r="R48" s="41">
+      <c r="R48" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="36" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="43">
         <v>25039</v>
       </c>
-      <c r="E49" s="28" t="str">
+      <c r="E49" s="32" t="str">
         <f t="shared" si="0"/>
         <v>nellarahmans.pdpaddress@man.com</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="24">
-        <v>1</v>
-      </c>
-      <c r="H49" s="24">
-        <v>4</v>
-      </c>
-      <c r="I49" s="24" t="s">
+      <c r="G49" s="25">
+        <v>1</v>
+      </c>
+      <c r="H49" s="25">
+        <v>4</v>
+      </c>
+      <c r="I49" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="25">
         <v>2</v>
       </c>
-      <c r="K49" s="24" t="s">
+      <c r="K49" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L49" s="29" t="s">
+      <c r="L49" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="24">
+      <c r="P49" s="25">
         <v>81</v>
       </c>
-      <c r="Q49" s="41">
+      <c r="Q49" s="38">
         <v>14</v>
       </c>
-      <c r="R49" s="41">
+      <c r="R49" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="36" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="45">
+      <c r="D50" s="43">
         <v>25040</v>
       </c>
-      <c r="E50" s="28" t="str">
+      <c r="E50" s="32" t="str">
         <f t="shared" si="0"/>
         <v>zahrahs.pdpaddress@man.com</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="24">
-        <v>1</v>
-      </c>
-      <c r="H50" s="24">
-        <v>4</v>
-      </c>
-      <c r="I50" s="24" t="s">
+      <c r="G50" s="25">
+        <v>1</v>
+      </c>
+      <c r="H50" s="25">
+        <v>4</v>
+      </c>
+      <c r="I50" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="25">
         <v>2</v>
       </c>
-      <c r="K50" s="24" t="s">
+      <c r="K50" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="29" t="s">
+      <c r="L50" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="24">
+      <c r="P50" s="25">
         <v>81</v>
       </c>
-      <c r="Q50" s="41">
+      <c r="Q50" s="38">
         <v>14</v>
       </c>
-      <c r="R50" s="41">
+      <c r="R50" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="36" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="43">
         <v>25041</v>
       </c>
-      <c r="E51" s="28" t="str">
+      <c r="E51" s="32" t="str">
         <f t="shared" si="0"/>
         <v>nurmalianas.pdpaddress@man.com</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="24">
-        <v>1</v>
-      </c>
-      <c r="H51" s="24">
-        <v>4</v>
-      </c>
-      <c r="I51" s="24" t="s">
+      <c r="G51" s="25">
+        <v>1</v>
+      </c>
+      <c r="H51" s="25">
+        <v>4</v>
+      </c>
+      <c r="I51" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="25">
         <v>2</v>
       </c>
-      <c r="K51" s="24" t="s">
+      <c r="K51" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L51" s="29" t="s">
+      <c r="L51" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P51" s="24">
+      <c r="P51" s="25">
         <v>81</v>
       </c>
-      <c r="Q51" s="41">
+      <c r="Q51" s="38">
         <v>14</v>
       </c>
-      <c r="R51" s="41">
+      <c r="R51" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="36" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="43">
         <v>25042</v>
       </c>
-      <c r="E52" s="28" t="str">
+      <c r="E52" s="32" t="str">
         <f t="shared" si="0"/>
         <v>indasyahram.pdpaddress@man.com</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="24">
-        <v>1</v>
-      </c>
-      <c r="H52" s="24">
-        <v>1</v>
-      </c>
-      <c r="I52" s="24" t="s">
+      <c r="G52" s="25">
+        <v>1</v>
+      </c>
+      <c r="H52" s="25">
+        <v>1</v>
+      </c>
+      <c r="I52" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="25">
         <v>2</v>
       </c>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="29" t="s">
+      <c r="L52" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="24">
+      <c r="P52" s="25">
         <v>81</v>
       </c>
-      <c r="Q52" s="41">
+      <c r="Q52" s="38">
         <v>14</v>
       </c>
-      <c r="R52" s="41">
+      <c r="R52" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="36" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="45">
+      <c r="D53" s="43">
         <v>25043</v>
       </c>
-      <c r="E53" s="28" t="str">
+      <c r="E53" s="32" t="str">
         <f t="shared" si="0"/>
         <v>helmirasyidans.pdpaddress@man.com</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="24">
-        <v>1</v>
-      </c>
-      <c r="H53" s="24">
-        <v>4</v>
-      </c>
-      <c r="I53" s="24" t="s">
+      <c r="G53" s="25">
+        <v>1</v>
+      </c>
+      <c r="H53" s="25">
+        <v>4</v>
+      </c>
+      <c r="I53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="25">
         <v>2</v>
       </c>
-      <c r="K53" s="24" t="s">
+      <c r="K53" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L53" s="29" t="s">
+      <c r="L53" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P53" s="24">
+      <c r="P53" s="25">
         <v>81</v>
       </c>
-      <c r="Q53" s="41">
+      <c r="Q53" s="38">
         <v>14</v>
       </c>
-      <c r="R53" s="41">
+      <c r="R53" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="36" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="45">
+      <c r="D54" s="43">
         <v>25044</v>
       </c>
-      <c r="E54" s="28" t="str">
+      <c r="E54" s="32" t="str">
         <f t="shared" si="0"/>
         <v>basirahs.pdpaddress@man.com</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="24">
-        <v>1</v>
-      </c>
-      <c r="H54" s="24">
-        <v>4</v>
-      </c>
-      <c r="I54" s="24" t="s">
+      <c r="G54" s="25">
+        <v>1</v>
+      </c>
+      <c r="H54" s="25">
+        <v>4</v>
+      </c>
+      <c r="I54" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="25">
         <v>2</v>
       </c>
-      <c r="K54" s="24" t="s">
+      <c r="K54" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="29" t="s">
+      <c r="L54" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P54" s="24">
+      <c r="P54" s="25">
         <v>81</v>
       </c>
-      <c r="Q54" s="41">
+      <c r="Q54" s="38">
         <v>14</v>
       </c>
-      <c r="R54" s="41">
+      <c r="R54" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="36" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="43">
         <v>25045</v>
       </c>
-      <c r="E55" s="28" t="str">
+      <c r="E55" s="32" t="str">
         <f t="shared" si="0"/>
         <v>nidaulfasmis.pdpaddress@man.com</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G55" s="24">
-        <v>1</v>
-      </c>
-      <c r="H55" s="24">
-        <v>4</v>
-      </c>
-      <c r="I55" s="24" t="s">
+      <c r="G55" s="25">
+        <v>1</v>
+      </c>
+      <c r="H55" s="25">
+        <v>4</v>
+      </c>
+      <c r="I55" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="25">
         <v>2</v>
       </c>
-      <c r="K55" s="24" t="s">
+      <c r="K55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L55" s="29" t="s">
+      <c r="L55" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P55" s="24">
+      <c r="P55" s="25">
         <v>81</v>
       </c>
-      <c r="Q55" s="41">
+      <c r="Q55" s="38">
         <v>14</v>
       </c>
-      <c r="R55" s="41">
+      <c r="R55" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="36" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="45">
+      <c r="D56" s="43">
         <v>25046</v>
       </c>
-      <c r="E56" s="28" t="str">
+      <c r="E56" s="32" t="str">
         <f t="shared" si="0"/>
         <v>rahmayanas.pdpaddress@man.com</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="24">
-        <v>1</v>
-      </c>
-      <c r="H56" s="24">
-        <v>4</v>
-      </c>
-      <c r="I56" s="24" t="s">
+      <c r="G56" s="25">
+        <v>1</v>
+      </c>
+      <c r="H56" s="25">
+        <v>4</v>
+      </c>
+      <c r="I56" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="25">
         <v>2</v>
       </c>
-      <c r="K56" s="24" t="s">
+      <c r="K56" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L56" s="29" t="s">
+      <c r="L56" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="24">
+      <c r="P56" s="25">
         <v>81</v>
       </c>
-      <c r="Q56" s="41">
+      <c r="Q56" s="38">
         <v>14</v>
       </c>
-      <c r="R56" s="41">
+      <c r="R56" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="36" t="s">
+      <c r="A57" s="29"/>
+      <c r="B57" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="45">
+      <c r="D57" s="43">
         <v>25047</v>
       </c>
-      <c r="E57" s="28" t="str">
+      <c r="E57" s="32" t="str">
         <f t="shared" si="0"/>
         <v>enipenalamnis.sipaddress@man.com</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="24">
-        <v>1</v>
-      </c>
-      <c r="H57" s="24">
-        <v>4</v>
-      </c>
-      <c r="I57" s="24" t="s">
+      <c r="G57" s="25">
+        <v>1</v>
+      </c>
+      <c r="H57" s="25">
+        <v>4</v>
+      </c>
+      <c r="I57" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="25">
         <v>2</v>
       </c>
-      <c r="K57" s="24" t="s">
+      <c r="K57" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L57" s="29" t="s">
+      <c r="L57" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="25">
         <v>81</v>
       </c>
-      <c r="Q57" s="41">
+      <c r="Q57" s="38">
         <v>14</v>
       </c>
-      <c r="R57" s="41">
+      <c r="R57" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="36" t="s">
+      <c r="A58" s="29"/>
+      <c r="B58" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="43">
         <v>25048</v>
       </c>
-      <c r="E58" s="28" t="str">
+      <c r="E58" s="32" t="str">
         <f t="shared" si="0"/>
         <v>kurniatibukits.pdpaddress@man.com</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="24">
-        <v>1</v>
-      </c>
-      <c r="H58" s="24">
-        <v>4</v>
-      </c>
-      <c r="I58" s="24" t="s">
+      <c r="G58" s="25">
+        <v>1</v>
+      </c>
+      <c r="H58" s="25">
+        <v>4</v>
+      </c>
+      <c r="I58" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="25">
         <v>2</v>
       </c>
-      <c r="K58" s="24" t="s">
+      <c r="K58" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L58" s="29" t="s">
+      <c r="L58" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P58" s="24">
+      <c r="P58" s="25">
         <v>81</v>
       </c>
-      <c r="Q58" s="41">
+      <c r="Q58" s="38">
         <v>14</v>
       </c>
-      <c r="R58" s="41">
+      <c r="R58" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="36" t="s">
+      <c r="A59" s="29"/>
+      <c r="B59" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="43">
         <v>25049</v>
       </c>
-      <c r="E59" s="28" t="str">
+      <c r="E59" s="32" t="str">
         <f t="shared" si="0"/>
         <v>wildanmabruras.pdpaddress@man.com</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="24">
-        <v>1</v>
-      </c>
-      <c r="H59" s="24">
-        <v>4</v>
-      </c>
-      <c r="I59" s="24" t="s">
+      <c r="G59" s="25">
+        <v>1</v>
+      </c>
+      <c r="H59" s="25">
+        <v>4</v>
+      </c>
+      <c r="I59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="24">
+      <c r="J59" s="25">
         <v>2</v>
       </c>
-      <c r="K59" s="24" t="s">
+      <c r="K59" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L59" s="29" t="s">
+      <c r="L59" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P59" s="24">
+      <c r="P59" s="25">
         <v>81</v>
       </c>
-      <c r="Q59" s="41">
+      <c r="Q59" s="38">
         <v>14</v>
       </c>
-      <c r="R59" s="41">
+      <c r="R59" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="45">
+      <c r="D60" s="43">
         <v>25050</v>
       </c>
-      <c r="E60" s="28" t="str">
+      <c r="E60" s="32" t="str">
         <f t="shared" si="0"/>
         <v>marfuahs.pdpaddress@man.com</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G60" s="24">
-        <v>1</v>
-      </c>
-      <c r="H60" s="24">
-        <v>4</v>
-      </c>
-      <c r="I60" s="24" t="s">
+      <c r="G60" s="25">
+        <v>1</v>
+      </c>
+      <c r="H60" s="25">
+        <v>4</v>
+      </c>
+      <c r="I60" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="24">
+      <c r="J60" s="25">
         <v>2</v>
       </c>
-      <c r="K60" s="24" t="s">
+      <c r="K60" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L60" s="29" t="s">
+      <c r="L60" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P60" s="24">
+      <c r="P60" s="25">
         <v>81</v>
       </c>
-      <c r="Q60" s="41">
+      <c r="Q60" s="38">
         <v>14</v>
       </c>
-      <c r="R60" s="41">
+      <c r="R60" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="36" t="s">
+      <c r="A61" s="29"/>
+      <c r="B61" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="45">
+      <c r="D61" s="43">
         <v>25051</v>
       </c>
-      <c r="E61" s="28" t="str">
+      <c r="E61" s="32" t="str">
         <f t="shared" si="0"/>
         <v>sadirahs.pd.ipaddress@man.com</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="24">
-        <v>1</v>
-      </c>
-      <c r="H61" s="24">
-        <v>4</v>
-      </c>
-      <c r="I61" s="24" t="s">
+      <c r="G61" s="25">
+        <v>1</v>
+      </c>
+      <c r="H61" s="25">
+        <v>4</v>
+      </c>
+      <c r="I61" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="24">
+      <c r="J61" s="25">
         <v>2</v>
       </c>
-      <c r="K61" s="24" t="s">
+      <c r="K61" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L61" s="29" t="s">
+      <c r="L61" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P61" s="24">
+      <c r="P61" s="25">
         <v>81</v>
       </c>
-      <c r="Q61" s="41">
+      <c r="Q61" s="38">
         <v>14</v>
       </c>
-      <c r="R61" s="41">
+      <c r="R61" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="36" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="45">
+      <c r="D62" s="43">
         <v>25052</v>
       </c>
-      <c r="E62" s="28" t="str">
+      <c r="E62" s="32" t="str">
         <f t="shared" si="0"/>
         <v>saifunnurs.pdpaddress@man.com</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="24">
-        <v>1</v>
-      </c>
-      <c r="H62" s="24">
-        <v>4</v>
-      </c>
-      <c r="I62" s="24" t="s">
+      <c r="G62" s="25">
+        <v>1</v>
+      </c>
+      <c r="H62" s="25">
+        <v>4</v>
+      </c>
+      <c r="I62" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="24">
+      <c r="J62" s="25">
         <v>2</v>
       </c>
-      <c r="K62" s="24" t="s">
+      <c r="K62" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L62" s="29" t="s">
+      <c r="L62" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P62" s="24">
+      <c r="P62" s="25">
         <v>81</v>
       </c>
-      <c r="Q62" s="41">
+      <c r="Q62" s="38">
         <v>14</v>
       </c>
-      <c r="R62" s="41">
+      <c r="R62" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="36" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="45">
+      <c r="D63" s="43">
         <v>25053</v>
       </c>
-      <c r="E63" s="28" t="str">
+      <c r="E63" s="32" t="str">
         <f t="shared" si="0"/>
         <v>rahimatullahs.pd.ipaddress@man.com</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="24">
-        <v>1</v>
-      </c>
-      <c r="H63" s="24">
-        <v>4</v>
-      </c>
-      <c r="I63" s="24" t="s">
+      <c r="G63" s="25">
+        <v>1</v>
+      </c>
+      <c r="H63" s="25">
+        <v>4</v>
+      </c>
+      <c r="I63" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="24">
+      <c r="J63" s="25">
         <v>2</v>
       </c>
-      <c r="K63" s="24" t="s">
+      <c r="K63" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L63" s="29" t="s">
+      <c r="L63" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P63" s="24">
+      <c r="P63" s="25">
         <v>81</v>
       </c>
-      <c r="Q63" s="41">
+      <c r="Q63" s="38">
         <v>14</v>
       </c>
-      <c r="R63" s="41">
+      <c r="R63" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="36" t="s">
+      <c r="A64" s="29"/>
+      <c r="B64" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="43">
         <v>25054</v>
       </c>
-      <c r="E64" s="28" t="str">
+      <c r="E64" s="32" t="str">
         <f t="shared" si="0"/>
         <v>fitriramadhanis.pdpaddress@man.com</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="24">
-        <v>1</v>
-      </c>
-      <c r="H64" s="24">
-        <v>4</v>
-      </c>
-      <c r="I64" s="24" t="s">
+      <c r="G64" s="25">
+        <v>1</v>
+      </c>
+      <c r="H64" s="25">
+        <v>4</v>
+      </c>
+      <c r="I64" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J64" s="24">
+      <c r="J64" s="25">
         <v>2</v>
       </c>
-      <c r="K64" s="24" t="s">
+      <c r="K64" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L64" s="29" t="s">
+      <c r="L64" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P64" s="24">
+      <c r="P64" s="25">
         <v>81</v>
       </c>
-      <c r="Q64" s="41">
+      <c r="Q64" s="38">
         <v>14</v>
       </c>
-      <c r="R64" s="41">
+      <c r="R64" s="38">
         <v>2011</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="36" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="45">
+      <c r="D65" s="43">
         <v>25055</v>
       </c>
-      <c r="E65" s="28" t="str">
+      <c r="E65" s="32" t="str">
         <f t="shared" si="0"/>
         <v>marliantis.pdpaddress@man.com</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="24">
-        <v>1</v>
-      </c>
-      <c r="H65" s="24">
-        <v>4</v>
-      </c>
-      <c r="I65" s="24" t="s">
+      <c r="G65" s="25">
+        <v>1</v>
+      </c>
+      <c r="H65" s="25">
+        <v>4</v>
+      </c>
+      <c r="I65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J65" s="24">
+      <c r="J65" s="25">
         <v>2</v>
       </c>
-      <c r="K65" s="24" t="s">
+      <c r="K65" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L65" s="29" t="s">
+      <c r="L65" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P65" s="24">
+      <c r="P65" s="25">
         <v>81</v>
       </c>
-      <c r="Q65" s="41">
+      <c r="Q65" s="38">
         <v>14</v>
       </c>
-      <c r="R65" s="41">
+      <c r="R65" s="38">
         <v>2011</v>
       </c>
     </row>
@@ -5022,47 +5039,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="46" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="1" t="s">
         <v>126</v>
       </c>
@@ -5072,18 +5089,18 @@
       <c r="G2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
@@ -5093,12 +5110,12 @@
       <c r="G3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5142,98 +5159,98 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="46" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="45">
         <v>24</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="45">
         <v>24</v>
       </c>
-      <c r="M5" s="46"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="46">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="45">
         <v>15</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="46">
+      <c r="H7" s="48"/>
+      <c r="I7" s="45">
         <v>15</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="45">
         <v>12</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="45">
         <v>27</v>
       </c>
-      <c r="M7" s="54"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="55"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5257,12 +5274,12 @@
         <v>12</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="45" t="s">
         <v>140</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="54"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -5292,135 +5309,135 @@
       <c r="I10" s="1">
         <v>14</v>
       </c>
-      <c r="J10" s="48"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="1">
         <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>26</v>
       </c>
-      <c r="M10" s="55"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="45">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="46">
-        <v>4</v>
-      </c>
-      <c r="F11" s="46">
+      <c r="E11" s="45">
+        <v>4</v>
+      </c>
+      <c r="F11" s="45">
         <v>12</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="46">
+      <c r="G11" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="45">
         <v>16</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="45">
         <v>16</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="45">
         <v>12</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="45">
         <v>28</v>
       </c>
-      <c r="M11" s="54"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="55"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="46">
+      <c r="E13" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="45">
         <v>2</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>12</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>14</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="45">
         <v>14</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="45">
         <v>12</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="45">
         <v>26</v>
       </c>
-      <c r="M13" s="54"/>
+      <c r="M13" s="53"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="55"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5437,19 +5454,19 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="45" t="s">
         <v>151</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="54"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="6" t="s">
         <v>141</v>
       </c>
@@ -5468,14 +5485,14 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="48"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="1">
         <v>13</v>
       </c>
       <c r="L16" s="1">
         <v>27</v>
       </c>
-      <c r="M16" s="55"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -5489,12 +5506,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="45" t="s">
         <v>153</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="49"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -5524,31 +5541,31 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="48"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="1">
         <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>29</v>
       </c>
-      <c r="M18" s="50"/>
+      <c r="M18" s="49"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="46"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="45" t="s">
         <v>155</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="49"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -5557,7 +5574,7 @@
       <c r="B20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="6" t="s">
         <v>154</v>
       </c>
@@ -5576,19 +5593,19 @@
       <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="1">
         <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="50"/>
+      <c r="M20" s="49"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="46"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -5600,7 +5617,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="49"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -5609,7 +5626,7 @@
       <c r="B22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="6" t="s">
         <v>156</v>
       </c>
@@ -5637,12 +5654,12 @@
       <c r="L22" s="7">
         <v>29</v>
       </c>
-      <c r="M22" s="56"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="48"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="6" t="s">
         <v>147</v>
       </c>
@@ -5662,10 +5679,10 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="50"/>
+      <c r="M23" s="49"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="46">
+      <c r="A24" s="45">
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5683,10 +5700,10 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="49"/>
+      <c r="M24" s="48"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="6" t="s">
         <v>159</v>
       </c>
@@ -5720,10 +5737,10 @@
       <c r="L25" s="1">
         <v>31</v>
       </c>
-      <c r="M25" s="50"/>
+      <c r="M25" s="49"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
+      <c r="A26" s="45">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5741,10 +5758,10 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="49"/>
+      <c r="M26" s="48"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="6" t="s">
         <v>162</v>
       </c>
@@ -5778,61 +5795,61 @@
       <c r="L27" s="1">
         <v>31</v>
       </c>
-      <c r="M27" s="50"/>
+      <c r="M27" s="49"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="46">
+      <c r="A28" s="45">
         <v>12</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="54" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="45">
         <v>14</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="45">
         <v>8</v>
       </c>
-      <c r="G28" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="46">
+      <c r="G28" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="45">
         <v>22</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="45">
         <v>22</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="45">
         <v>7</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="45">
         <v>29</v>
       </c>
-      <c r="M28" s="49"/>
+      <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="50"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="49"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -5851,7 +5868,7 @@
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="49"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -5890,32 +5907,32 @@
       <c r="L31" s="1">
         <v>29</v>
       </c>
-      <c r="M31" s="50"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="54" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="46">
-        <v>4</v>
-      </c>
-      <c r="H32" s="46">
+      <c r="E32" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="45">
+        <v>4</v>
+      </c>
+      <c r="H32" s="45">
         <v>4</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="49"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -5924,24 +5941,24 @@
       <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="56"/>
+      <c r="M33" s="55"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="50"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="6" t="s">
         <v>172</v>
       </c>
@@ -5969,7 +5986,7 @@
       <c r="L34" s="1">
         <v>17</v>
       </c>
-      <c r="M34" s="50"/>
+      <c r="M34" s="49"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -5986,7 +6003,7 @@
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="49"/>
+      <c r="M35" s="48"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -6025,7 +6042,7 @@
       <c r="L36" s="1">
         <v>25</v>
       </c>
-      <c r="M36" s="50"/>
+      <c r="M36" s="49"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -6033,7 +6050,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="53" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="7"/>
@@ -6046,7 +6063,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="49"/>
+      <c r="M37" s="48"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -6058,7 +6075,7 @@
       <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="55"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="1">
         <v>12</v>
       </c>
@@ -6083,7 +6100,7 @@
       <c r="L38" s="1">
         <v>31</v>
       </c>
-      <c r="M38" s="50"/>
+      <c r="M38" s="49"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -6091,7 +6108,7 @@
         <v>51</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="53" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="7"/>
@@ -6104,7 +6121,7 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="49"/>
+      <c r="M39" s="48"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -6116,7 +6133,7 @@
       <c r="C40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="1">
         <v>4</v>
       </c>
@@ -6141,25 +6158,25 @@
       <c r="L40" s="1">
         <v>31</v>
       </c>
-      <c r="M40" s="50"/>
+      <c r="M40" s="49"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="46">
+      <c r="E41" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="45">
         <v>16</v>
       </c>
-      <c r="G41" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="46">
+      <c r="G41" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="45">
         <v>16</v>
       </c>
       <c r="I41" s="7"/>
@@ -6168,7 +6185,7 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="49"/>
+      <c r="M41" s="48"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -6180,18 +6197,18 @@
       <c r="C42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
         <v>183</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="56"/>
+      <c r="M42" s="55"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
@@ -6224,32 +6241,32 @@
       <c r="L43" s="1">
         <v>32</v>
       </c>
-      <c r="M43" s="50"/>
+      <c r="M43" s="49"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="54"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="46">
-        <v>4</v>
-      </c>
-      <c r="G44" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="46">
+      <c r="E44" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="45">
+        <v>4</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="45">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="5"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="49"/>
+      <c r="M44" s="48"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -6258,26 +6275,26 @@
       <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="57"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
       <c r="I45" s="7"/>
       <c r="J45" s="5" t="s">
         <v>157</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="56"/>
+      <c r="M45" s="55"/>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="55"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="6" t="s">
         <v>187</v>
       </c>
@@ -6305,7 +6322,7 @@
       <c r="L46" s="1">
         <v>15</v>
       </c>
-      <c r="M46" s="50"/>
+      <c r="M46" s="49"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -6320,7 +6337,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="49"/>
+      <c r="M47" s="48"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -6357,7 +6374,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="56"/>
+      <c r="M48" s="55"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -6388,7 +6405,7 @@
       <c r="L49" s="1">
         <v>33</v>
       </c>
-      <c r="M49" s="50"/>
+      <c r="M49" s="49"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -6405,7 +6422,7 @@
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="49"/>
+      <c r="M50" s="48"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -6436,7 +6453,7 @@
       <c r="L51" s="7">
         <v>29</v>
       </c>
-      <c r="M51" s="56"/>
+      <c r="M51" s="55"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -6459,7 +6476,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="56"/>
+      <c r="M52" s="55"/>
     </row>
     <row r="53" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -6486,7 +6503,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="50"/>
+      <c r="M53" s="49"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -6501,7 +6518,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="49"/>
+      <c r="M54" s="48"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
@@ -6530,7 +6547,7 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="56"/>
+      <c r="M55" s="55"/>
     </row>
     <row r="56" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
@@ -6569,7 +6586,7 @@
       <c r="L56" s="1">
         <v>33</v>
       </c>
-      <c r="M56" s="50"/>
+      <c r="M56" s="49"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -6586,7 +6603,7 @@
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="49"/>
+      <c r="M57" s="48"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6625,7 +6642,7 @@
       <c r="L58" s="7">
         <v>31</v>
       </c>
-      <c r="M58" s="56"/>
+      <c r="M58" s="55"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -6642,13 +6659,13 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="50"/>
+      <c r="M59" s="49"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="54" t="s">
+      <c r="D60" s="53" t="s">
         <v>177</v>
       </c>
       <c r="E60" s="7"/>
@@ -6661,7 +6678,7 @@
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="49"/>
+      <c r="M60" s="48"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -6673,7 +6690,7 @@
       <c r="C61" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="55"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="1" t="s">
         <v>139</v>
       </c>
@@ -6698,7 +6715,7 @@
       <c r="L61" s="7">
         <v>31</v>
       </c>
-      <c r="M61" s="56"/>
+      <c r="M61" s="55"/>
     </row>
     <row r="62" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
@@ -6725,7 +6742,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="50"/>
+      <c r="M62" s="49"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -6734,29 +6751,29 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="54">
+      <c r="E63" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="53">
         <v>8</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="45">
         <v>14</v>
       </c>
-      <c r="H63" s="46">
+      <c r="H63" s="45">
         <v>24</v>
       </c>
-      <c r="I63" s="46">
+      <c r="I63" s="45">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="46">
+      <c r="L63" s="45">
         <v>31</v>
       </c>
-      <c r="M63" s="49"/>
+      <c r="M63" s="48"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -6771,19 +6788,19 @@
       <c r="D64" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
       <c r="J64" s="1" t="s">
         <v>205</v>
       </c>
       <c r="K64" s="1">
         <v>7</v>
       </c>
-      <c r="L64" s="48"/>
-      <c r="M64" s="50"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="49"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -6798,7 +6815,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="49"/>
+      <c r="M65" s="48"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -6825,7 +6842,7 @@
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="56"/>
+      <c r="M66" s="55"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
@@ -6856,7 +6873,7 @@
       <c r="L67" s="7">
         <v>29</v>
       </c>
-      <c r="M67" s="56"/>
+      <c r="M67" s="55"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -6871,7 +6888,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="50"/>
+      <c r="M68" s="49"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -6890,7 +6907,7 @@
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="49"/>
+      <c r="M69" s="48"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -6929,7 +6946,7 @@
       <c r="L70" s="1">
         <v>31</v>
       </c>
-      <c r="M70" s="50"/>
+      <c r="M70" s="49"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -6946,7 +6963,7 @@
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="49"/>
+      <c r="M71" s="48"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -6985,7 +7002,7 @@
       <c r="L72" s="7">
         <v>31</v>
       </c>
-      <c r="M72" s="56"/>
+      <c r="M72" s="55"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -7002,7 +7019,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="50"/>
+      <c r="M73" s="49"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
@@ -7027,7 +7044,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="49"/>
+      <c r="M74" s="48"/>
     </row>
     <row r="75" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -7066,10 +7083,10 @@
       <c r="L75" s="1">
         <v>23</v>
       </c>
-      <c r="M75" s="50"/>
+      <c r="M75" s="49"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46">
+      <c r="A76" s="45">
         <v>30</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -7095,10 +7112,10 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="49"/>
+      <c r="M76" s="48"/>
     </row>
     <row r="77" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="48"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="6" t="s">
         <v>219</v>
       </c>
@@ -7132,13 +7149,13 @@
       <c r="L77" s="1">
         <v>32</v>
       </c>
-      <c r="M77" s="50"/>
+      <c r="M77" s="49"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="54">
+      <c r="A78" s="53">
         <v>31</v>
       </c>
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="53" t="s">
         <v>222</v>
       </c>
       <c r="C78" s="5"/>
@@ -7148,16 +7165,16 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="46" t="s">
+      <c r="J78" s="45" t="s">
         <v>223</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="49"/>
+      <c r="M78" s="48"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="55"/>
-      <c r="B79" s="55"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="1" t="s">
         <v>131</v>
       </c>
@@ -7179,17 +7196,17 @@
       <c r="I79" s="1">
         <v>18</v>
       </c>
-      <c r="J79" s="48"/>
+      <c r="J79" s="47"/>
       <c r="K79" s="1">
         <v>7</v>
       </c>
       <c r="L79" s="1">
         <v>25</v>
       </c>
-      <c r="M79" s="50"/>
+      <c r="M79" s="49"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="54">
+      <c r="A80" s="53">
         <v>32</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -7197,30 +7214,30 @@
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G80" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" s="46">
+      <c r="E80" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="45">
         <v>24</v>
       </c>
-      <c r="I80" s="46">
+      <c r="I80" s="45">
         <v>24</v>
       </c>
-      <c r="J80" s="46" t="s">
+      <c r="J80" s="45" t="s">
         <v>226</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="49"/>
+      <c r="M80" s="48"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="55"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="6" t="s">
         <v>224</v>
       </c>
@@ -7230,19 +7247,19 @@
       <c r="D81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
       <c r="K81" s="1">
         <v>10</v>
       </c>
       <c r="L81" s="1">
         <v>34</v>
       </c>
-      <c r="M81" s="50"/>
+      <c r="M81" s="49"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -7257,7 +7274,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="46"/>
+      <c r="M82" s="45"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -7296,7 +7313,7 @@
       <c r="L83" s="7">
         <v>24</v>
       </c>
-      <c r="M83" s="47"/>
+      <c r="M83" s="46"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -7313,32 +7330,32 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="M84" s="48"/>
+      <c r="M84" s="47"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="54" t="s">
+      <c r="D85" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="E85" s="46">
+      <c r="E85" s="45">
         <v>12</v>
       </c>
-      <c r="F85" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G85" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="46">
+      <c r="F85" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="45">
         <v>12</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="49"/>
+      <c r="M85" s="48"/>
     </row>
     <row r="86" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
@@ -7350,11 +7367,11 @@
       <c r="C86" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
       <c r="I86" s="7">
         <v>24</v>
       </c>
@@ -7363,7 +7380,7 @@
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="56"/>
+      <c r="M86" s="55"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
@@ -7371,7 +7388,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="12"/>
-      <c r="D87" s="54" t="s">
+      <c r="D87" s="53" t="s">
         <v>198</v>
       </c>
       <c r="E87" s="7"/>
@@ -7386,13 +7403,13 @@
       <c r="L87" s="7">
         <v>30</v>
       </c>
-      <c r="M87" s="56"/>
+      <c r="M87" s="55"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="55"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="1" t="s">
         <v>139</v>
       </c>
@@ -7409,10 +7426,10 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
-      <c r="M88" s="50"/>
+      <c r="M88" s="49"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="54">
+      <c r="A89" s="53">
         <v>35</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7424,16 +7441,16 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="54">
+      <c r="I89" s="53">
         <v>24</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="49"/>
+      <c r="M89" s="48"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="55"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="6" t="s">
         <v>233</v>
       </c>
@@ -7455,7 +7472,7 @@
       <c r="H90" s="1">
         <v>24</v>
       </c>
-      <c r="I90" s="55"/>
+      <c r="I90" s="54"/>
       <c r="J90" s="1" t="s">
         <v>234</v>
       </c>
@@ -7465,119 +7482,119 @@
       <c r="L90" s="1">
         <v>25</v>
       </c>
-      <c r="M90" s="50"/>
+      <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="54">
+      <c r="A91" s="53">
         <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="54" t="s">
+      <c r="D91" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="E91" s="46">
+      <c r="E91" s="45">
         <v>12</v>
       </c>
-      <c r="F91" s="46">
+      <c r="F91" s="45">
         <v>12</v>
       </c>
-      <c r="G91" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H91" s="46">
+      <c r="G91" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91" s="45">
         <v>24</v>
       </c>
-      <c r="I91" s="46">
+      <c r="I91" s="45">
         <v>24</v>
       </c>
-      <c r="J91" s="46" t="s">
+      <c r="J91" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="K91" s="46">
-        <v>1</v>
-      </c>
-      <c r="L91" s="46">
+      <c r="K91" s="45">
+        <v>1</v>
+      </c>
+      <c r="L91" s="45">
         <v>25</v>
       </c>
-      <c r="M91" s="49"/>
+      <c r="M91" s="48"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="55"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D92" s="55"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="50"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="49"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="54">
+      <c r="A93" s="53">
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="E93" s="46">
+      <c r="E93" s="45">
         <v>21</v>
       </c>
-      <c r="F93" s="46">
+      <c r="F93" s="45">
         <v>3</v>
       </c>
-      <c r="G93" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H93" s="46">
+      <c r="G93" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="45">
         <v>24</v>
       </c>
-      <c r="I93" s="46">
+      <c r="I93" s="45">
         <v>24</v>
       </c>
-      <c r="J93" s="46" t="s">
+      <c r="J93" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="K93" s="46">
-        <v>1</v>
-      </c>
-      <c r="L93" s="46">
+      <c r="K93" s="45">
+        <v>1</v>
+      </c>
+      <c r="L93" s="45">
         <v>25</v>
       </c>
-      <c r="M93" s="49"/>
+      <c r="M93" s="48"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="55"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="50"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="49"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -7602,7 +7619,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="46"/>
+      <c r="M95" s="45"/>
     </row>
     <row r="96" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
@@ -7641,12 +7658,12 @@
       <c r="L96" s="1">
         <v>30</v>
       </c>
-      <c r="M96" s="48"/>
+      <c r="M96" s="47"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="54"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="53"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -7656,12 +7673,12 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="49"/>
+      <c r="M97" s="48"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="55"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="6" t="s">
         <v>144</v>
       </c>
@@ -7689,24 +7706,24 @@
       <c r="L98" s="1">
         <v>25</v>
       </c>
-      <c r="M98" s="50"/>
+      <c r="M98" s="49"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="49"/>
+      <c r="C99" s="48"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="46" t="s">
+      <c r="J99" s="45" t="s">
         <v>240</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="49"/>
+      <c r="M99" s="48"/>
     </row>
     <row r="100" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
@@ -7715,7 +7732,7 @@
       <c r="B100" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="50"/>
+      <c r="C100" s="49"/>
       <c r="D100" s="6" t="s">
         <v>239</v>
       </c>
@@ -7734,54 +7751,54 @@
       <c r="I100" s="1">
         <v>24</v>
       </c>
-      <c r="J100" s="48"/>
+      <c r="J100" s="47"/>
       <c r="K100" s="1">
         <v>6</v>
       </c>
       <c r="L100" s="1">
         <v>30</v>
       </c>
-      <c r="M100" s="50"/>
+      <c r="M100" s="49"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="54" t="s">
+      <c r="C101" s="48"/>
+      <c r="D101" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="E101" s="46">
+      <c r="E101" s="45">
         <v>9</v>
       </c>
-      <c r="F101" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G101" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H101" s="46">
+      <c r="F101" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="45">
         <v>9</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="46"/>
+      <c r="K101" s="45"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="49"/>
+      <c r="M101" s="48"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="47"/>
+      <c r="K102" s="46"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="56"/>
+      <c r="M102" s="55"/>
     </row>
     <row r="103" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
@@ -7790,7 +7807,7 @@
       <c r="B103" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="56"/>
+      <c r="C103" s="55"/>
       <c r="D103" s="6" t="s">
         <v>243</v>
       </c>
@@ -7812,16 +7829,16 @@
       <c r="J103" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K103" s="47"/>
+      <c r="K103" s="46"/>
       <c r="L103" s="7">
         <v>26</v>
       </c>
-      <c r="M103" s="56"/>
+      <c r="M103" s="55"/>
     </row>
     <row r="104" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="50"/>
+      <c r="C104" s="49"/>
       <c r="D104" s="6" t="s">
         <v>218</v>
       </c>
@@ -7839,14 +7856,14 @@
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="48"/>
+      <c r="K104" s="47"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="50"/>
+      <c r="M104" s="49"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="54"/>
+      <c r="C105" s="53"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -7856,7 +7873,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="49"/>
+      <c r="M105" s="48"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
@@ -7865,7 +7882,7 @@
       <c r="B106" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="57"/>
+      <c r="C106" s="56"/>
       <c r="D106" s="6" t="s">
         <v>208</v>
       </c>
@@ -7893,12 +7910,12 @@
       <c r="L106" s="7">
         <v>25</v>
       </c>
-      <c r="M106" s="56"/>
+      <c r="M106" s="55"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="55"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="6" t="s">
         <v>147</v>
       </c>
@@ -7918,24 +7935,24 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="50"/>
+      <c r="M107" s="49"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="49"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="46" t="s">
+      <c r="J108" s="45" t="s">
         <v>234</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="49"/>
+      <c r="M108" s="48"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
@@ -7944,7 +7961,7 @@
       <c r="B109" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="50"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="6" t="s">
         <v>174</v>
       </c>
@@ -7963,14 +7980,14 @@
       <c r="I109" s="1">
         <v>6</v>
       </c>
-      <c r="J109" s="48"/>
+      <c r="J109" s="47"/>
       <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="L109" s="1">
         <v>7</v>
       </c>
-      <c r="M109" s="50"/>
+      <c r="M109" s="49"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
@@ -8208,7 +8225,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="49"/>
+      <c r="C117" s="48"/>
       <c r="D117" s="6" t="s">
         <v>214</v>
       </c>
@@ -8226,9 +8243,9 @@
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="46"/>
+      <c r="K117" s="45"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="49"/>
+      <c r="M117" s="48"/>
     </row>
     <row r="118" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
@@ -8237,7 +8254,7 @@
       <c r="B118" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="50"/>
+      <c r="C118" s="49"/>
       <c r="D118" s="6" t="s">
         <v>247</v>
       </c>
@@ -8259,11 +8276,11 @@
       <c r="J118" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K118" s="48"/>
+      <c r="K118" s="47"/>
       <c r="L118" s="1">
         <v>25</v>
       </c>
-      <c r="M118" s="50"/>
+      <c r="M118" s="49"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
@@ -8342,7 +8359,7 @@
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="49"/>
+      <c r="C121" s="48"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8352,7 +8369,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="49"/>
+      <c r="M121" s="48"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
@@ -8361,7 +8378,7 @@
       <c r="B122" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C122" s="56"/>
+      <c r="C122" s="55"/>
       <c r="D122" s="5" t="s">
         <v>211</v>
       </c>
@@ -8389,14 +8406,14 @@
       <c r="L122" s="7">
         <v>11</v>
       </c>
-      <c r="M122" s="56"/>
+      <c r="M122" s="55"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C123" s="50"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -8406,7 +8423,7 @@
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
-      <c r="M123" s="50"/>
+      <c r="M123" s="49"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
@@ -8520,13 +8537,13 @@
       <c r="M126" s="11"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="54">
+      <c r="A127" s="53">
         <v>58</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="49"/>
+      <c r="C127" s="48"/>
       <c r="D127" s="6" t="s">
         <v>231</v>
       </c>
@@ -8546,12 +8563,12 @@
       <c r="J127" s="7"/>
       <c r="K127" s="18"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="49"/>
+      <c r="M127" s="48"/>
     </row>
     <row r="128" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="55"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="50"/>
+      <c r="C128" s="49"/>
       <c r="D128" s="6" t="s">
         <v>251</v>
       </c>
@@ -8579,16 +8596,16 @@
       <c r="L128" s="1">
         <v>17</v>
       </c>
-      <c r="M128" s="50"/>
+      <c r="M128" s="49"/>
     </row>
     <row r="129" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="54">
+      <c r="A129" s="53">
         <v>59</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C129" s="49"/>
+      <c r="C129" s="48"/>
       <c r="D129" s="6" t="s">
         <v>198</v>
       </c>
@@ -8608,12 +8625,12 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="49"/>
+      <c r="M129" s="48"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="55"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="50"/>
+      <c r="C130" s="49"/>
       <c r="D130" s="6" t="s">
         <v>252</v>
       </c>
@@ -8641,12 +8658,12 @@
       <c r="L130" s="1">
         <v>12</v>
       </c>
-      <c r="M130" s="50"/>
+      <c r="M130" s="49"/>
     </row>
     <row r="131" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="49"/>
+      <c r="C131" s="48"/>
       <c r="D131" s="6" t="s">
         <v>253</v>
       </c>
@@ -8666,7 +8683,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="49"/>
+      <c r="M131" s="48"/>
     </row>
     <row r="132" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
@@ -8675,7 +8692,7 @@
       <c r="B132" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="50"/>
+      <c r="C132" s="49"/>
       <c r="D132" s="6" t="s">
         <v>218</v>
       </c>
@@ -8703,7 +8720,7 @@
       <c r="L132" s="1">
         <v>15</v>
       </c>
-      <c r="M132" s="50"/>
+      <c r="M132" s="49"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
@@ -8780,13 +8797,13 @@
       <c r="M134" s="11"/>
     </row>
     <row r="135" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="54">
+      <c r="A135" s="53">
         <v>63</v>
       </c>
-      <c r="B135" s="54" t="s">
+      <c r="B135" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C135" s="49"/>
+      <c r="C135" s="48"/>
       <c r="D135" s="6" t="s">
         <v>254</v>
       </c>
@@ -8803,17 +8820,17 @@
         <v>10</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="46" t="s">
+      <c r="J135" s="45" t="s">
         <v>255</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="49"/>
+      <c r="M135" s="48"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="55"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="50"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="49"/>
       <c r="D136" s="6" t="s">
         <v>256</v>
       </c>
@@ -8832,14 +8849,14 @@
       <c r="I136" s="1">
         <v>12</v>
       </c>
-      <c r="J136" s="48"/>
+      <c r="J136" s="47"/>
       <c r="K136" s="1">
         <v>1</v>
       </c>
       <c r="L136" s="1">
         <v>13</v>
       </c>
-      <c r="M136" s="50"/>
+      <c r="M136" s="49"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
@@ -8881,7 +8898,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="49"/>
+      <c r="C138" s="48"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -8891,7 +8908,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="49"/>
+      <c r="M138" s="48"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
@@ -8900,7 +8917,7 @@
       <c r="B139" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C139" s="50"/>
+      <c r="C139" s="49"/>
       <c r="D139" s="6" t="s">
         <v>154</v>
       </c>
@@ -8928,7 +8945,7 @@
       <c r="L139" s="1">
         <v>9</v>
       </c>
-      <c r="M139" s="50"/>
+      <c r="M139" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="218">

--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE62E43-C0C4-45AA-A7A5-F138505A6CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C894A8-5ACB-43DC-A4C3-6209ABF7543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="900" windowWidth="13710" windowHeight="13605" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
+    <workbookView xWindow="18885" yWindow="1815" windowWidth="13710" windowHeight="13605" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1163,19 +1163,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1185,18 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFB0B7-5F4A-46CA-9F3B-E68BA45E5504}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>11</v>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>11</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>11</v>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>11</v>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>11</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>11</v>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>11</v>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>11</v>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>11</v>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>11</v>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>11</v>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>11</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>11</v>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>11</v>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>11</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>11</v>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>11</v>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>11</v>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>11</v>
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>11</v>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="25" t="s">
         <v>11</v>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>11</v>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="25" t="s">
         <v>11</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>11</v>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" s="25" t="s">
         <v>11</v>
@@ -3127,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>11</v>
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>11</v>
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>11</v>
@@ -3307,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="25" t="s">
         <v>11</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31" s="25" t="s">
         <v>11</v>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I32" s="25" t="s">
         <v>11</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33" s="25" t="s">
         <v>11</v>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34" s="25" t="s">
         <v>11</v>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" s="25" t="s">
         <v>11</v>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I36" s="25" t="s">
         <v>11</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>11</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I38" s="25" t="s">
         <v>11</v>
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I39" s="25" t="s">
         <v>11</v>
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40" s="25" t="s">
         <v>11</v>
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I41" s="25" t="s">
         <v>11</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42" s="25" t="s">
         <v>11</v>
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43" s="25" t="s">
         <v>11</v>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I44" s="25" t="s">
         <v>11</v>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>11</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I46" s="25" t="s">
         <v>11</v>
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I47" s="25" t="s">
         <v>11</v>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I48" s="25" t="s">
         <v>11</v>
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>11</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>11</v>
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" s="25" t="s">
         <v>11</v>
@@ -4387,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52" s="25" t="s">
         <v>11</v>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I53" s="25" t="s">
         <v>11</v>
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I54" s="25" t="s">
         <v>11</v>
@@ -4525,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55" s="25" t="s">
         <v>11</v>
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56" s="25" t="s">
         <v>11</v>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I57" s="25" t="s">
         <v>11</v>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>11</v>
@@ -4709,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I59" s="25" t="s">
         <v>11</v>
@@ -4755,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I60" s="25" t="s">
         <v>11</v>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>11</v>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I62" s="25" t="s">
         <v>11</v>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I63" s="25" t="s">
         <v>11</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>11</v>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65" s="25" t="s">
         <v>11</v>
@@ -5039,47 +5039,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="45" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="49" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="1" t="s">
         <v>126</v>
       </c>
@@ -5089,18 +5089,18 @@
       <c r="G2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
@@ -5110,12 +5110,12 @@
       <c r="G3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5159,98 +5159,98 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="45" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="49">
         <v>24</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="49">
         <v>24</v>
       </c>
-      <c r="M5" s="45"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="49">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="45">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="49">
         <v>15</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="45">
+      <c r="H7" s="47"/>
+      <c r="I7" s="49">
         <v>15</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="49">
         <v>12</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="49">
         <v>27</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="54"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5274,12 +5274,12 @@
         <v>12</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="49" t="s">
         <v>140</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -5309,135 +5309,135 @@
       <c r="I10" s="1">
         <v>14</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="1">
         <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>26</v>
       </c>
-      <c r="M10" s="54"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="49">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="49">
         <v>4</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="49">
         <v>12</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="45">
+      <c r="G11" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="49">
         <v>16</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="49">
         <v>16</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="49">
         <v>12</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="49">
         <v>28</v>
       </c>
-      <c r="M11" s="53"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="54"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="49">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="45">
+      <c r="E13" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="49">
         <v>2</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="49">
         <v>12</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="49">
         <v>14</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="49">
         <v>14</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="49">
         <v>12</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="49">
         <v>26</v>
       </c>
-      <c r="M13" s="53"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="54"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
+      <c r="A15" s="49">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="49" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5454,19 +5454,19 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="49" t="s">
         <v>151</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="53"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="6" t="s">
         <v>141</v>
       </c>
@@ -5485,14 +5485,14 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="47"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="1">
         <v>13</v>
       </c>
       <c r="L16" s="1">
         <v>27</v>
       </c>
-      <c r="M16" s="54"/>
+      <c r="M16" s="46"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -5506,12 +5506,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="49" t="s">
         <v>153</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="48"/>
+      <c r="M17" s="47"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -5541,31 +5541,31 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="1">
         <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>29</v>
       </c>
-      <c r="M18" s="49"/>
+      <c r="M18" s="48"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="49" t="s">
         <v>155</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="48"/>
+      <c r="M19" s="47"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -5574,7 +5574,7 @@
       <c r="B20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="6" t="s">
         <v>154</v>
       </c>
@@ -5593,19 +5593,19 @@
       <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="1">
         <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="49"/>
+      <c r="M20" s="48"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="48"/>
+      <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -5626,7 +5626,7 @@
       <c r="B22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="6" t="s">
         <v>156</v>
       </c>
@@ -5654,12 +5654,12 @@
       <c r="L22" s="7">
         <v>29</v>
       </c>
-      <c r="M22" s="55"/>
+      <c r="M22" s="51"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="47"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="6" t="s">
         <v>147</v>
       </c>
@@ -5679,10 +5679,10 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="49"/>
+      <c r="M23" s="48"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="49">
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5700,10 +5700,10 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="48"/>
+      <c r="M24" s="47"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="6" t="s">
         <v>159</v>
       </c>
@@ -5737,10 +5737,10 @@
       <c r="L25" s="1">
         <v>31</v>
       </c>
-      <c r="M25" s="49"/>
+      <c r="M25" s="48"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="49">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5758,10 +5758,10 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="48"/>
+      <c r="M26" s="47"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="6" t="s">
         <v>162</v>
       </c>
@@ -5795,61 +5795,61 @@
       <c r="L27" s="1">
         <v>31</v>
       </c>
-      <c r="M27" s="49"/>
+      <c r="M27" s="48"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="49">
         <v>12</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="53" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="49">
         <v>14</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="49">
         <v>8</v>
       </c>
-      <c r="G28" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="45">
+      <c r="G28" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="49">
         <v>22</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="49">
         <v>22</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="49">
         <v>7</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="49">
         <v>29</v>
       </c>
-      <c r="M28" s="48"/>
+      <c r="M28" s="47"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="49"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="48"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="48"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -5907,32 +5907,32 @@
       <c r="L31" s="1">
         <v>29</v>
       </c>
-      <c r="M31" s="49"/>
+      <c r="M31" s="48"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="53" t="s">
+      <c r="C32" s="47"/>
+      <c r="D32" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="45">
+      <c r="E32" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="49">
         <v>4</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="49">
         <v>4</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="48"/>
+      <c r="M32" s="47"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -5941,24 +5941,24 @@
       <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="55"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="49"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="6" t="s">
         <v>172</v>
       </c>
@@ -5986,7 +5986,7 @@
       <c r="L34" s="1">
         <v>17</v>
       </c>
-      <c r="M34" s="49"/>
+      <c r="M34" s="48"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="48"/>
+      <c r="M35" s="47"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -6042,7 +6042,7 @@
       <c r="L36" s="1">
         <v>25</v>
       </c>
-      <c r="M36" s="49"/>
+      <c r="M36" s="48"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -6050,7 +6050,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="45" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="7"/>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="48"/>
+      <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -6075,7 +6075,7 @@
       <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="1">
         <v>12</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="L38" s="1">
         <v>31</v>
       </c>
-      <c r="M38" s="49"/>
+      <c r="M38" s="48"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -6108,7 +6108,7 @@
         <v>51</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="45" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="7"/>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="48"/>
+      <c r="M39" s="47"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -6133,7 +6133,7 @@
       <c r="C40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="1">
         <v>4</v>
       </c>
@@ -6158,25 +6158,25 @@
       <c r="L40" s="1">
         <v>31</v>
       </c>
-      <c r="M40" s="49"/>
+      <c r="M40" s="48"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="45">
+      <c r="E41" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="49">
         <v>16</v>
       </c>
-      <c r="G41" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="45">
+      <c r="G41" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="49">
         <v>16</v>
       </c>
       <c r="I41" s="7"/>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -6197,18 +6197,18 @@
       <c r="C42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
         <v>183</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="55"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
@@ -6241,32 +6241,32 @@
       <c r="L43" s="1">
         <v>32</v>
       </c>
-      <c r="M43" s="49"/>
+      <c r="M43" s="48"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="53"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="45">
+      <c r="E44" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="49">
         <v>4</v>
       </c>
-      <c r="G44" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="45">
+      <c r="G44" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="49">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="5"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="48"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -6275,26 +6275,26 @@
       <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
       <c r="I45" s="7"/>
       <c r="J45" s="5" t="s">
         <v>157</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="55"/>
+      <c r="M45" s="51"/>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="54"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="6" t="s">
         <v>187</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="L46" s="1">
         <v>15</v>
       </c>
-      <c r="M46" s="49"/>
+      <c r="M46" s="48"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -6337,7 +6337,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="48"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -6374,7 +6374,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="55"/>
+      <c r="M48" s="51"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -6405,7 +6405,7 @@
       <c r="L49" s="1">
         <v>33</v>
       </c>
-      <c r="M49" s="49"/>
+      <c r="M49" s="48"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="48"/>
+      <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -6453,7 +6453,7 @@
       <c r="L51" s="7">
         <v>29</v>
       </c>
-      <c r="M51" s="55"/>
+      <c r="M51" s="51"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -6476,7 +6476,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="55"/>
+      <c r="M52" s="51"/>
     </row>
     <row r="53" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -6503,7 +6503,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="49"/>
+      <c r="M53" s="48"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -6518,7 +6518,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="48"/>
+      <c r="M54" s="47"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="55"/>
+      <c r="M55" s="51"/>
     </row>
     <row r="56" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
@@ -6586,7 +6586,7 @@
       <c r="L56" s="1">
         <v>33</v>
       </c>
-      <c r="M56" s="49"/>
+      <c r="M56" s="48"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="48"/>
+      <c r="M57" s="47"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6642,7 +6642,7 @@
       <c r="L58" s="7">
         <v>31</v>
       </c>
-      <c r="M58" s="55"/>
+      <c r="M58" s="51"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -6659,13 +6659,13 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="49"/>
+      <c r="M59" s="48"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="45" t="s">
         <v>177</v>
       </c>
       <c r="E60" s="7"/>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="48"/>
+      <c r="M60" s="47"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -6690,7 +6690,7 @@
       <c r="C61" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="54"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="1" t="s">
         <v>139</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="L61" s="7">
         <v>31</v>
       </c>
-      <c r="M61" s="55"/>
+      <c r="M61" s="51"/>
     </row>
     <row r="62" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
@@ -6742,7 +6742,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="49"/>
+      <c r="M62" s="48"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -6751,29 +6751,29 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="53">
+      <c r="E63" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="45">
         <v>8</v>
       </c>
-      <c r="G63" s="45">
+      <c r="G63" s="49">
         <v>14</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="49">
         <v>24</v>
       </c>
-      <c r="I63" s="45">
+      <c r="I63" s="49">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="45">
+      <c r="L63" s="49">
         <v>31</v>
       </c>
-      <c r="M63" s="48"/>
+      <c r="M63" s="47"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -6788,19 +6788,19 @@
       <c r="D64" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="47"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
       <c r="J64" s="1" t="s">
         <v>205</v>
       </c>
       <c r="K64" s="1">
         <v>7</v>
       </c>
-      <c r="L64" s="47"/>
-      <c r="M64" s="49"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="48"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -6815,7 +6815,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="48"/>
+      <c r="M65" s="47"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="55"/>
+      <c r="M66" s="51"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
@@ -6873,7 +6873,7 @@
       <c r="L67" s="7">
         <v>29</v>
       </c>
-      <c r="M67" s="55"/>
+      <c r="M67" s="51"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -6888,7 +6888,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="49"/>
+      <c r="M68" s="48"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="48"/>
+      <c r="M69" s="47"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -6946,7 +6946,7 @@
       <c r="L70" s="1">
         <v>31</v>
       </c>
-      <c r="M70" s="49"/>
+      <c r="M70" s="48"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="48"/>
+      <c r="M71" s="47"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -7002,7 +7002,7 @@
       <c r="L72" s="7">
         <v>31</v>
       </c>
-      <c r="M72" s="55"/>
+      <c r="M72" s="51"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -7019,7 +7019,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="49"/>
+      <c r="M73" s="48"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
@@ -7044,7 +7044,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="48"/>
+      <c r="M74" s="47"/>
     </row>
     <row r="75" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -7083,10 +7083,10 @@
       <c r="L75" s="1">
         <v>23</v>
       </c>
-      <c r="M75" s="49"/>
+      <c r="M75" s="48"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45">
+      <c r="A76" s="49">
         <v>30</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -7112,10 +7112,10 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="48"/>
+      <c r="M76" s="47"/>
     </row>
     <row r="77" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="47"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="6" t="s">
         <v>219</v>
       </c>
@@ -7149,13 +7149,13 @@
       <c r="L77" s="1">
         <v>32</v>
       </c>
-      <c r="M77" s="49"/>
+      <c r="M77" s="48"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="53">
+      <c r="A78" s="45">
         <v>31</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="45" t="s">
         <v>222</v>
       </c>
       <c r="C78" s="5"/>
@@ -7165,16 +7165,16 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="45" t="s">
+      <c r="J78" s="49" t="s">
         <v>223</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="48"/>
+      <c r="M78" s="47"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="1" t="s">
         <v>131</v>
       </c>
@@ -7196,17 +7196,17 @@
       <c r="I79" s="1">
         <v>18</v>
       </c>
-      <c r="J79" s="47"/>
+      <c r="J79" s="50"/>
       <c r="K79" s="1">
         <v>7</v>
       </c>
       <c r="L79" s="1">
         <v>25</v>
       </c>
-      <c r="M79" s="49"/>
+      <c r="M79" s="48"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="53">
+      <c r="A80" s="45">
         <v>32</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -7214,30 +7214,30 @@
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G80" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" s="45">
+      <c r="E80" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="49">
         <v>24</v>
       </c>
-      <c r="I80" s="45">
+      <c r="I80" s="49">
         <v>24</v>
       </c>
-      <c r="J80" s="45" t="s">
+      <c r="J80" s="49" t="s">
         <v>226</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="48"/>
+      <c r="M80" s="47"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="54"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="6" t="s">
         <v>224</v>
       </c>
@@ -7247,19 +7247,19 @@
       <c r="D81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
       <c r="K81" s="1">
         <v>10</v>
       </c>
       <c r="L81" s="1">
         <v>34</v>
       </c>
-      <c r="M81" s="49"/>
+      <c r="M81" s="48"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -7274,7 +7274,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="45"/>
+      <c r="M82" s="49"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -7313,7 +7313,7 @@
       <c r="L83" s="7">
         <v>24</v>
       </c>
-      <c r="M83" s="46"/>
+      <c r="M83" s="52"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -7330,32 +7330,32 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="M84" s="47"/>
+      <c r="M84" s="50"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="49">
         <v>12</v>
       </c>
-      <c r="F85" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G85" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="45">
+      <c r="F85" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="49">
         <v>12</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="48"/>
+      <c r="M85" s="47"/>
     </row>
     <row r="86" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
@@ -7367,11 +7367,11 @@
       <c r="C86" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="54"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
       <c r="I86" s="7">
         <v>24</v>
       </c>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="55"/>
+      <c r="M86" s="51"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
@@ -7388,7 +7388,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="12"/>
-      <c r="D87" s="53" t="s">
+      <c r="D87" s="45" t="s">
         <v>198</v>
       </c>
       <c r="E87" s="7"/>
@@ -7403,13 +7403,13 @@
       <c r="L87" s="7">
         <v>30</v>
       </c>
-      <c r="M87" s="55"/>
+      <c r="M87" s="51"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="54"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="1" t="s">
         <v>139</v>
       </c>
@@ -7426,10 +7426,10 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
-      <c r="M88" s="49"/>
+      <c r="M88" s="48"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="53">
+      <c r="A89" s="45">
         <v>35</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7441,16 +7441,16 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="53">
+      <c r="I89" s="45">
         <v>24</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="48"/>
+      <c r="M89" s="47"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="6" t="s">
         <v>233</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="H90" s="1">
         <v>24</v>
       </c>
-      <c r="I90" s="54"/>
+      <c r="I90" s="46"/>
       <c r="J90" s="1" t="s">
         <v>234</v>
       </c>
@@ -7482,119 +7482,119 @@
       <c r="L90" s="1">
         <v>25</v>
       </c>
-      <c r="M90" s="49"/>
+      <c r="M90" s="48"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="53">
+      <c r="A91" s="45">
         <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="53" t="s">
+      <c r="D91" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="E91" s="45">
+      <c r="E91" s="49">
         <v>12</v>
       </c>
-      <c r="F91" s="45">
+      <c r="F91" s="49">
         <v>12</v>
       </c>
-      <c r="G91" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H91" s="45">
+      <c r="G91" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91" s="49">
         <v>24</v>
       </c>
-      <c r="I91" s="45">
+      <c r="I91" s="49">
         <v>24</v>
       </c>
-      <c r="J91" s="45" t="s">
+      <c r="J91" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="K91" s="45">
-        <v>1</v>
-      </c>
-      <c r="L91" s="45">
+      <c r="K91" s="49">
+        <v>1</v>
+      </c>
+      <c r="L91" s="49">
         <v>25</v>
       </c>
-      <c r="M91" s="48"/>
+      <c r="M91" s="47"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="54"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D92" s="54"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="49"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="50"/>
+      <c r="M92" s="48"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="53">
+      <c r="A93" s="45">
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="53" t="s">
+      <c r="D93" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="E93" s="45">
+      <c r="E93" s="49">
         <v>21</v>
       </c>
-      <c r="F93" s="45">
+      <c r="F93" s="49">
         <v>3</v>
       </c>
-      <c r="G93" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H93" s="45">
+      <c r="G93" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="49">
         <v>24</v>
       </c>
-      <c r="I93" s="45">
+      <c r="I93" s="49">
         <v>24</v>
       </c>
-      <c r="J93" s="45" t="s">
+      <c r="J93" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="K93" s="45">
-        <v>1</v>
-      </c>
-      <c r="L93" s="45">
+      <c r="K93" s="49">
+        <v>1</v>
+      </c>
+      <c r="L93" s="49">
         <v>25</v>
       </c>
-      <c r="M93" s="48"/>
+      <c r="M93" s="47"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="54"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="49"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="48"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -7619,7 +7619,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="45"/>
+      <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
@@ -7658,12 +7658,12 @@
       <c r="L96" s="1">
         <v>30</v>
       </c>
-      <c r="M96" s="47"/>
+      <c r="M96" s="50"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="53"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="45"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -7673,12 +7673,12 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="48"/>
+      <c r="M97" s="47"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="54"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="46"/>
       <c r="D98" s="6" t="s">
         <v>144</v>
       </c>
@@ -7706,24 +7706,24 @@
       <c r="L98" s="1">
         <v>25</v>
       </c>
-      <c r="M98" s="49"/>
+      <c r="M98" s="48"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="48"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="45" t="s">
+      <c r="J99" s="49" t="s">
         <v>240</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="48"/>
+      <c r="M99" s="47"/>
     </row>
     <row r="100" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
@@ -7732,7 +7732,7 @@
       <c r="B100" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="49"/>
+      <c r="C100" s="48"/>
       <c r="D100" s="6" t="s">
         <v>239</v>
       </c>
@@ -7751,54 +7751,54 @@
       <c r="I100" s="1">
         <v>24</v>
       </c>
-      <c r="J100" s="47"/>
+      <c r="J100" s="50"/>
       <c r="K100" s="1">
         <v>6</v>
       </c>
       <c r="L100" s="1">
         <v>30</v>
       </c>
-      <c r="M100" s="49"/>
+      <c r="M100" s="48"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="53" t="s">
+      <c r="C101" s="47"/>
+      <c r="D101" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="E101" s="45">
+      <c r="E101" s="49">
         <v>9</v>
       </c>
-      <c r="F101" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G101" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H101" s="45">
+      <c r="F101" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G101" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="49">
         <v>9</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="45"/>
+      <c r="K101" s="49"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="48"/>
+      <c r="M101" s="47"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="46"/>
+      <c r="K102" s="52"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="55"/>
+      <c r="M102" s="51"/>
     </row>
     <row r="103" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
@@ -7807,7 +7807,7 @@
       <c r="B103" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="55"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="6" t="s">
         <v>243</v>
       </c>
@@ -7829,16 +7829,16 @@
       <c r="J103" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K103" s="46"/>
+      <c r="K103" s="52"/>
       <c r="L103" s="7">
         <v>26</v>
       </c>
-      <c r="M103" s="55"/>
+      <c r="M103" s="51"/>
     </row>
     <row r="104" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="49"/>
+      <c r="C104" s="48"/>
       <c r="D104" s="6" t="s">
         <v>218</v>
       </c>
@@ -7856,14 +7856,14 @@
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="47"/>
+      <c r="K104" s="50"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="49"/>
+      <c r="M104" s="48"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="53"/>
+      <c r="C105" s="45"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -7873,7 +7873,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="48"/>
+      <c r="M105" s="47"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
@@ -7882,7 +7882,7 @@
       <c r="B106" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="56"/>
+      <c r="C106" s="53"/>
       <c r="D106" s="6" t="s">
         <v>208</v>
       </c>
@@ -7910,12 +7910,12 @@
       <c r="L106" s="7">
         <v>25</v>
       </c>
-      <c r="M106" s="55"/>
+      <c r="M106" s="51"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="54"/>
+      <c r="C107" s="46"/>
       <c r="D107" s="6" t="s">
         <v>147</v>
       </c>
@@ -7935,24 +7935,24 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="49"/>
+      <c r="M107" s="48"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="48"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="45" t="s">
+      <c r="J108" s="49" t="s">
         <v>234</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="48"/>
+      <c r="M108" s="47"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
@@ -7961,7 +7961,7 @@
       <c r="B109" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="49"/>
+      <c r="C109" s="48"/>
       <c r="D109" s="6" t="s">
         <v>174</v>
       </c>
@@ -7980,14 +7980,14 @@
       <c r="I109" s="1">
         <v>6</v>
       </c>
-      <c r="J109" s="47"/>
+      <c r="J109" s="50"/>
       <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="L109" s="1">
         <v>7</v>
       </c>
-      <c r="M109" s="49"/>
+      <c r="M109" s="48"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
@@ -8225,7 +8225,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="48"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="6" t="s">
         <v>214</v>
       </c>
@@ -8243,9 +8243,9 @@
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="45"/>
+      <c r="K117" s="49"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="48"/>
+      <c r="M117" s="47"/>
     </row>
     <row r="118" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
@@ -8254,7 +8254,7 @@
       <c r="B118" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="49"/>
+      <c r="C118" s="48"/>
       <c r="D118" s="6" t="s">
         <v>247</v>
       </c>
@@ -8276,11 +8276,11 @@
       <c r="J118" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K118" s="47"/>
+      <c r="K118" s="50"/>
       <c r="L118" s="1">
         <v>25</v>
       </c>
-      <c r="M118" s="49"/>
+      <c r="M118" s="48"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
@@ -8359,7 +8359,7 @@
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="48"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8369,7 +8369,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="48"/>
+      <c r="M121" s="47"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
@@ -8378,7 +8378,7 @@
       <c r="B122" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C122" s="55"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="5" t="s">
         <v>211</v>
       </c>
@@ -8406,14 +8406,14 @@
       <c r="L122" s="7">
         <v>11</v>
       </c>
-      <c r="M122" s="55"/>
+      <c r="M122" s="51"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C123" s="49"/>
+      <c r="C123" s="48"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -8423,7 +8423,7 @@
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
-      <c r="M123" s="49"/>
+      <c r="M123" s="48"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
@@ -8537,13 +8537,13 @@
       <c r="M126" s="11"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="53">
+      <c r="A127" s="45">
         <v>58</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="48"/>
+      <c r="C127" s="47"/>
       <c r="D127" s="6" t="s">
         <v>231</v>
       </c>
@@ -8563,12 +8563,12 @@
       <c r="J127" s="7"/>
       <c r="K127" s="18"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="48"/>
+      <c r="M127" s="47"/>
     </row>
     <row r="128" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="54"/>
+      <c r="A128" s="46"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="49"/>
+      <c r="C128" s="48"/>
       <c r="D128" s="6" t="s">
         <v>251</v>
       </c>
@@ -8596,16 +8596,16 @@
       <c r="L128" s="1">
         <v>17</v>
       </c>
-      <c r="M128" s="49"/>
+      <c r="M128" s="48"/>
     </row>
     <row r="129" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="53">
+      <c r="A129" s="45">
         <v>59</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C129" s="48"/>
+      <c r="C129" s="47"/>
       <c r="D129" s="6" t="s">
         <v>198</v>
       </c>
@@ -8625,12 +8625,12 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="48"/>
+      <c r="M129" s="47"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="54"/>
+      <c r="A130" s="46"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="49"/>
+      <c r="C130" s="48"/>
       <c r="D130" s="6" t="s">
         <v>252</v>
       </c>
@@ -8658,12 +8658,12 @@
       <c r="L130" s="1">
         <v>12</v>
       </c>
-      <c r="M130" s="49"/>
+      <c r="M130" s="48"/>
     </row>
     <row r="131" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="48"/>
+      <c r="C131" s="47"/>
       <c r="D131" s="6" t="s">
         <v>253</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="48"/>
+      <c r="M131" s="47"/>
     </row>
     <row r="132" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
@@ -8692,7 +8692,7 @@
       <c r="B132" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="49"/>
+      <c r="C132" s="48"/>
       <c r="D132" s="6" t="s">
         <v>218</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="L132" s="1">
         <v>15</v>
       </c>
-      <c r="M132" s="49"/>
+      <c r="M132" s="48"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
@@ -8797,13 +8797,13 @@
       <c r="M134" s="11"/>
     </row>
     <row r="135" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="53">
+      <c r="A135" s="45">
         <v>63</v>
       </c>
-      <c r="B135" s="53" t="s">
+      <c r="B135" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C135" s="48"/>
+      <c r="C135" s="47"/>
       <c r="D135" s="6" t="s">
         <v>254</v>
       </c>
@@ -8820,17 +8820,17 @@
         <v>10</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="45" t="s">
+      <c r="J135" s="49" t="s">
         <v>255</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="48"/>
+      <c r="M135" s="47"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="54"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="49"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="48"/>
       <c r="D136" s="6" t="s">
         <v>256</v>
       </c>
@@ -8849,14 +8849,14 @@
       <c r="I136" s="1">
         <v>12</v>
       </c>
-      <c r="J136" s="47"/>
+      <c r="J136" s="50"/>
       <c r="K136" s="1">
         <v>1</v>
       </c>
       <c r="L136" s="1">
         <v>13</v>
       </c>
-      <c r="M136" s="49"/>
+      <c r="M136" s="48"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
@@ -8898,7 +8898,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="48"/>
+      <c r="C138" s="47"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -8908,7 +8908,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="48"/>
+      <c r="M138" s="47"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
@@ -8917,7 +8917,7 @@
       <c r="B139" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C139" s="49"/>
+      <c r="C139" s="48"/>
       <c r="D139" s="6" t="s">
         <v>154</v>
       </c>
@@ -8945,205 +8945,10 @@
       <c r="L139" s="1">
         <v>9</v>
       </c>
-      <c r="M139" s="49"/>
+      <c r="M139" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="M138:M139"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="M121:M123"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:K3"/>
@@ -9167,6 +8972,201 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="M121:M123"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="M138:M139"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="M131:M132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C894A8-5ACB-43DC-A4C3-6209ABF7543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD504215-4893-4CD3-9A13-DCA8463CBC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18885" yWindow="1815" windowWidth="13710" windowHeight="13605" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="261">
   <si>
     <t>nip</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>Ramlan S.Pd</t>
+  </si>
+  <si>
+    <t>educationLevelId</t>
   </si>
 </sst>
 </file>
@@ -1163,31 +1166,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1197,6 +1188,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1516,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFB0B7-5F4A-46CA-9F3B-E68BA45E5504}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,14 +1542,15 @@
     <col min="13" max="13" width="6.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="28"/>
+    <col min="16" max="16" width="8" style="28" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1592,20 +1596,23 @@
       <c r="O1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -1652,20 +1659,23 @@
       <c r="O2" s="34">
         <v>1</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="25">
         <v>81</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="R2" s="25">
         <v>7</v>
       </c>
-      <c r="R2" s="36">
+      <c r="S2" s="36">
         <v>1993</v>
       </c>
-      <c r="S2" s="37">
+      <c r="T2" s="37">
         <v>41365</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -1712,20 +1722,23 @@
       <c r="O3" s="34">
         <v>2</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="34">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="25">
         <v>81</v>
       </c>
-      <c r="Q3" s="38">
-        <v>1</v>
-      </c>
       <c r="R3" s="38">
+        <v>1</v>
+      </c>
+      <c r="S3" s="38">
         <v>2013</v>
       </c>
-      <c r="S3" s="35">
+      <c r="T3" s="35">
         <v>43374</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>36</v>
       </c>
@@ -1772,20 +1785,23 @@
       <c r="O4" s="34">
         <v>2</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="25">
         <v>81</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="R4" s="38">
         <v>10</v>
       </c>
-      <c r="R4" s="38">
+      <c r="S4" s="38">
         <v>2003</v>
       </c>
-      <c r="S4" s="35">
+      <c r="T4" s="35">
         <v>43556</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>257</v>
       </c>
@@ -1832,20 +1848,23 @@
       <c r="O5" s="34">
         <v>2</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="25">
         <v>81</v>
       </c>
-      <c r="Q5" s="38">
-        <v>1</v>
-      </c>
       <c r="R5" s="38">
+        <v>1</v>
+      </c>
+      <c r="S5" s="38">
         <v>1998</v>
       </c>
-      <c r="S5" s="35">
+      <c r="T5" s="35">
         <v>44105</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>38</v>
       </c>
@@ -1892,20 +1911,23 @@
       <c r="O6" s="34">
         <v>1</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="25">
         <v>81</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="R6" s="38">
         <v>16</v>
       </c>
-      <c r="R6" s="38">
+      <c r="S6" s="38">
         <v>1994</v>
       </c>
-      <c r="S6" s="35">
+      <c r="T6" s="35">
         <v>44287</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>40</v>
       </c>
@@ -1952,20 +1974,23 @@
       <c r="O7" s="34">
         <v>1</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="25">
         <v>81</v>
       </c>
-      <c r="Q7" s="38">
-        <v>1</v>
-      </c>
       <c r="R7" s="38">
+        <v>1</v>
+      </c>
+      <c r="S7" s="38">
         <v>2001</v>
       </c>
-      <c r="S7" s="35">
+      <c r="T7" s="35">
         <v>44652</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>41</v>
       </c>
@@ -2012,20 +2037,23 @@
       <c r="O8" s="34">
         <v>2</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="25">
         <v>81</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="R8" s="38">
         <v>16</v>
       </c>
-      <c r="R8" s="38">
+      <c r="S8" s="38">
         <v>1993</v>
       </c>
-      <c r="S8" s="35">
+      <c r="T8" s="35">
         <v>44835</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>43</v>
       </c>
@@ -2072,20 +2100,23 @@
       <c r="O9" s="34">
         <v>1</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="25">
         <v>81</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="R9" s="38">
         <v>13</v>
       </c>
-      <c r="R9" s="38">
+      <c r="S9" s="38">
         <v>1990</v>
       </c>
-      <c r="S9" s="35">
+      <c r="T9" s="35">
         <v>44835</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>45</v>
       </c>
@@ -2132,20 +2163,23 @@
       <c r="O10" s="34">
         <v>1</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="25">
         <v>81</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="R10" s="38">
         <v>2</v>
       </c>
-      <c r="R10" s="38">
+      <c r="S10" s="38">
         <v>1997</v>
       </c>
-      <c r="S10" s="35">
+      <c r="T10" s="35">
         <v>44835</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>47</v>
       </c>
@@ -2192,20 +2226,23 @@
       <c r="O11" s="34">
         <v>1</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="25">
         <v>81</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="R11" s="38">
         <v>16</v>
       </c>
-      <c r="R11" s="38">
+      <c r="S11" s="38">
         <v>1995</v>
       </c>
-      <c r="S11" s="35">
+      <c r="T11" s="35">
         <v>45200</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
         <v>113</v>
@@ -2250,20 +2287,23 @@
       <c r="O12" s="34">
         <v>1</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="25">
         <v>81</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="R12" s="38">
         <v>14</v>
       </c>
-      <c r="R12" s="38">
+      <c r="S12" s="38">
         <v>1997</v>
       </c>
-      <c r="S12" s="35">
+      <c r="T12" s="35">
         <v>40269</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>258</v>
       </c>
@@ -2310,20 +2350,23 @@
       <c r="O13" s="34">
         <v>1</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="25">
         <v>81</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="R13" s="36">
         <v>6</v>
       </c>
-      <c r="R13" s="38">
+      <c r="S13" s="38">
         <v>1993</v>
       </c>
-      <c r="S13" s="39">
+      <c r="T13" s="39">
         <v>40269</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>50</v>
       </c>
@@ -2370,20 +2413,23 @@
       <c r="O14" s="34">
         <v>2</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="25">
         <v>81</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="R14" s="38">
         <v>3</v>
       </c>
-      <c r="R14" s="38">
+      <c r="S14" s="38">
         <v>1989</v>
       </c>
-      <c r="S14" s="35">
+      <c r="T14" s="35">
         <v>41000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>52</v>
       </c>
@@ -2430,20 +2476,23 @@
       <c r="O15" s="34">
         <v>2</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="25">
         <v>81</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="R15" s="38">
         <v>4</v>
       </c>
-      <c r="R15" s="38">
+      <c r="S15" s="38">
         <v>1991</v>
       </c>
-      <c r="S15" s="35">
+      <c r="T15" s="35">
         <v>41000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>54</v>
       </c>
@@ -2490,20 +2539,23 @@
       <c r="O16" s="34">
         <v>1</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="25">
         <v>81</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="R16" s="38">
         <v>5</v>
       </c>
-      <c r="R16" s="38">
+      <c r="S16" s="38">
         <v>1995</v>
       </c>
-      <c r="S16" s="35">
+      <c r="T16" s="35">
         <v>41000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>56</v>
       </c>
@@ -2550,20 +2602,23 @@
       <c r="O17" s="34">
         <v>4</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="25">
         <v>81</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="R17" s="38">
         <v>4</v>
       </c>
-      <c r="R17" s="38">
+      <c r="S17" s="38">
         <v>1996</v>
       </c>
-      <c r="S17" s="35">
+      <c r="T17" s="35">
         <v>41000</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>58</v>
       </c>
@@ -2610,20 +2665,23 @@
       <c r="O18" s="34">
         <v>1</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="25">
         <v>81</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="R18" s="38">
         <v>11</v>
       </c>
-      <c r="R18" s="38">
+      <c r="S18" s="38">
         <v>1996</v>
       </c>
-      <c r="S18" s="35">
+      <c r="T18" s="35">
         <v>41000</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>60</v>
       </c>
@@ -2670,20 +2728,23 @@
       <c r="O19" s="34">
         <v>4</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="25">
         <v>81</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="R19" s="38">
         <v>6</v>
       </c>
-      <c r="R19" s="38">
+      <c r="S19" s="38">
         <v>1993</v>
       </c>
-      <c r="S19" s="35">
+      <c r="T19" s="35">
         <v>41000</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>62</v>
       </c>
@@ -2730,20 +2791,23 @@
       <c r="O20" s="34">
         <v>2</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="25">
         <v>81</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="R20" s="38">
         <v>8</v>
       </c>
-      <c r="R20" s="38">
+      <c r="S20" s="38">
         <v>1999</v>
       </c>
-      <c r="S20" s="35">
+      <c r="T20" s="35">
         <v>42461</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>63</v>
       </c>
@@ -2790,20 +2854,23 @@
       <c r="O21" s="34">
         <v>1</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="25">
         <v>81</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="R21" s="38">
         <v>13</v>
       </c>
-      <c r="R21" s="38">
+      <c r="S21" s="38">
         <v>1998</v>
       </c>
-      <c r="S21" s="35">
+      <c r="T21" s="35">
         <v>42461</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>64</v>
       </c>
@@ -2850,20 +2917,23 @@
       <c r="O22" s="34">
         <v>3</v>
       </c>
-      <c r="P22" s="25">
+      <c r="P22" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="25">
         <v>81</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="R22" s="38">
         <v>9</v>
       </c>
-      <c r="R22" s="38">
+      <c r="S22" s="38">
         <v>2001</v>
       </c>
-      <c r="S22" s="35">
+      <c r="T22" s="35">
         <v>43191</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>66</v>
       </c>
@@ -2910,20 +2980,23 @@
       <c r="O23" s="34">
         <v>2</v>
       </c>
-      <c r="P23" s="25">
+      <c r="P23" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="25">
         <v>81</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="R23" s="38">
         <v>16</v>
       </c>
-      <c r="R23" s="38">
+      <c r="S23" s="38">
         <v>2004</v>
       </c>
-      <c r="S23" s="35">
+      <c r="T23" s="35">
         <v>45200</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>68</v>
       </c>
@@ -2970,20 +3043,23 @@
       <c r="O24" s="34">
         <v>1</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P24" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="25">
         <v>81</v>
       </c>
-      <c r="Q24" s="41">
+      <c r="R24" s="41">
         <v>10</v>
       </c>
-      <c r="R24" s="41">
+      <c r="S24" s="41">
         <v>2003</v>
       </c>
-      <c r="S24" s="40">
+      <c r="T24" s="40">
         <v>41913</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>70</v>
       </c>
@@ -3030,20 +3106,23 @@
       <c r="O25" s="34">
         <v>1</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="25">
         <v>81</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="R25" s="38">
         <v>14</v>
       </c>
-      <c r="R25" s="38">
+      <c r="S25" s="38">
         <v>2003</v>
       </c>
-      <c r="S25" s="35">
+      <c r="T25" s="35">
         <v>42461</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>72</v>
       </c>
@@ -3090,20 +3169,23 @@
       <c r="O26" s="34">
         <v>1</v>
       </c>
-      <c r="P26" s="25">
+      <c r="P26" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="25">
         <v>81</v>
       </c>
-      <c r="Q26" s="41">
+      <c r="R26" s="41">
         <v>11</v>
       </c>
-      <c r="R26" s="41">
+      <c r="S26" s="41">
         <v>2002</v>
       </c>
-      <c r="S26" s="40">
+      <c r="T26" s="40">
         <v>43009</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>73</v>
       </c>
@@ -3150,20 +3232,23 @@
       <c r="O27" s="34">
         <v>3</v>
       </c>
-      <c r="P27" s="25">
+      <c r="P27" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="25">
         <v>81</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="R27" s="38">
         <v>14</v>
       </c>
-      <c r="R27" s="38">
+      <c r="S27" s="38">
         <v>1999</v>
       </c>
-      <c r="S27" s="35">
+      <c r="T27" s="35">
         <v>45200</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>75</v>
       </c>
@@ -3210,20 +3295,23 @@
       <c r="O28" s="34">
         <v>1</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="25">
         <v>81</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="R28" s="38">
         <v>14</v>
       </c>
-      <c r="R28" s="38">
+      <c r="S28" s="38">
         <v>2005</v>
       </c>
-      <c r="S28" s="35">
+      <c r="T28" s="35">
         <v>44470</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>77</v>
       </c>
@@ -3270,20 +3358,23 @@
       <c r="O29" s="34">
         <v>1</v>
       </c>
-      <c r="P29" s="25">
+      <c r="P29" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="25">
         <v>81</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="R29" s="38">
         <v>12</v>
       </c>
-      <c r="R29" s="38">
+      <c r="S29" s="38">
         <v>2007</v>
       </c>
-      <c r="S29" s="35">
+      <c r="T29" s="35">
         <v>45017</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>79</v>
       </c>
@@ -3330,20 +3421,23 @@
       <c r="O30" s="34">
         <v>2</v>
       </c>
-      <c r="P30" s="25">
+      <c r="P30" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="25">
         <v>81</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="R30" s="38">
         <v>5</v>
       </c>
-      <c r="R30" s="38">
+      <c r="S30" s="38">
         <v>2000</v>
       </c>
-      <c r="S30" s="35">
+      <c r="T30" s="35">
         <v>42826</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>80</v>
       </c>
@@ -3390,20 +3484,23 @@
       <c r="O31" s="34">
         <v>2</v>
       </c>
-      <c r="P31" s="25">
+      <c r="P31" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="25">
         <v>81</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="R31" s="38">
         <v>13</v>
       </c>
-      <c r="R31" s="38">
+      <c r="S31" s="38">
         <v>1998</v>
       </c>
-      <c r="S31" s="35">
+      <c r="T31" s="35">
         <v>45200</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>81</v>
       </c>
@@ -3450,20 +3547,23 @@
       <c r="O32" s="34">
         <v>4</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="25">
         <v>81</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="R32" s="38">
         <v>14</v>
       </c>
-      <c r="R32" s="38">
+      <c r="S32" s="38">
         <v>1991</v>
       </c>
-      <c r="S32" s="35">
+      <c r="T32" s="35">
         <v>45931</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="30" t="s">
         <v>83</v>
@@ -3508,20 +3608,23 @@
       <c r="O33" s="34">
         <v>1</v>
       </c>
-      <c r="P33" s="25">
+      <c r="P33" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="25">
         <v>81</v>
       </c>
-      <c r="Q33" s="38">
+      <c r="R33" s="38">
         <v>14</v>
       </c>
-      <c r="R33" s="38">
+      <c r="S33" s="38">
         <v>2011</v>
       </c>
-      <c r="S33" s="37">
+      <c r="T33" s="37">
         <v>44986</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="30" t="s">
         <v>84</v>
@@ -3560,18 +3663,21 @@
       <c r="M34" s="25"/>
       <c r="N34" s="35"/>
       <c r="O34" s="25"/>
-      <c r="P34" s="25">
+      <c r="P34" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="25">
         <v>81</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="R34" s="38">
         <v>14</v>
       </c>
-      <c r="R34" s="38">
+      <c r="S34" s="38">
         <v>2011</v>
       </c>
-      <c r="S34" s="37"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="37"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
         <v>85</v>
@@ -3610,18 +3716,21 @@
       <c r="M35" s="25"/>
       <c r="N35" s="35"/>
       <c r="O35" s="25"/>
-      <c r="P35" s="25">
+      <c r="P35" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="25">
         <v>81</v>
       </c>
-      <c r="Q35" s="38">
+      <c r="R35" s="38">
         <v>14</v>
       </c>
-      <c r="R35" s="38">
+      <c r="S35" s="38">
         <v>2011</v>
       </c>
-      <c r="S35" s="37"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="37"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="30" t="s">
         <v>86</v>
@@ -3660,18 +3769,21 @@
       <c r="M36" s="25"/>
       <c r="N36" s="43"/>
       <c r="O36" s="25"/>
-      <c r="P36" s="25">
+      <c r="P36" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="25">
         <v>81</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="R36" s="38">
         <v>14</v>
       </c>
-      <c r="R36" s="38">
+      <c r="S36" s="38">
         <v>2011</v>
       </c>
-      <c r="S36" s="43"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="43"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="30" t="s">
         <v>87</v>
@@ -3710,18 +3822,21 @@
       <c r="M37" s="25"/>
       <c r="N37" s="43"/>
       <c r="O37" s="25"/>
-      <c r="P37" s="25">
+      <c r="P37" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="25">
         <v>81</v>
       </c>
-      <c r="Q37" s="38">
+      <c r="R37" s="38">
         <v>14</v>
       </c>
-      <c r="R37" s="38">
+      <c r="S37" s="38">
         <v>2011</v>
       </c>
-      <c r="S37" s="43"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="43"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="30" t="s">
         <v>88</v>
@@ -3757,17 +3872,20 @@
       <c r="L38" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="25">
+      <c r="P38" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="25">
         <v>81</v>
       </c>
-      <c r="Q38" s="38">
+      <c r="R38" s="38">
         <v>14</v>
       </c>
-      <c r="R38" s="38">
+      <c r="S38" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
         <v>89</v>
@@ -3803,17 +3921,20 @@
       <c r="L39" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="25">
+      <c r="P39" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="25">
         <v>81</v>
       </c>
-      <c r="Q39" s="38">
+      <c r="R39" s="38">
         <v>14</v>
       </c>
-      <c r="R39" s="38">
+      <c r="S39" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="30" t="s">
         <v>90</v>
@@ -3849,17 +3970,20 @@
       <c r="L40" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P40" s="25">
+      <c r="P40" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="25">
         <v>81</v>
       </c>
-      <c r="Q40" s="38">
+      <c r="R40" s="38">
         <v>14</v>
       </c>
-      <c r="R40" s="38">
+      <c r="S40" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="30" t="s">
         <v>91</v>
@@ -3895,17 +4019,20 @@
       <c r="L41" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="25">
+      <c r="P41" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="25">
         <v>81</v>
       </c>
-      <c r="Q41" s="38">
+      <c r="R41" s="38">
         <v>14</v>
       </c>
-      <c r="R41" s="38">
+      <c r="S41" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="30" t="s">
         <v>92</v>
@@ -3941,17 +4068,20 @@
       <c r="L42" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="25">
+      <c r="P42" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="25">
         <v>81</v>
       </c>
-      <c r="Q42" s="38">
+      <c r="R42" s="38">
         <v>14</v>
       </c>
-      <c r="R42" s="38">
+      <c r="S42" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="30" t="s">
         <v>93</v>
@@ -3987,17 +4117,20 @@
       <c r="L43" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P43" s="25">
+      <c r="P43" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="25">
         <v>81</v>
       </c>
-      <c r="Q43" s="38">
+      <c r="R43" s="38">
         <v>14</v>
       </c>
-      <c r="R43" s="38">
+      <c r="S43" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="30" t="s">
         <v>94</v>
@@ -4033,17 +4166,20 @@
       <c r="L44" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P44" s="25">
+      <c r="P44" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="25">
         <v>81</v>
       </c>
-      <c r="Q44" s="38">
+      <c r="R44" s="38">
         <v>14</v>
       </c>
-      <c r="R44" s="38">
+      <c r="S44" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="30" t="s">
         <v>95</v>
@@ -4079,17 +4215,20 @@
       <c r="L45" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="25">
+      <c r="P45" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="25">
         <v>81</v>
       </c>
-      <c r="Q45" s="38">
+      <c r="R45" s="38">
         <v>14</v>
       </c>
-      <c r="R45" s="38">
+      <c r="S45" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="30" t="s">
         <v>96</v>
@@ -4125,17 +4264,20 @@
       <c r="L46" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P46" s="25">
+      <c r="P46" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="25">
         <v>81</v>
       </c>
-      <c r="Q46" s="38">
+      <c r="R46" s="38">
         <v>14</v>
       </c>
-      <c r="R46" s="38">
+      <c r="S46" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="30" t="s">
         <v>97</v>
@@ -4171,17 +4313,20 @@
       <c r="L47" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P47" s="25">
+      <c r="P47" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="25">
         <v>81</v>
       </c>
-      <c r="Q47" s="38">
+      <c r="R47" s="38">
         <v>14</v>
       </c>
-      <c r="R47" s="38">
+      <c r="S47" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="30" t="s">
         <v>98</v>
@@ -4217,17 +4362,20 @@
       <c r="L48" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="25">
+      <c r="P48" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="25">
         <v>81</v>
       </c>
-      <c r="Q48" s="38">
+      <c r="R48" s="38">
         <v>14</v>
       </c>
-      <c r="R48" s="38">
+      <c r="S48" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="30" t="s">
         <v>99</v>
@@ -4263,17 +4411,20 @@
       <c r="L49" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="25">
+      <c r="P49" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="25">
         <v>81</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="R49" s="38">
         <v>14</v>
       </c>
-      <c r="R49" s="38">
+      <c r="S49" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="30" t="s">
         <v>100</v>
@@ -4309,17 +4460,20 @@
       <c r="L50" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="25">
+      <c r="P50" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q50" s="25">
         <v>81</v>
       </c>
-      <c r="Q50" s="38">
+      <c r="R50" s="38">
         <v>14</v>
       </c>
-      <c r="R50" s="38">
+      <c r="S50" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="30" t="s">
         <v>101</v>
@@ -4355,17 +4509,20 @@
       <c r="L51" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P51" s="25">
+      <c r="P51" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="25">
         <v>81</v>
       </c>
-      <c r="Q51" s="38">
+      <c r="R51" s="38">
         <v>14</v>
       </c>
-      <c r="R51" s="38">
+      <c r="S51" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
       <c r="B52" s="30" t="s">
         <v>102</v>
@@ -4401,17 +4558,20 @@
       <c r="L52" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="25">
+      <c r="P52" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="25">
         <v>81</v>
       </c>
-      <c r="Q52" s="38">
+      <c r="R52" s="38">
         <v>14</v>
       </c>
-      <c r="R52" s="38">
+      <c r="S52" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
       <c r="B53" s="30" t="s">
         <v>103</v>
@@ -4447,17 +4607,20 @@
       <c r="L53" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P53" s="25">
+      <c r="P53" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="25">
         <v>81</v>
       </c>
-      <c r="Q53" s="38">
+      <c r="R53" s="38">
         <v>14</v>
       </c>
-      <c r="R53" s="38">
+      <c r="S53" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="30" t="s">
         <v>104</v>
@@ -4493,17 +4656,20 @@
       <c r="L54" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P54" s="25">
+      <c r="P54" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="25">
         <v>81</v>
       </c>
-      <c r="Q54" s="38">
+      <c r="R54" s="38">
         <v>14</v>
       </c>
-      <c r="R54" s="38">
+      <c r="S54" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="30" t="s">
         <v>105</v>
@@ -4539,17 +4705,20 @@
       <c r="L55" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P55" s="25">
+      <c r="P55" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q55" s="25">
         <v>81</v>
       </c>
-      <c r="Q55" s="38">
+      <c r="R55" s="38">
         <v>14</v>
       </c>
-      <c r="R55" s="38">
+      <c r="S55" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="30" t="s">
         <v>106</v>
@@ -4585,17 +4754,20 @@
       <c r="L56" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="25">
+      <c r="P56" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q56" s="25">
         <v>81</v>
       </c>
-      <c r="Q56" s="38">
+      <c r="R56" s="38">
         <v>14</v>
       </c>
-      <c r="R56" s="38">
+      <c r="S56" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="30" t="s">
         <v>107</v>
@@ -4631,17 +4803,20 @@
       <c r="L57" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P57" s="25">
+      <c r="P57" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="25">
         <v>81</v>
       </c>
-      <c r="Q57" s="38">
+      <c r="R57" s="38">
         <v>14</v>
       </c>
-      <c r="R57" s="38">
+      <c r="S57" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="29"/>
       <c r="B58" s="30" t="s">
         <v>108</v>
@@ -4677,17 +4852,20 @@
       <c r="L58" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P58" s="25">
+      <c r="P58" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="25">
         <v>81</v>
       </c>
-      <c r="Q58" s="38">
+      <c r="R58" s="38">
         <v>14</v>
       </c>
-      <c r="R58" s="38">
+      <c r="S58" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
       <c r="B59" s="30" t="s">
         <v>109</v>
@@ -4723,17 +4901,20 @@
       <c r="L59" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P59" s="25">
+      <c r="P59" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="25">
         <v>81</v>
       </c>
-      <c r="Q59" s="38">
+      <c r="R59" s="38">
         <v>14</v>
       </c>
-      <c r="R59" s="38">
+      <c r="S59" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
       <c r="B60" s="30" t="s">
         <v>69</v>
@@ -4769,17 +4950,20 @@
       <c r="L60" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P60" s="25">
+      <c r="P60" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="25">
         <v>81</v>
       </c>
-      <c r="Q60" s="38">
+      <c r="R60" s="38">
         <v>14</v>
       </c>
-      <c r="R60" s="38">
+      <c r="S60" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="30" t="s">
         <v>112</v>
@@ -4815,17 +4999,20 @@
       <c r="L61" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P61" s="25">
+      <c r="P61" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="25">
         <v>81</v>
       </c>
-      <c r="Q61" s="38">
+      <c r="R61" s="38">
         <v>14</v>
       </c>
-      <c r="R61" s="38">
+      <c r="S61" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
       <c r="B62" s="30" t="s">
         <v>110</v>
@@ -4861,17 +5048,20 @@
       <c r="L62" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P62" s="25">
+      <c r="P62" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="25">
         <v>81</v>
       </c>
-      <c r="Q62" s="38">
+      <c r="R62" s="38">
         <v>14</v>
       </c>
-      <c r="R62" s="38">
+      <c r="S62" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
       <c r="B63" s="30" t="s">
         <v>111</v>
@@ -4907,17 +5097,20 @@
       <c r="L63" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P63" s="25">
+      <c r="P63" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q63" s="25">
         <v>81</v>
       </c>
-      <c r="Q63" s="38">
+      <c r="R63" s="38">
         <v>14</v>
       </c>
-      <c r="R63" s="38">
+      <c r="S63" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
       <c r="B64" s="30" t="s">
         <v>114</v>
@@ -4953,17 +5146,20 @@
       <c r="L64" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P64" s="25">
+      <c r="P64" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q64" s="25">
         <v>81</v>
       </c>
-      <c r="Q64" s="38">
+      <c r="R64" s="38">
         <v>14</v>
       </c>
-      <c r="R64" s="38">
+      <c r="S64" s="38">
         <v>2011</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
       <c r="B65" s="30" t="s">
         <v>115</v>
@@ -4999,13 +5195,16 @@
       <c r="L65" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P65" s="25">
+      <c r="P65" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q65" s="25">
         <v>81</v>
       </c>
-      <c r="Q65" s="38">
+      <c r="R65" s="38">
         <v>14</v>
       </c>
-      <c r="R65" s="38">
+      <c r="S65" s="38">
         <v>2011</v>
       </c>
     </row>
@@ -5039,47 +5238,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="49" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="1" t="s">
         <v>126</v>
       </c>
@@ -5089,18 +5288,18 @@
       <c r="G2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
@@ -5110,12 +5309,12 @@
       <c r="G3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5159,98 +5358,98 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="45">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="49" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="45">
         <v>24</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="45">
         <v>24</v>
       </c>
-      <c r="M5" s="49"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="45">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="49">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="45">
         <v>15</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="49">
+      <c r="H7" s="48"/>
+      <c r="I7" s="45">
         <v>15</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="45">
         <v>12</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="45">
         <v>27</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5274,12 +5473,12 @@
         <v>12</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="45" t="s">
         <v>140</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="45"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -5309,135 +5508,135 @@
       <c r="I10" s="1">
         <v>14</v>
       </c>
-      <c r="J10" s="50"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="1">
         <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>26</v>
       </c>
-      <c r="M10" s="46"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="A11" s="45">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="45">
         <v>4</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="45">
         <v>12</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="49">
+      <c r="G11" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="45">
         <v>16</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="45">
         <v>16</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="45">
         <v>12</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="45">
         <v>28</v>
       </c>
-      <c r="M11" s="45"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+      <c r="A13" s="45">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="49">
+      <c r="E13" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="45">
         <v>2</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="45">
         <v>12</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="45">
         <v>14</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="45">
         <v>14</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="45">
         <v>12</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="45">
         <v>26</v>
       </c>
-      <c r="M13" s="45"/>
+      <c r="M13" s="53"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
+      <c r="A15" s="45">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="45" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5454,19 +5653,19 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="45" t="s">
         <v>151</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="45"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="6" t="s">
         <v>141</v>
       </c>
@@ -5485,14 +5684,14 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="50"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="1">
         <v>13</v>
       </c>
       <c r="L16" s="1">
         <v>27</v>
       </c>
-      <c r="M16" s="46"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -5506,12 +5705,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="45" t="s">
         <v>153</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="47"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -5541,31 +5740,31 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="50"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="1">
         <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>29</v>
       </c>
-      <c r="M18" s="48"/>
+      <c r="M18" s="49"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="45" t="s">
         <v>155</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -5574,7 +5773,7 @@
       <c r="B20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="6" t="s">
         <v>154</v>
       </c>
@@ -5593,19 +5792,19 @@
       <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="50"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="1">
         <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="48"/>
+      <c r="M20" s="49"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -5617,7 +5816,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="47"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -5626,7 +5825,7 @@
       <c r="B22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="6" t="s">
         <v>156</v>
       </c>
@@ -5654,12 +5853,12 @@
       <c r="L22" s="7">
         <v>29</v>
       </c>
-      <c r="M22" s="51"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="6" t="s">
         <v>147</v>
       </c>
@@ -5679,10 +5878,10 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="48"/>
+      <c r="M23" s="49"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="45">
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5700,10 +5899,10 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="47"/>
+      <c r="M24" s="48"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="6" t="s">
         <v>159</v>
       </c>
@@ -5737,10 +5936,10 @@
       <c r="L25" s="1">
         <v>31</v>
       </c>
-      <c r="M25" s="48"/>
+      <c r="M25" s="49"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="45">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5758,10 +5957,10 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="47"/>
+      <c r="M26" s="48"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="6" t="s">
         <v>162</v>
       </c>
@@ -5795,61 +5994,61 @@
       <c r="L27" s="1">
         <v>31</v>
       </c>
-      <c r="M27" s="48"/>
+      <c r="M27" s="49"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
+      <c r="A28" s="45">
         <v>12</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="45" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="45">
         <v>14</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="45">
         <v>8</v>
       </c>
-      <c r="G28" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="49">
+      <c r="G28" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="45">
         <v>22</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="45">
         <v>22</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="45">
         <v>7</v>
       </c>
-      <c r="L28" s="49">
+      <c r="L28" s="45">
         <v>29</v>
       </c>
-      <c r="M28" s="47"/>
+      <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="48"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="49"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -5868,7 +6067,7 @@
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="47"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -5907,32 +6106,32 @@
       <c r="L31" s="1">
         <v>29</v>
       </c>
-      <c r="M31" s="48"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="45" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="49">
+      <c r="E32" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="45">
         <v>4</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="45">
         <v>4</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="47"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -5941,24 +6140,24 @@
       <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="51"/>
+      <c r="M33" s="55"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="48"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="6" t="s">
         <v>172</v>
       </c>
@@ -5986,7 +6185,7 @@
       <c r="L34" s="1">
         <v>17</v>
       </c>
-      <c r="M34" s="48"/>
+      <c r="M34" s="49"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -6003,7 +6202,7 @@
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="47"/>
+      <c r="M35" s="48"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -6042,7 +6241,7 @@
       <c r="L36" s="1">
         <v>25</v>
       </c>
-      <c r="M36" s="48"/>
+      <c r="M36" s="49"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -6050,7 +6249,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="53" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="7"/>
@@ -6063,7 +6262,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="47"/>
+      <c r="M37" s="48"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -6075,7 +6274,7 @@
       <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="46"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="1">
         <v>12</v>
       </c>
@@ -6100,7 +6299,7 @@
       <c r="L38" s="1">
         <v>31</v>
       </c>
-      <c r="M38" s="48"/>
+      <c r="M38" s="49"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -6108,7 +6307,7 @@
         <v>51</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="53" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="7"/>
@@ -6121,7 +6320,7 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="47"/>
+      <c r="M39" s="48"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -6133,7 +6332,7 @@
       <c r="C40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="1">
         <v>4</v>
       </c>
@@ -6158,25 +6357,25 @@
       <c r="L40" s="1">
         <v>31</v>
       </c>
-      <c r="M40" s="48"/>
+      <c r="M40" s="49"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="49">
+      <c r="E41" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="45">
         <v>16</v>
       </c>
-      <c r="G41" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="49">
+      <c r="G41" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="45">
         <v>16</v>
       </c>
       <c r="I41" s="7"/>
@@ -6185,7 +6384,7 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="47"/>
+      <c r="M41" s="48"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -6197,18 +6396,18 @@
       <c r="C42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
         <v>183</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="51"/>
+      <c r="M42" s="55"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
@@ -6241,32 +6440,32 @@
       <c r="L43" s="1">
         <v>32</v>
       </c>
-      <c r="M43" s="48"/>
+      <c r="M43" s="49"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="45"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="49">
+      <c r="E44" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="45">
         <v>4</v>
       </c>
-      <c r="G44" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="49">
+      <c r="G44" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="45">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="5"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="47"/>
+      <c r="M44" s="48"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -6275,26 +6474,26 @@
       <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
       <c r="I45" s="7"/>
       <c r="J45" s="5" t="s">
         <v>157</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="51"/>
+      <c r="M45" s="55"/>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="46"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="6" t="s">
         <v>187</v>
       </c>
@@ -6322,7 +6521,7 @@
       <c r="L46" s="1">
         <v>15</v>
       </c>
-      <c r="M46" s="48"/>
+      <c r="M46" s="49"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -6337,7 +6536,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="47"/>
+      <c r="M47" s="48"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -6374,7 +6573,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="51"/>
+      <c r="M48" s="55"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -6405,7 +6604,7 @@
       <c r="L49" s="1">
         <v>33</v>
       </c>
-      <c r="M49" s="48"/>
+      <c r="M49" s="49"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -6422,7 +6621,7 @@
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="47"/>
+      <c r="M50" s="48"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -6453,7 +6652,7 @@
       <c r="L51" s="7">
         <v>29</v>
       </c>
-      <c r="M51" s="51"/>
+      <c r="M51" s="55"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -6476,7 +6675,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="51"/>
+      <c r="M52" s="55"/>
     </row>
     <row r="53" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -6503,7 +6702,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="48"/>
+      <c r="M53" s="49"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -6518,7 +6717,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="47"/>
+      <c r="M54" s="48"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
@@ -6547,7 +6746,7 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="51"/>
+      <c r="M55" s="55"/>
     </row>
     <row r="56" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
@@ -6586,7 +6785,7 @@
       <c r="L56" s="1">
         <v>33</v>
       </c>
-      <c r="M56" s="48"/>
+      <c r="M56" s="49"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -6603,7 +6802,7 @@
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="47"/>
+      <c r="M57" s="48"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6642,7 +6841,7 @@
       <c r="L58" s="7">
         <v>31</v>
       </c>
-      <c r="M58" s="51"/>
+      <c r="M58" s="55"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -6659,13 +6858,13 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="48"/>
+      <c r="M59" s="49"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="53" t="s">
         <v>177</v>
       </c>
       <c r="E60" s="7"/>
@@ -6678,7 +6877,7 @@
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="47"/>
+      <c r="M60" s="48"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -6690,7 +6889,7 @@
       <c r="C61" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="46"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="1" t="s">
         <v>139</v>
       </c>
@@ -6715,7 +6914,7 @@
       <c r="L61" s="7">
         <v>31</v>
       </c>
-      <c r="M61" s="51"/>
+      <c r="M61" s="55"/>
     </row>
     <row r="62" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
@@ -6742,7 +6941,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="48"/>
+      <c r="M62" s="49"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -6751,29 +6950,29 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="45">
+      <c r="E63" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="53">
         <v>8</v>
       </c>
-      <c r="G63" s="49">
+      <c r="G63" s="45">
         <v>14</v>
       </c>
-      <c r="H63" s="49">
+      <c r="H63" s="45">
         <v>24</v>
       </c>
-      <c r="I63" s="49">
+      <c r="I63" s="45">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="49">
+      <c r="L63" s="45">
         <v>31</v>
       </c>
-      <c r="M63" s="47"/>
+      <c r="M63" s="48"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -6788,19 +6987,19 @@
       <c r="D64" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="50"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
       <c r="J64" s="1" t="s">
         <v>205</v>
       </c>
       <c r="K64" s="1">
         <v>7</v>
       </c>
-      <c r="L64" s="50"/>
-      <c r="M64" s="48"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="49"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -6815,7 +7014,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="47"/>
+      <c r="M65" s="48"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -6842,7 +7041,7 @@
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="51"/>
+      <c r="M66" s="55"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
@@ -6873,7 +7072,7 @@
       <c r="L67" s="7">
         <v>29</v>
       </c>
-      <c r="M67" s="51"/>
+      <c r="M67" s="55"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -6888,7 +7087,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="48"/>
+      <c r="M68" s="49"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -6907,7 +7106,7 @@
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="47"/>
+      <c r="M69" s="48"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -6946,7 +7145,7 @@
       <c r="L70" s="1">
         <v>31</v>
       </c>
-      <c r="M70" s="48"/>
+      <c r="M70" s="49"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -6963,7 +7162,7 @@
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="47"/>
+      <c r="M71" s="48"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -7002,7 +7201,7 @@
       <c r="L72" s="7">
         <v>31</v>
       </c>
-      <c r="M72" s="51"/>
+      <c r="M72" s="55"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -7019,7 +7218,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="48"/>
+      <c r="M73" s="49"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
@@ -7044,7 +7243,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="47"/>
+      <c r="M74" s="48"/>
     </row>
     <row r="75" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -7083,10 +7282,10 @@
       <c r="L75" s="1">
         <v>23</v>
       </c>
-      <c r="M75" s="48"/>
+      <c r="M75" s="49"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="49">
+      <c r="A76" s="45">
         <v>30</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -7112,10 +7311,10 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="47"/>
+      <c r="M76" s="48"/>
     </row>
     <row r="77" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="50"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="6" t="s">
         <v>219</v>
       </c>
@@ -7149,13 +7348,13 @@
       <c r="L77" s="1">
         <v>32</v>
       </c>
-      <c r="M77" s="48"/>
+      <c r="M77" s="49"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="45">
+      <c r="A78" s="53">
         <v>31</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="53" t="s">
         <v>222</v>
       </c>
       <c r="C78" s="5"/>
@@ -7165,16 +7364,16 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="49" t="s">
+      <c r="J78" s="45" t="s">
         <v>223</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="47"/>
+      <c r="M78" s="48"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="1" t="s">
         <v>131</v>
       </c>
@@ -7196,17 +7395,17 @@
       <c r="I79" s="1">
         <v>18</v>
       </c>
-      <c r="J79" s="50"/>
+      <c r="J79" s="47"/>
       <c r="K79" s="1">
         <v>7</v>
       </c>
       <c r="L79" s="1">
         <v>25</v>
       </c>
-      <c r="M79" s="48"/>
+      <c r="M79" s="49"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="45">
+      <c r="A80" s="53">
         <v>32</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -7214,30 +7413,30 @@
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="G80" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" s="49">
+      <c r="E80" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="45">
         <v>24</v>
       </c>
-      <c r="I80" s="49">
+      <c r="I80" s="45">
         <v>24</v>
       </c>
-      <c r="J80" s="49" t="s">
+      <c r="J80" s="45" t="s">
         <v>226</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="47"/>
+      <c r="M80" s="48"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="46"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="6" t="s">
         <v>224</v>
       </c>
@@ -7247,19 +7446,19 @@
       <c r="D81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
       <c r="K81" s="1">
         <v>10</v>
       </c>
       <c r="L81" s="1">
         <v>34</v>
       </c>
-      <c r="M81" s="48"/>
+      <c r="M81" s="49"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -7274,7 +7473,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="49"/>
+      <c r="M82" s="45"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -7313,7 +7512,7 @@
       <c r="L83" s="7">
         <v>24</v>
       </c>
-      <c r="M83" s="52"/>
+      <c r="M83" s="46"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -7330,32 +7529,32 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="M84" s="50"/>
+      <c r="M84" s="47"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="45" t="s">
+      <c r="D85" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E85" s="45">
         <v>12</v>
       </c>
-      <c r="F85" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="G85" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="49">
+      <c r="F85" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="45">
         <v>12</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="47"/>
+      <c r="M85" s="48"/>
     </row>
     <row r="86" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
@@ -7367,11 +7566,11 @@
       <c r="C86" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="46"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
       <c r="I86" s="7">
         <v>24</v>
       </c>
@@ -7380,7 +7579,7 @@
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="51"/>
+      <c r="M86" s="55"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
@@ -7388,7 +7587,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="12"/>
-      <c r="D87" s="45" t="s">
+      <c r="D87" s="53" t="s">
         <v>198</v>
       </c>
       <c r="E87" s="7"/>
@@ -7403,13 +7602,13 @@
       <c r="L87" s="7">
         <v>30</v>
       </c>
-      <c r="M87" s="51"/>
+      <c r="M87" s="55"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="46"/>
+      <c r="D88" s="54"/>
       <c r="E88" s="1" t="s">
         <v>139</v>
       </c>
@@ -7426,10 +7625,10 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
-      <c r="M88" s="48"/>
+      <c r="M88" s="49"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="45">
+      <c r="A89" s="53">
         <v>35</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7441,16 +7640,16 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="45">
+      <c r="I89" s="53">
         <v>24</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="47"/>
+      <c r="M89" s="48"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="6" t="s">
         <v>233</v>
       </c>
@@ -7472,7 +7671,7 @@
       <c r="H90" s="1">
         <v>24</v>
       </c>
-      <c r="I90" s="46"/>
+      <c r="I90" s="54"/>
       <c r="J90" s="1" t="s">
         <v>234</v>
       </c>
@@ -7482,119 +7681,119 @@
       <c r="L90" s="1">
         <v>25</v>
       </c>
-      <c r="M90" s="48"/>
+      <c r="M90" s="49"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="45">
+      <c r="A91" s="53">
         <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="45" t="s">
+      <c r="D91" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="E91" s="49">
+      <c r="E91" s="45">
         <v>12</v>
       </c>
-      <c r="F91" s="49">
+      <c r="F91" s="45">
         <v>12</v>
       </c>
-      <c r="G91" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H91" s="49">
+      <c r="G91" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91" s="45">
         <v>24</v>
       </c>
-      <c r="I91" s="49">
+      <c r="I91" s="45">
         <v>24</v>
       </c>
-      <c r="J91" s="49" t="s">
+      <c r="J91" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="K91" s="49">
-        <v>1</v>
-      </c>
-      <c r="L91" s="49">
+      <c r="K91" s="45">
+        <v>1</v>
+      </c>
+      <c r="L91" s="45">
         <v>25</v>
       </c>
-      <c r="M91" s="47"/>
+      <c r="M91" s="48"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="46"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D92" s="46"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="48"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="49"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="45">
+      <c r="A93" s="53">
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="45" t="s">
+      <c r="D93" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="E93" s="49">
+      <c r="E93" s="45">
         <v>21</v>
       </c>
-      <c r="F93" s="49">
+      <c r="F93" s="45">
         <v>3</v>
       </c>
-      <c r="G93" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H93" s="49">
+      <c r="G93" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="45">
         <v>24</v>
       </c>
-      <c r="I93" s="49">
+      <c r="I93" s="45">
         <v>24</v>
       </c>
-      <c r="J93" s="49" t="s">
+      <c r="J93" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="K93" s="49">
-        <v>1</v>
-      </c>
-      <c r="L93" s="49">
+      <c r="K93" s="45">
+        <v>1</v>
+      </c>
+      <c r="L93" s="45">
         <v>25</v>
       </c>
-      <c r="M93" s="47"/>
+      <c r="M93" s="48"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="46"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="46"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="48"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="49"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -7619,7 +7818,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="49"/>
+      <c r="M95" s="45"/>
     </row>
     <row r="96" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
@@ -7658,12 +7857,12 @@
       <c r="L96" s="1">
         <v>30</v>
       </c>
-      <c r="M96" s="50"/>
+      <c r="M96" s="47"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="45"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="53"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -7673,12 +7872,12 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="47"/>
+      <c r="M97" s="48"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="46"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="6" t="s">
         <v>144</v>
       </c>
@@ -7706,24 +7905,24 @@
       <c r="L98" s="1">
         <v>25</v>
       </c>
-      <c r="M98" s="48"/>
+      <c r="M98" s="49"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="47"/>
+      <c r="C99" s="48"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="49" t="s">
+      <c r="J99" s="45" t="s">
         <v>240</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="47"/>
+      <c r="M99" s="48"/>
     </row>
     <row r="100" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
@@ -7732,7 +7931,7 @@
       <c r="B100" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="48"/>
+      <c r="C100" s="49"/>
       <c r="D100" s="6" t="s">
         <v>239</v>
       </c>
@@ -7751,54 +7950,54 @@
       <c r="I100" s="1">
         <v>24</v>
       </c>
-      <c r="J100" s="50"/>
+      <c r="J100" s="47"/>
       <c r="K100" s="1">
         <v>6</v>
       </c>
       <c r="L100" s="1">
         <v>30</v>
       </c>
-      <c r="M100" s="48"/>
+      <c r="M100" s="49"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="45" t="s">
+      <c r="C101" s="48"/>
+      <c r="D101" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="E101" s="49">
+      <c r="E101" s="45">
         <v>9</v>
       </c>
-      <c r="F101" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="G101" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H101" s="49">
+      <c r="F101" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="45">
         <v>9</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="49"/>
+      <c r="K101" s="45"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="47"/>
+      <c r="M101" s="48"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="52"/>
+      <c r="K102" s="46"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="51"/>
+      <c r="M102" s="55"/>
     </row>
     <row r="103" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
@@ -7807,7 +8006,7 @@
       <c r="B103" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="51"/>
+      <c r="C103" s="55"/>
       <c r="D103" s="6" t="s">
         <v>243</v>
       </c>
@@ -7829,16 +8028,16 @@
       <c r="J103" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K103" s="52"/>
+      <c r="K103" s="46"/>
       <c r="L103" s="7">
         <v>26</v>
       </c>
-      <c r="M103" s="51"/>
+      <c r="M103" s="55"/>
     </row>
     <row r="104" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="48"/>
+      <c r="C104" s="49"/>
       <c r="D104" s="6" t="s">
         <v>218</v>
       </c>
@@ -7856,14 +8055,14 @@
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="50"/>
+      <c r="K104" s="47"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="48"/>
+      <c r="M104" s="49"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="45"/>
+      <c r="C105" s="53"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -7873,7 +8072,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="47"/>
+      <c r="M105" s="48"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
@@ -7882,7 +8081,7 @@
       <c r="B106" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="53"/>
+      <c r="C106" s="56"/>
       <c r="D106" s="6" t="s">
         <v>208</v>
       </c>
@@ -7910,12 +8109,12 @@
       <c r="L106" s="7">
         <v>25</v>
       </c>
-      <c r="M106" s="51"/>
+      <c r="M106" s="55"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="46"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="6" t="s">
         <v>147</v>
       </c>
@@ -7935,24 +8134,24 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="48"/>
+      <c r="M107" s="49"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="47"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="49" t="s">
+      <c r="J108" s="45" t="s">
         <v>234</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="47"/>
+      <c r="M108" s="48"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
@@ -7961,7 +8160,7 @@
       <c r="B109" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="48"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="6" t="s">
         <v>174</v>
       </c>
@@ -7980,14 +8179,14 @@
       <c r="I109" s="1">
         <v>6</v>
       </c>
-      <c r="J109" s="50"/>
+      <c r="J109" s="47"/>
       <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="L109" s="1">
         <v>7</v>
       </c>
-      <c r="M109" s="48"/>
+      <c r="M109" s="49"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
@@ -8225,7 +8424,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="47"/>
+      <c r="C117" s="48"/>
       <c r="D117" s="6" t="s">
         <v>214</v>
       </c>
@@ -8243,9 +8442,9 @@
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="49"/>
+      <c r="K117" s="45"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="47"/>
+      <c r="M117" s="48"/>
     </row>
     <row r="118" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
@@ -8254,7 +8453,7 @@
       <c r="B118" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="48"/>
+      <c r="C118" s="49"/>
       <c r="D118" s="6" t="s">
         <v>247</v>
       </c>
@@ -8276,11 +8475,11 @@
       <c r="J118" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K118" s="50"/>
+      <c r="K118" s="47"/>
       <c r="L118" s="1">
         <v>25</v>
       </c>
-      <c r="M118" s="48"/>
+      <c r="M118" s="49"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
@@ -8359,7 +8558,7 @@
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="47"/>
+      <c r="C121" s="48"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8369,7 +8568,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="47"/>
+      <c r="M121" s="48"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
@@ -8378,7 +8577,7 @@
       <c r="B122" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C122" s="51"/>
+      <c r="C122" s="55"/>
       <c r="D122" s="5" t="s">
         <v>211</v>
       </c>
@@ -8406,14 +8605,14 @@
       <c r="L122" s="7">
         <v>11</v>
       </c>
-      <c r="M122" s="51"/>
+      <c r="M122" s="55"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C123" s="48"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -8423,7 +8622,7 @@
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
-      <c r="M123" s="48"/>
+      <c r="M123" s="49"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
@@ -8537,13 +8736,13 @@
       <c r="M126" s="11"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="45">
+      <c r="A127" s="53">
         <v>58</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="47"/>
+      <c r="C127" s="48"/>
       <c r="D127" s="6" t="s">
         <v>231</v>
       </c>
@@ -8563,12 +8762,12 @@
       <c r="J127" s="7"/>
       <c r="K127" s="18"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="47"/>
+      <c r="M127" s="48"/>
     </row>
     <row r="128" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="46"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="48"/>
+      <c r="C128" s="49"/>
       <c r="D128" s="6" t="s">
         <v>251</v>
       </c>
@@ -8596,16 +8795,16 @@
       <c r="L128" s="1">
         <v>17</v>
       </c>
-      <c r="M128" s="48"/>
+      <c r="M128" s="49"/>
     </row>
     <row r="129" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="45">
+      <c r="A129" s="53">
         <v>59</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C129" s="47"/>
+      <c r="C129" s="48"/>
       <c r="D129" s="6" t="s">
         <v>198</v>
       </c>
@@ -8625,12 +8824,12 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="47"/>
+      <c r="M129" s="48"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="46"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="48"/>
+      <c r="C130" s="49"/>
       <c r="D130" s="6" t="s">
         <v>252</v>
       </c>
@@ -8658,12 +8857,12 @@
       <c r="L130" s="1">
         <v>12</v>
       </c>
-      <c r="M130" s="48"/>
+      <c r="M130" s="49"/>
     </row>
     <row r="131" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="47"/>
+      <c r="C131" s="48"/>
       <c r="D131" s="6" t="s">
         <v>253</v>
       </c>
@@ -8683,7 +8882,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="47"/>
+      <c r="M131" s="48"/>
     </row>
     <row r="132" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
@@ -8692,7 +8891,7 @@
       <c r="B132" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="48"/>
+      <c r="C132" s="49"/>
       <c r="D132" s="6" t="s">
         <v>218</v>
       </c>
@@ -8720,7 +8919,7 @@
       <c r="L132" s="1">
         <v>15</v>
       </c>
-      <c r="M132" s="48"/>
+      <c r="M132" s="49"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
@@ -8797,13 +8996,13 @@
       <c r="M134" s="11"/>
     </row>
     <row r="135" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="45">
+      <c r="A135" s="53">
         <v>63</v>
       </c>
-      <c r="B135" s="45" t="s">
+      <c r="B135" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C135" s="47"/>
+      <c r="C135" s="48"/>
       <c r="D135" s="6" t="s">
         <v>254</v>
       </c>
@@ -8820,17 +9019,17 @@
         <v>10</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="49" t="s">
+      <c r="J135" s="45" t="s">
         <v>255</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="47"/>
+      <c r="M135" s="48"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="46"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="48"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="49"/>
       <c r="D136" s="6" t="s">
         <v>256</v>
       </c>
@@ -8849,14 +9048,14 @@
       <c r="I136" s="1">
         <v>12</v>
       </c>
-      <c r="J136" s="50"/>
+      <c r="J136" s="47"/>
       <c r="K136" s="1">
         <v>1</v>
       </c>
       <c r="L136" s="1">
         <v>13</v>
       </c>
-      <c r="M136" s="48"/>
+      <c r="M136" s="49"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
@@ -8898,7 +9097,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="47"/>
+      <c r="C138" s="48"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -8908,7 +9107,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="47"/>
+      <c r="M138" s="48"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
@@ -8917,7 +9116,7 @@
       <c r="B139" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C139" s="48"/>
+      <c r="C139" s="49"/>
       <c r="D139" s="6" t="s">
         <v>154</v>
       </c>
@@ -8945,10 +9144,205 @@
       <c r="L139" s="1">
         <v>9</v>
       </c>
-      <c r="M139" s="48"/>
+      <c r="M139" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="218">
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="M138:M139"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="M121:M123"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:K3"/>
@@ -8972,201 +9366,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="M121:M123"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="M138:M139"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="M131:M132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inputXls/Teachers.xlsx
+++ b/inputXls/Teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD504215-4893-4CD3-9A13-DCA8463CBC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B45414-8771-4B6C-A37A-200364E4DE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18885" yWindow="1815" windowWidth="13710" windowHeight="13605" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
+    <workbookView xWindow="75" yWindow="1215" windowWidth="13710" windowHeight="13605" xr2:uid="{06FBAC3D-CA9D-41F5-9600-DEE60AA38746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1166,19 +1166,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1188,18 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFB0B7-5F4A-46CA-9F3B-E68BA45E5504}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1642,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>23</v>
@@ -1705,7 +1705,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>23</v>
@@ -1768,7 +1768,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>23</v>
@@ -1831,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>23</v>
@@ -1894,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>23</v>
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>23</v>
@@ -2020,7 +2020,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>23</v>
@@ -2083,7 +2083,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>23</v>
@@ -2146,7 +2146,7 @@
         <v>11</v>
       </c>
       <c r="J10" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>23</v>
@@ -2209,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="J11" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K11" s="25" t="s">
         <v>23</v>
@@ -2270,7 +2270,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>23</v>
@@ -2333,7 +2333,7 @@
         <v>11</v>
       </c>
       <c r="J13" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K13" s="25" t="s">
         <v>23</v>
@@ -2396,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>23</v>
@@ -2459,7 +2459,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>23</v>
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="J16" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>23</v>
@@ -2585,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="J17" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K17" s="25" t="s">
         <v>23</v>
@@ -2648,7 +2648,7 @@
         <v>11</v>
       </c>
       <c r="J18" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>23</v>
@@ -2711,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>23</v>
@@ -2774,7 +2774,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>23</v>
@@ -2837,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="J21" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K21" s="25" t="s">
         <v>23</v>
@@ -2900,7 +2900,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>23</v>
@@ -2963,7 +2963,7 @@
         <v>11</v>
       </c>
       <c r="J23" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>23</v>
@@ -3026,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="J24" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>23</v>
@@ -3089,7 +3089,7 @@
         <v>11</v>
       </c>
       <c r="J25" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>23</v>
@@ -3152,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="J26" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K26" s="25" t="s">
         <v>23</v>
@@ -3215,7 +3215,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K27" s="25" t="s">
         <v>23</v>
@@ -3278,7 +3278,7 @@
         <v>11</v>
       </c>
       <c r="J28" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>23</v>
@@ -3341,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="J29" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K29" s="25" t="s">
         <v>23</v>
@@ -3404,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="J30" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>23</v>
@@ -3467,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="J31" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K31" s="25" t="s">
         <v>23</v>
@@ -3530,7 +3530,7 @@
         <v>11</v>
       </c>
       <c r="J32" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K32" s="25" t="s">
         <v>23</v>
@@ -3591,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="J33" s="25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K33" s="25" t="s">
         <v>23</v>
@@ -3652,7 +3652,7 @@
         <v>11</v>
       </c>
       <c r="J34" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K34" s="25" t="s">
         <v>23</v>
@@ -3705,7 +3705,7 @@
         <v>11</v>
       </c>
       <c r="J35" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K35" s="25" t="s">
         <v>23</v>
@@ -3758,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="J36" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K36" s="25" t="s">
         <v>23</v>
@@ -3811,7 +3811,7 @@
         <v>11</v>
       </c>
       <c r="J37" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K37" s="25" t="s">
         <v>23</v>
@@ -3864,7 +3864,7 @@
         <v>11</v>
       </c>
       <c r="J38" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K38" s="25" t="s">
         <v>23</v>
@@ -3913,7 +3913,7 @@
         <v>11</v>
       </c>
       <c r="J39" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K39" s="25" t="s">
         <v>23</v>
@@ -3962,7 +3962,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K40" s="25" t="s">
         <v>23</v>
@@ -4011,7 +4011,7 @@
         <v>11</v>
       </c>
       <c r="J41" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K41" s="25" t="s">
         <v>23</v>
@@ -4060,7 +4060,7 @@
         <v>11</v>
       </c>
       <c r="J42" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K42" s="25" t="s">
         <v>23</v>
@@ -4109,7 +4109,7 @@
         <v>11</v>
       </c>
       <c r="J43" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K43" s="25" t="s">
         <v>23</v>
@@ -4158,7 +4158,7 @@
         <v>11</v>
       </c>
       <c r="J44" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K44" s="25" t="s">
         <v>23</v>
@@ -4207,7 +4207,7 @@
         <v>11</v>
       </c>
       <c r="J45" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K45" s="25" t="s">
         <v>23</v>
@@ -4256,7 +4256,7 @@
         <v>11</v>
       </c>
       <c r="J46" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K46" s="25" t="s">
         <v>23</v>
@@ -4305,7 +4305,7 @@
         <v>11</v>
       </c>
       <c r="J47" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K47" s="25" t="s">
         <v>23</v>
@@ -4354,7 +4354,7 @@
         <v>11</v>
       </c>
       <c r="J48" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K48" s="25" t="s">
         <v>23</v>
@@ -4403,7 +4403,7 @@
         <v>11</v>
       </c>
       <c r="J49" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K49" s="25" t="s">
         <v>23</v>
@@ -4452,7 +4452,7 @@
         <v>11</v>
       </c>
       <c r="J50" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K50" s="25" t="s">
         <v>23</v>
@@ -4501,7 +4501,7 @@
         <v>11</v>
       </c>
       <c r="J51" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K51" s="25" t="s">
         <v>23</v>
@@ -4550,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="J52" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K52" s="25" t="s">
         <v>23</v>
@@ -4599,7 +4599,7 @@
         <v>11</v>
       </c>
       <c r="J53" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K53" s="25" t="s">
         <v>23</v>
@@ -4648,7 +4648,7 @@
         <v>11</v>
       </c>
       <c r="J54" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K54" s="25" t="s">
         <v>23</v>
@@ -4697,7 +4697,7 @@
         <v>11</v>
       </c>
       <c r="J55" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K55" s="25" t="s">
         <v>23</v>
@@ -4746,7 +4746,7 @@
         <v>11</v>
       </c>
       <c r="J56" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K56" s="25" t="s">
         <v>23</v>
@@ -4795,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="J57" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K57" s="25" t="s">
         <v>23</v>
@@ -4844,7 +4844,7 @@
         <v>11</v>
       </c>
       <c r="J58" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K58" s="25" t="s">
         <v>23</v>
@@ -4893,7 +4893,7 @@
         <v>11</v>
       </c>
       <c r="J59" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K59" s="25" t="s">
         <v>23</v>
@@ -4942,7 +4942,7 @@
         <v>11</v>
       </c>
       <c r="J60" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K60" s="25" t="s">
         <v>23</v>
@@ -4991,7 +4991,7 @@
         <v>11</v>
       </c>
       <c r="J61" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K61" s="25" t="s">
         <v>23</v>
@@ -5040,7 +5040,7 @@
         <v>11</v>
       </c>
       <c r="J62" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K62" s="25" t="s">
         <v>23</v>
@@ -5089,7 +5089,7 @@
         <v>11</v>
       </c>
       <c r="J63" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K63" s="25" t="s">
         <v>23</v>
@@ -5138,7 +5138,7 @@
         <v>11</v>
       </c>
       <c r="J64" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K64" s="25" t="s">
         <v>23</v>
@@ -5187,7 +5187,7 @@
         <v>11</v>
       </c>
       <c r="J65" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K65" s="25" t="s">
         <v>23</v>
@@ -5238,47 +5238,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="45" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="49" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="1" t="s">
         <v>126</v>
       </c>
@@ -5288,18 +5288,18 @@
       <c r="G2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
@@ -5309,12 +5309,12 @@
       <c r="G3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5358,98 +5358,98 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="45" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="49">
         <v>24</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="49">
         <v>24</v>
       </c>
-      <c r="M5" s="45"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="49">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="45">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="49">
         <v>15</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="45">
+      <c r="H7" s="47"/>
+      <c r="I7" s="49">
         <v>15</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="49">
         <v>12</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="49">
         <v>27</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="54"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5473,12 +5473,12 @@
         <v>12</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="49" t="s">
         <v>140</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -5508,135 +5508,135 @@
       <c r="I10" s="1">
         <v>14</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="1">
         <v>12</v>
       </c>
       <c r="L10" s="1">
         <v>26</v>
       </c>
-      <c r="M10" s="54"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="49">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="49">
         <v>4</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="49">
         <v>12</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="45">
+      <c r="G11" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="49">
         <v>16</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="49">
         <v>16</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="49">
         <v>12</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="49">
         <v>28</v>
       </c>
-      <c r="M11" s="53"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="54"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="49">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="45">
+      <c r="E13" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="49">
         <v>2</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="49">
         <v>12</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="49">
         <v>14</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="49">
         <v>14</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="49">
         <v>12</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="49">
         <v>26</v>
       </c>
-      <c r="M13" s="53"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="54"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
+      <c r="A15" s="49">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="49" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5653,19 +5653,19 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="49" t="s">
         <v>151</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="53"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="6" t="s">
         <v>141</v>
       </c>
@@ -5684,14 +5684,14 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="47"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="1">
         <v>13</v>
       </c>
       <c r="L16" s="1">
         <v>27</v>
       </c>
-      <c r="M16" s="54"/>
+      <c r="M16" s="46"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -5705,12 +5705,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="49" t="s">
         <v>153</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="48"/>
+      <c r="M17" s="47"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -5740,31 +5740,31 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="1">
         <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>29</v>
       </c>
-      <c r="M18" s="49"/>
+      <c r="M18" s="48"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="49" t="s">
         <v>155</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="48"/>
+      <c r="M19" s="47"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -5773,7 +5773,7 @@
       <c r="B20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="6" t="s">
         <v>154</v>
       </c>
@@ -5792,19 +5792,19 @@
       <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="1">
         <v>12</v>
       </c>
       <c r="L20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="49"/>
+      <c r="M20" s="48"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="48"/>
+      <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -5825,7 +5825,7 @@
       <c r="B22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="6" t="s">
         <v>156</v>
       </c>
@@ -5853,12 +5853,12 @@
       <c r="L22" s="7">
         <v>29</v>
       </c>
-      <c r="M22" s="55"/>
+      <c r="M22" s="51"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="47"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="6" t="s">
         <v>147</v>
       </c>
@@ -5878,10 +5878,10 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="49"/>
+      <c r="M23" s="48"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="49">
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5899,10 +5899,10 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="48"/>
+      <c r="M24" s="47"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="6" t="s">
         <v>159</v>
       </c>
@@ -5936,10 +5936,10 @@
       <c r="L25" s="1">
         <v>31</v>
       </c>
-      <c r="M25" s="49"/>
+      <c r="M25" s="48"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="49">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5957,10 +5957,10 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="48"/>
+      <c r="M26" s="47"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="6" t="s">
         <v>162</v>
       </c>
@@ -5994,61 +5994,61 @@
       <c r="L27" s="1">
         <v>31</v>
       </c>
-      <c r="M27" s="49"/>
+      <c r="M27" s="48"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="49">
         <v>12</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="53" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="49">
         <v>14</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="49">
         <v>8</v>
       </c>
-      <c r="G28" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="45">
+      <c r="G28" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="49">
         <v>22</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="49">
         <v>22</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="49">
         <v>7</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="49">
         <v>29</v>
       </c>
-      <c r="M28" s="48"/>
+      <c r="M28" s="47"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="49"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="48"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="48"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -6106,32 +6106,32 @@
       <c r="L31" s="1">
         <v>29</v>
       </c>
-      <c r="M31" s="49"/>
+      <c r="M31" s="48"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="53" t="s">
+      <c r="C32" s="47"/>
+      <c r="D32" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="45">
+      <c r="E32" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="49">
         <v>4</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="49">
         <v>4</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="48"/>
+      <c r="M32" s="47"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -6140,24 +6140,24 @@
       <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="55"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="49"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="6" t="s">
         <v>172</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="L34" s="1">
         <v>17</v>
       </c>
-      <c r="M34" s="49"/>
+      <c r="M34" s="48"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="48"/>
+      <c r="M35" s="47"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -6241,7 +6241,7 @@
       <c r="L36" s="1">
         <v>25</v>
       </c>
-      <c r="M36" s="49"/>
+      <c r="M36" s="48"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -6249,7 +6249,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="45" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="7"/>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="48"/>
+      <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -6274,7 +6274,7 @@
       <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="1">
         <v>12</v>
       </c>
@@ -6299,7 +6299,7 @@
       <c r="L38" s="1">
         <v>31</v>
       </c>
-      <c r="M38" s="49"/>
+      <c r="M38" s="48"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -6307,7 +6307,7 @@
         <v>51</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="45" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="7"/>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="48"/>
+      <c r="M39" s="47"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -6332,7 +6332,7 @@
       <c r="C40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="1">
         <v>4</v>
       </c>
@@ -6357,25 +6357,25 @@
       <c r="L40" s="1">
         <v>31</v>
       </c>
-      <c r="M40" s="49"/>
+      <c r="M40" s="48"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="45">
+      <c r="E41" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="49">
         <v>16</v>
       </c>
-      <c r="G41" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="45">
+      <c r="G41" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="49">
         <v>16</v>
       </c>
       <c r="I41" s="7"/>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -6396,18 +6396,18 @@
       <c r="C42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
         <v>183</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="55"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
@@ -6440,32 +6440,32 @@
       <c r="L43" s="1">
         <v>32</v>
       </c>
-      <c r="M43" s="49"/>
+      <c r="M43" s="48"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="53"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F44" s="45">
+      <c r="E44" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="49">
         <v>4</v>
       </c>
-      <c r="G44" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="45">
+      <c r="G44" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="49">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="5"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="48"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -6474,26 +6474,26 @@
       <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
       <c r="I45" s="7"/>
       <c r="J45" s="5" t="s">
         <v>157</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="55"/>
+      <c r="M45" s="51"/>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="54"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="6" t="s">
         <v>187</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="L46" s="1">
         <v>15</v>
       </c>
-      <c r="M46" s="49"/>
+      <c r="M46" s="48"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -6536,7 +6536,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="48"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -6573,7 +6573,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="55"/>
+      <c r="M48" s="51"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -6604,7 +6604,7 @@
       <c r="L49" s="1">
         <v>33</v>
       </c>
-      <c r="M49" s="49"/>
+      <c r="M49" s="48"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="48"/>
+      <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -6652,7 +6652,7 @@
       <c r="L51" s="7">
         <v>29</v>
       </c>
-      <c r="M51" s="55"/>
+      <c r="M51" s="51"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -6675,7 +6675,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="55"/>
+      <c r="M52" s="51"/>
     </row>
     <row r="53" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -6702,7 +6702,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="49"/>
+      <c r="M53" s="48"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -6717,7 +6717,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="48"/>
+      <c r="M54" s="47"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="55"/>
+      <c r="M55" s="51"/>
     </row>
     <row r="56" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
@@ -6785,7 +6785,7 @@
       <c r="L56" s="1">
         <v>33</v>
       </c>
-      <c r="M56" s="49"/>
+      <c r="M56" s="48"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="48"/>
+      <c r="M57" s="47"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6841,7 +6841,7 @@
       <c r="L58" s="7">
         <v>31</v>
       </c>
-      <c r="M58" s="55"/>
+      <c r="M58" s="51"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
@@ -6858,13 +6858,13 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="49"/>
+      <c r="M59" s="48"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="45" t="s">
         <v>177</v>
       </c>
       <c r="E60" s="7"/>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="48"/>
+      <c r="M60" s="47"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -6889,7 +6889,7 @@
       <c r="C61" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="54"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="1" t="s">
         <v>139</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="L61" s="7">
         <v>31</v>
       </c>
-      <c r="M61" s="55"/>
+      <c r="M61" s="51"/>
     </row>
     <row r="62" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
@@ -6941,7 +6941,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="49"/>
+      <c r="M62" s="48"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -6950,29 +6950,29 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="53">
+      <c r="E63" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="45">
         <v>8</v>
       </c>
-      <c r="G63" s="45">
+      <c r="G63" s="49">
         <v>14</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="49">
         <v>24</v>
       </c>
-      <c r="I63" s="45">
+      <c r="I63" s="49">
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="45">
+      <c r="L63" s="49">
         <v>31</v>
       </c>
-      <c r="M63" s="48"/>
+      <c r="M63" s="47"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -6987,19 +6987,19 @@
       <c r="D64" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="47"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
       <c r="J64" s="1" t="s">
         <v>205</v>
       </c>
       <c r="K64" s="1">
         <v>7</v>
       </c>
-      <c r="L64" s="47"/>
-      <c r="M64" s="49"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="48"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -7014,7 +7014,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="48"/>
+      <c r="M65" s="47"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="55"/>
+      <c r="M66" s="51"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
@@ -7072,7 +7072,7 @@
       <c r="L67" s="7">
         <v>29</v>
       </c>
-      <c r="M67" s="55"/>
+      <c r="M67" s="51"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
@@ -7087,7 +7087,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="49"/>
+      <c r="M68" s="48"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="48"/>
+      <c r="M69" s="47"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -7145,7 +7145,7 @@
       <c r="L70" s="1">
         <v>31</v>
       </c>
-      <c r="M70" s="49"/>
+      <c r="M70" s="48"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="48"/>
+      <c r="M71" s="47"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -7201,7 +7201,7 @@
       <c r="L72" s="7">
         <v>31</v>
       </c>
-      <c r="M72" s="55"/>
+      <c r="M72" s="51"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -7218,7 +7218,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
-      <c r="M73" s="49"/>
+      <c r="M73" s="48"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
@@ -7243,7 +7243,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="48"/>
+      <c r="M74" s="47"/>
     </row>
     <row r="75" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -7282,10 +7282,10 @@
       <c r="L75" s="1">
         <v>23</v>
       </c>
-      <c r="M75" s="49"/>
+      <c r="M75" s="48"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45">
+      <c r="A76" s="49">
         <v>30</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -7311,10 +7311,10 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="48"/>
+      <c r="M76" s="47"/>
     </row>
     <row r="77" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="47"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="6" t="s">
         <v>219</v>
       </c>
@@ -7348,13 +7348,13 @@
       <c r="L77" s="1">
         <v>32</v>
       </c>
-      <c r="M77" s="49"/>
+      <c r="M77" s="48"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="53">
+      <c r="A78" s="45">
         <v>31</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="45" t="s">
         <v>222</v>
       </c>
       <c r="C78" s="5"/>
@@ -7364,16 +7364,16 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="45" t="s">
+      <c r="J78" s="49" t="s">
         <v>223</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="48"/>
+      <c r="M78" s="47"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="1" t="s">
         <v>131</v>
       </c>
@@ -7395,17 +7395,17 @@
       <c r="I79" s="1">
         <v>18</v>
       </c>
-      <c r="J79" s="47"/>
+      <c r="J79" s="50"/>
       <c r="K79" s="1">
         <v>7</v>
       </c>
       <c r="L79" s="1">
         <v>25</v>
       </c>
-      <c r="M79" s="49"/>
+      <c r="M79" s="48"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="53">
+      <c r="A80" s="45">
         <v>32</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -7413,30 +7413,30 @@
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G80" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" s="45">
+      <c r="E80" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="49">
         <v>24</v>
       </c>
-      <c r="I80" s="45">
+      <c r="I80" s="49">
         <v>24</v>
       </c>
-      <c r="J80" s="45" t="s">
+      <c r="J80" s="49" t="s">
         <v>226</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="48"/>
+      <c r="M80" s="47"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="54"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="6" t="s">
         <v>224</v>
       </c>
@@ -7446,19 +7446,19 @@
       <c r="D81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
       <c r="K81" s="1">
         <v>10</v>
       </c>
       <c r="L81" s="1">
         <v>34</v>
       </c>
-      <c r="M81" s="49"/>
+      <c r="M81" s="48"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -7473,7 +7473,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="45"/>
+      <c r="M82" s="49"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -7512,7 +7512,7 @@
       <c r="L83" s="7">
         <v>24</v>
       </c>
-      <c r="M83" s="46"/>
+      <c r="M83" s="52"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
@@ -7529,32 +7529,32 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
-      <c r="M84" s="47"/>
+      <c r="M84" s="50"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="49">
         <v>12</v>
       </c>
-      <c r="F85" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G85" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="45">
+      <c r="F85" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="49">
         <v>12</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="48"/>
+      <c r="M85" s="47"/>
     </row>
     <row r="86" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
@@ -7566,11 +7566,11 @@
       <c r="C86" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="54"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
       <c r="I86" s="7">
         <v>24</v>
       </c>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="55"/>
+      <c r="M86" s="51"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
@@ -7587,7 +7587,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="12"/>
-      <c r="D87" s="53" t="s">
+      <c r="D87" s="45" t="s">
         <v>198</v>
       </c>
       <c r="E87" s="7"/>
@@ -7602,13 +7602,13 @@
       <c r="L87" s="7">
         <v>30</v>
       </c>
-      <c r="M87" s="55"/>
+      <c r="M87" s="51"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="54"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="1" t="s">
         <v>139</v>
       </c>
@@ -7625,10 +7625,10 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
-      <c r="M88" s="49"/>
+      <c r="M88" s="48"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="53">
+      <c r="A89" s="45">
         <v>35</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -7640,16 +7640,16 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="53">
+      <c r="I89" s="45">
         <v>24</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="48"/>
+      <c r="M89" s="47"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="6" t="s">
         <v>233</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="H90" s="1">
         <v>24</v>
       </c>
-      <c r="I90" s="54"/>
+      <c r="I90" s="46"/>
       <c r="J90" s="1" t="s">
         <v>234</v>
       </c>
@@ -7681,119 +7681,119 @@
       <c r="L90" s="1">
         <v>25</v>
       </c>
-      <c r="M90" s="49"/>
+      <c r="M90" s="48"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="53">
+      <c r="A91" s="45">
         <v>36</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="53" t="s">
+      <c r="D91" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="E91" s="45">
+      <c r="E91" s="49">
         <v>12</v>
       </c>
-      <c r="F91" s="45">
+      <c r="F91" s="49">
         <v>12</v>
       </c>
-      <c r="G91" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H91" s="45">
+      <c r="G91" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91" s="49">
         <v>24</v>
       </c>
-      <c r="I91" s="45">
+      <c r="I91" s="49">
         <v>24</v>
       </c>
-      <c r="J91" s="45" t="s">
+      <c r="J91" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="K91" s="45">
-        <v>1</v>
-      </c>
-      <c r="L91" s="45">
+      <c r="K91" s="49">
+        <v>1</v>
+      </c>
+      <c r="L91" s="49">
         <v>25</v>
       </c>
-      <c r="M91" s="48"/>
+      <c r="M91" s="47"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="54"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D92" s="54"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="49"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="50"/>
+      <c r="M92" s="48"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="53">
+      <c r="A93" s="45">
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="53" t="s">
+      <c r="D93" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="E93" s="45">
+      <c r="E93" s="49">
         <v>21</v>
       </c>
-      <c r="F93" s="45">
+      <c r="F93" s="49">
         <v>3</v>
       </c>
-      <c r="G93" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H93" s="45">
+      <c r="G93" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="49">
         <v>24</v>
       </c>
-      <c r="I93" s="45">
+      <c r="I93" s="49">
         <v>24</v>
       </c>
-      <c r="J93" s="45" t="s">
+      <c r="J93" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="K93" s="45">
-        <v>1</v>
-      </c>
-      <c r="L93" s="45">
+      <c r="K93" s="49">
+        <v>1</v>
+      </c>
+      <c r="L93" s="49">
         <v>25</v>
       </c>
-      <c r="M93" s="48"/>
+      <c r="M93" s="47"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="54"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="49"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="48"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -7818,7 +7818,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="45"/>
+      <c r="M95" s="49"/>
     </row>
     <row r="96" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
@@ -7857,12 +7857,12 @@
       <c r="L96" s="1">
         <v>30</v>
       </c>
-      <c r="M96" s="47"/>
+      <c r="M96" s="50"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="53"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="45"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -7872,12 +7872,12 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="48"/>
+      <c r="M97" s="47"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="54"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="46"/>
       <c r="D98" s="6" t="s">
         <v>144</v>
       </c>
@@ -7905,24 +7905,24 @@
       <c r="L98" s="1">
         <v>25</v>
       </c>
-      <c r="M98" s="49"/>
+      <c r="M98" s="48"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="48"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="45" t="s">
+      <c r="J99" s="49" t="s">
         <v>240</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="48"/>
+      <c r="M99" s="47"/>
     </row>
     <row r="100" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
@@ -7931,7 +7931,7 @@
       <c r="B100" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="49"/>
+      <c r="C100" s="48"/>
       <c r="D100" s="6" t="s">
         <v>239</v>
       </c>
@@ -7950,54 +7950,54 @@
       <c r="I100" s="1">
         <v>24</v>
       </c>
-      <c r="J100" s="47"/>
+      <c r="J100" s="50"/>
       <c r="K100" s="1">
         <v>6</v>
       </c>
       <c r="L100" s="1">
         <v>30</v>
       </c>
-      <c r="M100" s="49"/>
+      <c r="M100" s="48"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="53" t="s">
+      <c r="C101" s="47"/>
+      <c r="D101" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="E101" s="45">
+      <c r="E101" s="49">
         <v>9</v>
       </c>
-      <c r="F101" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G101" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H101" s="45">
+      <c r="F101" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G101" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="49">
         <v>9</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="45"/>
+      <c r="K101" s="49"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="48"/>
+      <c r="M101" s="47"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="46"/>
+      <c r="K102" s="52"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="55"/>
+      <c r="M102" s="51"/>
     </row>
     <row r="103" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
@@ -8006,7 +8006,7 @@
       <c r="B103" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="55"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="6" t="s">
         <v>243</v>
       </c>
@@ -8028,16 +8028,16 @@
       <c r="J103" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K103" s="46"/>
+      <c r="K103" s="52"/>
       <c r="L103" s="7">
         <v>26</v>
       </c>
-      <c r="M103" s="55"/>
+      <c r="M103" s="51"/>
     </row>
     <row r="104" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
-      <c r="C104" s="49"/>
+      <c r="C104" s="48"/>
       <c r="D104" s="6" t="s">
         <v>218</v>
       </c>
@@ -8055,14 +8055,14 @@
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="47"/>
+      <c r="K104" s="50"/>
       <c r="L104" s="10"/>
-      <c r="M104" s="49"/>
+      <c r="M104" s="48"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="53"/>
+      <c r="C105" s="45"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -8072,7 +8072,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="48"/>
+      <c r="M105" s="47"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
@@ -8081,7 +8081,7 @@
       <c r="B106" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="56"/>
+      <c r="C106" s="53"/>
       <c r="D106" s="6" t="s">
         <v>208</v>
       </c>
@@ -8109,12 +8109,12 @@
       <c r="L106" s="7">
         <v>25</v>
       </c>
-      <c r="M106" s="55"/>
+      <c r="M106" s="51"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="54"/>
+      <c r="C107" s="46"/>
       <c r="D107" s="6" t="s">
         <v>147</v>
       </c>
@@ -8134,24 +8134,24 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="49"/>
+      <c r="M107" s="48"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="48"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="45" t="s">
+      <c r="J108" s="49" t="s">
         <v>234</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="48"/>
+      <c r="M108" s="47"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
@@ -8160,7 +8160,7 @@
       <c r="B109" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="49"/>
+      <c r="C109" s="48"/>
       <c r="D109" s="6" t="s">
         <v>174</v>
       </c>
@@ -8179,14 +8179,14 @@
       <c r="I109" s="1">
         <v>6</v>
       </c>
-      <c r="J109" s="47"/>
+      <c r="J109" s="50"/>
       <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="L109" s="1">
         <v>7</v>
       </c>
-      <c r="M109" s="49"/>
+      <c r="M109" s="48"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
@@ -8424,7 +8424,7 @@
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="48"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="6" t="s">
         <v>214</v>
       </c>
@@ -8442,9 +8442,9 @@
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="45"/>
+      <c r="K117" s="49"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="48"/>
+      <c r="M117" s="47"/>
     </row>
     <row r="118" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
@@ -8453,7 +8453,7 @@
       <c r="B118" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="49"/>
+      <c r="C118" s="48"/>
       <c r="D118" s="6" t="s">
         <v>247</v>
       </c>
@@ -8475,11 +8475,11 @@
       <c r="J118" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K118" s="47"/>
+      <c r="K118" s="50"/>
       <c r="L118" s="1">
         <v>25</v>
       </c>
-      <c r="M118" s="49"/>
+      <c r="M118" s="48"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
@@ -8558,7 +8558,7 @@
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="48"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8568,7 +8568,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="48"/>
+      <c r="M121" s="47"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
@@ -8577,7 +8577,7 @@
       <c r="B122" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C122" s="55"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="5" t="s">
         <v>211</v>
       </c>
@@ -8605,14 +8605,14 @@
       <c r="L122" s="7">
         <v>11</v>
       </c>
-      <c r="M122" s="55"/>
+      <c r="M122" s="51"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C123" s="49"/>
+      <c r="C123" s="48"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -8622,7 +8622,7 @@
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
-      <c r="M123" s="49"/>
+      <c r="M123" s="48"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
@@ -8736,13 +8736,13 @@
       <c r="M126" s="11"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="53">
+      <c r="A127" s="45">
         <v>58</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="48"/>
+      <c r="C127" s="47"/>
       <c r="D127" s="6" t="s">
         <v>231</v>
       </c>
@@ -8762,12 +8762,12 @@
       <c r="J127" s="7"/>
       <c r="K127" s="18"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="48"/>
+      <c r="M127" s="47"/>
     </row>
     <row r="128" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="54"/>
+      <c r="A128" s="46"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="49"/>
+      <c r="C128" s="48"/>
       <c r="D128" s="6" t="s">
         <v>251</v>
       </c>
@@ -8795,16 +8795,16 @@
       <c r="L128" s="1">
         <v>17</v>
       </c>
-      <c r="M128" s="49"/>
+      <c r="M128" s="48"/>
     </row>
     <row r="129" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="53">
+      <c r="A129" s="45">
         <v>59</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C129" s="48"/>
+      <c r="C129" s="47"/>
       <c r="D129" s="6" t="s">
         <v>198</v>
       </c>
@@ -8824,12 +8824,12 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="48"/>
+      <c r="M129" s="47"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="54"/>
+      <c r="A130" s="46"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="49"/>
+      <c r="C130" s="48"/>
       <c r="D130" s="6" t="s">
         <v>252</v>
       </c>
@@ -8857,12 +8857,12 @@
       <c r="L130" s="1">
         <v>12</v>
       </c>
-      <c r="M130" s="49"/>
+      <c r="M130" s="48"/>
     </row>
     <row r="131" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="48"/>
+      <c r="C131" s="47"/>
       <c r="D131" s="6" t="s">
         <v>253</v>
       </c>
@@ -8882,7 +8882,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="48"/>
+      <c r="M131" s="47"/>
     </row>
     <row r="132" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
@@ -8891,7 +8891,7 @@
       <c r="B132" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="49"/>
+      <c r="C132" s="48"/>
       <c r="D132" s="6" t="s">
         <v>218</v>
       </c>
@@ -8919,7 +8919,7 @@
       <c r="L132" s="1">
         <v>15</v>
       </c>
-      <c r="M132" s="49"/>
+      <c r="M132" s="48"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
@@ -8996,13 +8996,13 @@
       <c r="M134" s="11"/>
     </row>
     <row r="135" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="53">
+      <c r="A135" s="45">
         <v>63</v>
       </c>
-      <c r="B135" s="53" t="s">
+      <c r="B135" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C135" s="48"/>
+      <c r="C135" s="47"/>
       <c r="D135" s="6" t="s">
         <v>254</v>
       </c>
@@ -9019,17 +9019,17 @@
         <v>10</v>
       </c>
       <c r="I135" s="7"/>
-      <c r="J135" s="45" t="s">
+      <c r="J135" s="49" t="s">
         <v>255</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="48"/>
+      <c r="M135" s="47"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="54"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="49"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="48"/>
       <c r="D136" s="6" t="s">
         <v>256</v>
       </c>
@@ -9048,14 +9048,14 @@
       <c r="I136" s="1">
         <v>12</v>
       </c>
-      <c r="J136" s="47"/>
+      <c r="J136" s="50"/>
       <c r="K136" s="1">
         <v>1</v>
       </c>
       <c r="L136" s="1">
         <v>13</v>
       </c>
-      <c r="M136" s="49"/>
+      <c r="M136" s="48"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
@@ -9097,7 +9097,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="48"/>
+      <c r="C138" s="47"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -9107,7 +9107,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="48"/>
+      <c r="M138" s="47"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
@@ -9116,7 +9116,7 @@
       <c r="B139" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C139" s="49"/>
+      <c r="C139" s="48"/>
       <c r="D139" s="6" t="s">
         <v>154</v>
       </c>
@@ -9144,205 +9144,10 @@
       <c r="L139" s="1">
         <v>9</v>
       </c>
-      <c r="M139" s="49"/>
+      <c r="M139" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="M138:M139"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="M121:M123"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="M85:M88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:K3"/>
@@ -9366,6 +9171,201 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="M85:M88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="M121:M123"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="M138:M139"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="M131:M132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
